--- a/Management/Production_Progress_Oct_2017.xlsx
+++ b/Management/Production_Progress_Oct_2017.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="12315"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Production Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint #1 Chart" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="273">
   <si>
     <t>Production Name:</t>
   </si>
@@ -562,19 +562,298 @@
   </si>
   <si>
     <t>Be sure variables is adjustable in editor level</t>
+  </si>
+  <si>
+    <t>Sprint #1 Backlog</t>
+  </si>
+  <si>
+    <t>General Info</t>
+  </si>
+  <si>
+    <t>Sprint No.:</t>
+  </si>
+  <si>
+    <t>Demo On:</t>
+  </si>
+  <si>
+    <t>Category Legend</t>
+  </si>
+  <si>
+    <t>BE:</t>
+  </si>
+  <si>
+    <t>FE:</t>
+  </si>
+  <si>
+    <t>QA:</t>
+  </si>
+  <si>
+    <t>Status Legend</t>
+  </si>
+  <si>
+    <t>NST</t>
+  </si>
+  <si>
+    <t>NST:</t>
+  </si>
+  <si>
+    <t>INW:</t>
+  </si>
+  <si>
+    <t>TST:</t>
+  </si>
+  <si>
+    <t>MRG:</t>
+  </si>
+  <si>
+    <t>CMP:</t>
+  </si>
+  <si>
+    <t>Type Legend</t>
+  </si>
+  <si>
+    <t>DB:</t>
+  </si>
+  <si>
+    <t>ED:</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>In-Work</t>
+  </si>
+  <si>
+    <t>Merging</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>PR:</t>
+  </si>
+  <si>
+    <t>TS:</t>
+  </si>
+  <si>
+    <t>2017OCT06</t>
+  </si>
+  <si>
+    <t>2017OCT12</t>
+  </si>
+  <si>
+    <t>2017OCT13</t>
+  </si>
+  <si>
+    <t>Member Info</t>
+  </si>
+  <si>
+    <t>Date Table</t>
+  </si>
+  <si>
+    <t>Day #</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Target Tasks</t>
+  </si>
+  <si>
+    <t>Compl. Tasks</t>
+  </si>
+  <si>
+    <t>Tasks To Go</t>
+  </si>
+  <si>
+    <t>Target To Go</t>
+  </si>
+  <si>
+    <t>2017OCT07</t>
+  </si>
+  <si>
+    <t>2017OCT08</t>
+  </si>
+  <si>
+    <t>2017OCT09</t>
+  </si>
+  <si>
+    <t>2017OCT10</t>
+  </si>
+  <si>
+    <t>2017OCT11</t>
+  </si>
+  <si>
+    <t>Task Board</t>
+  </si>
+  <si>
+    <t>Task ID</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Assigned To</t>
+  </si>
+  <si>
+    <t>INW</t>
+  </si>
+  <si>
+    <t>TST</t>
+  </si>
+  <si>
+    <t>MRG</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>On Day</t>
+  </si>
+  <si>
+    <t>Descriptions</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>DTE-FE-001</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Create prototype; add out-of-world boundary box</t>
+  </si>
+  <si>
+    <t>Create prototype; platform with collision box</t>
+  </si>
+  <si>
+    <t>Create prototype; ground with collision box</t>
+  </si>
+  <si>
+    <t>DTE-FE-002</t>
+  </si>
+  <si>
+    <t>DTE-FE-003</t>
+  </si>
+  <si>
+    <t>DTE-FE-004</t>
+  </si>
+  <si>
+    <t>Create parent prefab which will act as multipurpose prop</t>
+  </si>
+  <si>
+    <t>DTE-FE-005</t>
+  </si>
+  <si>
+    <t>Create simple parent guage; must be animated</t>
+  </si>
+  <si>
+    <t>Create testable HP gauge; must be inherited from parent gague</t>
+  </si>
+  <si>
+    <t>DTE-FE-006</t>
+  </si>
+  <si>
+    <t>DTE-BE-001</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Write script for moving a character left and right</t>
+  </si>
+  <si>
+    <t>DTE-BE-002</t>
+  </si>
+  <si>
+    <t>Write script for jumping a character (force-based version)</t>
+  </si>
+  <si>
+    <t>Write script for jumping a character (translate-based version)</t>
+  </si>
+  <si>
+    <t>DTE-BE-003</t>
+  </si>
+  <si>
+    <t>Apply test sprites to character moving left and right</t>
+  </si>
+  <si>
+    <t>Apply test sprites to character in idle</t>
+  </si>
+  <si>
+    <t>Apply test sprites to character in jumping</t>
+  </si>
+  <si>
+    <t>DTE-BE-004</t>
+  </si>
+  <si>
+    <t>DTE-BE-005</t>
+  </si>
+  <si>
+    <t>DTE-BE-006</t>
+  </si>
+  <si>
+    <t>DTE-QA-001</t>
+  </si>
+  <si>
+    <t>Create script that can be applied to various game objects for sending data</t>
+  </si>
+  <si>
+    <t>DTE-QA-002</t>
+  </si>
+  <si>
+    <t>Create GUI that can display data coming from various game objects</t>
+  </si>
+  <si>
+    <t>DTE-QA-003</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Debug character basic movement (Left/right)</t>
+  </si>
+  <si>
+    <t>Test character basic movement (Left/right)</t>
+  </si>
+  <si>
+    <t>DTE-QA-004</t>
+  </si>
+  <si>
+    <t>DTE-QA-005</t>
+  </si>
+  <si>
+    <t>Test prototype field interaction with character</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -655,7 +934,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1095,324 +1374,494 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1650,11 +2099,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="623574528"/>
-        <c:axId val="618404032"/>
+        <c:axId val="636466176"/>
+        <c:axId val="163501696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="623574528"/>
+        <c:axId val="636466176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1663,7 +2112,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="618404032"/>
+        <c:crossAx val="163501696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1671,7 +2120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="618404032"/>
+        <c:axId val="163501696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1687,13 +2136,249 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="623574528"/>
+        <c:crossAx val="636466176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Target Task Completion</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #1 Chart'!$E$25:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual Task Completion</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #1 Chart'!$G$25:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Assigned Tasks</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #1 Chart'!$D$25:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Completed Tasks</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #1 Chart'!$F$25:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="139667968"/>
+        <c:axId val="58027968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="139667968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58027968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="58027968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="139667968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -1723,6 +2408,41 @@
       <xdr:colOff>800100</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2033,8 +2753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S43" sqref="S43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2054,79 +2774,79 @@
   <sheetData>
     <row r="1" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="94"/>
     </row>
     <row r="3" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="100" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="83" t="s">
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="73"/>
     </row>
     <row r="4" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="102" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="61"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="70"/>
     </row>
     <row r="5" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="104" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="105"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60"/>
       <c r="I5" s="16" t="s">
         <v>69</v>
       </c>
@@ -2150,23 +2870,23 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="58" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
       <c r="O6" s="33"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
@@ -2267,14 +2987,14 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="19"/>
-      <c r="I9" s="80" t="s">
+      <c r="I9" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="82"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="67"/>
       <c r="O9" s="33"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
@@ -2298,13 +3018,13 @@
       <c r="I10" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="88" t="s">
+      <c r="J10" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="82"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="67"/>
       <c r="O10" s="33"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
@@ -2326,13 +3046,13 @@
       <c r="I11" s="18">
         <v>1</v>
       </c>
-      <c r="J11" s="41" t="s">
+      <c r="J11" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="42"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="81"/>
       <c r="O11" s="33"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
@@ -2353,14 +3073,14 @@
         <v>40</v>
       </c>
       <c r="H12" s="19"/>
-      <c r="I12" s="54" t="s">
+      <c r="I12" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
       <c r="O12" s="33"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
@@ -2501,58 +3221,58 @@
       <c r="H16" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="54" t="s">
+      <c r="I16" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
       <c r="O16" s="33"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="90"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
       <c r="I17" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="55" t="s">
+      <c r="J17" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
       <c r="O17" s="33"/>
     </row>
     <row r="18" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="97"/>
       <c r="I18" s="18">
         <v>1</v>
       </c>
-      <c r="J18" s="53" t="s">
+      <c r="J18" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
       <c r="O18" s="33"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
@@ -2580,13 +3300,13 @@
       <c r="I19" s="18">
         <v>2</v>
       </c>
-      <c r="J19" s="53" t="s">
+      <c r="J19" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
       <c r="O19" s="33"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
@@ -2612,14 +3332,14 @@
         <f>SUM(E20:G20)</f>
         <v>1</v>
       </c>
-      <c r="I20" s="56" t="s">
+      <c r="I20" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
       <c r="O20" s="33"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
@@ -2711,13 +3431,13 @@
       </c>
     </row>
     <row r="23" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="77"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="79"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="102"/>
       <c r="I23" s="18">
         <v>3</v>
       </c>
@@ -2741,31 +3461,31 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="56" t="s">
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
       <c r="O24" s="33"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="106" t="s">
+      <c r="B25" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="15">
         <f>SUM(E28,E31,E34,E37)</f>
         <v>31</v>
@@ -2783,73 +3503,73 @@
       <c r="I25" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="57" t="s">
+      <c r="J25" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
       <c r="O25" s="33"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="93"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="48"/>
       <c r="I26" s="18">
         <v>1</v>
       </c>
-      <c r="J26" s="53" t="s">
+      <c r="J26" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="84"/>
       <c r="O26" s="33"/>
     </row>
     <row r="27" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="49" t="s">
+      <c r="D27" s="42"/>
+      <c r="E27" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="F27" s="50"/>
-      <c r="G27" s="49" t="s">
+      <c r="F27" s="62"/>
+      <c r="G27" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="H27" s="87"/>
+      <c r="H27" s="77"/>
       <c r="I27" s="21">
         <v>2</v>
       </c>
-      <c r="J27" s="51" t="s">
+      <c r="J27" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
       <c r="O27" s="37"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="44"/>
+      <c r="D28" s="42"/>
       <c r="E28" s="14">
         <v>8</v>
       </c>
@@ -2863,26 +3583,26 @@
       <c r="H28" s="12">
         <v>31</v>
       </c>
-      <c r="I28" s="59" t="s">
+      <c r="I28" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="61"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="70"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
       <c r="I29" s="16" t="s">
         <v>69</v>
       </c>
@@ -2909,36 +3629,36 @@
       <c r="B30" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="49" t="s">
+      <c r="D30" s="81"/>
+      <c r="E30" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="F30" s="50"/>
-      <c r="G30" s="49" t="s">
+      <c r="F30" s="62"/>
+      <c r="G30" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="H30" s="86"/>
-      <c r="I30" s="58" t="s">
+      <c r="H30" s="76"/>
+      <c r="I30" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
       <c r="O30" s="33"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="D31" s="42"/>
+      <c r="D31" s="81"/>
       <c r="E31" s="14">
         <v>7</v>
       </c>
@@ -2975,15 +3695,15 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
       <c r="I32" s="18">
         <v>2</v>
       </c>
@@ -3010,36 +3730,36 @@
       <c r="B33" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="49" t="s">
+      <c r="D33" s="42"/>
+      <c r="E33" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="F33" s="50"/>
-      <c r="G33" s="49" t="s">
+      <c r="F33" s="62"/>
+      <c r="G33" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="H33" s="86"/>
-      <c r="I33" s="58" t="s">
+      <c r="H33" s="76"/>
+      <c r="I33" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
       <c r="O33" s="33"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="D34" s="44"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="14">
         <v>4</v>
       </c>
@@ -3056,71 +3776,71 @@
       <c r="I34" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J34" s="52" t="s">
+      <c r="J34" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
       <c r="O34" s="33"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
       <c r="I35" s="18">
         <v>1</v>
       </c>
-      <c r="J35" s="53" t="s">
+      <c r="J35" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="84"/>
       <c r="O35" s="33"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="D36" s="44"/>
-      <c r="E36" s="49" t="s">
+      <c r="D36" s="42"/>
+      <c r="E36" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="50"/>
-      <c r="G36" s="49" t="s">
+      <c r="F36" s="62"/>
+      <c r="G36" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="H36" s="86"/>
-      <c r="I36" s="54" t="s">
+      <c r="H36" s="76"/>
+      <c r="I36" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
+      <c r="J36" s="83"/>
+      <c r="K36" s="83"/>
+      <c r="L36" s="83"/>
+      <c r="M36" s="83"/>
+      <c r="N36" s="83"/>
       <c r="O36" s="33"/>
     </row>
     <row r="37" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="D37" s="46"/>
+      <c r="D37" s="105"/>
       <c r="E37" s="32">
         <v>12</v>
       </c>
@@ -3157,15 +3877,15 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="67"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="88"/>
       <c r="I38" s="18">
         <v>2</v>
       </c>
@@ -3189,82 +3909,82 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="54" t="s">
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="55"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="83"/>
+      <c r="M39" s="83"/>
+      <c r="N39" s="83"/>
       <c r="O39" s="33"/>
     </row>
     <row r="40" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="68" t="s">
+      <c r="B40" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="70"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="91"/>
       <c r="I40" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J40" s="55" t="s">
+      <c r="J40" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="83"/>
+      <c r="N40" s="83"/>
       <c r="O40" s="33"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I41" s="18">
         <v>1</v>
       </c>
-      <c r="J41" s="53" t="s">
+      <c r="J41" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="84"/>
+      <c r="M41" s="84"/>
+      <c r="N41" s="84"/>
       <c r="O41" s="33"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I42" s="18">
         <v>2</v>
       </c>
-      <c r="J42" s="53" t="s">
+      <c r="J42" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="84"/>
+      <c r="M42" s="84"/>
+      <c r="N42" s="84"/>
       <c r="O42" s="33"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I43" s="56" t="s">
+      <c r="I43" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="57"/>
-      <c r="N43" s="57"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="99"/>
+      <c r="N43" s="99"/>
       <c r="O43" s="33"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
@@ -3337,65 +4057,65 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I47" s="56" t="s">
+      <c r="I47" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="J47" s="57"/>
-      <c r="K47" s="57"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="57"/>
-      <c r="N47" s="57"/>
+      <c r="J47" s="99"/>
+      <c r="K47" s="99"/>
+      <c r="L47" s="99"/>
+      <c r="M47" s="99"/>
+      <c r="N47" s="99"/>
       <c r="O47" s="33"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I48" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J48" s="57" t="s">
+      <c r="J48" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="K48" s="57"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="57"/>
-      <c r="N48" s="57"/>
+      <c r="K48" s="99"/>
+      <c r="L48" s="99"/>
+      <c r="M48" s="99"/>
+      <c r="N48" s="99"/>
       <c r="O48" s="33"/>
     </row>
     <row r="49" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I49" s="18">
         <v>1</v>
       </c>
-      <c r="J49" s="53" t="s">
+      <c r="J49" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="84"/>
+      <c r="M49" s="84"/>
+      <c r="N49" s="84"/>
       <c r="O49" s="33"/>
     </row>
     <row r="50" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I50" s="21">
         <v>2</v>
       </c>
-      <c r="J50" s="51" t="s">
+      <c r="J50" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="K50" s="51"/>
-      <c r="L50" s="51"/>
-      <c r="M50" s="51"/>
-      <c r="N50" s="51"/>
+      <c r="K50" s="103"/>
+      <c r="L50" s="103"/>
+      <c r="M50" s="103"/>
+      <c r="N50" s="103"/>
       <c r="O50" s="37"/>
     </row>
     <row r="51" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I51" s="59" t="s">
+      <c r="I51" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="60"/>
-      <c r="M51" s="60"/>
-      <c r="N51" s="60"/>
-      <c r="O51" s="61"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="70"/>
     </row>
     <row r="52" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I52" s="16" t="s">
@@ -3421,14 +4141,14 @@
       </c>
     </row>
     <row r="53" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I53" s="58" t="s">
+      <c r="I53" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52"/>
-      <c r="N53" s="52"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="75"/>
+      <c r="L53" s="75"/>
+      <c r="M53" s="75"/>
+      <c r="N53" s="75"/>
       <c r="O53" s="40"/>
     </row>
     <row r="54" spans="9:15" x14ac:dyDescent="0.2">
@@ -3455,51 +4175,51 @@
       </c>
     </row>
     <row r="55" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I55" s="58" t="s">
+      <c r="I55" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="52"/>
-      <c r="M55" s="52"/>
-      <c r="N55" s="52"/>
+      <c r="J55" s="75"/>
+      <c r="K55" s="75"/>
+      <c r="L55" s="75"/>
+      <c r="M55" s="75"/>
+      <c r="N55" s="75"/>
       <c r="O55" s="33"/>
     </row>
     <row r="56" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I56" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J56" s="52" t="s">
+      <c r="J56" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="K56" s="52"/>
-      <c r="L56" s="52"/>
-      <c r="M56" s="52"/>
-      <c r="N56" s="52"/>
+      <c r="K56" s="75"/>
+      <c r="L56" s="75"/>
+      <c r="M56" s="75"/>
+      <c r="N56" s="75"/>
       <c r="O56" s="33"/>
     </row>
     <row r="57" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I57" s="18">
         <v>1</v>
       </c>
-      <c r="J57" s="53" t="s">
+      <c r="J57" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="K57" s="53"/>
-      <c r="L57" s="53"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="53"/>
+      <c r="K57" s="84"/>
+      <c r="L57" s="84"/>
+      <c r="M57" s="84"/>
+      <c r="N57" s="84"/>
       <c r="O57" s="33"/>
     </row>
     <row r="58" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I58" s="54" t="s">
+      <c r="I58" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="J58" s="55"/>
-      <c r="K58" s="55"/>
-      <c r="L58" s="55"/>
-      <c r="M58" s="55"/>
-      <c r="N58" s="55"/>
+      <c r="J58" s="83"/>
+      <c r="K58" s="83"/>
+      <c r="L58" s="83"/>
+      <c r="M58" s="83"/>
+      <c r="N58" s="83"/>
       <c r="O58" s="33"/>
     </row>
     <row r="59" spans="9:15" x14ac:dyDescent="0.2">
@@ -3526,51 +4246,51 @@
       </c>
     </row>
     <row r="60" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I60" s="54" t="s">
+      <c r="I60" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="J60" s="55"/>
-      <c r="K60" s="55"/>
-      <c r="L60" s="55"/>
-      <c r="M60" s="55"/>
-      <c r="N60" s="55"/>
+      <c r="J60" s="83"/>
+      <c r="K60" s="83"/>
+      <c r="L60" s="83"/>
+      <c r="M60" s="83"/>
+      <c r="N60" s="83"/>
       <c r="O60" s="33"/>
     </row>
     <row r="61" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I61" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J61" s="55" t="s">
+      <c r="J61" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="K61" s="55"/>
-      <c r="L61" s="55"/>
-      <c r="M61" s="55"/>
-      <c r="N61" s="55"/>
+      <c r="K61" s="83"/>
+      <c r="L61" s="83"/>
+      <c r="M61" s="83"/>
+      <c r="N61" s="83"/>
       <c r="O61" s="33"/>
     </row>
     <row r="62" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I62" s="18">
         <v>1</v>
       </c>
-      <c r="J62" s="53" t="s">
+      <c r="J62" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="K62" s="53"/>
-      <c r="L62" s="53"/>
-      <c r="M62" s="53"/>
-      <c r="N62" s="53"/>
+      <c r="K62" s="84"/>
+      <c r="L62" s="84"/>
+      <c r="M62" s="84"/>
+      <c r="N62" s="84"/>
       <c r="O62" s="33"/>
     </row>
     <row r="63" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I63" s="56" t="s">
+      <c r="I63" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="J63" s="57"/>
-      <c r="K63" s="57"/>
-      <c r="L63" s="57"/>
-      <c r="M63" s="57"/>
-      <c r="N63" s="57"/>
+      <c r="J63" s="99"/>
+      <c r="K63" s="99"/>
+      <c r="L63" s="99"/>
+      <c r="M63" s="99"/>
+      <c r="N63" s="99"/>
       <c r="O63" s="33"/>
     </row>
     <row r="64" spans="9:15" x14ac:dyDescent="0.2">
@@ -3620,65 +4340,65 @@
       </c>
     </row>
     <row r="66" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I66" s="56" t="s">
+      <c r="I66" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="J66" s="57"/>
-      <c r="K66" s="57"/>
-      <c r="L66" s="57"/>
-      <c r="M66" s="57"/>
-      <c r="N66" s="57"/>
+      <c r="J66" s="99"/>
+      <c r="K66" s="99"/>
+      <c r="L66" s="99"/>
+      <c r="M66" s="99"/>
+      <c r="N66" s="99"/>
       <c r="O66" s="33"/>
     </row>
     <row r="67" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I67" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J67" s="57" t="s">
+      <c r="J67" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="K67" s="57"/>
-      <c r="L67" s="57"/>
-      <c r="M67" s="57"/>
-      <c r="N67" s="57"/>
+      <c r="K67" s="99"/>
+      <c r="L67" s="99"/>
+      <c r="M67" s="99"/>
+      <c r="N67" s="99"/>
       <c r="O67" s="33"/>
     </row>
     <row r="68" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I68" s="18">
         <v>1</v>
       </c>
-      <c r="J68" s="53" t="s">
+      <c r="J68" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="K68" s="53"/>
-      <c r="L68" s="53"/>
-      <c r="M68" s="53"/>
-      <c r="N68" s="53"/>
+      <c r="K68" s="84"/>
+      <c r="L68" s="84"/>
+      <c r="M68" s="84"/>
+      <c r="N68" s="84"/>
       <c r="O68" s="33"/>
     </row>
     <row r="69" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I69" s="21">
         <v>2</v>
       </c>
-      <c r="J69" s="51" t="s">
+      <c r="J69" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="K69" s="51"/>
-      <c r="L69" s="51"/>
-      <c r="M69" s="51"/>
-      <c r="N69" s="51"/>
+      <c r="K69" s="103"/>
+      <c r="L69" s="103"/>
+      <c r="M69" s="103"/>
+      <c r="N69" s="103"/>
       <c r="O69" s="37"/>
     </row>
     <row r="70" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I70" s="59" t="s">
+      <c r="I70" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="J70" s="60"/>
-      <c r="K70" s="60"/>
-      <c r="L70" s="60"/>
-      <c r="M70" s="60"/>
-      <c r="N70" s="60"/>
-      <c r="O70" s="61"/>
+      <c r="J70" s="69"/>
+      <c r="K70" s="69"/>
+      <c r="L70" s="69"/>
+      <c r="M70" s="69"/>
+      <c r="N70" s="69"/>
+      <c r="O70" s="70"/>
     </row>
     <row r="71" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I71" s="16" t="s">
@@ -3704,14 +4424,14 @@
       </c>
     </row>
     <row r="72" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I72" s="58" t="s">
+      <c r="I72" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="J72" s="52"/>
-      <c r="K72" s="52"/>
-      <c r="L72" s="52"/>
-      <c r="M72" s="52"/>
-      <c r="N72" s="52"/>
+      <c r="J72" s="75"/>
+      <c r="K72" s="75"/>
+      <c r="L72" s="75"/>
+      <c r="M72" s="75"/>
+      <c r="N72" s="75"/>
       <c r="O72" s="33"/>
     </row>
     <row r="73" spans="9:15" x14ac:dyDescent="0.2">
@@ -3782,51 +4502,51 @@
       </c>
     </row>
     <row r="76" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I76" s="58" t="s">
+      <c r="I76" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="J76" s="52"/>
-      <c r="K76" s="52"/>
-      <c r="L76" s="52"/>
-      <c r="M76" s="52"/>
-      <c r="N76" s="52"/>
+      <c r="J76" s="75"/>
+      <c r="K76" s="75"/>
+      <c r="L76" s="75"/>
+      <c r="M76" s="75"/>
+      <c r="N76" s="75"/>
       <c r="O76" s="33"/>
     </row>
     <row r="77" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I77" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J77" s="52" t="s">
+      <c r="J77" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="K77" s="52"/>
-      <c r="L77" s="52"/>
-      <c r="M77" s="52"/>
-      <c r="N77" s="52"/>
+      <c r="K77" s="75"/>
+      <c r="L77" s="75"/>
+      <c r="M77" s="75"/>
+      <c r="N77" s="75"/>
       <c r="O77" s="33"/>
     </row>
     <row r="78" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I78" s="18">
         <v>1</v>
       </c>
-      <c r="J78" s="53" t="s">
+      <c r="J78" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="K78" s="53"/>
-      <c r="L78" s="53"/>
-      <c r="M78" s="53"/>
-      <c r="N78" s="53"/>
+      <c r="K78" s="84"/>
+      <c r="L78" s="84"/>
+      <c r="M78" s="84"/>
+      <c r="N78" s="84"/>
       <c r="O78" s="33"/>
     </row>
     <row r="79" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I79" s="54" t="s">
+      <c r="I79" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="J79" s="55"/>
-      <c r="K79" s="55"/>
-      <c r="L79" s="55"/>
-      <c r="M79" s="55"/>
-      <c r="N79" s="55"/>
+      <c r="J79" s="83"/>
+      <c r="K79" s="83"/>
+      <c r="L79" s="83"/>
+      <c r="M79" s="83"/>
+      <c r="N79" s="83"/>
       <c r="O79" s="33"/>
     </row>
     <row r="80" spans="9:15" x14ac:dyDescent="0.2">
@@ -3876,64 +4596,64 @@
       </c>
     </row>
     <row r="82" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I82" s="54" t="s">
+      <c r="I82" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="J82" s="55"/>
-      <c r="K82" s="55"/>
-      <c r="L82" s="55"/>
-      <c r="M82" s="55"/>
-      <c r="N82" s="55"/>
+      <c r="J82" s="83"/>
+      <c r="K82" s="83"/>
+      <c r="L82" s="83"/>
+      <c r="M82" s="83"/>
+      <c r="N82" s="83"/>
       <c r="O82" s="33"/>
     </row>
     <row r="83" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I83" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J83" s="55" t="s">
+      <c r="J83" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="K83" s="55"/>
-      <c r="L83" s="55"/>
-      <c r="M83" s="55"/>
-      <c r="N83" s="55"/>
+      <c r="K83" s="83"/>
+      <c r="L83" s="83"/>
+      <c r="M83" s="83"/>
+      <c r="N83" s="83"/>
       <c r="O83" s="33"/>
     </row>
     <row r="84" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I84" s="18">
         <v>1</v>
       </c>
-      <c r="J84" s="53" t="s">
+      <c r="J84" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="K84" s="53"/>
-      <c r="L84" s="53"/>
-      <c r="M84" s="53"/>
-      <c r="N84" s="53"/>
+      <c r="K84" s="84"/>
+      <c r="L84" s="84"/>
+      <c r="M84" s="84"/>
+      <c r="N84" s="84"/>
       <c r="O84" s="33"/>
     </row>
     <row r="85" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I85" s="18">
         <v>2</v>
       </c>
-      <c r="J85" s="53" t="s">
+      <c r="J85" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="K85" s="53"/>
-      <c r="L85" s="53"/>
-      <c r="M85" s="53"/>
-      <c r="N85" s="53"/>
+      <c r="K85" s="84"/>
+      <c r="L85" s="84"/>
+      <c r="M85" s="84"/>
+      <c r="N85" s="84"/>
       <c r="O85" s="33"/>
     </row>
     <row r="86" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I86" s="56" t="s">
+      <c r="I86" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="J86" s="57"/>
-      <c r="K86" s="57"/>
-      <c r="L86" s="57"/>
-      <c r="M86" s="57"/>
-      <c r="N86" s="57"/>
+      <c r="J86" s="99"/>
+      <c r="K86" s="99"/>
+      <c r="L86" s="99"/>
+      <c r="M86" s="99"/>
+      <c r="N86" s="99"/>
       <c r="O86" s="33"/>
     </row>
     <row r="87" spans="9:15" x14ac:dyDescent="0.2">
@@ -4094,85 +4814,109 @@
       </c>
     </row>
     <row r="94" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I94" s="56" t="s">
+      <c r="I94" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="J94" s="57"/>
-      <c r="K94" s="57"/>
-      <c r="L94" s="57"/>
-      <c r="M94" s="57"/>
-      <c r="N94" s="57"/>
+      <c r="J94" s="99"/>
+      <c r="K94" s="99"/>
+      <c r="L94" s="99"/>
+      <c r="M94" s="99"/>
+      <c r="N94" s="99"/>
       <c r="O94" s="33"/>
     </row>
     <row r="95" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I95" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J95" s="57" t="s">
+      <c r="J95" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="K95" s="57"/>
-      <c r="L95" s="57"/>
-      <c r="M95" s="57"/>
-      <c r="N95" s="57"/>
+      <c r="K95" s="99"/>
+      <c r="L95" s="99"/>
+      <c r="M95" s="99"/>
+      <c r="N95" s="99"/>
       <c r="O95" s="33"/>
     </row>
     <row r="96" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I96" s="18">
         <v>1</v>
       </c>
-      <c r="J96" s="53" t="s">
+      <c r="J96" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="K96" s="53"/>
-      <c r="L96" s="53"/>
-      <c r="M96" s="53"/>
-      <c r="N96" s="53"/>
+      <c r="K96" s="84"/>
+      <c r="L96" s="84"/>
+      <c r="M96" s="84"/>
+      <c r="N96" s="84"/>
       <c r="O96" s="33"/>
     </row>
     <row r="97" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I97" s="21">
         <v>2</v>
       </c>
-      <c r="J97" s="51" t="s">
+      <c r="J97" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="K97" s="51"/>
-      <c r="L97" s="51"/>
-      <c r="M97" s="51"/>
-      <c r="N97" s="51"/>
+      <c r="K97" s="103"/>
+      <c r="L97" s="103"/>
+      <c r="M97" s="103"/>
+      <c r="N97" s="103"/>
       <c r="O97" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="I79:N79"/>
+    <mergeCell ref="I82:N82"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="I86:N86"/>
+    <mergeCell ref="I94:N94"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="I76:N76"/>
+    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="J61:N61"/>
+    <mergeCell ref="J62:N62"/>
+    <mergeCell ref="I60:N60"/>
+    <mergeCell ref="I63:N63"/>
+    <mergeCell ref="I66:N66"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="J69:N69"/>
+    <mergeCell ref="I70:O70"/>
+    <mergeCell ref="I72:N72"/>
+    <mergeCell ref="I51:O51"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="J56:N56"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="J50:N50"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="J49:N49"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="B40:H40"/>
@@ -4189,75 +4933,51 @@
     <mergeCell ref="I24:N24"/>
     <mergeCell ref="J25:N25"/>
     <mergeCell ref="J27:N27"/>
-    <mergeCell ref="J50:N50"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="J48:N48"/>
-    <mergeCell ref="J49:N49"/>
-    <mergeCell ref="I51:O51"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="J56:N56"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="I53:N53"/>
-    <mergeCell ref="I76:N76"/>
-    <mergeCell ref="I58:N58"/>
-    <mergeCell ref="J61:N61"/>
-    <mergeCell ref="J62:N62"/>
-    <mergeCell ref="I60:N60"/>
-    <mergeCell ref="I63:N63"/>
-    <mergeCell ref="I66:N66"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="J68:N68"/>
-    <mergeCell ref="J69:N69"/>
-    <mergeCell ref="I70:O70"/>
-    <mergeCell ref="I72:N72"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="J77:N77"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="I79:N79"/>
-    <mergeCell ref="I82:N82"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="I86:N86"/>
-    <mergeCell ref="I94:N94"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <conditionalFormatting sqref="H20:H22">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="between">
       <formula>1</formula>
       <formula>0.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThan">
       <formula>100%</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="between">
       <formula>0.89</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="21" operator="greaterThanOrEqual">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4269,13 +4989,1102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:AD31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="109" customWidth="1"/>
+    <col min="2" max="7" width="15.7109375" style="109" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="110" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="110" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="110" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="110" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="110" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="5.28515625" style="110" customWidth="1"/>
+    <col min="19" max="19" width="63.42578125" style="108" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="109"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:30" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="117" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
+      <c r="V2" s="117"/>
+      <c r="W2" s="117"/>
+      <c r="X2" s="117"/>
+      <c r="Y2" s="117"/>
+      <c r="Z2" s="117"/>
+      <c r="AA2" s="117"/>
+      <c r="AB2" s="117"/>
+      <c r="AC2" s="117"/>
+      <c r="AD2" s="117"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B3" s="116" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="H3" s="111" t="s">
+        <v>222</v>
+      </c>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B4" s="112" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="113">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B5" s="112" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="113" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="115" t="s">
+        <v>234</v>
+      </c>
+      <c r="I5" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="115" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="115" t="s">
+        <v>235</v>
+      </c>
+      <c r="L5" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="M5" s="115">
+        <v>2</v>
+      </c>
+      <c r="N5" s="115" t="s">
+        <v>233</v>
+      </c>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="113" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B6" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="113" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="115" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="115" t="s">
+        <v>240</v>
+      </c>
+      <c r="I6" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="115" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="115" t="s">
+        <v>235</v>
+      </c>
+      <c r="L6" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="M6" s="115">
+        <v>3</v>
+      </c>
+      <c r="N6" s="115" t="s">
+        <v>233</v>
+      </c>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="113" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B7" s="112" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="115" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="115" t="s">
+        <v>241</v>
+      </c>
+      <c r="I7" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="115" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="115" t="s">
+        <v>235</v>
+      </c>
+      <c r="L7" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="M7" s="115">
+        <v>4</v>
+      </c>
+      <c r="N7" s="115" t="s">
+        <v>233</v>
+      </c>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="113" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B8" s="111" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="111"/>
+      <c r="D8" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="115" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="115" t="s">
+        <v>242</v>
+      </c>
+      <c r="I8" s="115" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="115" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="115" t="s">
+        <v>235</v>
+      </c>
+      <c r="L8" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="M8" s="115">
+        <v>5</v>
+      </c>
+      <c r="N8" s="115" t="s">
+        <v>233</v>
+      </c>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="113" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B9" s="112" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="115" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="115" t="s">
+        <v>244</v>
+      </c>
+      <c r="I9" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="115" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="115" t="s">
+        <v>235</v>
+      </c>
+      <c r="L9" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="M9" s="115">
+        <v>6</v>
+      </c>
+      <c r="N9" s="115" t="s">
+        <v>233</v>
+      </c>
+      <c r="O9" s="115"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="115"/>
+      <c r="S9" s="113" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B10" s="112" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="113" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="115" t="s">
+        <v>247</v>
+      </c>
+      <c r="I10" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="115" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="115" t="s">
+        <v>235</v>
+      </c>
+      <c r="L10" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="M10" s="115">
+        <v>7</v>
+      </c>
+      <c r="N10" s="115" t="s">
+        <v>233</v>
+      </c>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="115"/>
+      <c r="S10" s="113" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B11" s="112" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="113" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="115" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="115" t="s">
+        <v>248</v>
+      </c>
+      <c r="I11" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="115" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="115" t="s">
+        <v>249</v>
+      </c>
+      <c r="L11" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="M11" s="115">
+        <v>2</v>
+      </c>
+      <c r="N11" s="115" t="s">
+        <v>233</v>
+      </c>
+      <c r="O11" s="115"/>
+      <c r="P11" s="115"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="115"/>
+      <c r="S11" s="113" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B12" s="111" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="111"/>
+      <c r="D12" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="115" t="s">
+        <v>251</v>
+      </c>
+      <c r="I12" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="115" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="115" t="s">
+        <v>249</v>
+      </c>
+      <c r="L12" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="M12" s="115">
+        <v>3</v>
+      </c>
+      <c r="N12" s="115" t="s">
+        <v>233</v>
+      </c>
+      <c r="O12" s="115"/>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="115"/>
+      <c r="R12" s="115"/>
+      <c r="S12" s="113" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B13" s="112" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="113" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="115" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="115" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="115" t="s">
+        <v>254</v>
+      </c>
+      <c r="I13" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="115" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="115" t="s">
+        <v>249</v>
+      </c>
+      <c r="L13" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="M13" s="115">
+        <v>4</v>
+      </c>
+      <c r="N13" s="115" t="s">
+        <v>233</v>
+      </c>
+      <c r="O13" s="115"/>
+      <c r="P13" s="115"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="115"/>
+      <c r="S13" s="113" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B14" s="112" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="H14" s="115" t="s">
+        <v>258</v>
+      </c>
+      <c r="I14" s="115" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="115" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="115" t="s">
+        <v>235</v>
+      </c>
+      <c r="L14" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="M14" s="115">
+        <v>5</v>
+      </c>
+      <c r="N14" s="115" t="s">
+        <v>233</v>
+      </c>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="113" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B15" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="115" t="s">
+        <v>259</v>
+      </c>
+      <c r="I15" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="115" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="115" t="s">
+        <v>235</v>
+      </c>
+      <c r="L15" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="M15" s="115">
+        <v>6</v>
+      </c>
+      <c r="N15" s="115" t="s">
+        <v>233</v>
+      </c>
+      <c r="O15" s="115"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="115"/>
+      <c r="S15" s="113" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B16" s="112" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="H16" s="115" t="s">
+        <v>260</v>
+      </c>
+      <c r="I16" s="115" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="115" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="115" t="s">
+        <v>235</v>
+      </c>
+      <c r="L16" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="M16" s="115">
+        <v>7</v>
+      </c>
+      <c r="N16" s="115" t="s">
+        <v>233</v>
+      </c>
+      <c r="O16" s="115"/>
+      <c r="P16" s="115"/>
+      <c r="Q16" s="115"/>
+      <c r="R16" s="115"/>
+      <c r="S16" s="113" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="112" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="113" t="s">
+        <v>203</v>
+      </c>
+      <c r="H17" s="115" t="s">
+        <v>261</v>
+      </c>
+      <c r="I17" s="115" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="115" t="s">
+        <v>249</v>
+      </c>
+      <c r="L17" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="M17" s="115">
+        <v>2</v>
+      </c>
+      <c r="N17" s="115" t="s">
+        <v>233</v>
+      </c>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="115"/>
+      <c r="R17" s="115"/>
+      <c r="S17" s="113" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="111" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="111"/>
+      <c r="H18" s="115" t="s">
+        <v>263</v>
+      </c>
+      <c r="I18" s="115" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="115" t="s">
+        <v>235</v>
+      </c>
+      <c r="L18" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="M18" s="115">
+        <v>3</v>
+      </c>
+      <c r="N18" s="115" t="s">
+        <v>233</v>
+      </c>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="115"/>
+      <c r="R18" s="115"/>
+      <c r="S18" s="113" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="112" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="113" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="115" t="s">
+        <v>265</v>
+      </c>
+      <c r="I19" s="115" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="115" t="s">
+        <v>266</v>
+      </c>
+      <c r="L19" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="M19" s="115">
+        <v>4</v>
+      </c>
+      <c r="N19" s="115" t="s">
+        <v>233</v>
+      </c>
+      <c r="O19" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="P19" s="115"/>
+      <c r="Q19" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="R19" s="115"/>
+      <c r="S19" s="113" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="112" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="115" t="s">
+        <v>270</v>
+      </c>
+      <c r="I20" s="115" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="115" t="s">
+        <v>267</v>
+      </c>
+      <c r="L20" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="M20" s="115">
+        <v>5</v>
+      </c>
+      <c r="N20" s="115" t="s">
+        <v>233</v>
+      </c>
+      <c r="O20" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="P20" s="115"/>
+      <c r="Q20" s="115"/>
+      <c r="R20" s="115"/>
+      <c r="S20" s="113" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="115" t="s">
+        <v>271</v>
+      </c>
+      <c r="I21" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="J21" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="115" t="s">
+        <v>266</v>
+      </c>
+      <c r="L21" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="M21" s="115">
+        <v>6</v>
+      </c>
+      <c r="N21" s="115" t="s">
+        <v>233</v>
+      </c>
+      <c r="O21" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="P21" s="115"/>
+      <c r="Q21" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="R21" s="115"/>
+      <c r="S21" s="113" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="118" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="119" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="111" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="115">
+        <v>1</v>
+      </c>
+      <c r="C25" s="115" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" s="115">
+        <f>COUNTIF($M$5:$M$21,B25)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="115">
+        <f>COUNTA(H5:H21)-D25</f>
+        <v>17</v>
+      </c>
+      <c r="F25" s="115">
+        <v>0</v>
+      </c>
+      <c r="G25" s="115">
+        <f>COUNTA(H5:H21)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="115">
+        <v>2</v>
+      </c>
+      <c r="C26" s="115" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" s="115">
+        <f t="shared" ref="D26:D31" si="0">COUNTIF($M$5:$M$21,B26)</f>
+        <v>3</v>
+      </c>
+      <c r="E26" s="115">
+        <f>E25-D26</f>
+        <v>14</v>
+      </c>
+      <c r="F26" s="115">
+        <v>0</v>
+      </c>
+      <c r="G26" s="115">
+        <f>G25-F26</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="115">
+        <v>3</v>
+      </c>
+      <c r="C27" s="115" t="s">
+        <v>218</v>
+      </c>
+      <c r="D27" s="115">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E27" s="115">
+        <f t="shared" ref="E27:E31" si="1">E26-D27</f>
+        <v>11</v>
+      </c>
+      <c r="F27" s="115">
+        <v>0</v>
+      </c>
+      <c r="G27" s="115">
+        <f t="shared" ref="G27:G31" si="2">G26-F27</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="115">
+        <v>4</v>
+      </c>
+      <c r="C28" s="115" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" s="115">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E28" s="115">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F28" s="115">
+        <v>0</v>
+      </c>
+      <c r="G28" s="115">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="115">
+        <v>5</v>
+      </c>
+      <c r="C29" s="115" t="s">
+        <v>220</v>
+      </c>
+      <c r="D29" s="115">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E29" s="115">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F29" s="115">
+        <v>0</v>
+      </c>
+      <c r="G29" s="115">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="115">
+        <v>6</v>
+      </c>
+      <c r="C30" s="115" t="s">
+        <v>221</v>
+      </c>
+      <c r="D30" s="115">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E30" s="115">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F30" s="115">
+        <v>0</v>
+      </c>
+      <c r="G30" s="115">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="115">
+        <v>7</v>
+      </c>
+      <c r="C31" s="115" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" s="115">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E31" s="115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="115">
+        <v>0</v>
+      </c>
+      <c r="G31" s="115">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H3:S3"/>
+    <mergeCell ref="B2:AD2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",N1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",O1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1048576">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",R1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:Q1048576">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",P1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="endsWith" dxfId="8" priority="9" operator="endsWith" text="?">
+      <formula>RIGHT(L1,LEN("?"))="?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="QA">
+      <formula>NOT(ISERROR(SEARCH("QA",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="BE">
+      <formula>NOT(ISERROR(SEARCH("BE",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="FE">
+      <formula>NOT(ISERROR(SEARCH("FE",J1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="TS">
+      <formula>NOT(ISERROR(SEARCH("TS",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="DB">
+      <formula>NOT(ISERROR(SEARCH("DB",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="ED">
+      <formula>NOT(ISERROR(SEARCH("ED",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="PR">
+      <formula>NOT(ISERROR(SEARCH("PR",K1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="beginsWith" dxfId="0" priority="1" operator="beginsWith" text="?">
+      <formula>LEFT(M1,LEN("?"))="?"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Management/Production_Progress_Oct_2017.xlsx
+++ b/Management/Production_Progress_Oct_2017.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\GDC2017Project\Management\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="12315" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="27560" windowHeight="12320" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Production Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint #1 Chart" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint #2 Chart" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="295">
   <si>
     <t>Production Name:</t>
   </si>
@@ -835,12 +841,78 @@
   </si>
   <si>
     <t>Test prototype field interaction with character</t>
+  </si>
+  <si>
+    <t>Sprint #2 Backlog</t>
+  </si>
+  <si>
+    <t>2017OCT19</t>
+  </si>
+  <si>
+    <t>2017OCT20</t>
+  </si>
+  <si>
+    <t>2017OCT14</t>
+  </si>
+  <si>
+    <t>2017OCT15</t>
+  </si>
+  <si>
+    <t>2017OCT16</t>
+  </si>
+  <si>
+    <t>2017OCT17</t>
+  </si>
+  <si>
+    <t>2017OCT18</t>
+  </si>
+  <si>
+    <t>Create variable for HP and test functionality</t>
+  </si>
+  <si>
+    <t>Create variable for armour and test functionality</t>
+  </si>
+  <si>
+    <t>Create test projectile for long range attack</t>
+  </si>
+  <si>
+    <t>Create prefab for any moving platform</t>
+  </si>
+  <si>
+    <t>Create prefab for NPCs</t>
+  </si>
+  <si>
+    <t>Write script for basic NPC interaction (Item drop)</t>
+  </si>
+  <si>
+    <t>Write script for player to shoot individual projectile</t>
+  </si>
+  <si>
+    <t>Test ranged attack system (Focus on collision detection)</t>
+  </si>
+  <si>
+    <t>Debug ranged attack system at QA level</t>
+  </si>
+  <si>
+    <t>Debug moving platform at QA level</t>
+  </si>
+  <si>
+    <t>Test moving platform prefab</t>
+  </si>
+  <si>
+    <t>Test basic NPC interaction</t>
+  </si>
+  <si>
+    <t>Debug basic NPC interaction at QA level</t>
+  </si>
+  <si>
+    <t>DTE-QA-006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1392,7 +1464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1498,18 +1570,183 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1558,189 +1795,149 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1918,12 +2115,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1952,7 +2152,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1992,6 +2191,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D942-4F2E-B310-17B0B8FA8B33}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2024,6 +2228,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D942-4F2E-B310-17B0B8FA8B33}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2056,6 +2265,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D942-4F2E-B310-17B0B8FA8B33}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2088,6 +2302,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D942-4F2E-B310-17B0B8FA8B33}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2143,7 +2362,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2159,7 +2377,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2194,27 +2412,32 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C972-4573-A6A3-52DDA00D7D07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2253,6 +2476,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C972-4573-A6A3-52DDA00D7D07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2270,27 +2498,32 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C972-4573-A6A3-52DDA00D7D07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2329,6 +2562,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C972-4573-A6A3-52DDA00D7D07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2379,7 +2617,261 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Target Task Completion</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #1 Chart'!$E$25:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F514-4514-B91D-EFF9B175DEAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual Task Completion</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #1 Chart'!$G$25:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F514-4514-B91D-EFF9B175DEAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Assigned Tasks</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #1 Chart'!$D$25:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F514-4514-B91D-EFF9B175DEAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Completed Tasks</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #1 Chart'!$F$25:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F514-4514-B91D-EFF9B175DEAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="139667968"/>
+        <c:axId val="58027968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="139667968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58027968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="58027968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="139667968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2404,14 +2896,20 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2435,19 +2933,68 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F86464-62E3-40C4-9822-D864B84BC108}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2507,7 +3054,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2540,9 +3087,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2575,6 +3139,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2754,99 +3335,99 @@
   <dimension ref="B1:O97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="59.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="1.7265625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="15.7265625" style="1" customWidth="1"/>
+    <col min="5" max="8" width="12.7265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="2"/>
+    <col min="10" max="10" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="59.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="92" t="s">
+    <row r="1" spans="2:15" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="94"/>
-    </row>
-    <row r="3" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="83"/>
+    </row>
+    <row r="3" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="55" t="s">
+      <c r="C3" s="105"/>
+      <c r="D3" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="71" t="s">
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="73"/>
-    </row>
-    <row r="4" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="51" t="s">
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="95"/>
+    </row>
+    <row r="4" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="57" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="68" t="s">
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="70"/>
-    </row>
-    <row r="5" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="71"/>
+    </row>
+    <row r="5" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="59" t="s">
+      <c r="C5" s="109"/>
+      <c r="D5" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="115"/>
       <c r="I5" s="16" t="s">
         <v>69</v>
       </c>
@@ -2869,27 +3450,27 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="43" t="s">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="74" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
       <c r="O6" s="33"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>7</v>
       </c>
@@ -2933,7 +3514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
         <v>10</v>
       </c>
@@ -2971,7 +3552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
         <v>12</v>
       </c>
@@ -2987,17 +3568,17 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="19"/>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="67"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="92"/>
       <c r="O9" s="33"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>14</v>
       </c>
@@ -3018,16 +3599,16 @@
       <c r="I10" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="78" t="s">
+      <c r="J10" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="67"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="92"/>
       <c r="O10" s="33"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>16</v>
       </c>
@@ -3046,16 +3627,16 @@
       <c r="I11" s="18">
         <v>1</v>
       </c>
-      <c r="J11" s="79" t="s">
+      <c r="J11" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="81"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="52"/>
       <c r="O11" s="33"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>18</v>
       </c>
@@ -3073,17 +3654,17 @@
         <v>40</v>
       </c>
       <c r="H12" s="19"/>
-      <c r="I12" s="82" t="s">
+      <c r="I12" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
       <c r="O12" s="33"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
         <v>20</v>
       </c>
@@ -3121,7 +3702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>22</v>
       </c>
@@ -3161,7 +3742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>24</v>
       </c>
@@ -3199,7 +3780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="21" t="s">
         <v>26</v>
       </c>
@@ -3221,61 +3802,61 @@
       <c r="H16" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="82" t="s">
+      <c r="I16" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
       <c r="O16" s="33"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="43" t="s">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="100"/>
       <c r="I17" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="83" t="s">
+      <c r="J17" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
       <c r="O17" s="33"/>
     </row>
-    <row r="18" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="95" t="s">
+    <row r="18" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="97"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="86"/>
       <c r="I18" s="18">
         <v>1</v>
       </c>
-      <c r="J18" s="84" t="s">
+      <c r="J18" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
       <c r="O18" s="33"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="25" t="s">
         <v>42</v>
       </c>
@@ -3300,16 +3881,16 @@
       <c r="I19" s="18">
         <v>2</v>
       </c>
-      <c r="J19" s="84" t="s">
+      <c r="J19" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
       <c r="O19" s="33"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="26" t="s">
         <v>51</v>
       </c>
@@ -3332,17 +3913,17 @@
         <f>SUM(E20:G20)</f>
         <v>1</v>
       </c>
-      <c r="I20" s="98" t="s">
+      <c r="I20" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
       <c r="O20" s="33"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="26" t="s">
         <v>53</v>
       </c>
@@ -3385,7 +3966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="26" t="s">
         <v>55</v>
       </c>
@@ -3430,14 +4011,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="100"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="102"/>
+    <row r="23" spans="2:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="87"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="89"/>
       <c r="I23" s="18">
         <v>3</v>
       </c>
@@ -3460,32 +4041,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="43" t="s">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="98" t="s">
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
       <c r="O24" s="33"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="63" t="s">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
       <c r="E25" s="15">
         <f>SUM(E28,E31,E34,E37)</f>
         <v>31</v>
@@ -3503,73 +4084,73 @@
       <c r="I25" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="99" t="s">
+      <c r="J25" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
       <c r="O25" s="33"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="46" t="s">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="48"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="103"/>
       <c r="I26" s="18">
         <v>1</v>
       </c>
-      <c r="J26" s="84" t="s">
+      <c r="J26" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
       <c r="O26" s="33"/>
     </row>
-    <row r="27" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="61" t="s">
+      <c r="D27" s="54"/>
+      <c r="E27" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="61" t="s">
+      <c r="F27" s="60"/>
+      <c r="G27" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="H27" s="77"/>
+      <c r="H27" s="97"/>
       <c r="I27" s="21">
         <v>2</v>
       </c>
-      <c r="J27" s="103" t="s">
+      <c r="J27" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
       <c r="O27" s="37"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="42"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="14">
         <v>8</v>
       </c>
@@ -3583,26 +4164,26 @@
       <c r="H28" s="12">
         <v>31</v>
       </c>
-      <c r="I28" s="68" t="s">
+      <c r="I28" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="70"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="106" t="s">
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="71"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
       <c r="I29" s="16" t="s">
         <v>69</v>
       </c>
@@ -3625,40 +4206,40 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="79" t="s">
+      <c r="C30" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="81"/>
-      <c r="E30" s="61" t="s">
+      <c r="D30" s="52"/>
+      <c r="E30" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="F30" s="62"/>
-      <c r="G30" s="61" t="s">
+      <c r="F30" s="60"/>
+      <c r="G30" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="H30" s="76"/>
-      <c r="I30" s="74" t="s">
+      <c r="H30" s="96"/>
+      <c r="I30" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
       <c r="O30" s="33"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="79" t="s">
+      <c r="C31" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="D31" s="81"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="14">
         <v>7</v>
       </c>
@@ -3694,16 +4275,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="106" t="s">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
       <c r="I32" s="18">
         <v>2</v>
       </c>
@@ -3726,40 +4307,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="61" t="s">
+      <c r="D33" s="54"/>
+      <c r="E33" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="F33" s="62"/>
-      <c r="G33" s="61" t="s">
+      <c r="F33" s="60"/>
+      <c r="G33" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="H33" s="76"/>
-      <c r="I33" s="74" t="s">
+      <c r="H33" s="96"/>
+      <c r="I33" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
       <c r="O33" s="33"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="D34" s="42"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="14">
         <v>4</v>
       </c>
@@ -3776,71 +4357,71 @@
       <c r="I34" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J34" s="75" t="s">
+      <c r="J34" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
       <c r="O34" s="33"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="106" t="s">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
       <c r="I35" s="18">
         <v>1</v>
       </c>
-      <c r="J35" s="84" t="s">
+      <c r="J35" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="84"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
       <c r="O35" s="33"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="D36" s="42"/>
-      <c r="E36" s="61" t="s">
+      <c r="D36" s="54"/>
+      <c r="E36" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="62"/>
-      <c r="G36" s="61" t="s">
+      <c r="F36" s="60"/>
+      <c r="G36" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="H36" s="76"/>
-      <c r="I36" s="82" t="s">
+      <c r="H36" s="96"/>
+      <c r="I36" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="83"/>
-      <c r="N36" s="83"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
       <c r="O36" s="33"/>
     </row>
-    <row r="37" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="104" t="s">
+      <c r="C37" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="D37" s="105"/>
+      <c r="D37" s="56"/>
       <c r="E37" s="32">
         <v>12</v>
       </c>
@@ -3876,16 +4457,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="43" t="s">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="88"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="77"/>
       <c r="I38" s="18">
         <v>2</v>
       </c>
@@ -3908,86 +4489,86 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="85" t="s">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="82" t="s">
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="83"/>
-      <c r="N39" s="83"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="65"/>
       <c r="O39" s="33"/>
     </row>
-    <row r="40" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="89" t="s">
+    <row r="40" spans="2:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="91"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="80"/>
       <c r="I40" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J40" s="83" t="s">
+      <c r="J40" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83"/>
-      <c r="N40" s="83"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="65"/>
       <c r="O40" s="33"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I41" s="18">
         <v>1</v>
       </c>
-      <c r="J41" s="84" t="s">
+      <c r="J41" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="84"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
       <c r="O41" s="33"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I42" s="18">
         <v>2</v>
       </c>
-      <c r="J42" s="84" t="s">
+      <c r="J42" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="84"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
       <c r="O42" s="33"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I43" s="98" t="s">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I43" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="J43" s="99"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="99"/>
-      <c r="M43" s="99"/>
-      <c r="N43" s="99"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="67"/>
+      <c r="N43" s="67"/>
       <c r="O43" s="33"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I44" s="18">
         <v>1</v>
       </c>
@@ -4010,7 +4591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I45" s="18">
         <v>2</v>
       </c>
@@ -4033,7 +4614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I46" s="18">
         <v>3</v>
       </c>
@@ -4056,68 +4637,68 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I47" s="98" t="s">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I47" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="J47" s="99"/>
-      <c r="K47" s="99"/>
-      <c r="L47" s="99"/>
-      <c r="M47" s="99"/>
-      <c r="N47" s="99"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="67"/>
       <c r="O47" s="33"/>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I48" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J48" s="99" t="s">
+      <c r="J48" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="K48" s="99"/>
-      <c r="L48" s="99"/>
-      <c r="M48" s="99"/>
-      <c r="N48" s="99"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="67"/>
+      <c r="N48" s="67"/>
       <c r="O48" s="33"/>
     </row>
-    <row r="49" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I49" s="18">
         <v>1</v>
       </c>
-      <c r="J49" s="84" t="s">
+      <c r="J49" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="K49" s="84"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="84"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="63"/>
       <c r="O49" s="33"/>
     </row>
-    <row r="50" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I50" s="21">
         <v>2</v>
       </c>
-      <c r="J50" s="103" t="s">
+      <c r="J50" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="K50" s="103"/>
-      <c r="L50" s="103"/>
-      <c r="M50" s="103"/>
-      <c r="N50" s="103"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="61"/>
+      <c r="M50" s="61"/>
+      <c r="N50" s="61"/>
       <c r="O50" s="37"/>
     </row>
-    <row r="51" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I51" s="68" t="s">
+    <row r="51" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I51" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="J51" s="69"/>
-      <c r="K51" s="69"/>
-      <c r="L51" s="69"/>
-      <c r="M51" s="69"/>
-      <c r="N51" s="69"/>
-      <c r="O51" s="70"/>
-    </row>
-    <row r="52" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="J51" s="70"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="70"/>
+      <c r="M51" s="70"/>
+      <c r="N51" s="70"/>
+      <c r="O51" s="71"/>
+    </row>
+    <row r="52" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I52" s="16" t="s">
         <v>69</v>
       </c>
@@ -4140,18 +4721,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I53" s="74" t="s">
+    <row r="53" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I53" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="J53" s="75"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="75"/>
-      <c r="M53" s="75"/>
-      <c r="N53" s="75"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="62"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="62"/>
       <c r="O53" s="40"/>
     </row>
-    <row r="54" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I54" s="18">
         <v>1</v>
       </c>
@@ -4174,55 +4755,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I55" s="74" t="s">
+    <row r="55" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I55" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="J55" s="75"/>
-      <c r="K55" s="75"/>
-      <c r="L55" s="75"/>
-      <c r="M55" s="75"/>
-      <c r="N55" s="75"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="62"/>
       <c r="O55" s="33"/>
     </row>
-    <row r="56" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I56" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J56" s="75" t="s">
+      <c r="J56" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="K56" s="75"/>
-      <c r="L56" s="75"/>
-      <c r="M56" s="75"/>
-      <c r="N56" s="75"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="62"/>
       <c r="O56" s="33"/>
     </row>
-    <row r="57" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I57" s="18">
         <v>1</v>
       </c>
-      <c r="J57" s="84" t="s">
+      <c r="J57" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="K57" s="84"/>
-      <c r="L57" s="84"/>
-      <c r="M57" s="84"/>
-      <c r="N57" s="84"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="63"/>
+      <c r="M57" s="63"/>
+      <c r="N57" s="63"/>
       <c r="O57" s="33"/>
     </row>
-    <row r="58" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I58" s="82" t="s">
+    <row r="58" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I58" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="J58" s="83"/>
-      <c r="K58" s="83"/>
-      <c r="L58" s="83"/>
-      <c r="M58" s="83"/>
-      <c r="N58" s="83"/>
+      <c r="J58" s="65"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
+      <c r="M58" s="65"/>
+      <c r="N58" s="65"/>
       <c r="O58" s="33"/>
     </row>
-    <row r="59" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I59" s="18">
         <v>1</v>
       </c>
@@ -4245,55 +4826,55 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I60" s="82" t="s">
+    <row r="60" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I60" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="J60" s="83"/>
-      <c r="K60" s="83"/>
-      <c r="L60" s="83"/>
-      <c r="M60" s="83"/>
-      <c r="N60" s="83"/>
+      <c r="J60" s="65"/>
+      <c r="K60" s="65"/>
+      <c r="L60" s="65"/>
+      <c r="M60" s="65"/>
+      <c r="N60" s="65"/>
       <c r="O60" s="33"/>
     </row>
-    <row r="61" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I61" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J61" s="83" t="s">
+      <c r="J61" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="K61" s="83"/>
-      <c r="L61" s="83"/>
-      <c r="M61" s="83"/>
-      <c r="N61" s="83"/>
+      <c r="K61" s="65"/>
+      <c r="L61" s="65"/>
+      <c r="M61" s="65"/>
+      <c r="N61" s="65"/>
       <c r="O61" s="33"/>
     </row>
-    <row r="62" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I62" s="18">
         <v>1</v>
       </c>
-      <c r="J62" s="84" t="s">
+      <c r="J62" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="K62" s="84"/>
-      <c r="L62" s="84"/>
-      <c r="M62" s="84"/>
-      <c r="N62" s="84"/>
+      <c r="K62" s="63"/>
+      <c r="L62" s="63"/>
+      <c r="M62" s="63"/>
+      <c r="N62" s="63"/>
       <c r="O62" s="33"/>
     </row>
-    <row r="63" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I63" s="98" t="s">
+    <row r="63" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I63" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="J63" s="99"/>
-      <c r="K63" s="99"/>
-      <c r="L63" s="99"/>
-      <c r="M63" s="99"/>
-      <c r="N63" s="99"/>
+      <c r="J63" s="67"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
+      <c r="N63" s="67"/>
       <c r="O63" s="33"/>
     </row>
-    <row r="64" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I64" s="18">
         <v>1</v>
       </c>
@@ -4316,7 +4897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I65" s="18">
         <v>2</v>
       </c>
@@ -4339,68 +4920,68 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I66" s="98" t="s">
+    <row r="66" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I66" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="J66" s="99"/>
-      <c r="K66" s="99"/>
-      <c r="L66" s="99"/>
-      <c r="M66" s="99"/>
-      <c r="N66" s="99"/>
+      <c r="J66" s="67"/>
+      <c r="K66" s="67"/>
+      <c r="L66" s="67"/>
+      <c r="M66" s="67"/>
+      <c r="N66" s="67"/>
       <c r="O66" s="33"/>
     </row>
-    <row r="67" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I67" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J67" s="99" t="s">
+      <c r="J67" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="K67" s="99"/>
-      <c r="L67" s="99"/>
-      <c r="M67" s="99"/>
-      <c r="N67" s="99"/>
+      <c r="K67" s="67"/>
+      <c r="L67" s="67"/>
+      <c r="M67" s="67"/>
+      <c r="N67" s="67"/>
       <c r="O67" s="33"/>
     </row>
-    <row r="68" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I68" s="18">
         <v>1</v>
       </c>
-      <c r="J68" s="84" t="s">
+      <c r="J68" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="K68" s="84"/>
-      <c r="L68" s="84"/>
-      <c r="M68" s="84"/>
-      <c r="N68" s="84"/>
+      <c r="K68" s="63"/>
+      <c r="L68" s="63"/>
+      <c r="M68" s="63"/>
+      <c r="N68" s="63"/>
       <c r="O68" s="33"/>
     </row>
-    <row r="69" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I69" s="21">
         <v>2</v>
       </c>
-      <c r="J69" s="103" t="s">
+      <c r="J69" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="K69" s="103"/>
-      <c r="L69" s="103"/>
-      <c r="M69" s="103"/>
-      <c r="N69" s="103"/>
+      <c r="K69" s="61"/>
+      <c r="L69" s="61"/>
+      <c r="M69" s="61"/>
+      <c r="N69" s="61"/>
       <c r="O69" s="37"/>
     </row>
-    <row r="70" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I70" s="68" t="s">
+    <row r="70" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I70" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="J70" s="69"/>
-      <c r="K70" s="69"/>
-      <c r="L70" s="69"/>
-      <c r="M70" s="69"/>
-      <c r="N70" s="69"/>
-      <c r="O70" s="70"/>
-    </row>
-    <row r="71" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="J70" s="70"/>
+      <c r="K70" s="70"/>
+      <c r="L70" s="70"/>
+      <c r="M70" s="70"/>
+      <c r="N70" s="70"/>
+      <c r="O70" s="71"/>
+    </row>
+    <row r="71" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I71" s="16" t="s">
         <v>69</v>
       </c>
@@ -4423,18 +5004,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I72" s="74" t="s">
+    <row r="72" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I72" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="J72" s="75"/>
-      <c r="K72" s="75"/>
-      <c r="L72" s="75"/>
-      <c r="M72" s="75"/>
-      <c r="N72" s="75"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="62"/>
+      <c r="L72" s="62"/>
+      <c r="M72" s="62"/>
+      <c r="N72" s="62"/>
       <c r="O72" s="33"/>
     </row>
-    <row r="73" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I73" s="18">
         <v>1</v>
       </c>
@@ -4457,7 +5038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I74" s="18">
         <v>2</v>
       </c>
@@ -4480,7 +5061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I75" s="18">
         <v>3</v>
       </c>
@@ -4501,55 +5082,55 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I76" s="74" t="s">
+    <row r="76" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I76" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="J76" s="75"/>
-      <c r="K76" s="75"/>
-      <c r="L76" s="75"/>
-      <c r="M76" s="75"/>
-      <c r="N76" s="75"/>
+      <c r="J76" s="62"/>
+      <c r="K76" s="62"/>
+      <c r="L76" s="62"/>
+      <c r="M76" s="62"/>
+      <c r="N76" s="62"/>
       <c r="O76" s="33"/>
     </row>
-    <row r="77" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I77" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J77" s="75" t="s">
+      <c r="J77" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="K77" s="75"/>
-      <c r="L77" s="75"/>
-      <c r="M77" s="75"/>
-      <c r="N77" s="75"/>
+      <c r="K77" s="62"/>
+      <c r="L77" s="62"/>
+      <c r="M77" s="62"/>
+      <c r="N77" s="62"/>
       <c r="O77" s="33"/>
     </row>
-    <row r="78" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I78" s="18">
         <v>1</v>
       </c>
-      <c r="J78" s="84" t="s">
+      <c r="J78" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="K78" s="84"/>
-      <c r="L78" s="84"/>
-      <c r="M78" s="84"/>
-      <c r="N78" s="84"/>
+      <c r="K78" s="63"/>
+      <c r="L78" s="63"/>
+      <c r="M78" s="63"/>
+      <c r="N78" s="63"/>
       <c r="O78" s="33"/>
     </row>
-    <row r="79" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I79" s="82" t="s">
+    <row r="79" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I79" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="J79" s="83"/>
-      <c r="K79" s="83"/>
-      <c r="L79" s="83"/>
-      <c r="M79" s="83"/>
-      <c r="N79" s="83"/>
+      <c r="J79" s="65"/>
+      <c r="K79" s="65"/>
+      <c r="L79" s="65"/>
+      <c r="M79" s="65"/>
+      <c r="N79" s="65"/>
       <c r="O79" s="33"/>
     </row>
-    <row r="80" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I80" s="18">
         <v>1</v>
       </c>
@@ -4572,7 +5153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I81" s="18">
         <v>2</v>
       </c>
@@ -4595,68 +5176,68 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I82" s="82" t="s">
+    <row r="82" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I82" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="J82" s="83"/>
-      <c r="K82" s="83"/>
-      <c r="L82" s="83"/>
-      <c r="M82" s="83"/>
-      <c r="N82" s="83"/>
+      <c r="J82" s="65"/>
+      <c r="K82" s="65"/>
+      <c r="L82" s="65"/>
+      <c r="M82" s="65"/>
+      <c r="N82" s="65"/>
       <c r="O82" s="33"/>
     </row>
-    <row r="83" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I83" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J83" s="83" t="s">
+      <c r="J83" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="K83" s="83"/>
-      <c r="L83" s="83"/>
-      <c r="M83" s="83"/>
-      <c r="N83" s="83"/>
+      <c r="K83" s="65"/>
+      <c r="L83" s="65"/>
+      <c r="M83" s="65"/>
+      <c r="N83" s="65"/>
       <c r="O83" s="33"/>
     </row>
-    <row r="84" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I84" s="18">
         <v>1</v>
       </c>
-      <c r="J84" s="84" t="s">
+      <c r="J84" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="K84" s="84"/>
-      <c r="L84" s="84"/>
-      <c r="M84" s="84"/>
-      <c r="N84" s="84"/>
+      <c r="K84" s="63"/>
+      <c r="L84" s="63"/>
+      <c r="M84" s="63"/>
+      <c r="N84" s="63"/>
       <c r="O84" s="33"/>
     </row>
-    <row r="85" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I85" s="18">
         <v>2</v>
       </c>
-      <c r="J85" s="84" t="s">
+      <c r="J85" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="K85" s="84"/>
-      <c r="L85" s="84"/>
-      <c r="M85" s="84"/>
-      <c r="N85" s="84"/>
+      <c r="K85" s="63"/>
+      <c r="L85" s="63"/>
+      <c r="M85" s="63"/>
+      <c r="N85" s="63"/>
       <c r="O85" s="33"/>
     </row>
-    <row r="86" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I86" s="98" t="s">
+    <row r="86" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I86" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="J86" s="99"/>
-      <c r="K86" s="99"/>
-      <c r="L86" s="99"/>
-      <c r="M86" s="99"/>
-      <c r="N86" s="99"/>
+      <c r="J86" s="67"/>
+      <c r="K86" s="67"/>
+      <c r="L86" s="67"/>
+      <c r="M86" s="67"/>
+      <c r="N86" s="67"/>
       <c r="O86" s="33"/>
     </row>
-    <row r="87" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I87" s="18">
         <v>1</v>
       </c>
@@ -4679,7 +5260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I88" s="18">
         <v>2</v>
       </c>
@@ -4702,7 +5283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I89" s="18">
         <v>3</v>
       </c>
@@ -4725,7 +5306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I90" s="18">
         <v>4</v>
       </c>
@@ -4748,7 +5329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I91" s="18">
         <v>5</v>
       </c>
@@ -4771,7 +5352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I92" s="18">
         <v>6</v>
       </c>
@@ -4792,7 +5373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I93" s="18">
         <v>7</v>
       </c>
@@ -4813,110 +5394,86 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I94" s="98" t="s">
+    <row r="94" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I94" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="J94" s="99"/>
-      <c r="K94" s="99"/>
-      <c r="L94" s="99"/>
-      <c r="M94" s="99"/>
-      <c r="N94" s="99"/>
+      <c r="J94" s="67"/>
+      <c r="K94" s="67"/>
+      <c r="L94" s="67"/>
+      <c r="M94" s="67"/>
+      <c r="N94" s="67"/>
       <c r="O94" s="33"/>
     </row>
-    <row r="95" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I95" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J95" s="99" t="s">
+      <c r="J95" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="K95" s="99"/>
-      <c r="L95" s="99"/>
-      <c r="M95" s="99"/>
-      <c r="N95" s="99"/>
+      <c r="K95" s="67"/>
+      <c r="L95" s="67"/>
+      <c r="M95" s="67"/>
+      <c r="N95" s="67"/>
       <c r="O95" s="33"/>
     </row>
-    <row r="96" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I96" s="18">
         <v>1</v>
       </c>
-      <c r="J96" s="84" t="s">
+      <c r="J96" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="K96" s="84"/>
-      <c r="L96" s="84"/>
-      <c r="M96" s="84"/>
-      <c r="N96" s="84"/>
+      <c r="K96" s="63"/>
+      <c r="L96" s="63"/>
+      <c r="M96" s="63"/>
+      <c r="N96" s="63"/>
       <c r="O96" s="33"/>
     </row>
-    <row r="97" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I97" s="21">
         <v>2</v>
       </c>
-      <c r="J97" s="103" t="s">
+      <c r="J97" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="K97" s="103"/>
-      <c r="L97" s="103"/>
-      <c r="M97" s="103"/>
-      <c r="N97" s="103"/>
+      <c r="K97" s="61"/>
+      <c r="L97" s="61"/>
+      <c r="M97" s="61"/>
+      <c r="N97" s="61"/>
       <c r="O97" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="J77:N77"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="I79:N79"/>
-    <mergeCell ref="I82:N82"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="I86:N86"/>
-    <mergeCell ref="I94:N94"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="I76:N76"/>
-    <mergeCell ref="I58:N58"/>
-    <mergeCell ref="J61:N61"/>
-    <mergeCell ref="J62:N62"/>
-    <mergeCell ref="I60:N60"/>
-    <mergeCell ref="I63:N63"/>
-    <mergeCell ref="I66:N66"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="J68:N68"/>
-    <mergeCell ref="J69:N69"/>
-    <mergeCell ref="I70:O70"/>
-    <mergeCell ref="I72:N72"/>
-    <mergeCell ref="I51:O51"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="J56:N56"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="I53:N53"/>
-    <mergeCell ref="J50:N50"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="J48:N48"/>
-    <mergeCell ref="J49:N49"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="J18:N18"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="B40:H40"/>
@@ -4933,56 +5490,80 @@
     <mergeCell ref="I24:N24"/>
     <mergeCell ref="J25:N25"/>
     <mergeCell ref="J27:N27"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="J50:N50"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="J49:N49"/>
+    <mergeCell ref="I51:O51"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="J56:N56"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="I76:N76"/>
+    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="J61:N61"/>
+    <mergeCell ref="J62:N62"/>
+    <mergeCell ref="I60:N60"/>
+    <mergeCell ref="I63:N63"/>
+    <mergeCell ref="I66:N66"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="J69:N69"/>
+    <mergeCell ref="I70:O70"/>
+    <mergeCell ref="I72:N72"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="I79:N79"/>
+    <mergeCell ref="I82:N82"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="I86:N86"/>
+    <mergeCell ref="I94:N94"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
   </mergeCells>
   <conditionalFormatting sqref="H20:H22">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="between">
       <formula>1</formula>
       <formula>0.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="greaterThan">
       <formula>100%</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="lessThan">
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="between">
       <formula>0.89</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="21" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="21" operator="greaterThanOrEqual">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4991,87 +5572,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AD31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="109" customWidth="1"/>
-    <col min="2" max="7" width="15.7109375" style="109" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" style="110" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="110" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" style="110" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="110" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="110" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="5.28515625" style="110" customWidth="1"/>
-    <col min="19" max="19" width="63.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="109"/>
+    <col min="1" max="1" width="1.7265625" style="42" customWidth="1"/>
+    <col min="2" max="7" width="15.7265625" style="42" customWidth="1"/>
+    <col min="8" max="9" width="10.7265625" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" style="43" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.54296875" style="43" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="5.26953125" style="43" customWidth="1"/>
+    <col min="19" max="19" width="63.453125" style="41" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="117" t="s">
+    <row r="2" spans="2:30" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="119" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="117"/>
-      <c r="AA2" s="117"/>
-      <c r="AB2" s="117"/>
-      <c r="AC2" s="117"/>
-      <c r="AD2" s="117"/>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B3" s="116" t="s">
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
+      <c r="AB2" s="119"/>
+      <c r="AC2" s="119"/>
+      <c r="AD2" s="119"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B3" s="120" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116" t="s">
+      <c r="C3" s="120"/>
+      <c r="D3" s="120" t="s">
         <v>209</v>
       </c>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="H3" s="111" t="s">
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="H3" s="118" t="s">
         <v>222</v>
       </c>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
-    </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B4" s="112" t="s">
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118"/>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="118"/>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B4" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="113">
+      <c r="C4" s="46">
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -5120,722 +5701,732 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="112" t="s">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B5" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="115" t="s">
+      <c r="D5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="115" t="s">
+      <c r="E5" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="115" t="s">
+      <c r="F5" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="115" t="s">
+      <c r="H5" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="I5" s="115" t="s">
+      <c r="I5" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="115" t="s">
+      <c r="J5" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="115" t="s">
+      <c r="K5" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="L5" s="115" t="s">
+      <c r="L5" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M5" s="115">
-        <v>2</v>
-      </c>
-      <c r="N5" s="115" t="s">
+      <c r="M5" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N5" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="113" t="s">
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="46" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B6" s="112" t="s">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B6" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="D6" s="115" t="s">
+      <c r="D6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="115" t="s">
+      <c r="E6" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="115" t="s">
+      <c r="F6" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="115" t="s">
+      <c r="H6" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="I6" s="115" t="s">
+      <c r="I6" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="115" t="s">
+      <c r="J6" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="115" t="s">
+      <c r="K6" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="L6" s="115" t="s">
+      <c r="L6" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M6" s="115">
-        <v>3</v>
-      </c>
-      <c r="N6" s="115" t="s">
+      <c r="M6" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N6" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="115"/>
-      <c r="S6" s="113" t="s">
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="46" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B7" s="112" t="s">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B7" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="114" t="s">
+      <c r="C7" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="115" t="s">
+      <c r="D7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="115" t="s">
+      <c r="E7" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="115" t="s">
+      <c r="F7" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="115" t="s">
+      <c r="H7" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="J7" s="115" t="s">
+      <c r="J7" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="115" t="s">
+      <c r="K7" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="L7" s="115" t="s">
+      <c r="L7" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M7" s="115">
-        <v>4</v>
-      </c>
-      <c r="N7" s="115" t="s">
+      <c r="M7" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N7" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="113" t="s">
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="46" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B8" s="111" t="s">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B8" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="115" t="s">
+      <c r="C8" s="118"/>
+      <c r="D8" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="115" t="s">
+      <c r="E8" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="115" t="s">
+      <c r="F8" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="115" t="s">
+      <c r="H8" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="I8" s="115" t="s">
+      <c r="I8" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="115" t="s">
+      <c r="J8" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="115" t="s">
+      <c r="K8" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="L8" s="115" t="s">
+      <c r="L8" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M8" s="115">
-        <v>5</v>
-      </c>
-      <c r="N8" s="115" t="s">
+      <c r="M8" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N8" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="113" t="s">
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="46" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B9" s="112" t="s">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B9" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="113" t="s">
+      <c r="C9" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="115" t="s">
+      <c r="D9" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="115" t="s">
+      <c r="E9" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="115" t="s">
+      <c r="F9" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="115" t="s">
+      <c r="H9" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="I9" s="115" t="s">
+      <c r="I9" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="115" t="s">
+      <c r="J9" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="115" t="s">
+      <c r="K9" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="L9" s="115" t="s">
+      <c r="L9" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M9" s="115">
-        <v>6</v>
-      </c>
-      <c r="N9" s="115" t="s">
+      <c r="M9" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N9" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="115"/>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="115"/>
-      <c r="S9" s="113" t="s">
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="46" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B10" s="112" t="s">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B10" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="C10" s="113" t="s">
+      <c r="C10" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="115" t="s">
+      <c r="D10" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="115" t="s">
+      <c r="E10" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="115" t="s">
+      <c r="F10" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="115" t="s">
+      <c r="H10" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="I10" s="115" t="s">
+      <c r="I10" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="115" t="s">
+      <c r="J10" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="115" t="s">
+      <c r="K10" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="L10" s="115" t="s">
+      <c r="L10" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M10" s="115">
-        <v>7</v>
-      </c>
-      <c r="N10" s="115" t="s">
+      <c r="M10" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N10" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="O10" s="115"/>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="113" t="s">
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="46" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B11" s="112" t="s">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B11" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="113" t="s">
+      <c r="C11" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="115" t="s">
+      <c r="E11" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="115" t="s">
+      <c r="F11" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="115" t="s">
+      <c r="H11" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="I11" s="115" t="s">
+      <c r="I11" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="115" t="s">
+      <c r="J11" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="115" t="s">
+      <c r="K11" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="L11" s="115" t="s">
+      <c r="L11" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M11" s="115">
-        <v>2</v>
-      </c>
-      <c r="N11" s="115" t="s">
+      <c r="M11" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N11" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="O11" s="115"/>
-      <c r="P11" s="115"/>
-      <c r="Q11" s="115"/>
-      <c r="R11" s="115"/>
-      <c r="S11" s="113" t="s">
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="46" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B12" s="111" t="s">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B12" s="118" t="s">
         <v>190</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="115" t="s">
+      <c r="C12" s="118"/>
+      <c r="D12" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="115" t="s">
+      <c r="E12" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="115" t="s">
+      <c r="F12" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="115" t="s">
+      <c r="H12" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="I12" s="115" t="s">
+      <c r="I12" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="115" t="s">
+      <c r="J12" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="115" t="s">
+      <c r="K12" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="L12" s="115" t="s">
+      <c r="L12" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M12" s="115">
-        <v>3</v>
-      </c>
-      <c r="N12" s="115" t="s">
+      <c r="M12" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N12" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="O12" s="115"/>
-      <c r="P12" s="115"/>
-      <c r="Q12" s="115"/>
-      <c r="R12" s="115"/>
-      <c r="S12" s="113" t="s">
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="46" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B13" s="112" t="s">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B13" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="113" t="s">
+      <c r="C13" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="D13" s="115" t="s">
+      <c r="D13" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="115" t="s">
+      <c r="E13" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="115" t="s">
+      <c r="F13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="115" t="s">
+      <c r="H13" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="I13" s="115" t="s">
+      <c r="I13" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="J13" s="115" t="s">
+      <c r="J13" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="115" t="s">
+      <c r="K13" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="L13" s="115" t="s">
+      <c r="L13" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M13" s="115">
-        <v>4</v>
-      </c>
-      <c r="N13" s="115" t="s">
+      <c r="M13" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N13" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="O13" s="115"/>
-      <c r="P13" s="115"/>
-      <c r="Q13" s="115"/>
-      <c r="R13" s="115"/>
-      <c r="S13" s="113" t="s">
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="46" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B14" s="112" t="s">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B14" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C14" s="113" t="s">
+      <c r="C14" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="H14" s="115" t="s">
+      <c r="H14" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="I14" s="115" t="s">
+      <c r="I14" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="J14" s="115" t="s">
+      <c r="J14" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="115" t="s">
+      <c r="K14" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="115" t="s">
+      <c r="L14" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M14" s="115">
-        <v>5</v>
-      </c>
-      <c r="N14" s="115" t="s">
+      <c r="M14" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N14" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="115"/>
-      <c r="S14" s="113" t="s">
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="46" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B15" s="112" t="s">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B15" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="C15" s="113" t="s">
+      <c r="C15" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="115" t="s">
+      <c r="H15" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="I15" s="115" t="s">
+      <c r="I15" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="115" t="s">
+      <c r="J15" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="115" t="s">
+      <c r="K15" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="L15" s="115" t="s">
+      <c r="L15" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M15" s="115">
-        <v>6</v>
-      </c>
-      <c r="N15" s="115" t="s">
+      <c r="M15" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N15" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="O15" s="115"/>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="115"/>
-      <c r="R15" s="115"/>
-      <c r="S15" s="113" t="s">
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="46" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B16" s="112" t="s">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B16" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="C16" s="113" t="s">
+      <c r="C16" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="H16" s="115" t="s">
+      <c r="H16" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="I16" s="115" t="s">
+      <c r="I16" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="115" t="s">
+      <c r="J16" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="115" t="s">
+      <c r="K16" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="L16" s="115" t="s">
+      <c r="L16" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M16" s="115">
-        <v>7</v>
-      </c>
-      <c r="N16" s="115" t="s">
+      <c r="M16" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N16" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="O16" s="115"/>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="115"/>
-      <c r="R16" s="115"/>
-      <c r="S16" s="113" t="s">
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="46" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="112" t="s">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B17" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="C17" s="113" t="s">
+      <c r="C17" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="H17" s="115" t="s">
+      <c r="H17" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="I17" s="115" t="s">
+      <c r="I17" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="J17" s="115" t="s">
+      <c r="J17" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="115" t="s">
+      <c r="K17" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="L17" s="115" t="s">
+      <c r="L17" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M17" s="115">
-        <v>2</v>
-      </c>
-      <c r="N17" s="115" t="s">
+      <c r="M17" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N17" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="115"/>
-      <c r="R17" s="115"/>
-      <c r="S17" s="113" t="s">
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="46" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="111" t="s">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B18" s="118" t="s">
         <v>197</v>
       </c>
-      <c r="C18" s="111"/>
-      <c r="H18" s="115" t="s">
+      <c r="C18" s="118"/>
+      <c r="H18" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="I18" s="115" t="s">
+      <c r="I18" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="J18" s="115" t="s">
+      <c r="J18" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="K18" s="115" t="s">
+      <c r="K18" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="L18" s="115" t="s">
+      <c r="L18" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M18" s="115">
-        <v>3</v>
-      </c>
-      <c r="N18" s="115" t="s">
+      <c r="M18" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N18" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="O18" s="115"/>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="115"/>
-      <c r="R18" s="115"/>
-      <c r="S18" s="113" t="s">
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="46" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="112" t="s">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B19" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="C19" s="113" t="s">
+      <c r="C19" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="115" t="s">
+      <c r="H19" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="I19" s="115" t="s">
+      <c r="I19" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="J19" s="115" t="s">
+      <c r="J19" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="K19" s="115" t="s">
+      <c r="K19" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="L19" s="115" t="s">
+      <c r="L19" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M19" s="115">
-        <v>4</v>
-      </c>
-      <c r="N19" s="115" t="s">
+      <c r="M19" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N19" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="O19" s="115" t="s">
+      <c r="O19" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="115" t="s">
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="R19" s="115"/>
-      <c r="S19" s="113" t="s">
+      <c r="R19" s="48"/>
+      <c r="S19" s="46" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="112" t="s">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B20" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="C20" s="113" t="s">
+      <c r="C20" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="115" t="s">
+      <c r="H20" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="I20" s="115" t="s">
+      <c r="I20" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="J20" s="115" t="s">
+      <c r="J20" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="115" t="s">
+      <c r="K20" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="L20" s="115" t="s">
+      <c r="L20" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M20" s="115">
-        <v>5</v>
-      </c>
-      <c r="N20" s="115" t="s">
+      <c r="M20" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N20" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="O20" s="115" t="s">
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="46" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B21" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="L21" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M21" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N21" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O21" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="115"/>
-      <c r="R20" s="115"/>
-      <c r="S20" s="113" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="C21" s="113" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="115" t="s">
-        <v>271</v>
-      </c>
-      <c r="I21" s="115" t="s">
-        <v>108</v>
-      </c>
-      <c r="J21" s="115" t="s">
-        <v>56</v>
-      </c>
-      <c r="K21" s="115" t="s">
-        <v>266</v>
-      </c>
-      <c r="L21" s="115" t="s">
-        <v>236</v>
-      </c>
-      <c r="M21" s="115">
-        <v>6</v>
-      </c>
-      <c r="N21" s="115" t="s">
-        <v>233</v>
-      </c>
-      <c r="O21" s="115" t="s">
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="P21" s="115"/>
-      <c r="Q21" s="115" t="s">
-        <v>83</v>
-      </c>
-      <c r="R21" s="115"/>
-      <c r="S21" s="113" t="s">
+      <c r="R21" s="48"/>
+      <c r="S21" s="46" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="118" t="s">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B22" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="C22" s="119" t="s">
+      <c r="C22" s="50" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="111" t="s">
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="46"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B23" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B24" s="10" t="s">
         <v>211</v>
       </c>
@@ -5855,163 +6446,163 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="115">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B25" s="48">
         <v>1</v>
       </c>
-      <c r="C25" s="115" t="s">
+      <c r="C25" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="D25" s="115">
+      <c r="D25" s="48">
         <f>COUNTIF($M$5:$M$21,B25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="115">
+      <c r="E25" s="48">
         <f>COUNTA(H5:H21)-D25</f>
         <v>17</v>
       </c>
-      <c r="F25" s="115">
+      <c r="F25" s="48">
         <v>0</v>
       </c>
-      <c r="G25" s="115">
+      <c r="G25" s="48">
         <f>COUNTA(H5:H21)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="115">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B26" s="48">
         <v>2</v>
       </c>
-      <c r="C26" s="115" t="s">
+      <c r="C26" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="D26" s="115">
+      <c r="D26" s="48">
         <f t="shared" ref="D26:D31" si="0">COUNTIF($M$5:$M$21,B26)</f>
-        <v>3</v>
-      </c>
-      <c r="E26" s="115">
+        <v>0</v>
+      </c>
+      <c r="E26" s="48">
         <f>E25-D26</f>
-        <v>14</v>
-      </c>
-      <c r="F26" s="115">
+        <v>17</v>
+      </c>
+      <c r="F26" s="48">
         <v>0</v>
       </c>
-      <c r="G26" s="115">
+      <c r="G26" s="48">
         <f>G25-F26</f>
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="115">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B27" s="48">
         <v>3</v>
       </c>
-      <c r="C27" s="115" t="s">
+      <c r="C27" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="D27" s="115">
+      <c r="D27" s="48">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E27" s="115">
+        <v>0</v>
+      </c>
+      <c r="E27" s="48">
         <f t="shared" ref="E27:E31" si="1">E26-D27</f>
-        <v>11</v>
-      </c>
-      <c r="F27" s="115">
+        <v>17</v>
+      </c>
+      <c r="F27" s="48">
         <v>0</v>
       </c>
-      <c r="G27" s="115">
+      <c r="G27" s="48">
         <f t="shared" ref="G27:G31" si="2">G26-F27</f>
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="115">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B28" s="48">
         <v>4</v>
       </c>
-      <c r="C28" s="115" t="s">
+      <c r="C28" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="D28" s="115">
+      <c r="D28" s="48">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E28" s="115">
+        <v>0</v>
+      </c>
+      <c r="E28" s="48">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F28" s="115">
+        <v>17</v>
+      </c>
+      <c r="F28" s="48">
         <v>0</v>
       </c>
-      <c r="G28" s="115">
+      <c r="G28" s="48">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="115">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B29" s="48">
         <v>5</v>
       </c>
-      <c r="C29" s="115" t="s">
+      <c r="C29" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="D29" s="115">
+      <c r="D29" s="48">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E29" s="115">
+        <v>0</v>
+      </c>
+      <c r="E29" s="48">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F29" s="115">
+        <v>17</v>
+      </c>
+      <c r="F29" s="48">
         <v>0</v>
       </c>
-      <c r="G29" s="115">
+      <c r="G29" s="48">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="115">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B30" s="48">
         <v>6</v>
       </c>
-      <c r="C30" s="115" t="s">
+      <c r="C30" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="D30" s="115">
+      <c r="D30" s="48">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E30" s="115">
+        <v>0</v>
+      </c>
+      <c r="E30" s="48">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F30" s="115">
+        <v>17</v>
+      </c>
+      <c r="F30" s="48">
         <v>0</v>
       </c>
-      <c r="G30" s="115">
+      <c r="G30" s="48">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="115">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B31" s="48">
         <v>7</v>
       </c>
-      <c r="C31" s="115" t="s">
+      <c r="C31" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="D31" s="115">
+      <c r="D31" s="48">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E31" s="115">
+        <v>0</v>
+      </c>
+      <c r="E31" s="48">
         <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="F31" s="48">
         <v>0</v>
       </c>
-      <c r="F31" s="115">
-        <v>0</v>
-      </c>
-      <c r="G31" s="115">
+      <c r="G31" s="48">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
@@ -6028,12 +6619,1063 @@
     <mergeCell ref="D3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="O">
+    <cfRule type="containsText" dxfId="25" priority="15" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="O">
+    <cfRule type="containsText" dxfId="24" priority="14" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",O1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1048576">
+    <cfRule type="containsText" dxfId="23" priority="11" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",R1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:Q1048576">
+    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",P1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="endsWith" dxfId="21" priority="9" operator="endsWith" text="?">
+      <formula>RIGHT(L1,LEN("?"))="?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="QA">
+      <formula>NOT(ISERROR(SEARCH("QA",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="BE">
+      <formula>NOT(ISERROR(SEARCH("BE",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="FE">
+      <formula>NOT(ISERROR(SEARCH("FE",J1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="TS">
+      <formula>NOT(ISERROR(SEARCH("TS",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="DB">
+      <formula>NOT(ISERROR(SEARCH("DB",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="ED">
+      <formula>NOT(ISERROR(SEARCH("ED",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="PR">
+      <formula>NOT(ISERROR(SEARCH("PR",K1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="beginsWith" dxfId="13" priority="1" operator="beginsWith" text="?">
+      <formula>LEFT(M1,LEN("?"))="?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AD31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="1.7265625" style="42" customWidth="1"/>
+    <col min="2" max="7" width="15.7265625" style="42" customWidth="1"/>
+    <col min="8" max="9" width="10.7265625" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" style="43" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.54296875" style="43" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="5.26953125" style="43" customWidth="1"/>
+    <col min="19" max="19" width="63.453125" style="41" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:30" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="119" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
+      <c r="AB2" s="119"/>
+      <c r="AC2" s="119"/>
+      <c r="AD2" s="119"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B3" s="120" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="H3" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118"/>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="118"/>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B4" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="46">
+        <v>1</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="L4" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="M4" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="N4" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="O4" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="P4" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q4" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="R4" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="S4" s="44" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B5" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N5" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B6" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M6" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N6" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="46" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B7" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N7" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="46" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B8" s="118" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="118"/>
+      <c r="D8" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="L8" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M8" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N8" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="46" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B9" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="L9" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M9" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N9" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="46" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B10" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="L10" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M10" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N10" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="46" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B11" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="L11" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M11" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N11" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="46" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B12" s="118" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="118"/>
+      <c r="D12" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="I12" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="L12" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M12" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N12" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O12" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="R12" s="48"/>
+      <c r="S12" s="46" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B13" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="L13" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M13" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N13" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="46" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B14" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="I14" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="L14" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M14" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N14" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O14" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="R14" s="48"/>
+      <c r="S14" s="46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B15" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="L15" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M15" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N15" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B16" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="I16" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="L16" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M16" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N16" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O16" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="R16" s="48"/>
+      <c r="S16" s="46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B17" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="I17" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="L17" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M17" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N17" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B18" s="118" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="118"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="46"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B19" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="46"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B20" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="46"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B21" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="46"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B22" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="46"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B23" s="118" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B24" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B25" s="48">
+        <v>1</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" s="48">
+        <f>COUNTIF($M$5:$M$21,B25)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="48">
+        <f>COUNTA(H5:H21)-D25</f>
+        <v>13</v>
+      </c>
+      <c r="F25" s="48">
+        <v>0</v>
+      </c>
+      <c r="G25" s="48">
+        <f>COUNTA(H5:H21)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B26" s="48">
+        <v>2</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="D26" s="48">
+        <f t="shared" ref="D26:D31" si="0">COUNTIF($M$5:$M$21,B26)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="48">
+        <f>E25-D26</f>
+        <v>13</v>
+      </c>
+      <c r="F26" s="48">
+        <v>0</v>
+      </c>
+      <c r="G26" s="48">
+        <f>G25-F26</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B27" s="48">
+        <v>3</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="D27" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="48">
+        <f t="shared" ref="E27:E31" si="1">E26-D27</f>
+        <v>13</v>
+      </c>
+      <c r="F27" s="48">
+        <v>0</v>
+      </c>
+      <c r="G27" s="48">
+        <f t="shared" ref="G27:G31" si="2">G26-F27</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B28" s="48">
+        <v>4</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="D28" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="48">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F28" s="48">
+        <v>0</v>
+      </c>
+      <c r="G28" s="48">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B29" s="48">
+        <v>5</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="D29" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="48">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F29" s="48">
+        <v>0</v>
+      </c>
+      <c r="G29" s="48">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B30" s="48">
+        <v>6</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="D30" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="48">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F30" s="48">
+        <v>0</v>
+      </c>
+      <c r="G30" s="48">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B31" s="48">
+        <v>7</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="D31" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="48">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F31" s="48">
+        <v>0</v>
+      </c>
+      <c r="G31" s="48">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B2:AD2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:S3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",N1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6088,14 +7730,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="121"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Management/Production_Progress_Oct_2017.xlsx
+++ b/Management/Production_Progress_Oct_2017.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="27560" windowHeight="12320" activeTab="2"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="27560" windowHeight="12320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Production Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint #1 Chart" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint #2 Chart" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint #3 Chart" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="303">
   <si>
     <t>Production Name:</t>
   </si>
@@ -907,6 +907,30 @@
   </si>
   <si>
     <t>DTE-QA-006</t>
+  </si>
+  <si>
+    <t>2017OCT26</t>
+  </si>
+  <si>
+    <t>2017OCT27</t>
+  </si>
+  <si>
+    <t>2017OCT21</t>
+  </si>
+  <si>
+    <t>2017OCT22</t>
+  </si>
+  <si>
+    <t>2017OCT23</t>
+  </si>
+  <si>
+    <t>2017OCT24</t>
+  </si>
+  <si>
+    <t>2017OCT25</t>
+  </si>
+  <si>
+    <t>Sprint #3 Backlog</t>
   </si>
 </sst>
 </file>
@@ -1600,17 +1624,197 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1624,183 +1828,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1810,13 +1837,133 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="44">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2886,6 +3033,261 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Target Task Completion</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #1 Chart'!$E$25:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACDF-47F4-A593-ADC89855D2CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual Task Completion</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #1 Chart'!$G$25:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ACDF-47F4-A593-ADC89855D2CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Assigned Tasks</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #1 Chart'!$D$25:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ACDF-47F4-A593-ADC89855D2CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Completed Tasks</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #1 Chart'!$F$25:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ACDF-47F4-A593-ADC89855D2CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="139667968"/>
+        <c:axId val="58027968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="139667968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58027968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="58027968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="139667968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2989,6 +3391,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F86464-62E3-40C4-9822-D864B84BC108}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3335,7 +3780,7 @@
   <dimension ref="B1:O97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3355,79 +3800,79 @@
   <sheetData>
     <row r="1" spans="2:15" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="83"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="105"/>
     </row>
     <row r="3" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="110" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="93" t="s">
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="95"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="84"/>
     </row>
     <row r="4" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="112" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="69" t="s">
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="71"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="81"/>
     </row>
     <row r="5" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="114" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="115"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="71"/>
       <c r="I5" s="16" t="s">
         <v>69</v>
       </c>
@@ -3451,23 +3896,23 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="68" t="s">
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
       <c r="O6" s="33"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -3568,14 +4013,14 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="19"/>
-      <c r="I9" s="90" t="s">
+      <c r="I9" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="92"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="78"/>
       <c r="O9" s="33"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
@@ -3599,13 +4044,13 @@
       <c r="I10" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="98" t="s">
+      <c r="J10" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="92"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="78"/>
       <c r="O10" s="33"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
@@ -3627,13 +4072,13 @@
       <c r="I11" s="18">
         <v>1</v>
       </c>
-      <c r="J11" s="51" t="s">
+      <c r="J11" s="90" t="s">
         <v>181</v>
       </c>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="52"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="92"/>
       <c r="O11" s="33"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
@@ -3654,14 +4099,14 @@
         <v>40</v>
       </c>
       <c r="H12" s="19"/>
-      <c r="I12" s="64" t="s">
+      <c r="I12" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
       <c r="O12" s="33"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
@@ -3802,58 +4247,58 @@
       <c r="H16" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="64" t="s">
+      <c r="I16" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
       <c r="O16" s="33"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="100"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="56"/>
       <c r="I17" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="65" t="s">
+      <c r="J17" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
       <c r="O17" s="33"/>
     </row>
     <row r="18" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="86"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="108"/>
       <c r="I18" s="18">
         <v>1</v>
       </c>
-      <c r="J18" s="63" t="s">
+      <c r="J18" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
       <c r="O18" s="33"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
@@ -3881,13 +4326,13 @@
       <c r="I19" s="18">
         <v>2</v>
       </c>
-      <c r="J19" s="63" t="s">
+      <c r="J19" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
       <c r="O19" s="33"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
@@ -3913,14 +4358,14 @@
         <f>SUM(E20:G20)</f>
         <v>1</v>
       </c>
-      <c r="I20" s="66" t="s">
+      <c r="I20" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="110"/>
       <c r="O20" s="33"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
@@ -4012,13 +4457,13 @@
       </c>
     </row>
     <row r="23" spans="2:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="87"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="89"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="113"/>
       <c r="I23" s="18">
         <v>3</v>
       </c>
@@ -4042,31 +4487,31 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="66" t="s">
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
+      <c r="N24" s="110"/>
       <c r="O24" s="33"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
       <c r="E25" s="15">
         <f>SUM(E28,E31,E34,E37)</f>
         <v>31</v>
@@ -4084,73 +4529,73 @@
       <c r="I25" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="67" t="s">
+      <c r="J25" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="110"/>
       <c r="O25" s="33"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="101" t="s">
+      <c r="B26" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="103"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="59"/>
       <c r="I26" s="18">
         <v>1</v>
       </c>
-      <c r="J26" s="63" t="s">
+      <c r="J26" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
       <c r="O26" s="33"/>
     </row>
     <row r="27" spans="2:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="59" t="s">
+      <c r="D27" s="53"/>
+      <c r="E27" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="F27" s="60"/>
-      <c r="G27" s="59" t="s">
+      <c r="F27" s="73"/>
+      <c r="G27" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="H27" s="97"/>
+      <c r="H27" s="88"/>
       <c r="I27" s="21">
         <v>2</v>
       </c>
-      <c r="J27" s="61" t="s">
+      <c r="J27" s="114" t="s">
         <v>120</v>
       </c>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
+      <c r="K27" s="114"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="114"/>
+      <c r="N27" s="114"/>
       <c r="O27" s="37"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="54"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="14">
         <v>8</v>
       </c>
@@ -4164,26 +4609,26 @@
       <c r="H28" s="12">
         <v>31</v>
       </c>
-      <c r="I28" s="69" t="s">
+      <c r="I28" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="71"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="81"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="118"/>
       <c r="I29" s="16" t="s">
         <v>69</v>
       </c>
@@ -4210,36 +4655,36 @@
       <c r="B30" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="90" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="52"/>
-      <c r="E30" s="59" t="s">
+      <c r="D30" s="92"/>
+      <c r="E30" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="F30" s="60"/>
-      <c r="G30" s="59" t="s">
+      <c r="F30" s="73"/>
+      <c r="G30" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="H30" s="96"/>
-      <c r="I30" s="68" t="s">
+      <c r="H30" s="87"/>
+      <c r="I30" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
       <c r="O30" s="33"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="90" t="s">
         <v>176</v>
       </c>
-      <c r="D31" s="52"/>
+      <c r="D31" s="92"/>
       <c r="E31" s="14">
         <v>7</v>
       </c>
@@ -4276,15 +4721,15 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="118"/>
       <c r="I32" s="18">
         <v>2</v>
       </c>
@@ -4311,36 +4756,36 @@
       <c r="B33" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="C33" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="D33" s="54"/>
-      <c r="E33" s="59" t="s">
+      <c r="D33" s="53"/>
+      <c r="E33" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="F33" s="60"/>
-      <c r="G33" s="59" t="s">
+      <c r="F33" s="73"/>
+      <c r="G33" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="H33" s="96"/>
-      <c r="I33" s="68" t="s">
+      <c r="H33" s="87"/>
+      <c r="I33" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
       <c r="O33" s="33"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="D34" s="54"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="14">
         <v>4</v>
       </c>
@@ -4357,71 +4802,71 @@
       <c r="I34" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J34" s="62" t="s">
+      <c r="J34" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="86"/>
       <c r="O34" s="33"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="118"/>
       <c r="I35" s="18">
         <v>1</v>
       </c>
-      <c r="J35" s="63" t="s">
+      <c r="J35" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="63"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
       <c r="O35" s="33"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="D36" s="54"/>
-      <c r="E36" s="59" t="s">
+      <c r="D36" s="53"/>
+      <c r="E36" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="60"/>
-      <c r="G36" s="59" t="s">
+      <c r="F36" s="73"/>
+      <c r="G36" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="H36" s="96"/>
-      <c r="I36" s="64" t="s">
+      <c r="H36" s="87"/>
+      <c r="I36" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="94"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
       <c r="O36" s="33"/>
     </row>
     <row r="37" spans="2:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="115" t="s">
         <v>180</v>
       </c>
-      <c r="D37" s="56"/>
+      <c r="D37" s="116"/>
       <c r="E37" s="32">
         <v>12</v>
       </c>
@@ -4458,15 +4903,15 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="77"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="99"/>
       <c r="I38" s="18">
         <v>2</v>
       </c>
@@ -4490,82 +4935,82 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="64" t="s">
+      <c r="C39" s="97"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="65"/>
-      <c r="M39" s="65"/>
-      <c r="N39" s="65"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="94"/>
+      <c r="L39" s="94"/>
+      <c r="M39" s="94"/>
+      <c r="N39" s="94"/>
       <c r="O39" s="33"/>
     </row>
     <row r="40" spans="2:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="80"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="102"/>
       <c r="I40" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J40" s="65" t="s">
+      <c r="J40" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="K40" s="65"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="65"/>
+      <c r="K40" s="94"/>
+      <c r="L40" s="94"/>
+      <c r="M40" s="94"/>
+      <c r="N40" s="94"/>
       <c r="O40" s="33"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I41" s="18">
         <v>1</v>
       </c>
-      <c r="J41" s="63" t="s">
+      <c r="J41" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="63"/>
+      <c r="K41" s="95"/>
+      <c r="L41" s="95"/>
+      <c r="M41" s="95"/>
+      <c r="N41" s="95"/>
       <c r="O41" s="33"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I42" s="18">
         <v>2</v>
       </c>
-      <c r="J42" s="63" t="s">
+      <c r="J42" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="K42" s="63"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="63"/>
-      <c r="N42" s="63"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
       <c r="O42" s="33"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I43" s="66" t="s">
+      <c r="I43" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="J43" s="67"/>
-      <c r="K43" s="67"/>
-      <c r="L43" s="67"/>
-      <c r="M43" s="67"/>
-      <c r="N43" s="67"/>
+      <c r="J43" s="110"/>
+      <c r="K43" s="110"/>
+      <c r="L43" s="110"/>
+      <c r="M43" s="110"/>
+      <c r="N43" s="110"/>
       <c r="O43" s="33"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
@@ -4638,65 +5083,65 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I47" s="66" t="s">
+      <c r="I47" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="67"/>
+      <c r="J47" s="110"/>
+      <c r="K47" s="110"/>
+      <c r="L47" s="110"/>
+      <c r="M47" s="110"/>
+      <c r="N47" s="110"/>
       <c r="O47" s="33"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I48" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J48" s="67" t="s">
+      <c r="J48" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="K48" s="67"/>
-      <c r="L48" s="67"/>
-      <c r="M48" s="67"/>
-      <c r="N48" s="67"/>
+      <c r="K48" s="110"/>
+      <c r="L48" s="110"/>
+      <c r="M48" s="110"/>
+      <c r="N48" s="110"/>
       <c r="O48" s="33"/>
     </row>
     <row r="49" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I49" s="18">
         <v>1</v>
       </c>
-      <c r="J49" s="63" t="s">
+      <c r="J49" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="K49" s="63"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="63"/>
+      <c r="K49" s="95"/>
+      <c r="L49" s="95"/>
+      <c r="M49" s="95"/>
+      <c r="N49" s="95"/>
       <c r="O49" s="33"/>
     </row>
     <row r="50" spans="9:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I50" s="21">
         <v>2</v>
       </c>
-      <c r="J50" s="61" t="s">
+      <c r="J50" s="114" t="s">
         <v>120</v>
       </c>
-      <c r="K50" s="61"/>
-      <c r="L50" s="61"/>
-      <c r="M50" s="61"/>
-      <c r="N50" s="61"/>
+      <c r="K50" s="114"/>
+      <c r="L50" s="114"/>
+      <c r="M50" s="114"/>
+      <c r="N50" s="114"/>
       <c r="O50" s="37"/>
     </row>
     <row r="51" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I51" s="69" t="s">
+      <c r="I51" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="70"/>
-      <c r="M51" s="70"/>
-      <c r="N51" s="70"/>
-      <c r="O51" s="71"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="80"/>
+      <c r="M51" s="80"/>
+      <c r="N51" s="80"/>
+      <c r="O51" s="81"/>
     </row>
     <row r="52" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I52" s="16" t="s">
@@ -4722,14 +5167,14 @@
       </c>
     </row>
     <row r="53" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I53" s="68" t="s">
+      <c r="I53" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="62"/>
+      <c r="J53" s="86"/>
+      <c r="K53" s="86"/>
+      <c r="L53" s="86"/>
+      <c r="M53" s="86"/>
+      <c r="N53" s="86"/>
       <c r="O53" s="40"/>
     </row>
     <row r="54" spans="9:15" x14ac:dyDescent="0.25">
@@ -4756,51 +5201,51 @@
       </c>
     </row>
     <row r="55" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I55" s="68" t="s">
+      <c r="I55" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="62"/>
+      <c r="J55" s="86"/>
+      <c r="K55" s="86"/>
+      <c r="L55" s="86"/>
+      <c r="M55" s="86"/>
+      <c r="N55" s="86"/>
       <c r="O55" s="33"/>
     </row>
     <row r="56" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I56" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J56" s="62" t="s">
+      <c r="J56" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="K56" s="62"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="62"/>
-      <c r="N56" s="62"/>
+      <c r="K56" s="86"/>
+      <c r="L56" s="86"/>
+      <c r="M56" s="86"/>
+      <c r="N56" s="86"/>
       <c r="O56" s="33"/>
     </row>
     <row r="57" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I57" s="18">
         <v>1</v>
       </c>
-      <c r="J57" s="63" t="s">
+      <c r="J57" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="K57" s="63"/>
-      <c r="L57" s="63"/>
-      <c r="M57" s="63"/>
-      <c r="N57" s="63"/>
+      <c r="K57" s="95"/>
+      <c r="L57" s="95"/>
+      <c r="M57" s="95"/>
+      <c r="N57" s="95"/>
       <c r="O57" s="33"/>
     </row>
     <row r="58" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I58" s="64" t="s">
+      <c r="I58" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="J58" s="65"/>
-      <c r="K58" s="65"/>
-      <c r="L58" s="65"/>
-      <c r="M58" s="65"/>
-      <c r="N58" s="65"/>
+      <c r="J58" s="94"/>
+      <c r="K58" s="94"/>
+      <c r="L58" s="94"/>
+      <c r="M58" s="94"/>
+      <c r="N58" s="94"/>
       <c r="O58" s="33"/>
     </row>
     <row r="59" spans="9:15" x14ac:dyDescent="0.25">
@@ -4827,51 +5272,51 @@
       </c>
     </row>
     <row r="60" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I60" s="64" t="s">
+      <c r="I60" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="J60" s="65"/>
-      <c r="K60" s="65"/>
-      <c r="L60" s="65"/>
-      <c r="M60" s="65"/>
-      <c r="N60" s="65"/>
+      <c r="J60" s="94"/>
+      <c r="K60" s="94"/>
+      <c r="L60" s="94"/>
+      <c r="M60" s="94"/>
+      <c r="N60" s="94"/>
       <c r="O60" s="33"/>
     </row>
     <row r="61" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I61" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J61" s="65" t="s">
+      <c r="J61" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="K61" s="65"/>
-      <c r="L61" s="65"/>
-      <c r="M61" s="65"/>
-      <c r="N61" s="65"/>
+      <c r="K61" s="94"/>
+      <c r="L61" s="94"/>
+      <c r="M61" s="94"/>
+      <c r="N61" s="94"/>
       <c r="O61" s="33"/>
     </row>
     <row r="62" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I62" s="18">
         <v>1</v>
       </c>
-      <c r="J62" s="63" t="s">
+      <c r="J62" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="K62" s="63"/>
-      <c r="L62" s="63"/>
-      <c r="M62" s="63"/>
-      <c r="N62" s="63"/>
+      <c r="K62" s="95"/>
+      <c r="L62" s="95"/>
+      <c r="M62" s="95"/>
+      <c r="N62" s="95"/>
       <c r="O62" s="33"/>
     </row>
     <row r="63" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I63" s="66" t="s">
+      <c r="I63" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="J63" s="67"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="67"/>
-      <c r="M63" s="67"/>
-      <c r="N63" s="67"/>
+      <c r="J63" s="110"/>
+      <c r="K63" s="110"/>
+      <c r="L63" s="110"/>
+      <c r="M63" s="110"/>
+      <c r="N63" s="110"/>
       <c r="O63" s="33"/>
     </row>
     <row r="64" spans="9:15" x14ac:dyDescent="0.25">
@@ -4921,65 +5366,65 @@
       </c>
     </row>
     <row r="66" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I66" s="66" t="s">
+      <c r="I66" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="J66" s="67"/>
-      <c r="K66" s="67"/>
-      <c r="L66" s="67"/>
-      <c r="M66" s="67"/>
-      <c r="N66" s="67"/>
+      <c r="J66" s="110"/>
+      <c r="K66" s="110"/>
+      <c r="L66" s="110"/>
+      <c r="M66" s="110"/>
+      <c r="N66" s="110"/>
       <c r="O66" s="33"/>
     </row>
     <row r="67" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I67" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J67" s="67" t="s">
+      <c r="J67" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="K67" s="67"/>
-      <c r="L67" s="67"/>
-      <c r="M67" s="67"/>
-      <c r="N67" s="67"/>
+      <c r="K67" s="110"/>
+      <c r="L67" s="110"/>
+      <c r="M67" s="110"/>
+      <c r="N67" s="110"/>
       <c r="O67" s="33"/>
     </row>
     <row r="68" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I68" s="18">
         <v>1</v>
       </c>
-      <c r="J68" s="63" t="s">
+      <c r="J68" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="K68" s="63"/>
-      <c r="L68" s="63"/>
-      <c r="M68" s="63"/>
-      <c r="N68" s="63"/>
+      <c r="K68" s="95"/>
+      <c r="L68" s="95"/>
+      <c r="M68" s="95"/>
+      <c r="N68" s="95"/>
       <c r="O68" s="33"/>
     </row>
     <row r="69" spans="9:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I69" s="21">
         <v>2</v>
       </c>
-      <c r="J69" s="61" t="s">
+      <c r="J69" s="114" t="s">
         <v>120</v>
       </c>
-      <c r="K69" s="61"/>
-      <c r="L69" s="61"/>
-      <c r="M69" s="61"/>
-      <c r="N69" s="61"/>
+      <c r="K69" s="114"/>
+      <c r="L69" s="114"/>
+      <c r="M69" s="114"/>
+      <c r="N69" s="114"/>
       <c r="O69" s="37"/>
     </row>
     <row r="70" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I70" s="69" t="s">
+      <c r="I70" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="J70" s="70"/>
-      <c r="K70" s="70"/>
-      <c r="L70" s="70"/>
-      <c r="M70" s="70"/>
-      <c r="N70" s="70"/>
-      <c r="O70" s="71"/>
+      <c r="J70" s="80"/>
+      <c r="K70" s="80"/>
+      <c r="L70" s="80"/>
+      <c r="M70" s="80"/>
+      <c r="N70" s="80"/>
+      <c r="O70" s="81"/>
     </row>
     <row r="71" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I71" s="16" t="s">
@@ -5005,14 +5450,14 @@
       </c>
     </row>
     <row r="72" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I72" s="68" t="s">
+      <c r="I72" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="J72" s="62"/>
-      <c r="K72" s="62"/>
-      <c r="L72" s="62"/>
-      <c r="M72" s="62"/>
-      <c r="N72" s="62"/>
+      <c r="J72" s="86"/>
+      <c r="K72" s="86"/>
+      <c r="L72" s="86"/>
+      <c r="M72" s="86"/>
+      <c r="N72" s="86"/>
       <c r="O72" s="33"/>
     </row>
     <row r="73" spans="9:15" x14ac:dyDescent="0.25">
@@ -5083,51 +5528,51 @@
       </c>
     </row>
     <row r="76" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I76" s="68" t="s">
+      <c r="I76" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="J76" s="62"/>
-      <c r="K76" s="62"/>
-      <c r="L76" s="62"/>
-      <c r="M76" s="62"/>
-      <c r="N76" s="62"/>
+      <c r="J76" s="86"/>
+      <c r="K76" s="86"/>
+      <c r="L76" s="86"/>
+      <c r="M76" s="86"/>
+      <c r="N76" s="86"/>
       <c r="O76" s="33"/>
     </row>
     <row r="77" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I77" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J77" s="62" t="s">
+      <c r="J77" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="K77" s="62"/>
-      <c r="L77" s="62"/>
-      <c r="M77" s="62"/>
-      <c r="N77" s="62"/>
+      <c r="K77" s="86"/>
+      <c r="L77" s="86"/>
+      <c r="M77" s="86"/>
+      <c r="N77" s="86"/>
       <c r="O77" s="33"/>
     </row>
     <row r="78" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I78" s="18">
         <v>1</v>
       </c>
-      <c r="J78" s="63" t="s">
+      <c r="J78" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="K78" s="63"/>
-      <c r="L78" s="63"/>
-      <c r="M78" s="63"/>
-      <c r="N78" s="63"/>
+      <c r="K78" s="95"/>
+      <c r="L78" s="95"/>
+      <c r="M78" s="95"/>
+      <c r="N78" s="95"/>
       <c r="O78" s="33"/>
     </row>
     <row r="79" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I79" s="64" t="s">
+      <c r="I79" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="J79" s="65"/>
-      <c r="K79" s="65"/>
-      <c r="L79" s="65"/>
-      <c r="M79" s="65"/>
-      <c r="N79" s="65"/>
+      <c r="J79" s="94"/>
+      <c r="K79" s="94"/>
+      <c r="L79" s="94"/>
+      <c r="M79" s="94"/>
+      <c r="N79" s="94"/>
       <c r="O79" s="33"/>
     </row>
     <row r="80" spans="9:15" x14ac:dyDescent="0.25">
@@ -5177,64 +5622,64 @@
       </c>
     </row>
     <row r="82" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I82" s="64" t="s">
+      <c r="I82" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="J82" s="65"/>
-      <c r="K82" s="65"/>
-      <c r="L82" s="65"/>
-      <c r="M82" s="65"/>
-      <c r="N82" s="65"/>
+      <c r="J82" s="94"/>
+      <c r="K82" s="94"/>
+      <c r="L82" s="94"/>
+      <c r="M82" s="94"/>
+      <c r="N82" s="94"/>
       <c r="O82" s="33"/>
     </row>
     <row r="83" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I83" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J83" s="65" t="s">
+      <c r="J83" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="K83" s="65"/>
-      <c r="L83" s="65"/>
-      <c r="M83" s="65"/>
-      <c r="N83" s="65"/>
+      <c r="K83" s="94"/>
+      <c r="L83" s="94"/>
+      <c r="M83" s="94"/>
+      <c r="N83" s="94"/>
       <c r="O83" s="33"/>
     </row>
     <row r="84" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I84" s="18">
         <v>1</v>
       </c>
-      <c r="J84" s="63" t="s">
+      <c r="J84" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="K84" s="63"/>
-      <c r="L84" s="63"/>
-      <c r="M84" s="63"/>
-      <c r="N84" s="63"/>
+      <c r="K84" s="95"/>
+      <c r="L84" s="95"/>
+      <c r="M84" s="95"/>
+      <c r="N84" s="95"/>
       <c r="O84" s="33"/>
     </row>
     <row r="85" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I85" s="18">
         <v>2</v>
       </c>
-      <c r="J85" s="63" t="s">
+      <c r="J85" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="K85" s="63"/>
-      <c r="L85" s="63"/>
-      <c r="M85" s="63"/>
-      <c r="N85" s="63"/>
+      <c r="K85" s="95"/>
+      <c r="L85" s="95"/>
+      <c r="M85" s="95"/>
+      <c r="N85" s="95"/>
       <c r="O85" s="33"/>
     </row>
     <row r="86" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I86" s="66" t="s">
+      <c r="I86" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="J86" s="67"/>
-      <c r="K86" s="67"/>
-      <c r="L86" s="67"/>
-      <c r="M86" s="67"/>
-      <c r="N86" s="67"/>
+      <c r="J86" s="110"/>
+      <c r="K86" s="110"/>
+      <c r="L86" s="110"/>
+      <c r="M86" s="110"/>
+      <c r="N86" s="110"/>
       <c r="O86" s="33"/>
     </row>
     <row r="87" spans="9:15" x14ac:dyDescent="0.25">
@@ -5395,85 +5840,109 @@
       </c>
     </row>
     <row r="94" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I94" s="66" t="s">
+      <c r="I94" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="J94" s="67"/>
-      <c r="K94" s="67"/>
-      <c r="L94" s="67"/>
-      <c r="M94" s="67"/>
-      <c r="N94" s="67"/>
+      <c r="J94" s="110"/>
+      <c r="K94" s="110"/>
+      <c r="L94" s="110"/>
+      <c r="M94" s="110"/>
+      <c r="N94" s="110"/>
       <c r="O94" s="33"/>
     </row>
     <row r="95" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I95" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J95" s="67" t="s">
+      <c r="J95" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="K95" s="67"/>
-      <c r="L95" s="67"/>
-      <c r="M95" s="67"/>
-      <c r="N95" s="67"/>
+      <c r="K95" s="110"/>
+      <c r="L95" s="110"/>
+      <c r="M95" s="110"/>
+      <c r="N95" s="110"/>
       <c r="O95" s="33"/>
     </row>
     <row r="96" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I96" s="18">
         <v>1</v>
       </c>
-      <c r="J96" s="63" t="s">
+      <c r="J96" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="K96" s="63"/>
-      <c r="L96" s="63"/>
-      <c r="M96" s="63"/>
-      <c r="N96" s="63"/>
+      <c r="K96" s="95"/>
+      <c r="L96" s="95"/>
+      <c r="M96" s="95"/>
+      <c r="N96" s="95"/>
       <c r="O96" s="33"/>
     </row>
     <row r="97" spans="9:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I97" s="21">
         <v>2</v>
       </c>
-      <c r="J97" s="61" t="s">
+      <c r="J97" s="114" t="s">
         <v>120</v>
       </c>
-      <c r="K97" s="61"/>
-      <c r="L97" s="61"/>
-      <c r="M97" s="61"/>
-      <c r="N97" s="61"/>
+      <c r="K97" s="114"/>
+      <c r="L97" s="114"/>
+      <c r="M97" s="114"/>
+      <c r="N97" s="114"/>
       <c r="O97" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="I79:N79"/>
+    <mergeCell ref="I82:N82"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="I86:N86"/>
+    <mergeCell ref="I94:N94"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="I76:N76"/>
+    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="J61:N61"/>
+    <mergeCell ref="J62:N62"/>
+    <mergeCell ref="I60:N60"/>
+    <mergeCell ref="I63:N63"/>
+    <mergeCell ref="I66:N66"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="J69:N69"/>
+    <mergeCell ref="I70:O70"/>
+    <mergeCell ref="I72:N72"/>
+    <mergeCell ref="I51:O51"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="J56:N56"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="J50:N50"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="J49:N49"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="B40:H40"/>
@@ -5490,75 +5959,51 @@
     <mergeCell ref="I24:N24"/>
     <mergeCell ref="J25:N25"/>
     <mergeCell ref="J27:N27"/>
-    <mergeCell ref="J50:N50"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="J48:N48"/>
-    <mergeCell ref="J49:N49"/>
-    <mergeCell ref="I51:O51"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="J56:N56"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="I53:N53"/>
-    <mergeCell ref="I76:N76"/>
-    <mergeCell ref="I58:N58"/>
-    <mergeCell ref="J61:N61"/>
-    <mergeCell ref="J62:N62"/>
-    <mergeCell ref="I60:N60"/>
-    <mergeCell ref="I63:N63"/>
-    <mergeCell ref="I66:N66"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="J68:N68"/>
-    <mergeCell ref="J69:N69"/>
-    <mergeCell ref="I70:O70"/>
-    <mergeCell ref="I72:N72"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="J77:N77"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="I79:N79"/>
-    <mergeCell ref="I82:N82"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="I86:N86"/>
-    <mergeCell ref="I94:N94"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <conditionalFormatting sqref="H20:H22">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="between">
       <formula>1</formula>
       <formula>0.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="greaterThan">
       <formula>100%</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="16" operator="lessThan">
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="17" operator="between">
       <formula>0.89</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="21" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="39" priority="21" operator="greaterThanOrEqual">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5572,8 +6017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AD31"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
@@ -5591,62 +6036,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:30" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="120" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="119"/>
-      <c r="Z2" s="119"/>
-      <c r="AA2" s="119"/>
-      <c r="AB2" s="119"/>
-      <c r="AC2" s="119"/>
-      <c r="AD2" s="119"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="120"/>
+      <c r="AA2" s="120"/>
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="120"/>
+      <c r="AD2" s="120"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="121" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120" t="s">
+      <c r="C3" s="121"/>
+      <c r="D3" s="121" t="s">
         <v>209</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="H3" s="118" t="s">
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="H3" s="119" t="s">
         <v>222</v>
       </c>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="118"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B4" s="45" t="s">
@@ -5837,10 +6282,10 @@
       </c>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="119" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="118"/>
+      <c r="C8" s="119"/>
       <c r="D8" s="48" t="s">
         <v>16</v>
       </c>
@@ -6015,10 +6460,10 @@
       </c>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B12" s="118" t="s">
+      <c r="B12" s="119" t="s">
         <v>190</v>
       </c>
-      <c r="C12" s="118"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="48" t="s">
         <v>24</v>
       </c>
@@ -6247,10 +6692,10 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="119" t="s">
         <v>197</v>
       </c>
-      <c r="C18" s="118"/>
+      <c r="C18" s="119"/>
       <c r="H18" s="48" t="s">
         <v>263</v>
       </c>
@@ -6417,14 +6862,14 @@
       <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B23" s="118" t="s">
+      <c r="B23" s="119" t="s">
         <v>210</v>
       </c>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B24" s="10" t="s">
@@ -6619,12 +7064,1063 @@
     <mergeCell ref="D3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="containsText" dxfId="25" priority="15" operator="containsText" text="O">
+    <cfRule type="containsText" dxfId="38" priority="15" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="containsText" dxfId="24" priority="14" operator="containsText" text="O">
+    <cfRule type="containsText" dxfId="37" priority="14" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",O1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1048576">
+    <cfRule type="containsText" dxfId="36" priority="11" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",R1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:Q1048576">
+    <cfRule type="containsText" dxfId="35" priority="10" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",P1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="endsWith" dxfId="34" priority="9" operator="endsWith" text="?">
+      <formula>RIGHT(L1,LEN("?"))="?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="containsText" dxfId="33" priority="6" operator="containsText" text="QA">
+      <formula>NOT(ISERROR(SEARCH("QA",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="BE">
+      <formula>NOT(ISERROR(SEARCH("BE",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="8" operator="containsText" text="FE">
+      <formula>NOT(ISERROR(SEARCH("FE",J1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="TS">
+      <formula>NOT(ISERROR(SEARCH("TS",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="DB">
+      <formula>NOT(ISERROR(SEARCH("DB",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="ED">
+      <formula>NOT(ISERROR(SEARCH("ED",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="PR">
+      <formula>NOT(ISERROR(SEARCH("PR",K1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="beginsWith" dxfId="26" priority="1" operator="beginsWith" text="?">
+      <formula>LEFT(M1,LEN("?"))="?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AD31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="1.7265625" style="42" customWidth="1"/>
+    <col min="2" max="7" width="15.7265625" style="42" customWidth="1"/>
+    <col min="8" max="9" width="10.7265625" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" style="43" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.54296875" style="43" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="5.26953125" style="43" customWidth="1"/>
+    <col min="19" max="19" width="63.453125" style="41" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:30" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="120" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="120"/>
+      <c r="AA2" s="120"/>
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="120"/>
+      <c r="AD2" s="120"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B3" s="121" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="H3" s="119" t="s">
+        <v>222</v>
+      </c>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B4" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="46">
+        <v>1</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="L4" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="M4" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="N4" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="O4" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="P4" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q4" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="R4" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="S4" s="44" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B5" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N5" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B6" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M6" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N6" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="46" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B7" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N7" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="46" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B8" s="119" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="119"/>
+      <c r="D8" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="L8" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M8" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N8" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="46" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B9" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="L9" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M9" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N9" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="46" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B10" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="L10" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M10" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N10" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="46" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B11" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="L11" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M11" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N11" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="46" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B12" s="119" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="119"/>
+      <c r="D12" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="I12" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="L12" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M12" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N12" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O12" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="R12" s="48"/>
+      <c r="S12" s="46" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B13" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="L13" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M13" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N13" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="46" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B14" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="I14" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="L14" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M14" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N14" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O14" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="R14" s="48"/>
+      <c r="S14" s="46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B15" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="L15" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M15" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N15" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B16" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="I16" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="L16" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M16" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N16" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O16" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="R16" s="48"/>
+      <c r="S16" s="46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B17" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="I17" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="L17" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M17" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="N17" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B18" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="119"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="46"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B19" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="46"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B20" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="46"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B21" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="46"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B22" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="46"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B23" s="119" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B24" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B25" s="48">
+        <v>1</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" s="48">
+        <f>COUNTIF($M$5:$M$21,B25)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="48">
+        <f>COUNTA(H5:H21)-D25</f>
+        <v>13</v>
+      </c>
+      <c r="F25" s="48">
+        <v>0</v>
+      </c>
+      <c r="G25" s="48">
+        <f>COUNTA(H5:H21)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B26" s="48">
+        <v>2</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="D26" s="48">
+        <f t="shared" ref="D26:D31" si="0">COUNTIF($M$5:$M$21,B26)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="48">
+        <f>E25-D26</f>
+        <v>13</v>
+      </c>
+      <c r="F26" s="48">
+        <v>0</v>
+      </c>
+      <c r="G26" s="48">
+        <f>G25-F26</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B27" s="48">
+        <v>3</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="D27" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="48">
+        <f t="shared" ref="E27:E31" si="1">E26-D27</f>
+        <v>13</v>
+      </c>
+      <c r="F27" s="48">
+        <v>0</v>
+      </c>
+      <c r="G27" s="48">
+        <f t="shared" ref="G27:G31" si="2">G26-F27</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B28" s="48">
+        <v>4</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="D28" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="48">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F28" s="48">
+        <v>0</v>
+      </c>
+      <c r="G28" s="48">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B29" s="48">
+        <v>5</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="D29" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="48">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F29" s="48">
+        <v>0</v>
+      </c>
+      <c r="G29" s="48">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B30" s="48">
+        <v>6</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="D30" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="48">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F30" s="48">
+        <v>0</v>
+      </c>
+      <c r="G30" s="48">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B31" s="48">
+        <v>7</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="D31" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="48">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F31" s="48">
+        <v>0</v>
+      </c>
+      <c r="G31" s="48">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B2:AD2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:S3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",N1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6679,12 +8175,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AD31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
@@ -6702,62 +8198,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:30" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="119" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="119"/>
-      <c r="Z2" s="119"/>
-      <c r="AA2" s="119"/>
-      <c r="AB2" s="119"/>
-      <c r="AC2" s="119"/>
-      <c r="AD2" s="119"/>
+      <c r="B2" s="120" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="120"/>
+      <c r="AA2" s="120"/>
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="120"/>
+      <c r="AD2" s="120"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="121" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120" t="s">
+      <c r="C3" s="121"/>
+      <c r="D3" s="121" t="s">
         <v>209</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="H3" s="118" t="s">
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="H3" s="119" t="s">
         <v>222</v>
       </c>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="118"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B4" s="45" t="s">
@@ -6766,49 +8262,49 @@
       <c r="C4" s="46">
         <v>1</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="N4" s="44" t="s">
+      <c r="N4" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="O4" s="44" t="s">
+      <c r="O4" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="P4" s="44" t="s">
+      <c r="P4" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="R4" s="44" t="s">
+      <c r="R4" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="S4" s="44" t="s">
+      <c r="S4" s="51" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6817,7 +8313,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="D5" s="48" t="s">
         <v>10</v>
@@ -6831,38 +8327,26 @@
       <c r="H5" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="I5" s="48" t="s">
-        <v>82</v>
-      </c>
+      <c r="I5" s="48"/>
       <c r="J5" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="L5" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M5" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="N5" s="48" t="s">
-        <v>233</v>
-      </c>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
       <c r="O5" s="48"/>
       <c r="P5" s="48"/>
       <c r="Q5" s="48"/>
       <c r="R5" s="48"/>
-      <c r="S5" s="46" t="s">
-        <v>281</v>
-      </c>
+      <c r="S5" s="46"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B6" s="45" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="D6" s="48" t="s">
         <v>12</v>
@@ -6876,38 +8360,26 @@
       <c r="H6" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="I6" s="48" t="s">
-        <v>82</v>
-      </c>
+      <c r="I6" s="48"/>
       <c r="J6" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="L6" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M6" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="N6" s="48" t="s">
-        <v>233</v>
-      </c>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
       <c r="O6" s="48"/>
       <c r="P6" s="48"/>
       <c r="Q6" s="48"/>
       <c r="R6" s="48"/>
-      <c r="S6" s="46" t="s">
-        <v>282</v>
-      </c>
+      <c r="S6" s="46"/>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B7" s="45" t="s">
         <v>185</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="D7" s="48" t="s">
         <v>14</v>
@@ -6921,37 +8393,25 @@
       <c r="H7" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="I7" s="48" t="s">
-        <v>84</v>
-      </c>
+      <c r="I7" s="48"/>
       <c r="J7" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="L7" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M7" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="N7" s="48" t="s">
-        <v>233</v>
-      </c>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
       <c r="O7" s="48"/>
       <c r="P7" s="48"/>
       <c r="Q7" s="48"/>
       <c r="R7" s="48"/>
-      <c r="S7" s="46" t="s">
-        <v>283</v>
-      </c>
+      <c r="S7" s="46"/>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="119" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="118"/>
+      <c r="C8" s="119"/>
       <c r="D8" s="48" t="s">
         <v>16</v>
       </c>
@@ -6964,31 +8424,19 @@
       <c r="H8" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="I8" s="48" t="s">
-        <v>84</v>
-      </c>
+      <c r="I8" s="48"/>
       <c r="J8" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="L8" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M8" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="N8" s="48" t="s">
-        <v>233</v>
-      </c>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
       <c r="O8" s="48"/>
       <c r="P8" s="48"/>
       <c r="Q8" s="48"/>
       <c r="R8" s="48"/>
-      <c r="S8" s="46" t="s">
-        <v>287</v>
-      </c>
+      <c r="S8" s="46"/>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B9" s="45" t="s">
@@ -7007,33 +8455,21 @@
         <v>32</v>
       </c>
       <c r="H9" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="I9" s="48" t="s">
-        <v>95</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="I9" s="48"/>
       <c r="J9" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="L9" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M9" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="N9" s="48" t="s">
-        <v>233</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
       <c r="O9" s="48"/>
       <c r="P9" s="48"/>
       <c r="Q9" s="48"/>
       <c r="R9" s="48"/>
-      <c r="S9" s="46" t="s">
-        <v>284</v>
-      </c>
+      <c r="S9" s="46"/>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B10" s="45" t="s">
@@ -7052,33 +8488,21 @@
         <v>33</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>97</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="I10" s="48"/>
       <c r="J10" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="L10" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M10" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="N10" s="48" t="s">
-        <v>233</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
       <c r="O10" s="48"/>
       <c r="P10" s="48"/>
       <c r="Q10" s="48"/>
       <c r="R10" s="48"/>
-      <c r="S10" s="46" t="s">
-        <v>285</v>
-      </c>
+      <c r="S10" s="46"/>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B11" s="45" t="s">
@@ -7099,37 +8523,25 @@
       <c r="H11" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="I11" s="48" t="s">
-        <v>97</v>
-      </c>
+      <c r="I11" s="48"/>
       <c r="J11" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="L11" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M11" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="N11" s="48" t="s">
-        <v>233</v>
-      </c>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
       <c r="O11" s="48"/>
       <c r="P11" s="48"/>
       <c r="Q11" s="48"/>
       <c r="R11" s="48"/>
-      <c r="S11" s="46" t="s">
-        <v>286</v>
-      </c>
+      <c r="S11" s="46"/>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B12" s="118" t="s">
+      <c r="B12" s="119" t="s">
         <v>190</v>
       </c>
-      <c r="C12" s="118"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="48" t="s">
         <v>24</v>
       </c>
@@ -7140,37 +8552,21 @@
         <v>35</v>
       </c>
       <c r="H12" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="I12" s="48" t="s">
-        <v>130</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="I12" s="48"/>
       <c r="J12" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="L12" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M12" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="N12" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O12" s="48" t="s">
-        <v>83</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
       <c r="P12" s="48"/>
-      <c r="Q12" s="48" t="s">
-        <v>83</v>
-      </c>
+      <c r="Q12" s="48"/>
       <c r="R12" s="48"/>
-      <c r="S12" s="46" t="s">
-        <v>288</v>
-      </c>
+      <c r="S12" s="46"/>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B13" s="45" t="s">
@@ -7189,33 +8585,21 @@
         <v>36</v>
       </c>
       <c r="H13" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>130</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="I13" s="48"/>
       <c r="J13" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="L13" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M13" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="N13" s="48" t="s">
-        <v>233</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
       <c r="O13" s="48"/>
       <c r="P13" s="48"/>
       <c r="Q13" s="48"/>
       <c r="R13" s="48"/>
-      <c r="S13" s="46" t="s">
-        <v>289</v>
-      </c>
+      <c r="S13" s="46"/>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B14" s="45" t="s">
@@ -7225,37 +8609,21 @@
         <v>201</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>132</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="I14" s="48"/>
       <c r="J14" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="L14" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M14" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="N14" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O14" s="48" t="s">
-        <v>83</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
       <c r="P14" s="48"/>
-      <c r="Q14" s="48" t="s">
-        <v>83</v>
-      </c>
+      <c r="Q14" s="48"/>
       <c r="R14" s="48"/>
-      <c r="S14" s="46" t="s">
-        <v>291</v>
-      </c>
+      <c r="S14" s="46"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B15" s="45" t="s">
@@ -7265,33 +8633,21 @@
         <v>47</v>
       </c>
       <c r="H15" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="I15" s="48" t="s">
-        <v>132</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="I15" s="48"/>
       <c r="J15" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="L15" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M15" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="N15" s="48" t="s">
-        <v>233</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
       <c r="O15" s="48"/>
       <c r="P15" s="48"/>
       <c r="Q15" s="48"/>
       <c r="R15" s="48"/>
-      <c r="S15" s="46" t="s">
-        <v>290</v>
-      </c>
+      <c r="S15" s="46"/>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B16" s="45" t="s">
@@ -7301,37 +8657,21 @@
         <v>202</v>
       </c>
       <c r="H16" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="I16" s="48" t="s">
-        <v>134</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="I16" s="48"/>
       <c r="J16" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="L16" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M16" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="N16" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O16" s="48" t="s">
-        <v>83</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
       <c r="P16" s="48"/>
-      <c r="Q16" s="48" t="s">
-        <v>83</v>
-      </c>
+      <c r="Q16" s="48"/>
       <c r="R16" s="48"/>
-      <c r="S16" s="46" t="s">
-        <v>292</v>
-      </c>
+      <c r="S16" s="46"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B17" s="45" t="s">
@@ -7343,40 +8683,32 @@
       <c r="H17" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="I17" s="48" t="s">
-        <v>134</v>
-      </c>
+      <c r="I17" s="48"/>
       <c r="J17" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="L17" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M17" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="N17" s="48" t="s">
-        <v>233</v>
-      </c>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
       <c r="O17" s="48"/>
       <c r="P17" s="48"/>
       <c r="Q17" s="48"/>
       <c r="R17" s="48"/>
-      <c r="S17" s="46" t="s">
-        <v>293</v>
-      </c>
+      <c r="S17" s="46"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="119" t="s">
         <v>197</v>
       </c>
-      <c r="C18" s="118"/>
-      <c r="H18" s="48"/>
+      <c r="C18" s="119"/>
+      <c r="H18" s="48" t="s">
+        <v>263</v>
+      </c>
       <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
+      <c r="J18" s="48" t="s">
+        <v>56</v>
+      </c>
       <c r="K18" s="48"/>
       <c r="L18" s="48"/>
       <c r="M18" s="48"/>
@@ -7394,9 +8726,13 @@
       <c r="C19" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="48"/>
+      <c r="H19" s="48" t="s">
+        <v>265</v>
+      </c>
       <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
+      <c r="J19" s="48" t="s">
+        <v>56</v>
+      </c>
       <c r="K19" s="48"/>
       <c r="L19" s="48"/>
       <c r="M19" s="48"/>
@@ -7414,9 +8750,13 @@
       <c r="C20" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="48"/>
+      <c r="H20" s="48" t="s">
+        <v>270</v>
+      </c>
       <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
+      <c r="J20" s="48" t="s">
+        <v>56</v>
+      </c>
       <c r="K20" s="48"/>
       <c r="L20" s="48"/>
       <c r="M20" s="48"/>
@@ -7434,9 +8774,13 @@
       <c r="C21" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="48"/>
+      <c r="H21" s="48" t="s">
+        <v>271</v>
+      </c>
       <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
+      <c r="J21" s="48" t="s">
+        <v>56</v>
+      </c>
       <c r="K21" s="48"/>
       <c r="L21" s="48"/>
       <c r="M21" s="48"/>
@@ -7454,9 +8798,13 @@
       <c r="C22" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="48"/>
+      <c r="H22" s="48" t="s">
+        <v>294</v>
+      </c>
       <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
+      <c r="J22" s="48" t="s">
+        <v>56</v>
+      </c>
       <c r="K22" s="48"/>
       <c r="L22" s="48"/>
       <c r="M22" s="48"/>
@@ -7468,32 +8816,32 @@
       <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B23" s="118" t="s">
+      <c r="B23" s="119" t="s">
         <v>210</v>
       </c>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="G24" s="44" t="s">
+      <c r="G24" s="51" t="s">
         <v>215</v>
       </c>
     </row>
@@ -7502,22 +8850,23 @@
         <v>1</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="D25" s="48">
         <f>COUNTIF($M$5:$M$21,B25)</f>
         <v>0</v>
       </c>
       <c r="E25" s="48">
-        <f>COUNTA(H5:H21)-D25</f>
-        <v>13</v>
+        <f>(COUNTBLANK(I5:I22) - COUNTA(H5:H22))-D25</f>
+        <v>0</v>
       </c>
       <c r="F25" s="48">
+        <f>COUNTIFS($R$5:$R$22,"O",$M$5:$M$22,B25)</f>
         <v>0</v>
       </c>
       <c r="G25" s="48">
-        <f>COUNTA(H5:H21)</f>
-        <v>13</v>
+        <f>(COUNTBLANK(I5:I22)-COUNTA(H5:H22)) - F25</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.35">
@@ -7525,7 +8874,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="D26" s="48">
         <f t="shared" ref="D26:D31" si="0">COUNTIF($M$5:$M$21,B26)</f>
@@ -7533,14 +8882,15 @@
       </c>
       <c r="E26" s="48">
         <f>E25-D26</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F26" s="48">
+        <f>COUNTIFS($R$5:$R$22,"O",$M$5:$M$22,B26)</f>
         <v>0</v>
       </c>
       <c r="G26" s="48">
         <f>G25-F26</f>
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.35">
@@ -7548,7 +8898,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="D27" s="48">
         <f t="shared" si="0"/>
@@ -7556,14 +8906,15 @@
       </c>
       <c r="E27" s="48">
         <f t="shared" ref="E27:E31" si="1">E26-D27</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F27" s="48">
+        <f t="shared" ref="F26:F31" si="2">COUNTIFS($R$5:$R$22,"O",$M$5:$M$22,B27)</f>
         <v>0</v>
       </c>
       <c r="G27" s="48">
-        <f t="shared" ref="G27:G31" si="2">G26-F27</f>
-        <v>13</v>
+        <f t="shared" ref="G27:G31" si="3">G26-F27</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.35">
@@ -7571,7 +8922,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="D28" s="48">
         <f t="shared" si="0"/>
@@ -7579,14 +8930,15 @@
       </c>
       <c r="E28" s="48">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F28" s="48">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G28" s="48">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.35">
@@ -7594,7 +8946,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="D29" s="48">
         <f t="shared" si="0"/>
@@ -7602,14 +8954,15 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G29" s="48">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.35">
@@ -7617,7 +8970,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="D30" s="48">
         <f t="shared" si="0"/>
@@ -7625,14 +8978,15 @@
       </c>
       <c r="E30" s="48">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F30" s="48">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G30" s="48">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.35">
@@ -7640,7 +8994,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="D31" s="48">
         <f t="shared" si="0"/>
@@ -7648,14 +9002,15 @@
       </c>
       <c r="E31" s="48">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F31" s="48">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G31" s="48">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7726,24 +9081,9 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F26:F31" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="8.7265625" style="121"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Management/Production_Progress_Oct_2017.xlsx
+++ b/Management/Production_Progress_Oct_2017.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\GDC2017Project\Management\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="27560" windowHeight="12320" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="12315" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Production Backlog" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="Sprint #2 Chart" sheetId="3" r:id="rId3"/>
     <sheet name="Sprint #3 Chart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="303">
   <si>
     <t>Production Name:</t>
   </si>
@@ -936,7 +931,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2270,7 +2265,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2338,7 +2333,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D942-4F2E-B310-17B0B8FA8B33}"/>
             </c:ext>
@@ -2375,7 +2370,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D942-4F2E-B310-17B0B8FA8B33}"/>
             </c:ext>
@@ -2412,7 +2407,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D942-4F2E-B310-17B0B8FA8B33}"/>
             </c:ext>
@@ -2449,7 +2444,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D942-4F2E-B310-17B0B8FA8B33}"/>
             </c:ext>
@@ -2465,11 +2460,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="636466176"/>
-        <c:axId val="163501696"/>
+        <c:axId val="606202880"/>
+        <c:axId val="147249344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="636466176"/>
+        <c:axId val="606202880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2478,7 +2473,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163501696"/>
+        <c:crossAx val="147249344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2486,7 +2481,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163501696"/>
+        <c:axId val="147249344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2502,7 +2497,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="636466176"/>
+        <c:crossAx val="606202880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2524,7 +2519,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2559,28 +2554,28 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C972-4573-A6A3-52DDA00D7D07}"/>
             </c:ext>
@@ -2623,7 +2618,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C972-4573-A6A3-52DDA00D7D07}"/>
             </c:ext>
@@ -2645,28 +2640,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C972-4573-A6A3-52DDA00D7D07}"/>
             </c:ext>
@@ -2709,7 +2704,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C972-4573-A6A3-52DDA00D7D07}"/>
             </c:ext>
@@ -2725,11 +2720,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139667968"/>
-        <c:axId val="58027968"/>
+        <c:axId val="624638976"/>
+        <c:axId val="625164864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139667968"/>
+        <c:axId val="624638976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2738,7 +2733,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58027968"/>
+        <c:crossAx val="625164864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2746,7 +2741,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58027968"/>
+        <c:axId val="625164864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2757,13 +2752,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139667968"/>
+        <c:crossAx val="624638976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2779,7 +2775,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2806,36 +2802,36 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint #1 Chart'!$E$25:$E$31</c:f>
+              <c:f>'Sprint #2 Chart'!$E$25:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F514-4514-B91D-EFF9B175DEAE}"/>
             </c:ext>
@@ -2849,36 +2845,36 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint #1 Chart'!$G$25:$G$31</c:f>
+              <c:f>'Sprint #2 Chart'!$G$25:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F514-4514-B91D-EFF9B175DEAE}"/>
             </c:ext>
@@ -2892,7 +2888,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint #1 Chart'!$D$25:$D$31</c:f>
+              <c:f>'Sprint #2 Chart'!$D$25:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2921,7 +2917,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F514-4514-B91D-EFF9B175DEAE}"/>
             </c:ext>
@@ -2935,7 +2931,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint #1 Chart'!$F$25:$F$31</c:f>
+              <c:f>'Sprint #2 Chart'!$F$25:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2964,7 +2960,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F514-4514-B91D-EFF9B175DEAE}"/>
             </c:ext>
@@ -2980,11 +2976,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139667968"/>
-        <c:axId val="58027968"/>
+        <c:axId val="635563008"/>
+        <c:axId val="625167168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139667968"/>
+        <c:axId val="635563008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2993,7 +2989,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58027968"/>
+        <c:crossAx val="625167168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3001,7 +2997,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58027968"/>
+        <c:axId val="625167168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3012,13 +3008,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139667968"/>
+        <c:crossAx val="635563008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3034,7 +3031,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3061,36 +3058,36 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint #1 Chart'!$E$25:$E$31</c:f>
+              <c:f>'Sprint #3 Chart'!$E$25:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ACDF-47F4-A593-ADC89855D2CF}"/>
             </c:ext>
@@ -3104,36 +3101,36 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint #1 Chart'!$G$25:$G$31</c:f>
+              <c:f>'Sprint #3 Chart'!$G$25:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-ACDF-47F4-A593-ADC89855D2CF}"/>
             </c:ext>
@@ -3147,7 +3144,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint #1 Chart'!$D$25:$D$31</c:f>
+              <c:f>'Sprint #3 Chart'!$D$25:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3176,7 +3173,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-ACDF-47F4-A593-ADC89855D2CF}"/>
             </c:ext>
@@ -3190,7 +3187,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint #1 Chart'!$F$25:$F$31</c:f>
+              <c:f>'Sprint #3 Chart'!$F$25:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3219,7 +3216,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-ACDF-47F4-A593-ADC89855D2CF}"/>
             </c:ext>
@@ -3235,11 +3232,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139667968"/>
-        <c:axId val="58027968"/>
+        <c:axId val="645778432"/>
+        <c:axId val="625169472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139667968"/>
+        <c:axId val="645778432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3248,7 +3245,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58027968"/>
+        <c:crossAx val="625169472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3256,7 +3253,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58027968"/>
+        <c:axId val="625169472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3267,13 +3264,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139667968"/>
+        <c:crossAx val="645778432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3308,7 +3306,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3349,7 +3347,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3390,7 +3388,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F86464-62E3-40C4-9822-D864B84BC108}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F86464-62E3-40C4-9822-D864B84BC108}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3433,7 +3431,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3499,7 +3497,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3532,26 +3530,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3584,23 +3565,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3783,23 +3747,23 @@
       <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7265625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="15.7265625" style="1" customWidth="1"/>
-    <col min="5" max="8" width="12.7265625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="2"/>
-    <col min="10" max="10" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="59.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="15.7109375" style="1" customWidth="1"/>
+    <col min="5" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="59.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="103" t="s">
         <v>60</v>
       </c>
@@ -3817,7 +3781,7 @@
       <c r="N2" s="104"/>
       <c r="O2" s="105"/>
     </row>
-    <row r="3" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="60" t="s">
         <v>0</v>
       </c>
@@ -3839,7 +3803,7 @@
       <c r="N3" s="83"/>
       <c r="O3" s="84"/>
     </row>
-    <row r="4" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="62" t="s">
         <v>1</v>
       </c>
@@ -3861,7 +3825,7 @@
       <c r="N4" s="80"/>
       <c r="O4" s="81"/>
     </row>
-    <row r="5" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="64" t="s">
         <v>2</v>
       </c>
@@ -3895,7 +3859,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="54" t="s">
         <v>6</v>
       </c>
@@ -3915,7 +3879,7 @@
       <c r="N6" s="86"/>
       <c r="O6" s="33"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
         <v>7</v>
       </c>
@@ -3959,7 +3923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="18" t="s">
         <v>10</v>
       </c>
@@ -3997,7 +3961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="18" t="s">
         <v>12</v>
       </c>
@@ -4023,7 +3987,7 @@
       <c r="N9" s="78"/>
       <c r="O9" s="33"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="18" t="s">
         <v>14</v>
       </c>
@@ -4053,7 +4017,7 @@
       <c r="N10" s="78"/>
       <c r="O10" s="33"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="18" t="s">
         <v>16</v>
       </c>
@@ -4081,7 +4045,7 @@
       <c r="N11" s="92"/>
       <c r="O11" s="33"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="18" t="s">
         <v>18</v>
       </c>
@@ -4109,7 +4073,7 @@
       <c r="N12" s="94"/>
       <c r="O12" s="33"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="18" t="s">
         <v>20</v>
       </c>
@@ -4147,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="18" t="s">
         <v>22</v>
       </c>
@@ -4187,7 +4151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="18" t="s">
         <v>24</v>
       </c>
@@ -4225,7 +4189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
         <v>26</v>
       </c>
@@ -4257,7 +4221,7 @@
       <c r="N16" s="94"/>
       <c r="O16" s="33"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="54" t="s">
         <v>41</v>
       </c>
@@ -4279,7 +4243,7 @@
       <c r="N17" s="94"/>
       <c r="O17" s="33"/>
     </row>
-    <row r="18" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="106" t="s">
         <v>49</v>
       </c>
@@ -4301,7 +4265,7 @@
       <c r="N18" s="95"/>
       <c r="O18" s="33"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="25" t="s">
         <v>42</v>
       </c>
@@ -4335,7 +4299,7 @@
       <c r="N19" s="95"/>
       <c r="O19" s="33"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="26" t="s">
         <v>51</v>
       </c>
@@ -4368,7 +4332,7 @@
       <c r="N20" s="110"/>
       <c r="O20" s="33"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="26" t="s">
         <v>53</v>
       </c>
@@ -4411,7 +4375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="26" t="s">
         <v>55</v>
       </c>
@@ -4456,7 +4420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="111"/>
       <c r="C23" s="112"/>
       <c r="D23" s="112"/>
@@ -4486,7 +4450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="54" t="s">
         <v>61</v>
       </c>
@@ -4506,7 +4470,7 @@
       <c r="N24" s="110"/>
       <c r="O24" s="33"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="74" t="s">
         <v>48</v>
       </c>
@@ -4538,7 +4502,7 @@
       <c r="N25" s="110"/>
       <c r="O25" s="33"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="57" t="s">
         <v>62</v>
       </c>
@@ -4560,7 +4524,7 @@
       <c r="N26" s="95"/>
       <c r="O26" s="33"/>
     </row>
-    <row r="27" spans="2:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="29" t="s">
         <v>63</v>
       </c>
@@ -4588,7 +4552,7 @@
       <c r="N27" s="114"/>
       <c r="O27" s="37"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="29" t="s">
         <v>64</v>
       </c>
@@ -4619,7 +4583,7 @@
       <c r="N28" s="80"/>
       <c r="O28" s="81"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="117" t="s">
         <v>65</v>
       </c>
@@ -4651,7 +4615,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
         <v>63</v>
       </c>
@@ -4677,7 +4641,7 @@
       <c r="N30" s="86"/>
       <c r="O30" s="33"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
         <v>64</v>
       </c>
@@ -4720,7 +4684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="117" t="s">
         <v>66</v>
       </c>
@@ -4752,7 +4716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="29" t="s">
         <v>63</v>
       </c>
@@ -4778,7 +4742,7 @@
       <c r="N33" s="86"/>
       <c r="O33" s="33"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="29" t="s">
         <v>64</v>
       </c>
@@ -4811,7 +4775,7 @@
       <c r="N34" s="86"/>
       <c r="O34" s="33"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="117" t="s">
         <v>67</v>
       </c>
@@ -4833,7 +4797,7 @@
       <c r="N35" s="95"/>
       <c r="O35" s="33"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="29" t="s">
         <v>63</v>
       </c>
@@ -4859,7 +4823,7 @@
       <c r="N36" s="94"/>
       <c r="O36" s="33"/>
     </row>
-    <row r="37" spans="2:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="31" t="s">
         <v>64</v>
       </c>
@@ -4902,7 +4866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="54" t="s">
         <v>110</v>
       </c>
@@ -4934,7 +4898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="96" t="s">
         <v>111</v>
       </c>
@@ -4954,7 +4918,7 @@
       <c r="N39" s="94"/>
       <c r="O39" s="33"/>
     </row>
-    <row r="40" spans="2:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="100" t="s">
         <v>112</v>
       </c>
@@ -4976,7 +4940,7 @@
       <c r="N40" s="94"/>
       <c r="O40" s="33"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I41" s="18">
         <v>1</v>
       </c>
@@ -4989,7 +4953,7 @@
       <c r="N41" s="95"/>
       <c r="O41" s="33"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I42" s="18">
         <v>2</v>
       </c>
@@ -5002,7 +4966,7 @@
       <c r="N42" s="95"/>
       <c r="O42" s="33"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I43" s="109" t="s">
         <v>102</v>
       </c>
@@ -5013,7 +4977,7 @@
       <c r="N43" s="110"/>
       <c r="O43" s="33"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I44" s="18">
         <v>1</v>
       </c>
@@ -5036,7 +5000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I45" s="18">
         <v>2</v>
       </c>
@@ -5059,7 +5023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I46" s="18">
         <v>3</v>
       </c>
@@ -5082,7 +5046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I47" s="109" t="s">
         <v>109</v>
       </c>
@@ -5093,7 +5057,7 @@
       <c r="N47" s="110"/>
       <c r="O47" s="33"/>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I48" s="36" t="s">
         <v>88</v>
       </c>
@@ -5106,7 +5070,7 @@
       <c r="N48" s="110"/>
       <c r="O48" s="33"/>
     </row>
-    <row r="49" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I49" s="18">
         <v>1</v>
       </c>
@@ -5119,7 +5083,7 @@
       <c r="N49" s="95"/>
       <c r="O49" s="33"/>
     </row>
-    <row r="50" spans="9:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I50" s="21">
         <v>2</v>
       </c>
@@ -5132,7 +5096,7 @@
       <c r="N50" s="114"/>
       <c r="O50" s="37"/>
     </row>
-    <row r="51" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I51" s="79" t="s">
         <v>140</v>
       </c>
@@ -5143,7 +5107,7 @@
       <c r="N51" s="80"/>
       <c r="O51" s="81"/>
     </row>
-    <row r="52" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I52" s="16" t="s">
         <v>69</v>
       </c>
@@ -5166,7 +5130,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I53" s="85" t="s">
         <v>79</v>
       </c>
@@ -5177,7 +5141,7 @@
       <c r="N53" s="86"/>
       <c r="O53" s="40"/>
     </row>
-    <row r="54" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I54" s="18">
         <v>1</v>
       </c>
@@ -5200,7 +5164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I55" s="85" t="s">
         <v>87</v>
       </c>
@@ -5211,7 +5175,7 @@
       <c r="N55" s="86"/>
       <c r="O55" s="33"/>
     </row>
-    <row r="56" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I56" s="34" t="s">
         <v>88</v>
       </c>
@@ -5224,7 +5188,7 @@
       <c r="N56" s="86"/>
       <c r="O56" s="33"/>
     </row>
-    <row r="57" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I57" s="18">
         <v>1</v>
       </c>
@@ -5237,7 +5201,7 @@
       <c r="N57" s="95"/>
       <c r="O57" s="33"/>
     </row>
-    <row r="58" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I58" s="93" t="s">
         <v>90</v>
       </c>
@@ -5248,7 +5212,7 @@
       <c r="N58" s="94"/>
       <c r="O58" s="33"/>
     </row>
-    <row r="59" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I59" s="18">
         <v>1</v>
       </c>
@@ -5271,7 +5235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I60" s="93" t="s">
         <v>99</v>
       </c>
@@ -5282,7 +5246,7 @@
       <c r="N60" s="94"/>
       <c r="O60" s="33"/>
     </row>
-    <row r="61" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I61" s="35" t="s">
         <v>88</v>
       </c>
@@ -5295,7 +5259,7 @@
       <c r="N61" s="94"/>
       <c r="O61" s="33"/>
     </row>
-    <row r="62" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I62" s="18">
         <v>1</v>
       </c>
@@ -5308,7 +5272,7 @@
       <c r="N62" s="95"/>
       <c r="O62" s="33"/>
     </row>
-    <row r="63" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I63" s="109" t="s">
         <v>102</v>
       </c>
@@ -5319,7 +5283,7 @@
       <c r="N63" s="110"/>
       <c r="O63" s="33"/>
     </row>
-    <row r="64" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I64" s="18">
         <v>1</v>
       </c>
@@ -5342,7 +5306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I65" s="18">
         <v>2</v>
       </c>
@@ -5365,7 +5329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I66" s="109" t="s">
         <v>109</v>
       </c>
@@ -5376,7 +5340,7 @@
       <c r="N66" s="110"/>
       <c r="O66" s="33"/>
     </row>
-    <row r="67" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I67" s="36" t="s">
         <v>88</v>
       </c>
@@ -5389,7 +5353,7 @@
       <c r="N67" s="110"/>
       <c r="O67" s="33"/>
     </row>
-    <row r="68" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I68" s="18">
         <v>1</v>
       </c>
@@ -5402,7 +5366,7 @@
       <c r="N68" s="95"/>
       <c r="O68" s="33"/>
     </row>
-    <row r="69" spans="9:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I69" s="21">
         <v>2</v>
       </c>
@@ -5415,7 +5379,7 @@
       <c r="N69" s="114"/>
       <c r="O69" s="37"/>
     </row>
-    <row r="70" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I70" s="79" t="s">
         <v>147</v>
       </c>
@@ -5426,7 +5390,7 @@
       <c r="N70" s="80"/>
       <c r="O70" s="81"/>
     </row>
-    <row r="71" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I71" s="16" t="s">
         <v>69</v>
       </c>
@@ -5449,7 +5413,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I72" s="85" t="s">
         <v>79</v>
       </c>
@@ -5460,7 +5424,7 @@
       <c r="N72" s="86"/>
       <c r="O72" s="33"/>
     </row>
-    <row r="73" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I73" s="18">
         <v>1</v>
       </c>
@@ -5483,7 +5447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I74" s="18">
         <v>2</v>
       </c>
@@ -5506,7 +5470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I75" s="18">
         <v>3</v>
       </c>
@@ -5527,7 +5491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I76" s="85" t="s">
         <v>87</v>
       </c>
@@ -5538,7 +5502,7 @@
       <c r="N76" s="86"/>
       <c r="O76" s="33"/>
     </row>
-    <row r="77" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I77" s="34" t="s">
         <v>88</v>
       </c>
@@ -5551,7 +5515,7 @@
       <c r="N77" s="86"/>
       <c r="O77" s="33"/>
     </row>
-    <row r="78" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I78" s="18">
         <v>1</v>
       </c>
@@ -5564,7 +5528,7 @@
       <c r="N78" s="95"/>
       <c r="O78" s="33"/>
     </row>
-    <row r="79" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I79" s="93" t="s">
         <v>90</v>
       </c>
@@ -5575,7 +5539,7 @@
       <c r="N79" s="94"/>
       <c r="O79" s="33"/>
     </row>
-    <row r="80" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I80" s="18">
         <v>1</v>
       </c>
@@ -5598,7 +5562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I81" s="18">
         <v>2</v>
       </c>
@@ -5621,7 +5585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I82" s="93" t="s">
         <v>99</v>
       </c>
@@ -5632,7 +5596,7 @@
       <c r="N82" s="94"/>
       <c r="O82" s="33"/>
     </row>
-    <row r="83" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I83" s="35" t="s">
         <v>88</v>
       </c>
@@ -5645,7 +5609,7 @@
       <c r="N83" s="94"/>
       <c r="O83" s="33"/>
     </row>
-    <row r="84" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I84" s="18">
         <v>1</v>
       </c>
@@ -5658,7 +5622,7 @@
       <c r="N84" s="95"/>
       <c r="O84" s="33"/>
     </row>
-    <row r="85" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I85" s="18">
         <v>2</v>
       </c>
@@ -5671,7 +5635,7 @@
       <c r="N85" s="95"/>
       <c r="O85" s="33"/>
     </row>
-    <row r="86" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I86" s="109" t="s">
         <v>102</v>
       </c>
@@ -5682,7 +5646,7 @@
       <c r="N86" s="110"/>
       <c r="O86" s="33"/>
     </row>
-    <row r="87" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I87" s="18">
         <v>1</v>
       </c>
@@ -5705,7 +5669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I88" s="18">
         <v>2</v>
       </c>
@@ -5728,7 +5692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I89" s="18">
         <v>3</v>
       </c>
@@ -5751,7 +5715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I90" s="18">
         <v>4</v>
       </c>
@@ -5774,7 +5738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I91" s="18">
         <v>5</v>
       </c>
@@ -5797,7 +5761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I92" s="18">
         <v>6</v>
       </c>
@@ -5818,7 +5782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I93" s="18">
         <v>7</v>
       </c>
@@ -5839,7 +5803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I94" s="109" t="s">
         <v>109</v>
       </c>
@@ -5850,7 +5814,7 @@
       <c r="N94" s="110"/>
       <c r="O94" s="33"/>
     </row>
-    <row r="95" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I95" s="36" t="s">
         <v>88</v>
       </c>
@@ -5863,7 +5827,7 @@
       <c r="N95" s="110"/>
       <c r="O95" s="33"/>
     </row>
-    <row r="96" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I96" s="18">
         <v>1</v>
       </c>
@@ -5876,7 +5840,7 @@
       <c r="N96" s="95"/>
       <c r="O96" s="33"/>
     </row>
-    <row r="97" spans="9:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I97" s="21">
         <v>2</v>
       </c>
@@ -6017,25 +5981,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AD31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7265625" style="42" customWidth="1"/>
-    <col min="2" max="7" width="15.7265625" style="42" customWidth="1"/>
-    <col min="8" max="9" width="10.7265625" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" style="43" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.453125" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" style="43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.54296875" style="43" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="5.26953125" style="43" customWidth="1"/>
-    <col min="19" max="19" width="63.453125" style="41" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.1796875" style="42"/>
+    <col min="1" max="1" width="1.7109375" style="42" customWidth="1"/>
+    <col min="2" max="7" width="15.7109375" style="42" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="43" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="43" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="5.28515625" style="43" customWidth="1"/>
+    <col min="19" max="19" width="63.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:30" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="120" t="s">
         <v>182</v>
       </c>
@@ -6068,7 +6032,7 @@
       <c r="AC2" s="120"/>
       <c r="AD2" s="120"/>
     </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="121" t="s">
         <v>183</v>
       </c>
@@ -6093,7 +6057,7 @@
       <c r="R3" s="119"/>
       <c r="S3" s="119"/>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B4" s="45" t="s">
         <v>184</v>
       </c>
@@ -6146,7 +6110,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B5" s="45" t="s">
         <v>63</v>
       </c>
@@ -6177,8 +6141,8 @@
       <c r="L5" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M5" s="48" t="s">
-        <v>236</v>
+      <c r="M5" s="48">
+        <v>2</v>
       </c>
       <c r="N5" s="48" t="s">
         <v>233</v>
@@ -6191,7 +6155,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" s="45" t="s">
         <v>64</v>
       </c>
@@ -6222,8 +6186,8 @@
       <c r="L6" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M6" s="48" t="s">
-        <v>236</v>
+      <c r="M6" s="48">
+        <v>3</v>
       </c>
       <c r="N6" s="48" t="s">
         <v>233</v>
@@ -6236,7 +6200,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" s="45" t="s">
         <v>185</v>
       </c>
@@ -6267,8 +6231,8 @@
       <c r="L7" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M7" s="48" t="s">
-        <v>236</v>
+      <c r="M7" s="48">
+        <v>4</v>
       </c>
       <c r="N7" s="48" t="s">
         <v>233</v>
@@ -6281,7 +6245,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B8" s="119" t="s">
         <v>186</v>
       </c>
@@ -6310,8 +6274,8 @@
       <c r="L8" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M8" s="48" t="s">
-        <v>236</v>
+      <c r="M8" s="48">
+        <v>5</v>
       </c>
       <c r="N8" s="48" t="s">
         <v>233</v>
@@ -6324,7 +6288,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B9" s="45" t="s">
         <v>187</v>
       </c>
@@ -6355,8 +6319,8 @@
       <c r="L9" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M9" s="48" t="s">
-        <v>236</v>
+      <c r="M9" s="48">
+        <v>6</v>
       </c>
       <c r="N9" s="48" t="s">
         <v>233</v>
@@ -6369,7 +6333,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B10" s="45" t="s">
         <v>188</v>
       </c>
@@ -6400,8 +6364,8 @@
       <c r="L10" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M10" s="48" t="s">
-        <v>236</v>
+      <c r="M10" s="48">
+        <v>7</v>
       </c>
       <c r="N10" s="48" t="s">
         <v>233</v>
@@ -6414,7 +6378,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B11" s="45" t="s">
         <v>189</v>
       </c>
@@ -6445,8 +6409,8 @@
       <c r="L11" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M11" s="48" t="s">
-        <v>236</v>
+      <c r="M11" s="48">
+        <v>2</v>
       </c>
       <c r="N11" s="48" t="s">
         <v>233</v>
@@ -6459,7 +6423,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" s="119" t="s">
         <v>190</v>
       </c>
@@ -6488,8 +6452,8 @@
       <c r="L12" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M12" s="48" t="s">
-        <v>236</v>
+      <c r="M12" s="48">
+        <v>3</v>
       </c>
       <c r="N12" s="48" t="s">
         <v>233</v>
@@ -6502,7 +6466,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B13" s="45" t="s">
         <v>192</v>
       </c>
@@ -6533,8 +6497,8 @@
       <c r="L13" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M13" s="48" t="s">
-        <v>236</v>
+      <c r="M13" s="48">
+        <v>4</v>
       </c>
       <c r="N13" s="48" t="s">
         <v>233</v>
@@ -6547,7 +6511,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B14" s="45" t="s">
         <v>193</v>
       </c>
@@ -6569,8 +6533,8 @@
       <c r="L14" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M14" s="48" t="s">
-        <v>236</v>
+      <c r="M14" s="48">
+        <v>5</v>
       </c>
       <c r="N14" s="48" t="s">
         <v>233</v>
@@ -6583,7 +6547,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B15" s="45" t="s">
         <v>194</v>
       </c>
@@ -6605,8 +6569,8 @@
       <c r="L15" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M15" s="48" t="s">
-        <v>236</v>
+      <c r="M15" s="48">
+        <v>6</v>
       </c>
       <c r="N15" s="48" t="s">
         <v>233</v>
@@ -6619,7 +6583,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B16" s="45" t="s">
         <v>195</v>
       </c>
@@ -6641,8 +6605,8 @@
       <c r="L16" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M16" s="48" t="s">
-        <v>236</v>
+      <c r="M16" s="48">
+        <v>7</v>
       </c>
       <c r="N16" s="48" t="s">
         <v>233</v>
@@ -6655,7 +6619,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="45" t="s">
         <v>196</v>
       </c>
@@ -6677,8 +6641,8 @@
       <c r="L17" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M17" s="48" t="s">
-        <v>236</v>
+      <c r="M17" s="48">
+        <v>3</v>
       </c>
       <c r="N17" s="48" t="s">
         <v>233</v>
@@ -6691,7 +6655,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="119" t="s">
         <v>197</v>
       </c>
@@ -6711,8 +6675,8 @@
       <c r="L18" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M18" s="48" t="s">
-        <v>236</v>
+      <c r="M18" s="48">
+        <v>4</v>
       </c>
       <c r="N18" s="48" t="s">
         <v>233</v>
@@ -6725,7 +6689,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="45" t="s">
         <v>204</v>
       </c>
@@ -6747,8 +6711,8 @@
       <c r="L19" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M19" s="48" t="s">
-        <v>236</v>
+      <c r="M19" s="48">
+        <v>5</v>
       </c>
       <c r="N19" s="48" t="s">
         <v>233</v>
@@ -6765,7 +6729,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="45" t="s">
         <v>199</v>
       </c>
@@ -6787,8 +6751,8 @@
       <c r="L20" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M20" s="48" t="s">
-        <v>236</v>
+      <c r="M20" s="48">
+        <v>6</v>
       </c>
       <c r="N20" s="48" t="s">
         <v>233</v>
@@ -6801,7 +6765,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="45" t="s">
         <v>198</v>
       </c>
@@ -6823,8 +6787,8 @@
       <c r="L21" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="M21" s="48" t="s">
-        <v>236</v>
+      <c r="M21" s="48">
+        <v>7</v>
       </c>
       <c r="N21" s="48" t="s">
         <v>233</v>
@@ -6841,7 +6805,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="49" t="s">
         <v>205</v>
       </c>
@@ -6861,7 +6825,7 @@
       <c r="R22" s="48"/>
       <c r="S22" s="46"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="119" t="s">
         <v>210</v>
       </c>
@@ -6871,7 +6835,7 @@
       <c r="F23" s="119"/>
       <c r="G23" s="119"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>211</v>
       </c>
@@ -6891,7 +6855,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="48">
         <v>1</v>
       </c>
@@ -6914,7 +6878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="48">
         <v>2</v>
       </c>
@@ -6923,11 +6887,11 @@
       </c>
       <c r="D26" s="48">
         <f t="shared" ref="D26:D31" si="0">COUNTIF($M$5:$M$21,B26)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26" s="48">
         <f>E25-D26</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F26" s="48">
         <v>0</v>
@@ -6937,7 +6901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="48">
         <v>3</v>
       </c>
@@ -6946,11 +6910,11 @@
       </c>
       <c r="D27" s="48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E27" s="48">
         <f t="shared" ref="E27:E31" si="1">E26-D27</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F27" s="48">
         <v>0</v>
@@ -6960,7 +6924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="48">
         <v>4</v>
       </c>
@@ -6969,11 +6933,11 @@
       </c>
       <c r="D28" s="48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28" s="48">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F28" s="48">
         <v>0</v>
@@ -6983,7 +6947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="48">
         <v>5</v>
       </c>
@@ -6992,11 +6956,11 @@
       </c>
       <c r="D29" s="48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F29" s="48">
         <v>0</v>
@@ -7006,7 +6970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="48">
         <v>6</v>
       </c>
@@ -7015,11 +6979,11 @@
       </c>
       <c r="D30" s="48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30" s="48">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F30" s="48">
         <v>0</v>
@@ -7029,7 +6993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="48">
         <v>7</v>
       </c>
@@ -7038,11 +7002,11 @@
       </c>
       <c r="D31" s="48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" s="48">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F31" s="48">
         <v>0</v>
@@ -7132,21 +7096,21 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7265625" style="42" customWidth="1"/>
-    <col min="2" max="7" width="15.7265625" style="42" customWidth="1"/>
-    <col min="8" max="9" width="10.7265625" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" style="43" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.453125" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" style="43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.54296875" style="43" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="5.26953125" style="43" customWidth="1"/>
-    <col min="19" max="19" width="63.453125" style="41" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.1796875" style="42"/>
+    <col min="1" max="1" width="1.7109375" style="42" customWidth="1"/>
+    <col min="2" max="7" width="15.7109375" style="42" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="43" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="43" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="5.28515625" style="43" customWidth="1"/>
+    <col min="19" max="19" width="63.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:30" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="120" t="s">
         <v>273</v>
       </c>
@@ -7179,7 +7143,7 @@
       <c r="AC2" s="120"/>
       <c r="AD2" s="120"/>
     </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="121" t="s">
         <v>183</v>
       </c>
@@ -7204,7 +7168,7 @@
       <c r="R3" s="119"/>
       <c r="S3" s="119"/>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B4" s="45" t="s">
         <v>184</v>
       </c>
@@ -7257,7 +7221,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B5" s="45" t="s">
         <v>63</v>
       </c>
@@ -7302,7 +7266,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" s="45" t="s">
         <v>64</v>
       </c>
@@ -7347,7 +7311,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" s="45" t="s">
         <v>185</v>
       </c>
@@ -7392,7 +7356,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B8" s="119" t="s">
         <v>186</v>
       </c>
@@ -7435,7 +7399,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B9" s="45" t="s">
         <v>187</v>
       </c>
@@ -7480,7 +7444,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B10" s="45" t="s">
         <v>188</v>
       </c>
@@ -7525,7 +7489,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B11" s="45" t="s">
         <v>189</v>
       </c>
@@ -7570,7 +7534,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" s="119" t="s">
         <v>190</v>
       </c>
@@ -7617,7 +7581,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B13" s="45" t="s">
         <v>192</v>
       </c>
@@ -7662,7 +7626,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B14" s="45" t="s">
         <v>193</v>
       </c>
@@ -7702,7 +7666,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B15" s="45" t="s">
         <v>194</v>
       </c>
@@ -7738,7 +7702,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B16" s="45" t="s">
         <v>195</v>
       </c>
@@ -7778,7 +7742,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="45" t="s">
         <v>196</v>
       </c>
@@ -7814,7 +7778,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="119" t="s">
         <v>197</v>
       </c>
@@ -7832,7 +7796,7 @@
       <c r="R18" s="48"/>
       <c r="S18" s="46"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="45" t="s">
         <v>204</v>
       </c>
@@ -7852,7 +7816,7 @@
       <c r="R19" s="48"/>
       <c r="S19" s="46"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="45" t="s">
         <v>199</v>
       </c>
@@ -7872,7 +7836,7 @@
       <c r="R20" s="48"/>
       <c r="S20" s="46"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="45" t="s">
         <v>198</v>
       </c>
@@ -7892,7 +7856,7 @@
       <c r="R21" s="48"/>
       <c r="S21" s="46"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="49" t="s">
         <v>205</v>
       </c>
@@ -7912,7 +7876,7 @@
       <c r="R22" s="48"/>
       <c r="S22" s="46"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="119" t="s">
         <v>210</v>
       </c>
@@ -7922,7 +7886,7 @@
       <c r="F23" s="119"/>
       <c r="G23" s="119"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="44" t="s">
         <v>211</v>
       </c>
@@ -7942,7 +7906,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="48">
         <v>1</v>
       </c>
@@ -7965,7 +7929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="48">
         <v>2</v>
       </c>
@@ -7988,7 +7952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="48">
         <v>3</v>
       </c>
@@ -8011,7 +7975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="48">
         <v>4</v>
       </c>
@@ -8034,7 +7998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="48">
         <v>5</v>
       </c>
@@ -8057,7 +8021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="48">
         <v>6</v>
       </c>
@@ -8080,7 +8044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="48">
         <v>7</v>
       </c>
@@ -8179,25 +8143,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AD31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7265625" style="42" customWidth="1"/>
-    <col min="2" max="7" width="15.7265625" style="42" customWidth="1"/>
-    <col min="8" max="9" width="10.7265625" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" style="43" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.453125" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" style="43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.54296875" style="43" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="5.26953125" style="43" customWidth="1"/>
-    <col min="19" max="19" width="63.453125" style="41" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.1796875" style="42"/>
+    <col min="1" max="1" width="1.7109375" style="42" customWidth="1"/>
+    <col min="2" max="7" width="15.7109375" style="42" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="43" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="43" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="5.28515625" style="43" customWidth="1"/>
+    <col min="19" max="19" width="63.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:30" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="120" t="s">
         <v>302</v>
       </c>
@@ -8230,7 +8194,7 @@
       <c r="AC2" s="120"/>
       <c r="AD2" s="120"/>
     </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="121" t="s">
         <v>183</v>
       </c>
@@ -8255,7 +8219,7 @@
       <c r="R3" s="119"/>
       <c r="S3" s="119"/>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B4" s="45" t="s">
         <v>184</v>
       </c>
@@ -8308,7 +8272,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B5" s="45" t="s">
         <v>63</v>
       </c>
@@ -8341,7 +8305,7 @@
       <c r="R5" s="48"/>
       <c r="S5" s="46"/>
     </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" s="45" t="s">
         <v>64</v>
       </c>
@@ -8374,7 +8338,7 @@
       <c r="R6" s="48"/>
       <c r="S6" s="46"/>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" s="45" t="s">
         <v>185</v>
       </c>
@@ -8407,7 +8371,7 @@
       <c r="R7" s="48"/>
       <c r="S7" s="46"/>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B8" s="119" t="s">
         <v>186</v>
       </c>
@@ -8438,7 +8402,7 @@
       <c r="R8" s="48"/>
       <c r="S8" s="46"/>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B9" s="45" t="s">
         <v>187</v>
       </c>
@@ -8471,7 +8435,7 @@
       <c r="R9" s="48"/>
       <c r="S9" s="46"/>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B10" s="45" t="s">
         <v>188</v>
       </c>
@@ -8504,7 +8468,7 @@
       <c r="R10" s="48"/>
       <c r="S10" s="46"/>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B11" s="45" t="s">
         <v>189</v>
       </c>
@@ -8537,7 +8501,7 @@
       <c r="R11" s="48"/>
       <c r="S11" s="46"/>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" s="119" t="s">
         <v>190</v>
       </c>
@@ -8568,7 +8532,7 @@
       <c r="R12" s="48"/>
       <c r="S12" s="46"/>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B13" s="45" t="s">
         <v>192</v>
       </c>
@@ -8601,7 +8565,7 @@
       <c r="R13" s="48"/>
       <c r="S13" s="46"/>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B14" s="45" t="s">
         <v>193</v>
       </c>
@@ -8625,7 +8589,7 @@
       <c r="R14" s="48"/>
       <c r="S14" s="46"/>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B15" s="45" t="s">
         <v>194</v>
       </c>
@@ -8649,7 +8613,7 @@
       <c r="R15" s="48"/>
       <c r="S15" s="46"/>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B16" s="45" t="s">
         <v>195</v>
       </c>
@@ -8673,7 +8637,7 @@
       <c r="R16" s="48"/>
       <c r="S16" s="46"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="45" t="s">
         <v>196</v>
       </c>
@@ -8697,7 +8661,7 @@
       <c r="R17" s="48"/>
       <c r="S17" s="46"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="119" t="s">
         <v>197</v>
       </c>
@@ -8719,7 +8683,7 @@
       <c r="R18" s="48"/>
       <c r="S18" s="46"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="45" t="s">
         <v>204</v>
       </c>
@@ -8743,7 +8707,7 @@
       <c r="R19" s="48"/>
       <c r="S19" s="46"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="45" t="s">
         <v>199</v>
       </c>
@@ -8767,7 +8731,7 @@
       <c r="R20" s="48"/>
       <c r="S20" s="46"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="45" t="s">
         <v>198</v>
       </c>
@@ -8791,7 +8755,7 @@
       <c r="R21" s="48"/>
       <c r="S21" s="46"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="49" t="s">
         <v>205</v>
       </c>
@@ -8815,7 +8779,7 @@
       <c r="R22" s="48"/>
       <c r="S22" s="46"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="119" t="s">
         <v>210</v>
       </c>
@@ -8825,7 +8789,7 @@
       <c r="F23" s="119"/>
       <c r="G23" s="119"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="51" t="s">
         <v>211</v>
       </c>
@@ -8845,7 +8809,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="48">
         <v>1</v>
       </c>
@@ -8869,7 +8833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="48">
         <v>2</v>
       </c>
@@ -8893,7 +8857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="48">
         <v>3</v>
       </c>
@@ -8909,7 +8873,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="48">
-        <f t="shared" ref="F26:F31" si="2">COUNTIFS($R$5:$R$22,"O",$M$5:$M$22,B27)</f>
+        <f t="shared" ref="F27:F31" si="2">COUNTIFS($R$5:$R$22,"O",$M$5:$M$22,B27)</f>
         <v>0</v>
       </c>
       <c r="G27" s="48">
@@ -8917,7 +8881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="48">
         <v>4</v>
       </c>
@@ -8941,7 +8905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="48">
         <v>5</v>
       </c>
@@ -8965,7 +8929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="48">
         <v>6</v>
       </c>
@@ -8989,7 +8953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="48">
         <v>7</v>
       </c>

--- a/Management/Production_Progress_Oct_2017.xlsx
+++ b/Management/Production_Progress_Oct_2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="12315" activeTab="3"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Production Backlog" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="303">
   <si>
     <t>Production Name:</t>
   </si>
@@ -427,18 +427,6 @@
     <t>Test player interaction with NPC</t>
   </si>
   <si>
-    <t>Sprint 1 Targets</t>
-  </si>
-  <si>
-    <t>Sprint 2 Targets</t>
-  </si>
-  <si>
-    <t>Sprint 3 Targets</t>
-  </si>
-  <si>
-    <t>Sprint 4 Targets</t>
-  </si>
-  <si>
     <t>Sprint #3</t>
   </si>
   <si>
@@ -926,19 +914,37 @@
   </si>
   <si>
     <t>Sprint #3 Backlog</t>
+  </si>
+  <si>
+    <t>Sprint 1 Targets/To Go</t>
+  </si>
+  <si>
+    <t>Sprint 2 Targets/To Go</t>
+  </si>
+  <si>
+    <t>Sprint 3 Targets/To Go</t>
+  </si>
+  <si>
+    <t>Sprint 4 Targets/To Go</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1025,7 +1031,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1466,370 +1472,449 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2294,6 +2379,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2460,11 +2546,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="606202880"/>
-        <c:axId val="147249344"/>
+        <c:axId val="603192320"/>
+        <c:axId val="159439040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="606202880"/>
+        <c:axId val="603192320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2473,7 +2559,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147249344"/>
+        <c:crossAx val="159439040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2481,7 +2567,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147249344"/>
+        <c:axId val="159439040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,13 +2583,14 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="606202880"/>
+        <c:crossAx val="603192320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2551,22 +2638,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2637,10 +2724,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -2652,10 +2739,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2720,11 +2807,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="624638976"/>
-        <c:axId val="625164864"/>
+        <c:axId val="170520576"/>
+        <c:axId val="160121408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="624638976"/>
+        <c:axId val="170520576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2733,7 +2820,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="625164864"/>
+        <c:crossAx val="160121408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2741,7 +2828,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="625164864"/>
+        <c:axId val="160121408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2752,7 +2839,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="624638976"/>
+        <c:crossAx val="170520576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2807,25 +2894,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2893,22 +2980,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2976,11 +3063,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="635563008"/>
-        <c:axId val="625167168"/>
+        <c:axId val="180731904"/>
+        <c:axId val="160123712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="635563008"/>
+        <c:axId val="180731904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2989,7 +3076,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="625167168"/>
+        <c:crossAx val="160123712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2997,7 +3084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="625167168"/>
+        <c:axId val="160123712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3008,7 +3095,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635563008"/>
+        <c:crossAx val="180731904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3232,11 +3319,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="645778432"/>
-        <c:axId val="625169472"/>
+        <c:axId val="170528768"/>
+        <c:axId val="160126016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="645778432"/>
+        <c:axId val="170528768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3245,7 +3332,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="625169472"/>
+        <c:crossAx val="160126016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3253,7 +3340,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="625169472"/>
+        <c:axId val="160126016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3264,7 +3351,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="645778432"/>
+        <c:crossAx val="170528768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3306,7 +3393,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3347,7 +3434,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3388,7 +3475,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F86464-62E3-40C4-9822-D864B84BC108}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9F86464-62E3-40C4-9822-D864B84BC108}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3431,7 +3518,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3744,7 +3831,7 @@
   <dimension ref="B1:O97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3764,144 +3851,144 @@
   <sheetData>
     <row r="1" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="105"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
     </row>
     <row r="3" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="66" t="s">
+      <c r="C3" s="96"/>
+      <c r="D3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="82" t="s">
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="84"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="86"/>
     </row>
     <row r="4" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="68" t="s">
+      <c r="C4" s="98"/>
+      <c r="D4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="79" t="s">
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="81"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="62"/>
     </row>
     <row r="5" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="70" t="s">
+      <c r="C5" s="100"/>
+      <c r="D5" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="16" t="s">
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="34" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="85" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="33"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="28"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
@@ -3919,12 +4006,12 @@
       <c r="N7" s="3">
         <v>1</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -3933,15 +4020,15 @@
       <c r="D8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="18">
+      <c r="G8" s="40"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="17">
         <v>2</v>
       </c>
       <c r="J8" s="3" t="s">
@@ -3957,12 +4044,12 @@
         <v>116</v>
       </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="33">
+      <c r="O8" s="28">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -3971,24 +4058,24 @@
       <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="76" t="s">
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="33"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="28"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -3997,28 +4084,28 @@
       <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="34" t="s">
+      <c r="G10" s="40"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29" t="s">
         <v>88</v>
       </c>
       <c r="J10" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="33"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="28"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -4027,26 +4114,26 @@
       <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="40"/>
+      <c r="F11" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="18">
+      <c r="G11" s="40"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="17">
         <v>1</v>
       </c>
-      <c r="J11" s="90" t="s">
-        <v>181</v>
-      </c>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="33"/>
+      <c r="J11" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="28"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -4055,26 +4142,26 @@
       <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="40"/>
+      <c r="F12" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="93" t="s">
+      <c r="H12" s="28"/>
+      <c r="I12" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="33"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="28"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -4083,15 +4170,15 @@
       <c r="D13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="20" t="s">
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="17">
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -4107,12 +4194,12 @@
         <v>92</v>
       </c>
       <c r="N13" s="3"/>
-      <c r="O13" s="33">
+      <c r="O13" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -4121,15 +4208,15 @@
       <c r="D14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="6" t="s">
+      <c r="F14" s="40"/>
+      <c r="G14" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="18">
+      <c r="H14" s="28"/>
+      <c r="I14" s="17">
         <v>2</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -4147,12 +4234,12 @@
       <c r="N14" s="3">
         <v>1</v>
       </c>
-      <c r="O14" s="33">
+      <c r="O14" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -4161,13 +4248,13 @@
       <c r="D15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="18">
+      <c r="G15" s="40"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="17">
         <v>3</v>
       </c>
       <c r="J15" s="3" t="s">
@@ -4185,125 +4272,125 @@
       <c r="N15" s="3">
         <v>2</v>
       </c>
-      <c r="O15" s="33">
+      <c r="O15" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="93" t="s">
+      <c r="I16" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="33"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="28"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="35" t="s">
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="94" t="s">
+      <c r="J17" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="33"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="28"/>
     </row>
     <row r="18" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="18">
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="17">
         <v>1</v>
       </c>
-      <c r="J18" s="95" t="s">
+      <c r="J18" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="33"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="28"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="17">
         <v>2</v>
       </c>
-      <c r="J19" s="95" t="s">
+      <c r="J19" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="33"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="28"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -4318,25 +4405,25 @@
       <c r="G20" s="5">
         <v>0.15</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="22">
         <f>SUM(E20:G20)</f>
         <v>1</v>
       </c>
-      <c r="I20" s="109" t="s">
+      <c r="I20" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="33"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="28"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -4351,11 +4438,11 @@
       <c r="G21" s="5">
         <v>0.2</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="22">
         <f>SUM(E21:G21)</f>
         <v>1</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="17">
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
@@ -4371,15 +4458,15 @@
         <v>105</v>
       </c>
       <c r="N21" s="3"/>
-      <c r="O21" s="33">
+      <c r="O21" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -4394,11 +4481,11 @@
       <c r="G22" s="5">
         <v>0.4</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="22">
         <f>SUM(E22:G22)</f>
         <v>1</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="17">
         <v>2</v>
       </c>
       <c r="J22" s="3" t="s">
@@ -4416,19 +4503,19 @@
       <c r="N22" s="3">
         <v>1</v>
       </c>
-      <c r="O22" s="33">
+      <c r="O22" s="28">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="111"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="18">
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="17">
         <v>3</v>
       </c>
       <c r="J23" s="3" t="s">
@@ -4446,223 +4533,223 @@
       <c r="N23" s="3">
         <v>2</v>
       </c>
-      <c r="O23" s="33">
+      <c r="O23" s="28">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="109" t="s">
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="110"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="33"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="28"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="15">
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="14">
         <f>SUM(E28,E31,E34,E37)</f>
         <v>31</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="14">
         <v>31</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="12">
         <f>SUM(G28,G31,G34,G37)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="28">
+      <c r="H25" s="23">
         <v>31</v>
       </c>
-      <c r="I25" s="36" t="s">
+      <c r="I25" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="110" t="s">
+      <c r="J25" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="33"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="28"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="18">
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="17">
         <v>1</v>
       </c>
-      <c r="J26" s="95" t="s">
+      <c r="J26" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="33"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="28"/>
     </row>
     <row r="27" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="F27" s="73"/>
-      <c r="G27" s="72" t="s">
-        <v>171</v>
+      <c r="D27" s="45"/>
+      <c r="E27" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="F27" s="51"/>
+      <c r="G27" s="50" t="s">
+        <v>167</v>
       </c>
       <c r="H27" s="88"/>
-      <c r="I27" s="21">
+      <c r="I27" s="18">
         <v>2</v>
       </c>
-      <c r="J27" s="114" t="s">
+      <c r="J27" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="K27" s="114"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="114"/>
-      <c r="N27" s="114"/>
-      <c r="O27" s="37"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="32"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="14">
+      <c r="D28" s="45"/>
+      <c r="E28" s="13">
         <v>8</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="13">
         <f>E25-E28</f>
         <v>23</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="13">
         <v>0</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="11">
         <v>31</v>
       </c>
-      <c r="I28" s="79" t="s">
+      <c r="I28" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="81"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="62"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="117" t="s">
+      <c r="B29" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="118"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="16" t="s">
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="K29" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="L29" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="M29" s="10" t="s">
+      <c r="M29" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="N29" s="10" t="s">
+      <c r="N29" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="O29" s="39" t="s">
+      <c r="O29" s="34" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="90" t="s">
-        <v>175</v>
-      </c>
-      <c r="D30" s="92"/>
-      <c r="E30" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="F30" s="73"/>
-      <c r="G30" s="72" t="s">
+      <c r="C30" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="43"/>
+      <c r="E30" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="F30" s="51"/>
+      <c r="G30" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="H30" s="87"/>
+      <c r="I30" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="28"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="H30" s="87"/>
-      <c r="I30" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="86"/>
-      <c r="O30" s="33"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="90" t="s">
-        <v>176</v>
-      </c>
-      <c r="D31" s="92"/>
-      <c r="E31" s="14">
+      <c r="D31" s="43"/>
+      <c r="E31" s="13">
         <v>7</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="13">
         <f>F28-E31</f>
         <v>16</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="13">
         <v>0</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="11">
         <v>31</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="17">
         <v>1</v>
       </c>
       <c r="J31" s="3" t="s">
@@ -4680,21 +4767,21 @@
       <c r="N31" s="3">
         <v>1</v>
       </c>
-      <c r="O31" s="33">
+      <c r="O31" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="117" t="s">
+      <c r="B32" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="18">
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="17">
         <v>2</v>
       </c>
       <c r="J32" s="3" t="s">
@@ -4712,139 +4799,139 @@
       <c r="N32" s="3">
         <v>1</v>
       </c>
-      <c r="O32" s="33">
+      <c r="O32" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="D33" s="53"/>
-      <c r="E33" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="F33" s="73"/>
-      <c r="G33" s="72" t="s">
+      <c r="C33" s="44" t="s">
         <v>173</v>
       </c>
+      <c r="D33" s="45"/>
+      <c r="E33" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="F33" s="51"/>
+      <c r="G33" s="50" t="s">
+        <v>169</v>
+      </c>
       <c r="H33" s="87"/>
-      <c r="I33" s="85" t="s">
+      <c r="I33" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="J33" s="86"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="33"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="28"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="14">
+      <c r="C34" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34" s="45"/>
+      <c r="E34" s="13">
         <v>4</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="13">
         <f>F31-E34</f>
         <v>12</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="13">
         <v>0</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="11">
         <v>31</v>
       </c>
-      <c r="I34" s="34" t="s">
+      <c r="I34" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="J34" s="86" t="s">
+      <c r="J34" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="K34" s="86"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="86"/>
-      <c r="N34" s="86"/>
-      <c r="O34" s="33"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="28"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="117" t="s">
+      <c r="B35" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="18">
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="17">
         <v>1</v>
       </c>
-      <c r="J35" s="95" t="s">
+      <c r="J35" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="33"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="28"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="F36" s="73"/>
-      <c r="G36" s="72" t="s">
-        <v>174</v>
+      <c r="C36" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="45"/>
+      <c r="E36" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="F36" s="51"/>
+      <c r="G36" s="50" t="s">
+        <v>170</v>
       </c>
       <c r="H36" s="87"/>
-      <c r="I36" s="93" t="s">
+      <c r="I36" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="33"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="28"/>
     </row>
     <row r="37" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="115" t="s">
-        <v>180</v>
-      </c>
-      <c r="D37" s="116"/>
-      <c r="E37" s="32">
+      <c r="C37" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="47"/>
+      <c r="E37" s="27">
         <v>12</v>
       </c>
-      <c r="F37" s="32">
+      <c r="F37" s="27">
         <f>F34-E37</f>
         <v>0</v>
       </c>
-      <c r="G37" s="32">
+      <c r="G37" s="27">
         <v>0</v>
       </c>
-      <c r="H37" s="38">
+      <c r="H37" s="33">
         <v>31</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I37" s="17">
         <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
@@ -4862,21 +4949,21 @@
       <c r="N37" s="3">
         <v>1</v>
       </c>
-      <c r="O37" s="33">
+      <c r="O37" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="18">
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="17">
         <v>2</v>
       </c>
       <c r="J38" s="3" t="s">
@@ -4894,91 +4981,91 @@
       <c r="N38" s="3">
         <v>2</v>
       </c>
-      <c r="O38" s="33">
+      <c r="O38" s="28">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="96" t="s">
+      <c r="B39" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="98"/>
-      <c r="I39" s="93" t="s">
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="J39" s="94"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="94"/>
-      <c r="M39" s="94"/>
-      <c r="N39" s="94"/>
-      <c r="O39" s="33"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="28"/>
     </row>
     <row r="40" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="100" t="s">
+      <c r="B40" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="35" t="s">
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="J40" s="94" t="s">
+      <c r="J40" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="K40" s="94"/>
-      <c r="L40" s="94"/>
-      <c r="M40" s="94"/>
-      <c r="N40" s="94"/>
-      <c r="O40" s="33"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="28"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I41" s="18">
+      <c r="I41" s="17">
         <v>1</v>
       </c>
-      <c r="J41" s="95" t="s">
+      <c r="J41" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="K41" s="95"/>
-      <c r="L41" s="95"/>
-      <c r="M41" s="95"/>
-      <c r="N41" s="95"/>
-      <c r="O41" s="33"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="28"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I42" s="18">
+      <c r="I42" s="17">
         <v>2</v>
       </c>
-      <c r="J42" s="95" t="s">
+      <c r="J42" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="K42" s="95"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="95"/>
-      <c r="O42" s="33"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="28"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I43" s="109" t="s">
+      <c r="I43" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="J43" s="110"/>
-      <c r="K43" s="110"/>
-      <c r="L43" s="110"/>
-      <c r="M43" s="110"/>
-      <c r="N43" s="110"/>
-      <c r="O43" s="33"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="28"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I44" s="18">
+      <c r="I44" s="17">
         <v>1</v>
       </c>
       <c r="J44" s="3" t="s">
@@ -4996,12 +5083,12 @@
       <c r="N44" s="3">
         <v>1</v>
       </c>
-      <c r="O44" s="33">
+      <c r="O44" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I45" s="18">
+      <c r="I45" s="17">
         <v>2</v>
       </c>
       <c r="J45" s="3" t="s">
@@ -5019,12 +5106,12 @@
       <c r="N45" s="3">
         <v>2</v>
       </c>
-      <c r="O45" s="33">
+      <c r="O45" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I46" s="18">
+      <c r="I46" s="17">
         <v>3</v>
       </c>
       <c r="J46" s="3" t="s">
@@ -5042,107 +5129,107 @@
       <c r="N46" s="3">
         <v>2</v>
       </c>
-      <c r="O46" s="33">
+      <c r="O46" s="28">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I47" s="109" t="s">
+      <c r="I47" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="J47" s="110"/>
-      <c r="K47" s="110"/>
-      <c r="L47" s="110"/>
-      <c r="M47" s="110"/>
-      <c r="N47" s="110"/>
-      <c r="O47" s="33"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="58"/>
+      <c r="N47" s="58"/>
+      <c r="O47" s="28"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I48" s="36" t="s">
+      <c r="I48" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="J48" s="110" t="s">
+      <c r="J48" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="K48" s="110"/>
-      <c r="L48" s="110"/>
-      <c r="M48" s="110"/>
-      <c r="N48" s="110"/>
-      <c r="O48" s="33"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="28"/>
     </row>
     <row r="49" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I49" s="18">
+      <c r="I49" s="17">
         <v>1</v>
       </c>
-      <c r="J49" s="95" t="s">
+      <c r="J49" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="K49" s="95"/>
-      <c r="L49" s="95"/>
-      <c r="M49" s="95"/>
-      <c r="N49" s="95"/>
-      <c r="O49" s="33"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="28"/>
     </row>
     <row r="50" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I50" s="21">
+      <c r="I50" s="18">
         <v>2</v>
       </c>
-      <c r="J50" s="114" t="s">
+      <c r="J50" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="K50" s="114"/>
-      <c r="L50" s="114"/>
-      <c r="M50" s="114"/>
-      <c r="N50" s="114"/>
-      <c r="O50" s="37"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="32"/>
     </row>
     <row r="51" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I51" s="79" t="s">
-        <v>140</v>
-      </c>
-      <c r="J51" s="80"/>
-      <c r="K51" s="80"/>
-      <c r="L51" s="80"/>
-      <c r="M51" s="80"/>
-      <c r="N51" s="80"/>
-      <c r="O51" s="81"/>
+      <c r="I51" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="61"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="62"/>
     </row>
     <row r="52" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I52" s="16" t="s">
+      <c r="I52" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="J52" s="10" t="s">
+      <c r="J52" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K52" s="10" t="s">
+      <c r="K52" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="L52" s="10" t="s">
+      <c r="L52" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="M52" s="10" t="s">
+      <c r="M52" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="N52" s="10" t="s">
+      <c r="N52" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="O52" s="39" t="s">
+      <c r="O52" s="34" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="53" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I53" s="85" t="s">
+      <c r="I53" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="J53" s="86"/>
-      <c r="K53" s="86"/>
-      <c r="L53" s="86"/>
-      <c r="M53" s="86"/>
-      <c r="N53" s="86"/>
-      <c r="O53" s="40"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="53"/>
+      <c r="O53" s="35"/>
     </row>
     <row r="54" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I54" s="18">
+      <c r="I54" s="17">
         <v>1</v>
       </c>
       <c r="J54" s="3" t="s">
@@ -5155,69 +5242,69 @@
         <v>124</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N54" s="3">
         <v>1</v>
       </c>
-      <c r="O54" s="33">
+      <c r="O54" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I55" s="85" t="s">
+      <c r="I55" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="J55" s="86"/>
-      <c r="K55" s="86"/>
-      <c r="L55" s="86"/>
-      <c r="M55" s="86"/>
-      <c r="N55" s="86"/>
-      <c r="O55" s="33"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="28"/>
     </row>
     <row r="56" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I56" s="34" t="s">
+      <c r="I56" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="J56" s="86" t="s">
+      <c r="J56" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="K56" s="86"/>
-      <c r="L56" s="86"/>
-      <c r="M56" s="86"/>
-      <c r="N56" s="86"/>
-      <c r="O56" s="33"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="28"/>
     </row>
     <row r="57" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I57" s="18">
+      <c r="I57" s="17">
         <v>1</v>
       </c>
-      <c r="J57" s="95" t="s">
+      <c r="J57" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="K57" s="95"/>
-      <c r="L57" s="95"/>
-      <c r="M57" s="95"/>
-      <c r="N57" s="95"/>
-      <c r="O57" s="33"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="54"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="28"/>
     </row>
     <row r="58" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I58" s="93" t="s">
+      <c r="I58" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="J58" s="94"/>
-      <c r="K58" s="94"/>
-      <c r="L58" s="94"/>
-      <c r="M58" s="94"/>
-      <c r="N58" s="94"/>
-      <c r="O58" s="33"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="56"/>
+      <c r="O58" s="28"/>
     </row>
     <row r="59" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I59" s="18">
+      <c r="I59" s="17">
         <v>1</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>83</v>
@@ -5226,69 +5313,69 @@
         <v>76</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N59" s="3">
         <v>1</v>
       </c>
-      <c r="O59" s="33">
+      <c r="O59" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I60" s="93" t="s">
+      <c r="I60" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="J60" s="94"/>
-      <c r="K60" s="94"/>
-      <c r="L60" s="94"/>
-      <c r="M60" s="94"/>
-      <c r="N60" s="94"/>
-      <c r="O60" s="33"/>
+      <c r="J60" s="56"/>
+      <c r="K60" s="56"/>
+      <c r="L60" s="56"/>
+      <c r="M60" s="56"/>
+      <c r="N60" s="56"/>
+      <c r="O60" s="28"/>
     </row>
     <row r="61" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I61" s="35" t="s">
+      <c r="I61" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="J61" s="94" t="s">
+      <c r="J61" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="K61" s="94"/>
-      <c r="L61" s="94"/>
-      <c r="M61" s="94"/>
-      <c r="N61" s="94"/>
-      <c r="O61" s="33"/>
+      <c r="K61" s="56"/>
+      <c r="L61" s="56"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="56"/>
+      <c r="O61" s="28"/>
     </row>
     <row r="62" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I62" s="18">
+      <c r="I62" s="17">
         <v>1</v>
       </c>
-      <c r="J62" s="95" t="s">
+      <c r="J62" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="K62" s="95"/>
-      <c r="L62" s="95"/>
-      <c r="M62" s="95"/>
-      <c r="N62" s="95"/>
-      <c r="O62" s="33"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="28"/>
     </row>
     <row r="63" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I63" s="109" t="s">
+      <c r="I63" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="J63" s="110"/>
-      <c r="K63" s="110"/>
-      <c r="L63" s="110"/>
-      <c r="M63" s="110"/>
-      <c r="N63" s="110"/>
-      <c r="O63" s="33"/>
+      <c r="J63" s="58"/>
+      <c r="K63" s="58"/>
+      <c r="L63" s="58"/>
+      <c r="M63" s="58"/>
+      <c r="N63" s="58"/>
+      <c r="O63" s="28"/>
     </row>
     <row r="64" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I64" s="18">
+      <c r="I64" s="17">
         <v>1</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>83</v>
@@ -5302,16 +5389,16 @@
       <c r="N64" s="3">
         <v>1</v>
       </c>
-      <c r="O64" s="33">
+      <c r="O64" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I65" s="18">
+      <c r="I65" s="17">
         <v>2</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>83</v>
@@ -5320,112 +5407,112 @@
         <v>47</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N65" s="3">
         <v>2</v>
       </c>
-      <c r="O65" s="33">
+      <c r="O65" s="28">
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I66" s="109" t="s">
+      <c r="I66" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="J66" s="110"/>
-      <c r="K66" s="110"/>
-      <c r="L66" s="110"/>
-      <c r="M66" s="110"/>
-      <c r="N66" s="110"/>
-      <c r="O66" s="33"/>
+      <c r="J66" s="58"/>
+      <c r="K66" s="58"/>
+      <c r="L66" s="58"/>
+      <c r="M66" s="58"/>
+      <c r="N66" s="58"/>
+      <c r="O66" s="28"/>
     </row>
     <row r="67" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I67" s="36" t="s">
+      <c r="I67" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="J67" s="110" t="s">
+      <c r="J67" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="K67" s="110"/>
-      <c r="L67" s="110"/>
-      <c r="M67" s="110"/>
-      <c r="N67" s="110"/>
-      <c r="O67" s="33"/>
+      <c r="K67" s="58"/>
+      <c r="L67" s="58"/>
+      <c r="M67" s="58"/>
+      <c r="N67" s="58"/>
+      <c r="O67" s="28"/>
     </row>
     <row r="68" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I68" s="18">
+      <c r="I68" s="17">
         <v>1</v>
       </c>
-      <c r="J68" s="95" t="s">
+      <c r="J68" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="K68" s="95"/>
-      <c r="L68" s="95"/>
-      <c r="M68" s="95"/>
-      <c r="N68" s="95"/>
-      <c r="O68" s="33"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="54"/>
+      <c r="M68" s="54"/>
+      <c r="N68" s="54"/>
+      <c r="O68" s="28"/>
     </row>
     <row r="69" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I69" s="21">
+      <c r="I69" s="18">
         <v>2</v>
       </c>
-      <c r="J69" s="114" t="s">
+      <c r="J69" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="K69" s="114"/>
-      <c r="L69" s="114"/>
-      <c r="M69" s="114"/>
-      <c r="N69" s="114"/>
-      <c r="O69" s="37"/>
+      <c r="K69" s="52"/>
+      <c r="L69" s="52"/>
+      <c r="M69" s="52"/>
+      <c r="N69" s="52"/>
+      <c r="O69" s="32"/>
     </row>
     <row r="70" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I70" s="79" t="s">
-        <v>147</v>
-      </c>
-      <c r="J70" s="80"/>
-      <c r="K70" s="80"/>
-      <c r="L70" s="80"/>
-      <c r="M70" s="80"/>
-      <c r="N70" s="80"/>
-      <c r="O70" s="81"/>
+      <c r="I70" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="J70" s="61"/>
+      <c r="K70" s="61"/>
+      <c r="L70" s="61"/>
+      <c r="M70" s="61"/>
+      <c r="N70" s="61"/>
+      <c r="O70" s="62"/>
     </row>
     <row r="71" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I71" s="16" t="s">
+      <c r="I71" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="J71" s="10" t="s">
+      <c r="J71" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K71" s="10" t="s">
+      <c r="K71" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="L71" s="10" t="s">
+      <c r="L71" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="M71" s="10" t="s">
+      <c r="M71" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="N71" s="10" t="s">
+      <c r="N71" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="O71" s="39" t="s">
+      <c r="O71" s="34" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="72" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I72" s="85" t="s">
+      <c r="I72" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="J72" s="86"/>
-      <c r="K72" s="86"/>
-      <c r="L72" s="86"/>
-      <c r="M72" s="86"/>
-      <c r="N72" s="86"/>
-      <c r="O72" s="33"/>
+      <c r="J72" s="53"/>
+      <c r="K72" s="53"/>
+      <c r="L72" s="53"/>
+      <c r="M72" s="53"/>
+      <c r="N72" s="53"/>
+      <c r="O72" s="28"/>
     </row>
     <row r="73" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I73" s="18">
+      <c r="I73" s="17">
         <v>1</v>
       </c>
       <c r="J73" s="3" t="s">
@@ -5438,21 +5525,21 @@
         <v>124</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N73" s="3">
         <v>1</v>
       </c>
-      <c r="O73" s="33">
+      <c r="O73" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I74" s="18">
+      <c r="I74" s="17">
         <v>2</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>83</v>
@@ -5461,21 +5548,21 @@
         <v>124</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="N74" s="3">
         <v>1</v>
       </c>
-      <c r="O74" s="33">
+      <c r="O74" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I75" s="18">
+      <c r="I75" s="17">
         <v>3</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>83</v>
@@ -5484,67 +5571,67 @@
         <v>78</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="N75" s="3"/>
-      <c r="O75" s="33">
+      <c r="O75" s="28">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I76" s="85" t="s">
+      <c r="I76" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="J76" s="86"/>
-      <c r="K76" s="86"/>
-      <c r="L76" s="86"/>
-      <c r="M76" s="86"/>
-      <c r="N76" s="86"/>
-      <c r="O76" s="33"/>
+      <c r="J76" s="53"/>
+      <c r="K76" s="53"/>
+      <c r="L76" s="53"/>
+      <c r="M76" s="53"/>
+      <c r="N76" s="53"/>
+      <c r="O76" s="28"/>
     </row>
     <row r="77" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I77" s="34" t="s">
+      <c r="I77" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="J77" s="86" t="s">
+      <c r="J77" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="K77" s="86"/>
-      <c r="L77" s="86"/>
-      <c r="M77" s="86"/>
-      <c r="N77" s="86"/>
-      <c r="O77" s="33"/>
+      <c r="K77" s="53"/>
+      <c r="L77" s="53"/>
+      <c r="M77" s="53"/>
+      <c r="N77" s="53"/>
+      <c r="O77" s="28"/>
     </row>
     <row r="78" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I78" s="18">
+      <c r="I78" s="17">
         <v>1</v>
       </c>
-      <c r="J78" s="95" t="s">
+      <c r="J78" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="K78" s="95"/>
-      <c r="L78" s="95"/>
-      <c r="M78" s="95"/>
-      <c r="N78" s="95"/>
-      <c r="O78" s="33"/>
+      <c r="K78" s="54"/>
+      <c r="L78" s="54"/>
+      <c r="M78" s="54"/>
+      <c r="N78" s="54"/>
+      <c r="O78" s="28"/>
     </row>
     <row r="79" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I79" s="93" t="s">
+      <c r="I79" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="J79" s="94"/>
-      <c r="K79" s="94"/>
-      <c r="L79" s="94"/>
-      <c r="M79" s="94"/>
-      <c r="N79" s="94"/>
-      <c r="O79" s="33"/>
+      <c r="J79" s="56"/>
+      <c r="K79" s="56"/>
+      <c r="L79" s="56"/>
+      <c r="M79" s="56"/>
+      <c r="N79" s="56"/>
+      <c r="O79" s="28"/>
     </row>
     <row r="80" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I80" s="18">
+      <c r="I80" s="17">
         <v>1</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>83</v>
@@ -5553,21 +5640,21 @@
         <v>59</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N80" s="3">
         <v>2</v>
       </c>
-      <c r="O80" s="33">
+      <c r="O80" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I81" s="18">
+      <c r="I81" s="17">
         <v>2</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>83</v>
@@ -5576,82 +5663,82 @@
         <v>76</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N81" s="3">
         <v>1</v>
       </c>
-      <c r="O81" s="33">
+      <c r="O81" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I82" s="93" t="s">
+      <c r="I82" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="J82" s="94"/>
-      <c r="K82" s="94"/>
-      <c r="L82" s="94"/>
-      <c r="M82" s="94"/>
-      <c r="N82" s="94"/>
-      <c r="O82" s="33"/>
+      <c r="J82" s="56"/>
+      <c r="K82" s="56"/>
+      <c r="L82" s="56"/>
+      <c r="M82" s="56"/>
+      <c r="N82" s="56"/>
+      <c r="O82" s="28"/>
     </row>
     <row r="83" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I83" s="35" t="s">
+      <c r="I83" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="J83" s="94" t="s">
+      <c r="J83" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="K83" s="94"/>
-      <c r="L83" s="94"/>
-      <c r="M83" s="94"/>
-      <c r="N83" s="94"/>
-      <c r="O83" s="33"/>
+      <c r="K83" s="56"/>
+      <c r="L83" s="56"/>
+      <c r="M83" s="56"/>
+      <c r="N83" s="56"/>
+      <c r="O83" s="28"/>
     </row>
     <row r="84" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I84" s="18">
+      <c r="I84" s="17">
         <v>1</v>
       </c>
-      <c r="J84" s="95" t="s">
+      <c r="J84" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="K84" s="95"/>
-      <c r="L84" s="95"/>
-      <c r="M84" s="95"/>
-      <c r="N84" s="95"/>
-      <c r="O84" s="33"/>
+      <c r="K84" s="54"/>
+      <c r="L84" s="54"/>
+      <c r="M84" s="54"/>
+      <c r="N84" s="54"/>
+      <c r="O84" s="28"/>
     </row>
     <row r="85" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I85" s="18">
+      <c r="I85" s="17">
         <v>2</v>
       </c>
-      <c r="J85" s="95" t="s">
+      <c r="J85" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="K85" s="95"/>
-      <c r="L85" s="95"/>
-      <c r="M85" s="95"/>
-      <c r="N85" s="95"/>
-      <c r="O85" s="33"/>
+      <c r="K85" s="54"/>
+      <c r="L85" s="54"/>
+      <c r="M85" s="54"/>
+      <c r="N85" s="54"/>
+      <c r="O85" s="28"/>
     </row>
     <row r="86" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I86" s="109" t="s">
+      <c r="I86" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="J86" s="110"/>
-      <c r="K86" s="110"/>
-      <c r="L86" s="110"/>
-      <c r="M86" s="110"/>
-      <c r="N86" s="110"/>
-      <c r="O86" s="33"/>
+      <c r="J86" s="58"/>
+      <c r="K86" s="58"/>
+      <c r="L86" s="58"/>
+      <c r="M86" s="58"/>
+      <c r="N86" s="58"/>
+      <c r="O86" s="28"/>
     </row>
     <row r="87" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I87" s="18">
+      <c r="I87" s="17">
         <v>1</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>83</v>
@@ -5660,21 +5747,21 @@
         <v>47</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="N87" s="3">
         <v>1</v>
       </c>
-      <c r="O87" s="33">
+      <c r="O87" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="88" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I88" s="18">
+      <c r="I88" s="17">
         <v>2</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>83</v>
@@ -5683,21 +5770,21 @@
         <v>47</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N88" s="3">
         <v>1</v>
       </c>
-      <c r="O88" s="33">
+      <c r="O88" s="28">
         <v>7</v>
       </c>
     </row>
     <row r="89" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I89" s="18">
+      <c r="I89" s="17">
         <v>3</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>83</v>
@@ -5711,16 +5798,16 @@
       <c r="N89" s="3">
         <v>1</v>
       </c>
-      <c r="O89" s="33">
+      <c r="O89" s="28">
         <v>8</v>
       </c>
     </row>
     <row r="90" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I90" s="18">
+      <c r="I90" s="17">
         <v>4</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>83</v>
@@ -5729,21 +5816,21 @@
         <v>47</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N90" s="3">
         <v>2</v>
       </c>
-      <c r="O90" s="33">
+      <c r="O90" s="28">
         <v>9</v>
       </c>
     </row>
     <row r="91" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I91" s="18">
+      <c r="I91" s="17">
         <v>5</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>83</v>
@@ -5752,161 +5839,137 @@
         <v>47</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N91" s="3">
         <v>2</v>
       </c>
-      <c r="O91" s="33">
+      <c r="O91" s="28">
         <v>10</v>
       </c>
     </row>
     <row r="92" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I92" s="18">
+      <c r="I92" s="17">
         <v>6</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>83</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="N92" s="3"/>
-      <c r="O92" s="33">
+      <c r="O92" s="28">
         <v>11</v>
       </c>
     </row>
     <row r="93" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I93" s="18">
+      <c r="I93" s="17">
         <v>7</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>83</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="N93" s="3"/>
-      <c r="O93" s="33">
+      <c r="O93" s="28">
         <v>12</v>
       </c>
     </row>
     <row r="94" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I94" s="109" t="s">
+      <c r="I94" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="J94" s="110"/>
-      <c r="K94" s="110"/>
-      <c r="L94" s="110"/>
-      <c r="M94" s="110"/>
-      <c r="N94" s="110"/>
-      <c r="O94" s="33"/>
+      <c r="J94" s="58"/>
+      <c r="K94" s="58"/>
+      <c r="L94" s="58"/>
+      <c r="M94" s="58"/>
+      <c r="N94" s="58"/>
+      <c r="O94" s="28"/>
     </row>
     <row r="95" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I95" s="36" t="s">
+      <c r="I95" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="J95" s="110" t="s">
+      <c r="J95" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="K95" s="110"/>
-      <c r="L95" s="110"/>
-      <c r="M95" s="110"/>
-      <c r="N95" s="110"/>
-      <c r="O95" s="33"/>
+      <c r="K95" s="58"/>
+      <c r="L95" s="58"/>
+      <c r="M95" s="58"/>
+      <c r="N95" s="58"/>
+      <c r="O95" s="28"/>
     </row>
     <row r="96" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I96" s="18">
+      <c r="I96" s="17">
         <v>1</v>
       </c>
-      <c r="J96" s="95" t="s">
+      <c r="J96" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="K96" s="95"/>
-      <c r="L96" s="95"/>
-      <c r="M96" s="95"/>
-      <c r="N96" s="95"/>
-      <c r="O96" s="33"/>
+      <c r="K96" s="54"/>
+      <c r="L96" s="54"/>
+      <c r="M96" s="54"/>
+      <c r="N96" s="54"/>
+      <c r="O96" s="28"/>
     </row>
     <row r="97" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I97" s="21">
+      <c r="I97" s="18">
         <v>2</v>
       </c>
-      <c r="J97" s="114" t="s">
+      <c r="J97" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="K97" s="114"/>
-      <c r="L97" s="114"/>
-      <c r="M97" s="114"/>
-      <c r="N97" s="114"/>
-      <c r="O97" s="37"/>
+      <c r="K97" s="52"/>
+      <c r="L97" s="52"/>
+      <c r="M97" s="52"/>
+      <c r="N97" s="52"/>
+      <c r="O97" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="J77:N77"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="I79:N79"/>
-    <mergeCell ref="I82:N82"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="I86:N86"/>
-    <mergeCell ref="I94:N94"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="I76:N76"/>
-    <mergeCell ref="I58:N58"/>
-    <mergeCell ref="J61:N61"/>
-    <mergeCell ref="J62:N62"/>
-    <mergeCell ref="I60:N60"/>
-    <mergeCell ref="I63:N63"/>
-    <mergeCell ref="I66:N66"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="J68:N68"/>
-    <mergeCell ref="J69:N69"/>
-    <mergeCell ref="I70:O70"/>
-    <mergeCell ref="I72:N72"/>
-    <mergeCell ref="I51:O51"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="J56:N56"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="I53:N53"/>
-    <mergeCell ref="J50:N50"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="J48:N48"/>
-    <mergeCell ref="J49:N49"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="J18:N18"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="B40:H40"/>
@@ -5923,34 +5986,58 @@
     <mergeCell ref="I24:N24"/>
     <mergeCell ref="J25:N25"/>
     <mergeCell ref="J27:N27"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="J50:N50"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="J49:N49"/>
+    <mergeCell ref="I51:O51"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="J56:N56"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="I76:N76"/>
+    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="J61:N61"/>
+    <mergeCell ref="J62:N62"/>
+    <mergeCell ref="I60:N60"/>
+    <mergeCell ref="I63:N63"/>
+    <mergeCell ref="I66:N66"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="J69:N69"/>
+    <mergeCell ref="I70:O70"/>
+    <mergeCell ref="I72:N72"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="I79:N79"/>
+    <mergeCell ref="I82:N82"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="I86:N86"/>
+    <mergeCell ref="I94:N94"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
   </mergeCells>
   <conditionalFormatting sqref="H20:H22">
     <cfRule type="cellIs" dxfId="43" priority="2" operator="between">
@@ -5979,1039 +6066,1029 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AD31"/>
+  <dimension ref="B1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="42" customWidth="1"/>
-    <col min="2" max="7" width="15.7109375" style="42" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="43" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="43" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="5.28515625" style="43" customWidth="1"/>
-    <col min="19" max="19" width="63.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="42"/>
+    <col min="1" max="1" width="1.7109375" style="37" customWidth="1"/>
+    <col min="2" max="7" width="15.7109375" style="37" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="5.28515625" style="38" customWidth="1"/>
+    <col min="19" max="19" width="63.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="120" t="s">
+    <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="110" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="112"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="127"/>
+      <c r="D3" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
+      <c r="H3" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="62"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="114" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="128">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q4" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="R4" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="S4" s="34" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="114" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="119" t="s">
+        <v>230</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M5" s="39">
+        <v>1</v>
+      </c>
+      <c r="N5" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="115" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="114" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="128" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="119" t="s">
+        <v>236</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M6" s="39">
+        <v>2</v>
+      </c>
+      <c r="N6" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="115" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="116" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="129" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="119" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="119" t="s">
+        <v>237</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M7" s="39">
+        <v>3</v>
+      </c>
+      <c r="N7" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="115" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="120"/>
-      <c r="AA2" s="120"/>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="120"/>
-      <c r="AD2" s="120"/>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B3" s="121" t="s">
+      <c r="C8" s="127"/>
+      <c r="D8" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="120" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="119" t="s">
+        <v>238</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M8" s="39">
+        <v>4</v>
+      </c>
+      <c r="N8" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="115" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121" t="s">
+      <c r="C9" s="128" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="119" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="120" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="119" t="s">
+        <v>240</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M9" s="39">
+        <v>5</v>
+      </c>
+      <c r="N9" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="115" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="114" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="128" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="119" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="119" t="s">
+        <v>243</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M10" s="39">
+        <v>6</v>
+      </c>
+      <c r="N10" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="115" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="116" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="130" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="119" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="119" t="s">
+        <v>244</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M11" s="39">
+        <v>1</v>
+      </c>
+      <c r="N11" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="115" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="120" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="119" t="s">
+        <v>247</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M12" s="39">
+        <v>2</v>
+      </c>
+      <c r="N12" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="115" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="115" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="131" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="123" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="119" t="s">
+        <v>250</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M13" s="39">
+        <v>3</v>
+      </c>
+      <c r="N13" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="115" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="114" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="115" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="119" t="s">
+        <v>254</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M14" s="39">
+        <v>4</v>
+      </c>
+      <c r="N14" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="115" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="114" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="119" t="s">
+        <v>255</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M15" s="39">
+        <v>5</v>
+      </c>
+      <c r="N15" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="115" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="114" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="115" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="119" t="s">
+        <v>256</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M16" s="39">
+        <v>6</v>
+      </c>
+      <c r="N16" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="115" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="116" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="118" t="s">
+        <v>199</v>
+      </c>
+      <c r="H17" s="119" t="s">
+        <v>257</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M17" s="39">
+        <v>1</v>
+      </c>
+      <c r="N17" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="115" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="H18" s="119" t="s">
+        <v>259</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="L18" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M18" s="39">
+        <v>2</v>
+      </c>
+      <c r="N18" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="115" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="114" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="115" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="119" t="s">
+        <v>261</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M19" s="39">
+        <v>3</v>
+      </c>
+      <c r="N19" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O19" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="R19" s="39"/>
+      <c r="S19" s="115" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="114" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="119" t="s">
+        <v>266</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M20" s="39">
+        <v>4</v>
+      </c>
+      <c r="N20" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="115" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="114" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="119" t="s">
+        <v>267</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M21" s="39">
+        <v>5</v>
+      </c>
+      <c r="N21" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O21" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="R21" s="39"/>
+      <c r="S21" s="115" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="126" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="121"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="122"/>
+      <c r="P22" s="122"/>
+      <c r="Q22" s="122"/>
+      <c r="R22" s="122"/>
+      <c r="S22" s="118"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="62"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="H3" s="119" t="s">
-        <v>222</v>
-      </c>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="119"/>
-      <c r="S3" s="119"/>
-    </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="46">
+      <c r="E24" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="119">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="I5" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="L5" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M5" s="48">
-        <v>2</v>
-      </c>
-      <c r="N5" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="46" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="I6" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="L6" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M6" s="48">
+      <c r="C25" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="39">
+        <f>COUNTIF($M$5:$M$21,B25)</f>
         <v>3</v>
       </c>
-      <c r="N6" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="46" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="D7" s="48" t="s">
+      <c r="E25" s="39">
+        <f>COUNTA(H5:H21)-D25</f>
         <v>14</v>
       </c>
-      <c r="E7" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="L7" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M7" s="48">
-        <v>4</v>
-      </c>
-      <c r="N7" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="46" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B8" s="119" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="119"/>
-      <c r="D8" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="I8" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="L8" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M8" s="48">
-        <v>5</v>
-      </c>
-      <c r="N8" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="46" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="I9" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="L9" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M9" s="48">
-        <v>6</v>
-      </c>
-      <c r="N9" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="46" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B10" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="L10" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M10" s="48">
-        <v>7</v>
-      </c>
-      <c r="N10" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="46" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B11" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="L11" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M11" s="48">
-        <v>2</v>
-      </c>
-      <c r="N11" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="46" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B12" s="119" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="I12" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="L12" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M12" s="48">
-        <v>3</v>
-      </c>
-      <c r="N12" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="46" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B13" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="J13" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="L13" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M13" s="48">
-        <v>4</v>
-      </c>
-      <c r="N13" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="46" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B14" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="H14" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K14" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="L14" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M14" s="48">
-        <v>5</v>
-      </c>
-      <c r="N14" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="46" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B15" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="I15" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="L15" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M15" s="48">
-        <v>6</v>
-      </c>
-      <c r="N15" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="46" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B16" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="H16" s="48" t="s">
-        <v>260</v>
-      </c>
-      <c r="I16" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="L16" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M16" s="48">
-        <v>7</v>
-      </c>
-      <c r="N16" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="46" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="H17" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="I17" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="J17" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="L17" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M17" s="48">
-        <v>3</v>
-      </c>
-      <c r="N17" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="46" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="119" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" s="119"/>
-      <c r="H18" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="I18" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="J18" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="L18" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M18" s="48">
-        <v>4</v>
-      </c>
-      <c r="N18" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="46" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="I19" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="J19" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="L19" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M19" s="48">
-        <v>5</v>
-      </c>
-      <c r="N19" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O19" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="R19" s="48"/>
-      <c r="S19" s="46" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="I20" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="J20" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="L20" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M20" s="48">
-        <v>6</v>
-      </c>
-      <c r="N20" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="46" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="I21" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="J21" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="K21" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="L21" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M21" s="48">
-        <v>7</v>
-      </c>
-      <c r="N21" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O21" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="R21" s="48"/>
-      <c r="S21" s="46" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="49" t="s">
-        <v>205</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="46"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="119" t="s">
-        <v>210</v>
-      </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="48">
-        <v>1</v>
-      </c>
-      <c r="C25" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="D25" s="48">
-        <f>COUNTIF($M$5:$M$21,B25)</f>
+      <c r="F25" s="39">
         <v>0</v>
       </c>
-      <c r="E25" s="48">
-        <f>COUNTA(H5:H21)-D25</f>
-        <v>17</v>
-      </c>
-      <c r="F25" s="48">
-        <v>0</v>
-      </c>
-      <c r="G25" s="48">
+      <c r="G25" s="120">
         <f>COUNTA(H5:H21)</f>
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="48">
+      <c r="B26" s="119">
         <v>2</v>
       </c>
-      <c r="C26" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="D26" s="48">
+      <c r="C26" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="D26" s="39">
         <f t="shared" ref="D26:D31" si="0">COUNTIF($M$5:$M$21,B26)</f>
-        <v>2</v>
-      </c>
-      <c r="E26" s="48">
+        <v>3</v>
+      </c>
+      <c r="E26" s="39">
         <f>E25-D26</f>
-        <v>15</v>
-      </c>
-      <c r="F26" s="48">
+        <v>11</v>
+      </c>
+      <c r="F26" s="39">
         <v>0</v>
       </c>
-      <c r="G26" s="48">
+      <c r="G26" s="120">
         <f>G25-F26</f>
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="48">
+      <c r="B27" s="119">
         <v>3</v>
       </c>
-      <c r="C27" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="D27" s="48">
+      <c r="C27" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" s="39">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="39">
         <f t="shared" ref="E27:E31" si="1">E26-D27</f>
-        <v>12</v>
-      </c>
-      <c r="F27" s="48">
+        <v>8</v>
+      </c>
+      <c r="F27" s="39">
         <v>0</v>
       </c>
-      <c r="G27" s="48">
+      <c r="G27" s="120">
         <f t="shared" ref="G27:G31" si="2">G26-F27</f>
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="48">
+      <c r="B28" s="119">
         <v>4</v>
       </c>
-      <c r="C28" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="D28" s="48">
+      <c r="C28" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="D28" s="39">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E28" s="48">
+      <c r="E28" s="39">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="F28" s="48">
+        <v>5</v>
+      </c>
+      <c r="F28" s="39">
         <v>0</v>
       </c>
-      <c r="G28" s="48">
+      <c r="G28" s="120">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="48">
+      <c r="B29" s="119">
         <v>5</v>
       </c>
-      <c r="C29" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="D29" s="48">
+      <c r="C29" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="39">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="39">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F29" s="48">
+        <v>2</v>
+      </c>
+      <c r="F29" s="39">
         <v>0</v>
       </c>
-      <c r="G29" s="48">
+      <c r="G29" s="120">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="48">
+      <c r="B30" s="119">
         <v>6</v>
       </c>
-      <c r="C30" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="D30" s="48">
+      <c r="C30" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="39">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E30" s="48">
+        <v>2</v>
+      </c>
+      <c r="E30" s="39">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F30" s="48">
         <v>0</v>
       </c>
-      <c r="G30" s="48">
+      <c r="F30" s="39">
+        <v>0</v>
+      </c>
+      <c r="G30" s="120">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="48">
+    <row r="31" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="121">
         <v>7</v>
       </c>
-      <c r="C31" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="D31" s="48">
+      <c r="C31" s="122" t="s">
+        <v>203</v>
+      </c>
+      <c r="D31" s="122">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E31" s="48">
+        <v>0</v>
+      </c>
+      <c r="E31" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F31" s="48">
+      <c r="F31" s="122">
         <v>0</v>
       </c>
-      <c r="G31" s="48">
+      <c r="G31" s="123">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
@@ -7020,39 +7097,39 @@
   <mergeCells count="8">
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="H3:S3"/>
-    <mergeCell ref="B2:AD2"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B2:S2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N1:N1048576">
+  <conditionalFormatting sqref="N1 N3:N1048576">
     <cfRule type="containsText" dxfId="38" priority="15" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1048576">
+  <conditionalFormatting sqref="O1 O3:O1048576">
     <cfRule type="containsText" dxfId="37" priority="14" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1048576">
+  <conditionalFormatting sqref="R1 R3:R1048576">
     <cfRule type="containsText" dxfId="36" priority="11" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",R1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:Q1048576">
+  <conditionalFormatting sqref="P1:Q1 P3:Q1048576">
     <cfRule type="containsText" dxfId="35" priority="10" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",P1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1048576">
+  <conditionalFormatting sqref="L1 L3:L1048576">
     <cfRule type="endsWith" dxfId="34" priority="9" operator="endsWith" text="?">
       <formula>RIGHT(L1,LEN("?"))="?"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
+  <conditionalFormatting sqref="J1 J3:J1048576">
     <cfRule type="containsText" dxfId="33" priority="6" operator="containsText" text="QA">
       <formula>NOT(ISERROR(SEARCH("QA",J1)))</formula>
     </cfRule>
@@ -7063,7 +7140,7 @@
       <formula>NOT(ISERROR(SEARCH("FE",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
+  <conditionalFormatting sqref="K1 K3:K1048576">
     <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="TS">
       <formula>NOT(ISERROR(SEARCH("TS",K1)))</formula>
     </cfRule>
@@ -7077,7 +7154,7 @@
       <formula>NOT(ISERROR(SEARCH("PR",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1048576">
+  <conditionalFormatting sqref="M1 M3:M1048576">
     <cfRule type="beginsWith" dxfId="26" priority="1" operator="beginsWith" text="?">
       <formula>LEFT(M1,LEN("?"))="?"</formula>
     </cfRule>
@@ -7090,979 +7167,969 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AD31"/>
+  <dimension ref="B1:S31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="42" customWidth="1"/>
-    <col min="2" max="7" width="15.7109375" style="42" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="43" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="43" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="5.28515625" style="43" customWidth="1"/>
-    <col min="19" max="19" width="63.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="42"/>
+    <col min="1" max="1" width="1.7109375" style="37" customWidth="1"/>
+    <col min="2" max="7" width="15.7109375" style="37" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="5.28515625" style="38" customWidth="1"/>
+    <col min="19" max="19" width="63.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="120" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="120"/>
-      <c r="AA2" s="120"/>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="120"/>
-      <c r="AD2" s="120"/>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B3" s="121" t="s">
+    <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="110" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="112"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="127"/>
+      <c r="D3" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
+      <c r="H3" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="62"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="114" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="128">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q4" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="R4" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="S4" s="34" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="114" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="119" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M5" s="39">
+        <v>1</v>
+      </c>
+      <c r="N5" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="115" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="114" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="128" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="119" t="s">
+        <v>247</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M6" s="39">
+        <v>2</v>
+      </c>
+      <c r="N6" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="115" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="116" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="129" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="119" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="119" t="s">
+        <v>250</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M7" s="39">
+        <v>3</v>
+      </c>
+      <c r="N7" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="115" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="120" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="119" t="s">
+        <v>254</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M8" s="39">
+        <v>4</v>
+      </c>
+      <c r="N8" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="115" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121" t="s">
+      <c r="C9" s="115" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="119" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="120" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="119" t="s">
+        <v>240</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M9" s="39">
+        <v>1</v>
+      </c>
+      <c r="N9" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="115" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="114" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="119" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="119" t="s">
+        <v>243</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M10" s="39">
+        <v>2</v>
+      </c>
+      <c r="N10" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="115" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="116" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="118" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="119" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="119" t="s">
+        <v>230</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M11" s="39">
+        <v>3</v>
+      </c>
+      <c r="N11" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="115" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="120" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="119" t="s">
+        <v>259</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M12" s="39">
+        <v>1</v>
+      </c>
+      <c r="N12" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O12" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="R12" s="39"/>
+      <c r="S12" s="115" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="115" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="131" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="123" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="119" t="s">
+        <v>261</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M13" s="39">
+        <v>2</v>
+      </c>
+      <c r="N13" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="115" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="114" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="115" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="119" t="s">
+        <v>266</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M14" s="39">
+        <v>3</v>
+      </c>
+      <c r="N14" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O14" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="R14" s="39"/>
+      <c r="S14" s="115" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="114" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="119" t="s">
+        <v>267</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M15" s="39">
+        <v>4</v>
+      </c>
+      <c r="N15" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="115" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="114" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="115" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="119" t="s">
+        <v>290</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M16" s="39">
+        <v>5</v>
+      </c>
+      <c r="N16" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O16" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="R16" s="39"/>
+      <c r="S16" s="115" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="116" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="118" t="s">
+        <v>199</v>
+      </c>
+      <c r="H17" s="119" t="s">
+        <v>257</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M17" s="39">
+        <v>6</v>
+      </c>
+      <c r="N17" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="115" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="115"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="114" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="115" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="119"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="115"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="114" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="119"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="115"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="114" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="119"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="115"/>
+    </row>
+    <row r="22" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="126" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="121"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="122"/>
+      <c r="P22" s="122"/>
+      <c r="Q22" s="122"/>
+      <c r="R22" s="122"/>
+      <c r="S22" s="118"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="62"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="H3" s="119" t="s">
-        <v>222</v>
-      </c>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="119"/>
-      <c r="S3" s="119"/>
-    </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="46">
+      <c r="E24" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="119">
         <v>1</v>
       </c>
-      <c r="D4" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="K4" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>226</v>
-      </c>
-      <c r="M4" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="N4" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="O4" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="P4" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q4" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="R4" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="S4" s="44" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" s="48" t="s">
+      <c r="C25" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="39">
+        <f>COUNTIF($M$5:$M$21,B25)</f>
+        <v>3</v>
+      </c>
+      <c r="E25" s="39">
+        <f>COUNTA(H5:H21)-D25</f>
         <v>10</v>
       </c>
-      <c r="E5" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="I5" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="L5" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M5" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="N5" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="46" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="I6" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="L6" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M6" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="N6" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="46" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>275</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="L7" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M7" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="N7" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="46" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B8" s="119" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="119"/>
-      <c r="D8" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="I8" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="L8" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M8" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="N8" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="46" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="I9" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="L9" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M9" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="N9" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="46" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B10" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="L10" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M10" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="N10" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="46" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B11" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="L11" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M11" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="N11" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="46" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B12" s="119" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="I12" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="J12" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="L12" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M12" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="N12" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O12" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="R12" s="48"/>
-      <c r="S12" s="46" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B13" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="J13" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="L13" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M13" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="N13" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="46" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B14" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="H14" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="J14" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="L14" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M14" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="N14" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O14" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="R14" s="48"/>
-      <c r="S14" s="46" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B15" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="I15" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="J15" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="L15" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M15" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="N15" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="46" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B16" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="H16" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="I16" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="J16" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="L16" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M16" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="N16" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O16" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="R16" s="48"/>
-      <c r="S16" s="46" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="H17" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="I17" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="J17" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="L17" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="M17" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="N17" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="46" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="119" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" s="119"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="46"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="46"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="46"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="46"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="49" t="s">
-        <v>205</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="46"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="119" t="s">
-        <v>210</v>
-      </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="44" t="s">
-        <v>211</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="E24" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="F24" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="G24" s="44" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="48">
-        <v>1</v>
-      </c>
-      <c r="C25" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="D25" s="48">
-        <f>COUNTIF($M$5:$M$21,B25)</f>
+      <c r="F25" s="39">
         <v>0</v>
       </c>
-      <c r="E25" s="48">
-        <f>COUNTA(H5:H21)-D25</f>
-        <v>13</v>
-      </c>
-      <c r="F25" s="48">
-        <v>0</v>
-      </c>
-      <c r="G25" s="48">
+      <c r="G25" s="120">
         <f>COUNTA(H5:H21)</f>
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="48">
+      <c r="B26" s="119">
         <v>2</v>
       </c>
-      <c r="C26" s="48" t="s">
-        <v>276</v>
-      </c>
-      <c r="D26" s="48">
+      <c r="C26" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="D26" s="39">
         <f t="shared" ref="D26:D31" si="0">COUNTIF($M$5:$M$21,B26)</f>
+        <v>3</v>
+      </c>
+      <c r="E26" s="39">
+        <f>E25-D26</f>
+        <v>7</v>
+      </c>
+      <c r="F26" s="39">
         <v>0</v>
       </c>
-      <c r="E26" s="48">
-        <f>E25-D26</f>
-        <v>13</v>
-      </c>
-      <c r="F26" s="48">
-        <v>0</v>
-      </c>
-      <c r="G26" s="48">
+      <c r="G26" s="120">
         <f>G25-F26</f>
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="48">
+      <c r="B27" s="119">
         <v>3</v>
       </c>
-      <c r="C27" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="D27" s="48">
+      <c r="C27" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="D27" s="39">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E27" s="39">
+        <f t="shared" ref="E27:E31" si="1">E26-D27</f>
+        <v>4</v>
+      </c>
+      <c r="F27" s="39">
+        <v>0</v>
+      </c>
+      <c r="G27" s="120">
+        <f t="shared" ref="G27:G31" si="2">G26-F27</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="119">
+        <v>4</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="D28" s="39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E28" s="39">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F28" s="39">
+        <v>0</v>
+      </c>
+      <c r="G28" s="120">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="119">
+        <v>5</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="D29" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="39">
+        <v>0</v>
+      </c>
+      <c r="G29" s="120">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="119">
+        <v>6</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="D30" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="39">
+        <v>0</v>
+      </c>
+      <c r="G30" s="120">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="121">
+        <v>7</v>
+      </c>
+      <c r="C31" s="122" t="s">
+        <v>270</v>
+      </c>
+      <c r="D31" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="48">
-        <f t="shared" ref="E27:E31" si="1">E26-D27</f>
-        <v>13</v>
-      </c>
-      <c r="F27" s="48">
+      <c r="E31" s="122">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G27" s="48">
-        <f t="shared" ref="G27:G31" si="2">G26-F27</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="48">
-        <v>4</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="D28" s="48">
-        <f t="shared" si="0"/>
+      <c r="F31" s="122">
         <v>0</v>
       </c>
-      <c r="E28" s="48">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="F28" s="48">
-        <v>0</v>
-      </c>
-      <c r="G28" s="48">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="48">
-        <v>5</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="D29" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="48">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="F29" s="48">
-        <v>0</v>
-      </c>
-      <c r="G29" s="48">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="48">
-        <v>6</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>280</v>
-      </c>
-      <c r="D30" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="48">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="F30" s="48">
-        <v>0</v>
-      </c>
-      <c r="G30" s="48">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="48">
-        <v>7</v>
-      </c>
-      <c r="C31" s="48" t="s">
-        <v>274</v>
-      </c>
-      <c r="D31" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="48">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="F31" s="48">
-        <v>0</v>
-      </c>
-      <c r="G31" s="48">
+      <c r="G31" s="123">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -8071,39 +8138,39 @@
   <mergeCells count="8">
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B2:AD2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="H3:S3"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B2:S2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N1:N1048576">
+  <conditionalFormatting sqref="N1 N3:N1048576">
     <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1048576">
+  <conditionalFormatting sqref="O1 O3:O1048576">
     <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1048576">
+  <conditionalFormatting sqref="R1 R3:R1048576">
     <cfRule type="containsText" dxfId="23" priority="11" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",R1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:Q1048576">
+  <conditionalFormatting sqref="P1:Q1 P3:Q1048576">
     <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",P1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1048576">
+  <conditionalFormatting sqref="L1 L3:L1048576">
     <cfRule type="endsWith" dxfId="21" priority="9" operator="endsWith" text="?">
       <formula>RIGHT(L1,LEN("?"))="?"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
+  <conditionalFormatting sqref="J1 J3:J1048576">
     <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="QA">
       <formula>NOT(ISERROR(SEARCH("QA",J1)))</formula>
     </cfRule>
@@ -8114,7 +8181,7 @@
       <formula>NOT(ISERROR(SEARCH("FE",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
+  <conditionalFormatting sqref="K1 K3:K1048576">
     <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="TS">
       <formula>NOT(ISERROR(SEARCH("TS",K1)))</formula>
     </cfRule>
@@ -8128,7 +8195,7 @@
       <formula>NOT(ISERROR(SEARCH("PR",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1048576">
+  <conditionalFormatting sqref="M1 M3:M1048576">
     <cfRule type="beginsWith" dxfId="13" priority="1" operator="beginsWith" text="?">
       <formula>LEFT(M1,LEN("?"))="?"</formula>
     </cfRule>
@@ -8141,838 +8208,828 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AD31"/>
+  <dimension ref="B1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="42" customWidth="1"/>
-    <col min="2" max="7" width="15.7109375" style="42" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="43" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="43" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="5.28515625" style="43" customWidth="1"/>
-    <col min="19" max="19" width="63.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="42"/>
+    <col min="1" max="1" width="1.7109375" style="37" customWidth="1"/>
+    <col min="2" max="7" width="15.7109375" style="37" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="5.28515625" style="38" customWidth="1"/>
+    <col min="19" max="19" width="63.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="120" t="s">
-        <v>302</v>
-      </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="120"/>
-      <c r="AA2" s="120"/>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="120"/>
-      <c r="AD2" s="120"/>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B3" s="121" t="s">
+    <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="110" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="112"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
+      <c r="H3" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="62"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="114" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="115">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q4" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="R4" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="S4" s="34" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="114" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="115" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="119" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="115"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="114" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="115" t="s">
+        <v>291</v>
+      </c>
+      <c r="D6" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="119" t="s">
+        <v>247</v>
+      </c>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="115"/>
+    </row>
+    <row r="7" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="116" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="117" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" s="119" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="119" t="s">
+        <v>250</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="109"/>
+      <c r="S7" s="115"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="120" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="119" t="s">
+        <v>254</v>
+      </c>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="109"/>
+      <c r="S8" s="115"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121" t="s">
+      <c r="C9" s="115" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="119" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="120" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="119" t="s">
+        <v>255</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="115"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="114" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="119" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="119" t="s">
+        <v>256</v>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="115"/>
+    </row>
+    <row r="11" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="116" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="118" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="119" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="119" t="s">
+        <v>230</v>
+      </c>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="115"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="120" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="119" t="s">
+        <v>236</v>
+      </c>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="109"/>
+      <c r="S12" s="115"/>
+    </row>
+    <row r="13" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="115" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="121" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="123" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="119" t="s">
+        <v>237</v>
+      </c>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="115"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="114" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="115" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="119" t="s">
+        <v>238</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="115"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="114" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="119" t="s">
+        <v>240</v>
+      </c>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="109"/>
+      <c r="S15" s="115"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="114" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="115" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="119" t="s">
+        <v>243</v>
+      </c>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="109"/>
+      <c r="S16" s="115"/>
+    </row>
+    <row r="17" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="116" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="118" t="s">
+        <v>199</v>
+      </c>
+      <c r="H17" s="119" t="s">
+        <v>257</v>
+      </c>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="109"/>
+      <c r="S17" s="115"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="H18" s="119" t="s">
+        <v>259</v>
+      </c>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="109"/>
+      <c r="S18" s="115"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="114" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="115" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="119" t="s">
+        <v>261</v>
+      </c>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="109"/>
+      <c r="S19" s="115"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="114" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="119" t="s">
+        <v>266</v>
+      </c>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="109"/>
+      <c r="S20" s="115"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="114" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="119" t="s">
+        <v>267</v>
+      </c>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="109"/>
+      <c r="S21" s="115"/>
+    </row>
+    <row r="22" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="126" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="121" t="s">
+        <v>290</v>
+      </c>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="122"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="122"/>
+      <c r="P22" s="122"/>
+      <c r="Q22" s="122"/>
+      <c r="R22" s="124"/>
+      <c r="S22" s="118"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="62"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="H3" s="119" t="s">
-        <v>222</v>
-      </c>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="119"/>
-      <c r="S3" s="119"/>
-    </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="46">
+      <c r="E24" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="119">
         <v>1</v>
       </c>
-      <c r="D4" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="51" t="s">
-        <v>223</v>
-      </c>
-      <c r="I4" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="K4" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="L4" s="51" t="s">
-        <v>226</v>
-      </c>
-      <c r="M4" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="N4" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="O4" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="P4" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q4" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="R4" s="51" t="s">
-        <v>230</v>
-      </c>
-      <c r="S4" s="51" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="46"/>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="46"/>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>296</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="46"/>
-    </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B8" s="119" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="119"/>
-      <c r="D8" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="46"/>
-    </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="46"/>
-    </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B10" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>260</v>
-      </c>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="46"/>
-    </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B11" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="46"/>
-    </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B12" s="119" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="46"/>
-    </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B13" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="46"/>
-    </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B14" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="H14" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="46"/>
-    </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B15" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="46"/>
-    </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B16" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="H16" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="46"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="H17" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="46"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="119" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" s="119"/>
-      <c r="H18" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="46"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="46"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="46"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="48" t="s">
+      <c r="C25" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="46"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="49" t="s">
-        <v>205</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="46"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="119" t="s">
-        <v>210</v>
-      </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="E24" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="F24" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="G24" s="51" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="48">
-        <v>1</v>
-      </c>
-      <c r="C25" s="48" t="s">
-        <v>275</v>
-      </c>
-      <c r="D25" s="48">
-        <f>COUNTIF($M$5:$M$21,B25)</f>
+      <c r="D25" s="39">
+        <f>COUNTIF($M$5:$M$22,B25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="48">
-        <f>(COUNTBLANK(I5:I22) - COUNTA(H5:H22))-D25</f>
+      <c r="E25" s="39">
+        <f>(COUNTA(H5:H22)-COUNTBLANK(I5:I22))-D25</f>
         <v>0</v>
       </c>
-      <c r="F25" s="48">
+      <c r="F25" s="39">
         <f>COUNTIFS($R$5:$R$22,"O",$M$5:$M$22,B25)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="48">
-        <f>(COUNTBLANK(I5:I22)-COUNTA(H5:H22)) - F25</f>
+      <c r="G25" s="120">
+        <f>(COUNTA(H5:H22)-COUNTBLANK(I5:I22)) - F25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="48">
+      <c r="B26" s="119">
         <v>2</v>
       </c>
-      <c r="C26" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="D26" s="48">
-        <f t="shared" ref="D26:D31" si="0">COUNTIF($M$5:$M$21,B26)</f>
+      <c r="C26" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="D26" s="39">
+        <f t="shared" ref="D26:D31" si="0">COUNTIF($M$5:$M$22,B26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="39">
         <f>E25-D26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="39">
         <f>COUNTIFS($R$5:$R$22,"O",$M$5:$M$22,B26)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="48">
+      <c r="G26" s="120">
         <f>G25-F26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="48">
+      <c r="B27" s="119">
         <v>3</v>
       </c>
-      <c r="C27" s="48" t="s">
-        <v>298</v>
-      </c>
-      <c r="D27" s="48">
+      <c r="C27" s="39" t="s">
+        <v>294</v>
+      </c>
+      <c r="D27" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="39">
         <f t="shared" ref="E27:E31" si="1">E26-D27</f>
         <v>0</v>
       </c>
-      <c r="F27" s="48">
+      <c r="F27" s="39">
         <f t="shared" ref="F27:F31" si="2">COUNTIFS($R$5:$R$22,"O",$M$5:$M$22,B27)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="48">
+      <c r="G27" s="120">
         <f t="shared" ref="G27:G31" si="3">G26-F27</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="48">
+      <c r="B28" s="119">
         <v>4</v>
       </c>
-      <c r="C28" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="D28" s="48">
+      <c r="C28" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="D28" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="48">
+      <c r="E28" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="48">
+      <c r="F28" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G28" s="48">
+      <c r="G28" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="48">
+      <c r="B29" s="119">
         <v>5</v>
       </c>
-      <c r="C29" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="D29" s="48">
+      <c r="C29" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="D29" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F29" s="48">
+      <c r="F29" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G29" s="48">
+      <c r="G29" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="48">
+      <c r="B30" s="119">
         <v>6</v>
       </c>
-      <c r="C30" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="D30" s="48">
+      <c r="C30" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="D30" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="48">
+      <c r="E30" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="48">
+      <c r="F30" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G30" s="48">
+      <c r="G30" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="48">
+    <row r="31" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="121">
         <v>7</v>
       </c>
-      <c r="C31" s="48" t="s">
-        <v>295</v>
-      </c>
-      <c r="D31" s="48">
+      <c r="C31" s="122" t="s">
+        <v>291</v>
+      </c>
+      <c r="D31" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="48">
+      <c r="E31" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F31" s="48">
+      <c r="F31" s="122">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G31" s="48">
+      <c r="G31" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8981,39 +9038,39 @@
   <mergeCells count="8">
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B2:AD2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="H3:S3"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B2:S2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N1:N1048576">
+  <conditionalFormatting sqref="N1 N3:N1048576">
     <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1048576">
+  <conditionalFormatting sqref="O1 O3:O1048576">
     <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1048576">
+  <conditionalFormatting sqref="R1 R3:R1048576">
     <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",R1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:Q1048576">
+  <conditionalFormatting sqref="P1:Q1 P3:Q1048576">
     <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",P1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1048576">
+  <conditionalFormatting sqref="L1 L3:L1048576">
     <cfRule type="endsWith" dxfId="8" priority="9" operator="endsWith" text="?">
       <formula>RIGHT(L1,LEN("?"))="?"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
+  <conditionalFormatting sqref="J1 J3:J1048576">
     <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="QA">
       <formula>NOT(ISERROR(SEARCH("QA",J1)))</formula>
     </cfRule>
@@ -9024,7 +9081,7 @@
       <formula>NOT(ISERROR(SEARCH("FE",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
+  <conditionalFormatting sqref="K1 K3:K1048576">
     <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="TS">
       <formula>NOT(ISERROR(SEARCH("TS",K1)))</formula>
     </cfRule>
@@ -9038,7 +9095,7 @@
       <formula>NOT(ISERROR(SEARCH("PR",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1048576">
+  <conditionalFormatting sqref="M1 M3:M1048576">
     <cfRule type="beginsWith" dxfId="0" priority="1" operator="beginsWith" text="?">
       <formula>LEFT(M1,LEN("?"))="?"</formula>
     </cfRule>

--- a/Management/Production_Progress_Oct_2017.xlsx
+++ b/Management/Production_Progress_Oct_2017.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="12315" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="12315"/>
   </bookViews>
   <sheets>
-    <sheet name="Production Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Production Backlog" sheetId="5" r:id="rId1"/>
     <sheet name="Sprint #1 Chart" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint #2 Chart" sheetId="3" r:id="rId3"/>
-    <sheet name="Sprint #3 Chart" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint Chart Form" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="296">
   <si>
     <t>Production Name:</t>
   </si>
@@ -892,30 +892,6 @@
     <t>DTE-QA-006</t>
   </si>
   <si>
-    <t>2017OCT26</t>
-  </si>
-  <si>
-    <t>2017OCT27</t>
-  </si>
-  <si>
-    <t>2017OCT21</t>
-  </si>
-  <si>
-    <t>2017OCT22</t>
-  </si>
-  <si>
-    <t>2017OCT23</t>
-  </si>
-  <si>
-    <t>2017OCT24</t>
-  </si>
-  <si>
-    <t>2017OCT25</t>
-  </si>
-  <si>
-    <t>Sprint #3 Backlog</t>
-  </si>
-  <si>
     <t>Sprint 1 Targets/To Go</t>
   </si>
   <si>
@@ -926,6 +902,9 @@
   </si>
   <si>
     <t>Sprint 4 Targets/To Go</t>
+  </si>
+  <si>
+    <t>Sprint # Backlog</t>
   </si>
 </sst>
 </file>
@@ -1526,16 +1505,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1548,12 +1524,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1563,20 +1533,11 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1598,15 +1559,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1629,74 +1581,284 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1707,15 +1869,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1725,120 +1878,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1848,73 +1887,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2546,11 +2519,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="603192320"/>
-        <c:axId val="159439040"/>
+        <c:axId val="609746432"/>
+        <c:axId val="140696320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="603192320"/>
+        <c:axId val="609746432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2559,7 +2532,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159439040"/>
+        <c:crossAx val="140696320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2567,7 +2540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159439040"/>
+        <c:axId val="140696320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2583,7 +2556,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="603192320"/>
+        <c:crossAx val="609746432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2807,11 +2780,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="170520576"/>
-        <c:axId val="160121408"/>
+        <c:axId val="628002304"/>
+        <c:axId val="627901568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170520576"/>
+        <c:axId val="628002304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2820,7 +2793,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160121408"/>
+        <c:crossAx val="627901568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2828,7 +2801,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160121408"/>
+        <c:axId val="627901568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2839,7 +2812,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170520576"/>
+        <c:crossAx val="628002304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3063,11 +3036,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="180731904"/>
-        <c:axId val="160123712"/>
+        <c:axId val="628829696"/>
+        <c:axId val="627903872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180731904"/>
+        <c:axId val="628829696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3076,7 +3049,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160123712"/>
+        <c:crossAx val="627903872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3084,7 +3057,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160123712"/>
+        <c:axId val="627903872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3095,14 +3068,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180731904"/>
+        <c:crossAx val="628829696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3145,7 +3117,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint #3 Chart'!$E$25:$E$31</c:f>
+              <c:f>'Sprint Chart Form'!$E$25:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3188,7 +3160,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint #3 Chart'!$G$25:$G$31</c:f>
+              <c:f>'Sprint Chart Form'!$G$25:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3231,7 +3203,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint #3 Chart'!$D$25:$D$31</c:f>
+              <c:f>'Sprint Chart Form'!$D$25:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3274,7 +3246,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint #3 Chart'!$F$25:$F$31</c:f>
+              <c:f>'Sprint Chart Form'!$F$25:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3319,11 +3291,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="170528768"/>
-        <c:axId val="160126016"/>
+        <c:axId val="639135744"/>
+        <c:axId val="627906176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170528768"/>
+        <c:axId val="639135744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3332,7 +3304,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160126016"/>
+        <c:crossAx val="627906176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3340,7 +3312,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160126016"/>
+        <c:axId val="627906176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3351,7 +3323,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170528768"/>
+        <c:crossAx val="639135744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3393,11 +3365,13 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3434,7 +3408,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3475,7 +3449,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9F86464-62E3-40C4-9822-D864B84BC108}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F86464-62E3-40C4-9822-D864B84BC108}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3518,7 +3492,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3830,8 +3804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3851,2169 +3825,2097 @@
   <sheetData>
     <row r="1" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="74"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="68"/>
     </row>
     <row r="3" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="101" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="84" t="s">
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
     </row>
     <row r="4" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="103" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="62"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="82"/>
     </row>
     <row r="5" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="105" t="s">
+      <c r="C5" s="84"/>
+      <c r="D5" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="15" t="s">
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="O5" s="34" t="s">
+      <c r="O5" s="25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="59" t="s">
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="28"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="22"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="13">
         <v>1</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="33">
         <v>1</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="132" t="s">
+      <c r="E8" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="132" t="s">
+      <c r="F8" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="17">
+      <c r="G8" s="33"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="13">
         <v>2</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="28">
+      <c r="N8" s="33"/>
+      <c r="O8" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="132" t="s">
+      <c r="E9" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="81" t="s">
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="28"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="22"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="132" t="s">
+      <c r="E10" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="132" t="s">
+      <c r="F10" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29" t="s">
+      <c r="G10" s="33"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="89" t="s">
+      <c r="J10" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="28"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="22"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="132" t="s">
+      <c r="E11" s="33"/>
+      <c r="F11" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="17">
+      <c r="G11" s="33"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="13">
         <v>1</v>
       </c>
-      <c r="J11" s="42" t="s">
+      <c r="J11" s="96" t="s">
         <v>177</v>
       </c>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="28"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="22"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="132" t="s">
+      <c r="E12" s="33"/>
+      <c r="F12" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="132" t="s">
+      <c r="G12" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="55" t="s">
+      <c r="H12" s="22"/>
+      <c r="I12" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="28"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="22"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="132" t="s">
+      <c r="E13" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="133" t="s">
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="13">
         <v>1</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="28">
+      <c r="N13" s="33"/>
+      <c r="O13" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="132" t="s">
+      <c r="E14" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="132" t="s">
+      <c r="F14" s="33"/>
+      <c r="G14" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="17">
+      <c r="H14" s="22"/>
+      <c r="I14" s="13">
         <v>2</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="33">
         <v>1</v>
       </c>
-      <c r="O14" s="28">
+      <c r="O14" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="132" t="s">
+      <c r="E15" s="33"/>
+      <c r="F15" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="17">
+      <c r="G15" s="33"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="13">
         <v>3</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="33">
         <v>2</v>
       </c>
-      <c r="O15" s="28">
+      <c r="O15" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="134" t="s">
+      <c r="E16" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="134" t="s">
+      <c r="F16" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="134" t="s">
+      <c r="G16" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="135" t="s">
+      <c r="H16" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="55" t="s">
+      <c r="I16" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="28"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="22"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="30" t="s">
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="56" t="s">
+      <c r="J17" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="28"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="22"/>
     </row>
     <row r="18" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="17">
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="13">
         <v>1</v>
       </c>
-      <c r="J18" s="54" t="s">
+      <c r="J18" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="28"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="22"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="13">
         <v>2</v>
       </c>
-      <c r="J19" s="54" t="s">
+      <c r="J19" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="28"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="22"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>0.7</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>0.15</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>0.15</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="16">
         <f>SUM(E20:G20)</f>
         <v>1</v>
       </c>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="28"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="22"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>0.2</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>0.6</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>0.2</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="16">
         <f>SUM(E21:G21)</f>
         <v>1</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="13">
         <v>1</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="28">
+      <c r="N21" s="33"/>
+      <c r="O21" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>0.3</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>0.3</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>0.4</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="16">
         <f>SUM(E22:G22)</f>
         <v>1</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="13">
         <v>2</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="33">
         <v>1</v>
       </c>
-      <c r="O22" s="28">
+      <c r="O22" s="22">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="78"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="17">
+      <c r="B23" s="106"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="13">
         <v>3</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="33">
         <v>2</v>
       </c>
-      <c r="O23" s="28">
+      <c r="O23" s="22">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="57" t="s">
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="28"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="22"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="107" t="s">
+      <c r="B25" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="14">
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="11">
         <f>SUM(E28,E31,E34,E37)</f>
         <v>31</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="11">
         <v>31</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="9">
         <f>SUM(G28,G31,G34,G37)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="17">
         <v>31</v>
       </c>
-      <c r="I25" s="31" t="s">
+      <c r="I25" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="58" t="s">
+      <c r="J25" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="28"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="22"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="17">
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="13">
         <v>1</v>
       </c>
-      <c r="J26" s="54" t="s">
+      <c r="J26" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="28"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="22"/>
     </row>
     <row r="27" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="50" t="s">
-        <v>299</v>
-      </c>
-      <c r="F27" s="51"/>
-      <c r="G27" s="50" t="s">
+      <c r="D27" s="113"/>
+      <c r="E27" s="114" t="s">
+        <v>291</v>
+      </c>
+      <c r="F27" s="115"/>
+      <c r="G27" s="114" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="88"/>
-      <c r="I27" s="18">
+      <c r="H27" s="116"/>
+      <c r="I27" s="14">
         <v>2</v>
       </c>
-      <c r="J27" s="52" t="s">
+      <c r="J27" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="32"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="117"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="117"/>
+      <c r="O27" s="23"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="112" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="13">
+      <c r="D28" s="113"/>
+      <c r="E28" s="10">
         <v>8</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="10">
         <f>E25-E28</f>
         <v>23</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="10">
         <v>0</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="8">
         <v>31</v>
       </c>
-      <c r="I28" s="60" t="s">
+      <c r="I28" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="62"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="82"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="15" t="s">
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L29" s="9" t="s">
+      <c r="L29" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="M29" s="9" t="s">
+      <c r="M29" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="N29" s="9" t="s">
+      <c r="N29" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="O29" s="34" t="s">
+      <c r="O29" s="25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="50" t="s">
-        <v>300</v>
-      </c>
-      <c r="F30" s="51"/>
-      <c r="G30" s="50" t="s">
+      <c r="D30" s="98"/>
+      <c r="E30" s="114" t="s">
+        <v>292</v>
+      </c>
+      <c r="F30" s="115"/>
+      <c r="G30" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="H30" s="87"/>
-      <c r="I30" s="59" t="s">
+      <c r="H30" s="120"/>
+      <c r="I30" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="28"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="22"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="96" t="s">
         <v>172</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="13">
+      <c r="D31" s="98"/>
+      <c r="E31" s="10">
         <v>7</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="10">
         <f>F28-E31</f>
         <v>16</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="10">
         <v>0</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="8">
         <v>31</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="13">
         <v>1</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="M31" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31" s="33">
         <v>1</v>
       </c>
-      <c r="O31" s="28">
+      <c r="O31" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="17">
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="13">
         <v>2</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="M32" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="33">
         <v>1</v>
       </c>
-      <c r="O32" s="28">
+      <c r="O32" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="112" t="s">
         <v>173</v>
       </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="50" t="s">
-        <v>301</v>
-      </c>
-      <c r="F33" s="51"/>
-      <c r="G33" s="50" t="s">
+      <c r="D33" s="113"/>
+      <c r="E33" s="114" t="s">
+        <v>293</v>
+      </c>
+      <c r="F33" s="115"/>
+      <c r="G33" s="114" t="s">
         <v>169</v>
       </c>
-      <c r="H33" s="87"/>
-      <c r="I33" s="59" t="s">
+      <c r="H33" s="120"/>
+      <c r="I33" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="28"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="22"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="112" t="s">
         <v>174</v>
       </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="13">
+      <c r="D34" s="113"/>
+      <c r="E34" s="10">
         <v>4</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="10">
         <f>F31-E34</f>
         <v>12</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="10">
         <v>0</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="8">
         <v>31</v>
       </c>
-      <c r="I34" s="29" t="s">
+      <c r="I34" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J34" s="53" t="s">
+      <c r="J34" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="28"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="22"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="17">
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="13">
         <v>1</v>
       </c>
-      <c r="J35" s="54" t="s">
+      <c r="J35" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="28"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="104"/>
+      <c r="N35" s="104"/>
+      <c r="O35" s="22"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="D36" s="45"/>
-      <c r="E36" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="F36" s="51"/>
-      <c r="G36" s="50" t="s">
+      <c r="D36" s="113"/>
+      <c r="E36" s="114" t="s">
+        <v>294</v>
+      </c>
+      <c r="F36" s="115"/>
+      <c r="G36" s="114" t="s">
         <v>170</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="55" t="s">
+      <c r="H36" s="120"/>
+      <c r="I36" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="28"/>
+      <c r="J36" s="100"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="100"/>
+      <c r="N36" s="100"/>
+      <c r="O36" s="22"/>
     </row>
     <row r="37" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="121" t="s">
         <v>176</v>
       </c>
-      <c r="D37" s="47"/>
-      <c r="E37" s="27">
+      <c r="D37" s="122"/>
+      <c r="E37" s="21">
         <v>12</v>
       </c>
-      <c r="F37" s="27">
+      <c r="F37" s="21">
         <f>F34-E37</f>
         <v>0</v>
       </c>
-      <c r="G37" s="27">
+      <c r="G37" s="21">
         <v>0</v>
       </c>
-      <c r="H37" s="33">
+      <c r="H37" s="24">
         <v>31</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="13">
         <v>1</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="M37" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N37" s="33">
         <v>1</v>
       </c>
-      <c r="O37" s="28">
+      <c r="O37" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="17">
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="13">
         <v>2</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="M38" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38" s="33">
         <v>2</v>
       </c>
-      <c r="O38" s="28">
+      <c r="O38" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="124" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="55" t="s">
+      <c r="C39" s="125"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="125"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="125"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="28"/>
+      <c r="J39" s="100"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="100"/>
+      <c r="M39" s="100"/>
+      <c r="N39" s="100"/>
+      <c r="O39" s="22"/>
     </row>
     <row r="40" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="69" t="s">
+      <c r="B40" s="127" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="30" t="s">
+      <c r="C40" s="128"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="129"/>
+      <c r="I40" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J40" s="56" t="s">
+      <c r="J40" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="28"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="100"/>
+      <c r="N40" s="100"/>
+      <c r="O40" s="22"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I41" s="17">
+      <c r="I41" s="13">
         <v>1</v>
       </c>
-      <c r="J41" s="54" t="s">
+      <c r="J41" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="28"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="104"/>
+      <c r="M41" s="104"/>
+      <c r="N41" s="104"/>
+      <c r="O41" s="22"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I42" s="17">
+      <c r="I42" s="13">
         <v>2</v>
       </c>
-      <c r="J42" s="54" t="s">
+      <c r="J42" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="28"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="104"/>
+      <c r="M42" s="104"/>
+      <c r="N42" s="104"/>
+      <c r="O42" s="22"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I43" s="57" t="s">
+      <c r="I43" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="28"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="22"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I44" s="17">
+      <c r="I44" s="13">
         <v>1</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="L44" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="M44" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="33">
         <v>1</v>
       </c>
-      <c r="O44" s="28">
+      <c r="O44" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I45" s="17">
+      <c r="I45" s="13">
         <v>2</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="L45" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="M45" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="33">
         <v>2</v>
       </c>
-      <c r="O45" s="28">
+      <c r="O45" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I46" s="17">
+      <c r="I46" s="13">
         <v>3</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J46" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="K46" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L46" s="3" t="s">
+      <c r="L46" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="M46" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="33">
         <v>2</v>
       </c>
-      <c r="O46" s="28">
+      <c r="O46" s="22">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I47" s="57" t="s">
+      <c r="I47" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="J47" s="58"/>
-      <c r="K47" s="58"/>
-      <c r="L47" s="58"/>
-      <c r="M47" s="58"/>
-      <c r="N47" s="58"/>
-      <c r="O47" s="28"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="95"/>
+      <c r="M47" s="95"/>
+      <c r="N47" s="95"/>
+      <c r="O47" s="22"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I48" s="31" t="s">
+      <c r="I48" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J48" s="58" t="s">
+      <c r="J48" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="K48" s="58"/>
-      <c r="L48" s="58"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="58"/>
-      <c r="O48" s="28"/>
+      <c r="K48" s="95"/>
+      <c r="L48" s="95"/>
+      <c r="M48" s="95"/>
+      <c r="N48" s="95"/>
+      <c r="O48" s="22"/>
     </row>
     <row r="49" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I49" s="17">
+      <c r="I49" s="13">
         <v>1</v>
       </c>
-      <c r="J49" s="54" t="s">
+      <c r="J49" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="K49" s="54"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="54"/>
-      <c r="N49" s="54"/>
-      <c r="O49" s="28"/>
+      <c r="K49" s="104"/>
+      <c r="L49" s="104"/>
+      <c r="M49" s="104"/>
+      <c r="N49" s="104"/>
+      <c r="O49" s="22"/>
     </row>
     <row r="50" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I50" s="18">
+      <c r="I50" s="14">
         <v>2</v>
       </c>
-      <c r="J50" s="52" t="s">
+      <c r="J50" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="K50" s="52"/>
-      <c r="L50" s="52"/>
-      <c r="M50" s="52"/>
-      <c r="N50" s="52"/>
-      <c r="O50" s="32"/>
+      <c r="K50" s="117"/>
+      <c r="L50" s="117"/>
+      <c r="M50" s="117"/>
+      <c r="N50" s="117"/>
+      <c r="O50" s="23"/>
     </row>
     <row r="51" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I51" s="60" t="s">
+      <c r="I51" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="61"/>
-      <c r="M51" s="61"/>
-      <c r="N51" s="61"/>
-      <c r="O51" s="62"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="81"/>
+      <c r="L51" s="81"/>
+      <c r="M51" s="81"/>
+      <c r="N51" s="81"/>
+      <c r="O51" s="82"/>
     </row>
     <row r="52" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I52" s="15" t="s">
+      <c r="I52" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="J52" s="9" t="s">
+      <c r="J52" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="K52" s="9" t="s">
+      <c r="K52" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L52" s="9" t="s">
+      <c r="L52" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="M52" s="9" t="s">
+      <c r="M52" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="N52" s="9" t="s">
+      <c r="N52" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="O52" s="34" t="s">
+      <c r="O52" s="25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="53" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I53" s="59" t="s">
+      <c r="I53" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="35"/>
+      <c r="J53" s="91"/>
+      <c r="K53" s="91"/>
+      <c r="L53" s="91"/>
+      <c r="M53" s="91"/>
+      <c r="N53" s="91"/>
+      <c r="O53" s="26"/>
     </row>
     <row r="54" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I54" s="17">
+      <c r="I54" s="13">
         <v>1</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="J54" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="K54" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L54" s="3" t="s">
+      <c r="L54" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="M54" s="3" t="s">
+      <c r="M54" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="33">
         <v>1</v>
       </c>
-      <c r="O54" s="28">
+      <c r="O54" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I55" s="59" t="s">
+      <c r="I55" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="53"/>
-      <c r="O55" s="28"/>
+      <c r="J55" s="91"/>
+      <c r="K55" s="91"/>
+      <c r="L55" s="91"/>
+      <c r="M55" s="91"/>
+      <c r="N55" s="91"/>
+      <c r="O55" s="22"/>
     </row>
     <row r="56" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I56" s="29" t="s">
+      <c r="I56" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J56" s="53" t="s">
+      <c r="J56" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="K56" s="53"/>
-      <c r="L56" s="53"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="53"/>
-      <c r="O56" s="28"/>
+      <c r="K56" s="91"/>
+      <c r="L56" s="91"/>
+      <c r="M56" s="91"/>
+      <c r="N56" s="91"/>
+      <c r="O56" s="22"/>
     </row>
     <row r="57" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I57" s="17">
+      <c r="I57" s="13">
         <v>1</v>
       </c>
-      <c r="J57" s="54" t="s">
+      <c r="J57" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="K57" s="54"/>
-      <c r="L57" s="54"/>
-      <c r="M57" s="54"/>
-      <c r="N57" s="54"/>
-      <c r="O57" s="28"/>
+      <c r="K57" s="104"/>
+      <c r="L57" s="104"/>
+      <c r="M57" s="104"/>
+      <c r="N57" s="104"/>
+      <c r="O57" s="22"/>
     </row>
     <row r="58" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I58" s="55" t="s">
+      <c r="I58" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="J58" s="56"/>
-      <c r="K58" s="56"/>
-      <c r="L58" s="56"/>
-      <c r="M58" s="56"/>
-      <c r="N58" s="56"/>
-      <c r="O58" s="28"/>
+      <c r="J58" s="100"/>
+      <c r="K58" s="100"/>
+      <c r="L58" s="100"/>
+      <c r="M58" s="100"/>
+      <c r="N58" s="100"/>
+      <c r="O58" s="22"/>
     </row>
     <row r="59" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I59" s="17">
+      <c r="I59" s="13">
         <v>1</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J59" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="K59" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L59" s="3" t="s">
+      <c r="L59" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="M59" s="3" t="s">
+      <c r="M59" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="33">
         <v>1</v>
       </c>
-      <c r="O59" s="28">
+      <c r="O59" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I60" s="55" t="s">
+      <c r="I60" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="J60" s="56"/>
-      <c r="K60" s="56"/>
-      <c r="L60" s="56"/>
-      <c r="M60" s="56"/>
-      <c r="N60" s="56"/>
-      <c r="O60" s="28"/>
+      <c r="J60" s="100"/>
+      <c r="K60" s="100"/>
+      <c r="L60" s="100"/>
+      <c r="M60" s="100"/>
+      <c r="N60" s="100"/>
+      <c r="O60" s="22"/>
     </row>
     <row r="61" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I61" s="30" t="s">
+      <c r="I61" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J61" s="56" t="s">
+      <c r="J61" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="K61" s="56"/>
-      <c r="L61" s="56"/>
-      <c r="M61" s="56"/>
-      <c r="N61" s="56"/>
-      <c r="O61" s="28"/>
+      <c r="K61" s="100"/>
+      <c r="L61" s="100"/>
+      <c r="M61" s="100"/>
+      <c r="N61" s="100"/>
+      <c r="O61" s="22"/>
     </row>
     <row r="62" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I62" s="17">
+      <c r="I62" s="13">
         <v>1</v>
       </c>
-      <c r="J62" s="54" t="s">
+      <c r="J62" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="K62" s="54"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="54"/>
-      <c r="N62" s="54"/>
-      <c r="O62" s="28"/>
+      <c r="K62" s="104"/>
+      <c r="L62" s="104"/>
+      <c r="M62" s="104"/>
+      <c r="N62" s="104"/>
+      <c r="O62" s="22"/>
     </row>
     <row r="63" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I63" s="57" t="s">
+      <c r="I63" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="J63" s="58"/>
-      <c r="K63" s="58"/>
-      <c r="L63" s="58"/>
-      <c r="M63" s="58"/>
-      <c r="N63" s="58"/>
-      <c r="O63" s="28"/>
+      <c r="J63" s="95"/>
+      <c r="K63" s="95"/>
+      <c r="L63" s="95"/>
+      <c r="M63" s="95"/>
+      <c r="N63" s="95"/>
+      <c r="O63" s="22"/>
     </row>
     <row r="64" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I64" s="17">
+      <c r="I64" s="13">
         <v>1</v>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="J64" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="K64" s="3" t="s">
+      <c r="K64" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L64" s="3" t="s">
+      <c r="L64" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="M64" s="3" t="s">
+      <c r="M64" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="N64" s="3">
+      <c r="N64" s="33">
         <v>1</v>
       </c>
-      <c r="O64" s="28">
+      <c r="O64" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I65" s="17">
+      <c r="I65" s="13">
         <v>2</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="J65" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="K65" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L65" s="3" t="s">
+      <c r="L65" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="M65" s="3" t="s">
+      <c r="M65" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="N65" s="3">
+      <c r="N65" s="33">
         <v>2</v>
       </c>
-      <c r="O65" s="28">
+      <c r="O65" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I66" s="57" t="s">
+      <c r="I66" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="J66" s="58"/>
-      <c r="K66" s="58"/>
-      <c r="L66" s="58"/>
-      <c r="M66" s="58"/>
-      <c r="N66" s="58"/>
-      <c r="O66" s="28"/>
+      <c r="J66" s="95"/>
+      <c r="K66" s="95"/>
+      <c r="L66" s="95"/>
+      <c r="M66" s="95"/>
+      <c r="N66" s="95"/>
+      <c r="O66" s="22"/>
     </row>
     <row r="67" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I67" s="31" t="s">
+      <c r="I67" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J67" s="58" t="s">
+      <c r="J67" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="K67" s="58"/>
-      <c r="L67" s="58"/>
-      <c r="M67" s="58"/>
-      <c r="N67" s="58"/>
-      <c r="O67" s="28"/>
+      <c r="K67" s="95"/>
+      <c r="L67" s="95"/>
+      <c r="M67" s="95"/>
+      <c r="N67" s="95"/>
+      <c r="O67" s="22"/>
     </row>
     <row r="68" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I68" s="17">
+      <c r="I68" s="13">
         <v>1</v>
       </c>
-      <c r="J68" s="54" t="s">
+      <c r="J68" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="K68" s="54"/>
-      <c r="L68" s="54"/>
-      <c r="M68" s="54"/>
-      <c r="N68" s="54"/>
-      <c r="O68" s="28"/>
+      <c r="K68" s="104"/>
+      <c r="L68" s="104"/>
+      <c r="M68" s="104"/>
+      <c r="N68" s="104"/>
+      <c r="O68" s="22"/>
     </row>
     <row r="69" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I69" s="18">
+      <c r="I69" s="14">
         <v>2</v>
       </c>
-      <c r="J69" s="52" t="s">
+      <c r="J69" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="K69" s="52"/>
-      <c r="L69" s="52"/>
-      <c r="M69" s="52"/>
-      <c r="N69" s="52"/>
-      <c r="O69" s="32"/>
+      <c r="K69" s="117"/>
+      <c r="L69" s="117"/>
+      <c r="M69" s="117"/>
+      <c r="N69" s="117"/>
+      <c r="O69" s="23"/>
     </row>
     <row r="70" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I70" s="60" t="s">
+      <c r="I70" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="J70" s="61"/>
-      <c r="K70" s="61"/>
-      <c r="L70" s="61"/>
-      <c r="M70" s="61"/>
-      <c r="N70" s="61"/>
-      <c r="O70" s="62"/>
+      <c r="J70" s="81"/>
+      <c r="K70" s="81"/>
+      <c r="L70" s="81"/>
+      <c r="M70" s="81"/>
+      <c r="N70" s="81"/>
+      <c r="O70" s="82"/>
     </row>
     <row r="71" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I71" s="15" t="s">
+      <c r="I71" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="J71" s="9" t="s">
+      <c r="J71" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="K71" s="9" t="s">
+      <c r="K71" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L71" s="9" t="s">
+      <c r="L71" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="M71" s="9" t="s">
+      <c r="M71" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="N71" s="9" t="s">
+      <c r="N71" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="O71" s="34" t="s">
+      <c r="O71" s="25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="72" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I72" s="59" t="s">
+      <c r="I72" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="J72" s="53"/>
-      <c r="K72" s="53"/>
-      <c r="L72" s="53"/>
-      <c r="M72" s="53"/>
-      <c r="N72" s="53"/>
-      <c r="O72" s="28"/>
+      <c r="J72" s="91"/>
+      <c r="K72" s="91"/>
+      <c r="L72" s="91"/>
+      <c r="M72" s="91"/>
+      <c r="N72" s="91"/>
+      <c r="O72" s="22"/>
     </row>
     <row r="73" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I73" s="17">
+      <c r="I73" s="13">
         <v>1</v>
       </c>
-      <c r="J73" s="3" t="s">
+      <c r="J73" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="K73" s="3" t="s">
+      <c r="K73" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L73" s="3" t="s">
+      <c r="L73" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="M73" s="3" t="s">
+      <c r="M73" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="N73" s="3">
+      <c r="N73" s="33">
         <v>1</v>
       </c>
-      <c r="O73" s="28">
+      <c r="O73" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I74" s="17">
+      <c r="I74" s="13">
         <v>2</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="J74" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="K74" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L74" s="3" t="s">
+      <c r="L74" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="M74" s="3" t="s">
+      <c r="M74" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="N74" s="3">
+      <c r="N74" s="33">
         <v>1</v>
       </c>
-      <c r="O74" s="28">
+      <c r="O74" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I75" s="17">
+      <c r="I75" s="13">
         <v>3</v>
       </c>
-      <c r="J75" s="3" t="s">
+      <c r="J75" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="K75" s="3" t="s">
+      <c r="K75" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L75" s="3" t="s">
+      <c r="L75" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="M75" s="3" t="s">
+      <c r="M75" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="N75" s="3"/>
-      <c r="O75" s="28">
+      <c r="N75" s="33"/>
+      <c r="O75" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I76" s="59" t="s">
+      <c r="I76" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="J76" s="53"/>
-      <c r="K76" s="53"/>
-      <c r="L76" s="53"/>
-      <c r="M76" s="53"/>
-      <c r="N76" s="53"/>
-      <c r="O76" s="28"/>
+      <c r="J76" s="91"/>
+      <c r="K76" s="91"/>
+      <c r="L76" s="91"/>
+      <c r="M76" s="91"/>
+      <c r="N76" s="91"/>
+      <c r="O76" s="22"/>
     </row>
     <row r="77" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I77" s="29" t="s">
+      <c r="I77" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J77" s="53" t="s">
+      <c r="J77" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="K77" s="53"/>
-      <c r="L77" s="53"/>
-      <c r="M77" s="53"/>
-      <c r="N77" s="53"/>
-      <c r="O77" s="28"/>
+      <c r="K77" s="91"/>
+      <c r="L77" s="91"/>
+      <c r="M77" s="91"/>
+      <c r="N77" s="91"/>
+      <c r="O77" s="22"/>
     </row>
     <row r="78" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I78" s="17">
+      <c r="I78" s="13">
         <v>1</v>
       </c>
-      <c r="J78" s="54" t="s">
+      <c r="J78" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="K78" s="54"/>
-      <c r="L78" s="54"/>
-      <c r="M78" s="54"/>
-      <c r="N78" s="54"/>
-      <c r="O78" s="28"/>
+      <c r="K78" s="104"/>
+      <c r="L78" s="104"/>
+      <c r="M78" s="104"/>
+      <c r="N78" s="104"/>
+      <c r="O78" s="22"/>
     </row>
     <row r="79" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I79" s="55" t="s">
+      <c r="I79" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="J79" s="56"/>
-      <c r="K79" s="56"/>
-      <c r="L79" s="56"/>
-      <c r="M79" s="56"/>
-      <c r="N79" s="56"/>
-      <c r="O79" s="28"/>
+      <c r="J79" s="100"/>
+      <c r="K79" s="100"/>
+      <c r="L79" s="100"/>
+      <c r="M79" s="100"/>
+      <c r="N79" s="100"/>
+      <c r="O79" s="22"/>
     </row>
     <row r="80" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I80" s="17">
+      <c r="I80" s="13">
         <v>1</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="J80" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="K80" s="3" t="s">
+      <c r="K80" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L80" s="3" t="s">
+      <c r="L80" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="M80" s="3" t="s">
+      <c r="M80" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="N80" s="3">
+      <c r="N80" s="33">
         <v>2</v>
       </c>
-      <c r="O80" s="28">
+      <c r="O80" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I81" s="17">
+      <c r="I81" s="13">
         <v>2</v>
       </c>
-      <c r="J81" s="3" t="s">
+      <c r="J81" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="K81" s="3" t="s">
+      <c r="K81" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L81" s="3" t="s">
+      <c r="L81" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="M81" s="3" t="s">
+      <c r="M81" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="N81" s="3">
+      <c r="N81" s="33">
         <v>1</v>
       </c>
-      <c r="O81" s="28">
+      <c r="O81" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I82" s="55" t="s">
+      <c r="I82" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="J82" s="56"/>
-      <c r="K82" s="56"/>
-      <c r="L82" s="56"/>
-      <c r="M82" s="56"/>
-      <c r="N82" s="56"/>
-      <c r="O82" s="28"/>
+      <c r="J82" s="100"/>
+      <c r="K82" s="100"/>
+      <c r="L82" s="100"/>
+      <c r="M82" s="100"/>
+      <c r="N82" s="100"/>
+      <c r="O82" s="22"/>
     </row>
     <row r="83" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I83" s="30" t="s">
+      <c r="I83" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J83" s="56" t="s">
+      <c r="J83" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="K83" s="56"/>
-      <c r="L83" s="56"/>
-      <c r="M83" s="56"/>
-      <c r="N83" s="56"/>
-      <c r="O83" s="28"/>
+      <c r="K83" s="100"/>
+      <c r="L83" s="100"/>
+      <c r="M83" s="100"/>
+      <c r="N83" s="100"/>
+      <c r="O83" s="22"/>
     </row>
     <row r="84" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I84" s="17">
+      <c r="I84" s="13">
         <v>1</v>
       </c>
-      <c r="J84" s="54" t="s">
+      <c r="J84" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="K84" s="54"/>
-      <c r="L84" s="54"/>
-      <c r="M84" s="54"/>
-      <c r="N84" s="54"/>
-      <c r="O84" s="28"/>
+      <c r="K84" s="104"/>
+      <c r="L84" s="104"/>
+      <c r="M84" s="104"/>
+      <c r="N84" s="104"/>
+      <c r="O84" s="22"/>
     </row>
     <row r="85" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I85" s="17">
+      <c r="I85" s="13">
         <v>2</v>
       </c>
-      <c r="J85" s="54" t="s">
+      <c r="J85" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="K85" s="54"/>
-      <c r="L85" s="54"/>
-      <c r="M85" s="54"/>
-      <c r="N85" s="54"/>
-      <c r="O85" s="28"/>
+      <c r="K85" s="104"/>
+      <c r="L85" s="104"/>
+      <c r="M85" s="104"/>
+      <c r="N85" s="104"/>
+      <c r="O85" s="22"/>
     </row>
     <row r="86" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I86" s="57" t="s">
+      <c r="I86" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="J86" s="58"/>
-      <c r="K86" s="58"/>
-      <c r="L86" s="58"/>
-      <c r="M86" s="58"/>
-      <c r="N86" s="58"/>
-      <c r="O86" s="28"/>
+      <c r="J86" s="95"/>
+      <c r="K86" s="95"/>
+      <c r="L86" s="95"/>
+      <c r="M86" s="95"/>
+      <c r="N86" s="95"/>
+      <c r="O86" s="22"/>
     </row>
     <row r="87" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I87" s="17">
+      <c r="I87" s="13">
         <v>1</v>
       </c>
-      <c r="J87" s="3" t="s">
+      <c r="J87" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="K87" s="3" t="s">
+      <c r="K87" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L87" s="3" t="s">
+      <c r="L87" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="M87" s="3" t="s">
+      <c r="M87" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="N87" s="3">
+      <c r="N87" s="33">
         <v>1</v>
       </c>
-      <c r="O87" s="28">
+      <c r="O87" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="88" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I88" s="17">
+      <c r="I88" s="13">
         <v>2</v>
       </c>
-      <c r="J88" s="3" t="s">
+      <c r="J88" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="K88" s="3" t="s">
+      <c r="K88" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L88" s="3" t="s">
+      <c r="L88" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="M88" s="3" t="s">
+      <c r="M88" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="N88" s="3">
+      <c r="N88" s="33">
         <v>1</v>
       </c>
-      <c r="O88" s="28">
+      <c r="O88" s="22">
         <v>7</v>
       </c>
     </row>
     <row r="89" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I89" s="17">
+      <c r="I89" s="13">
         <v>3</v>
       </c>
-      <c r="J89" s="3" t="s">
+      <c r="J89" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="K89" s="3" t="s">
+      <c r="K89" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L89" s="3" t="s">
+      <c r="L89" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="M89" s="3" t="s">
+      <c r="M89" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="33">
         <v>1</v>
       </c>
-      <c r="O89" s="28">
+      <c r="O89" s="22">
         <v>8</v>
       </c>
     </row>
     <row r="90" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I90" s="17">
+      <c r="I90" s="13">
         <v>4</v>
       </c>
-      <c r="J90" s="3" t="s">
+      <c r="J90" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="K90" s="3" t="s">
+      <c r="K90" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L90" s="3" t="s">
+      <c r="L90" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="M90" s="3" t="s">
+      <c r="M90" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="N90" s="3">
+      <c r="N90" s="33">
         <v>2</v>
       </c>
-      <c r="O90" s="28">
+      <c r="O90" s="22">
         <v>9</v>
       </c>
     </row>
     <row r="91" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I91" s="17">
+      <c r="I91" s="13">
         <v>5</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="J91" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="K91" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="L91" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="M91" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="33">
         <v>2</v>
       </c>
-      <c r="O91" s="28">
+      <c r="O91" s="22">
         <v>10</v>
       </c>
     </row>
     <row r="92" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I92" s="17">
+      <c r="I92" s="13">
         <v>6</v>
       </c>
-      <c r="J92" s="3" t="s">
+      <c r="J92" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="K92" s="3" t="s">
+      <c r="K92" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L92" s="3" t="s">
+      <c r="L92" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="M92" s="3" t="s">
+      <c r="M92" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="N92" s="3"/>
-      <c r="O92" s="28">
+      <c r="N92" s="33"/>
+      <c r="O92" s="22">
         <v>11</v>
       </c>
     </row>
     <row r="93" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I93" s="17">
+      <c r="I93" s="13">
         <v>7</v>
       </c>
-      <c r="J93" s="3" t="s">
+      <c r="J93" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="K93" s="3" t="s">
+      <c r="K93" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L93" s="3" t="s">
+      <c r="L93" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="M93" s="3" t="s">
+      <c r="M93" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="N93" s="3"/>
-      <c r="O93" s="28">
+      <c r="N93" s="33"/>
+      <c r="O93" s="22">
         <v>12</v>
       </c>
     </row>
     <row r="94" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I94" s="57" t="s">
+      <c r="I94" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="J94" s="58"/>
-      <c r="K94" s="58"/>
-      <c r="L94" s="58"/>
-      <c r="M94" s="58"/>
-      <c r="N94" s="58"/>
-      <c r="O94" s="28"/>
+      <c r="J94" s="95"/>
+      <c r="K94" s="95"/>
+      <c r="L94" s="95"/>
+      <c r="M94" s="95"/>
+      <c r="N94" s="95"/>
+      <c r="O94" s="22"/>
     </row>
     <row r="95" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I95" s="31" t="s">
+      <c r="I95" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J95" s="58" t="s">
+      <c r="J95" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="K95" s="58"/>
-      <c r="L95" s="58"/>
-      <c r="M95" s="58"/>
-      <c r="N95" s="58"/>
-      <c r="O95" s="28"/>
+      <c r="K95" s="95"/>
+      <c r="L95" s="95"/>
+      <c r="M95" s="95"/>
+      <c r="N95" s="95"/>
+      <c r="O95" s="22"/>
     </row>
     <row r="96" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I96" s="17">
+      <c r="I96" s="13">
         <v>1</v>
       </c>
-      <c r="J96" s="54" t="s">
+      <c r="J96" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="K96" s="54"/>
-      <c r="L96" s="54"/>
-      <c r="M96" s="54"/>
-      <c r="N96" s="54"/>
-      <c r="O96" s="28"/>
+      <c r="K96" s="104"/>
+      <c r="L96" s="104"/>
+      <c r="M96" s="104"/>
+      <c r="N96" s="104"/>
+      <c r="O96" s="22"/>
     </row>
     <row r="97" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I97" s="18">
+      <c r="I97" s="14">
         <v>2</v>
       </c>
-      <c r="J97" s="52" t="s">
+      <c r="J97" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="K97" s="52"/>
-      <c r="L97" s="52"/>
-      <c r="M97" s="52"/>
-      <c r="N97" s="52"/>
-      <c r="O97" s="32"/>
+      <c r="K97" s="117"/>
+      <c r="L97" s="117"/>
+      <c r="M97" s="117"/>
+      <c r="N97" s="117"/>
+      <c r="O97" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="I28:O28"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="J50:N50"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="J48:N48"/>
-    <mergeCell ref="J49:N49"/>
-    <mergeCell ref="I51:O51"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="J56:N56"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="I53:N53"/>
-    <mergeCell ref="I76:N76"/>
-    <mergeCell ref="I58:N58"/>
-    <mergeCell ref="J61:N61"/>
-    <mergeCell ref="J62:N62"/>
-    <mergeCell ref="I60:N60"/>
-    <mergeCell ref="I63:N63"/>
-    <mergeCell ref="I66:N66"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="J68:N68"/>
-    <mergeCell ref="J69:N69"/>
-    <mergeCell ref="I70:O70"/>
-    <mergeCell ref="I72:N72"/>
     <mergeCell ref="J97:N97"/>
     <mergeCell ref="J77:N77"/>
     <mergeCell ref="J78:N78"/>
@@ -6026,35 +5928,107 @@
     <mergeCell ref="I94:N94"/>
     <mergeCell ref="J95:N95"/>
     <mergeCell ref="J96:N96"/>
+    <mergeCell ref="I76:N76"/>
+    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="I60:N60"/>
+    <mergeCell ref="J61:N61"/>
+    <mergeCell ref="J62:N62"/>
+    <mergeCell ref="I63:N63"/>
+    <mergeCell ref="I66:N66"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="J69:N69"/>
+    <mergeCell ref="I70:O70"/>
+    <mergeCell ref="I72:N72"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="J49:N49"/>
+    <mergeCell ref="J50:N50"/>
+    <mergeCell ref="I51:O51"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="J56:N56"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:O28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:N30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B29:H29"/>
     <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C36:D36"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="I9:N9"/>
   </mergeCells>
   <conditionalFormatting sqref="H20:H22">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="between">
       <formula>1</formula>
       <formula>0.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="greaterThan">
       <formula>100%</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="lessThan">
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="between">
       <formula>0.89</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="21" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="39" priority="5" operator="greaterThanOrEqual">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6068,1033 +6042,1035 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="37" customWidth="1"/>
-    <col min="2" max="7" width="15.7109375" style="37" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" style="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="5.28515625" style="38" customWidth="1"/>
-    <col min="19" max="19" width="63.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="1" width="1.7109375" style="28" customWidth="1"/>
+    <col min="2" max="7" width="15.7109375" style="28" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="5.28515625" style="29" customWidth="1"/>
+    <col min="19" max="19" width="63.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="1.7109375" style="28" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="130" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="112"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="132"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="133"/>
+      <c r="D3" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
-      <c r="H3" s="60" t="s">
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="H3" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="62"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="82"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="55">
         <v>1</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="N4" s="41" t="s">
+      <c r="N4" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="O4" s="41" t="s">
+      <c r="O4" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="P4" s="41" t="s">
+      <c r="P4" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="Q4" s="41" t="s">
+      <c r="Q4" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="R4" s="41" t="s">
+      <c r="R4" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="S4" s="25" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="120" t="s">
+      <c r="F5" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="119" t="s">
+      <c r="H5" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M5" s="39">
+      <c r="M5" s="30">
         <v>1</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="115" t="s">
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="43" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="120" t="s">
+      <c r="F6" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="119" t="s">
+      <c r="H6" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M6" s="39">
+      <c r="M6" s="30">
         <v>2</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="115" t="s">
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="43" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="119" t="s">
+      <c r="D7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="120" t="s">
+      <c r="F7" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="119" t="s">
+      <c r="H7" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="L7" s="39" t="s">
+      <c r="L7" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M7" s="39">
+      <c r="M7" s="30">
         <v>3</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="N7" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="115" t="s">
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="43" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="127"/>
-      <c r="D8" s="119" t="s">
+      <c r="C8" s="133"/>
+      <c r="D8" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="120" t="s">
+      <c r="F8" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="119" t="s">
+      <c r="H8" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="L8" s="39" t="s">
+      <c r="L8" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="30">
         <v>4</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="115" t="s">
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="43" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="128" t="s">
+      <c r="C9" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="120" t="s">
+      <c r="F9" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="119" t="s">
+      <c r="H9" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="J9" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M9" s="39">
+      <c r="M9" s="30">
         <v>5</v>
       </c>
-      <c r="N9" s="39" t="s">
+      <c r="N9" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="115" t="s">
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="43" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="C10" s="128" t="s">
+      <c r="C10" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="119" t="s">
+      <c r="D10" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="120" t="s">
+      <c r="F10" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="119" t="s">
+      <c r="H10" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="K10" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="L10" s="39" t="s">
+      <c r="L10" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="30">
         <v>6</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="N10" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="115" t="s">
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="43" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="119" t="s">
+      <c r="D11" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="120" t="s">
+      <c r="F11" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="119" t="s">
+      <c r="H11" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="J11" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M11" s="39">
+      <c r="M11" s="30">
         <v>1</v>
       </c>
-      <c r="N11" s="39" t="s">
+      <c r="N11" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="115" t="s">
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="43" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="113" t="s">
+      <c r="C12" s="82"/>
+      <c r="D12" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="120" t="s">
+      <c r="F12" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="119" t="s">
+      <c r="H12" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="39" t="s">
+      <c r="J12" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="39" t="s">
+      <c r="K12" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="L12" s="39" t="s">
+      <c r="L12" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M12" s="30">
         <v>2</v>
       </c>
-      <c r="N12" s="39" t="s">
+      <c r="N12" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="115" t="s">
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="43" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="13" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="D13" s="131" t="s">
+      <c r="D13" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="122" t="s">
+      <c r="E13" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="123" t="s">
+      <c r="F13" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="119" t="s">
+      <c r="H13" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="I13" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="J13" s="39" t="s">
+      <c r="J13" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="39" t="s">
+      <c r="K13" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="L13" s="39" t="s">
+      <c r="L13" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="30">
         <v>3</v>
       </c>
-      <c r="N13" s="39" t="s">
+      <c r="N13" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="115" t="s">
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="43" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="115" t="s">
+      <c r="C14" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="H14" s="119" t="s">
+      <c r="H14" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="J14" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="K14" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="L14" s="39" t="s">
+      <c r="L14" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M14" s="39">
+      <c r="M14" s="30">
         <v>4</v>
       </c>
-      <c r="N14" s="39" t="s">
+      <c r="N14" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="115" t="s">
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="43" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="119" t="s">
+      <c r="H15" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="39" t="s">
+      <c r="J15" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="L15" s="39" t="s">
+      <c r="L15" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M15" s="39">
+      <c r="M15" s="30">
         <v>5</v>
       </c>
-      <c r="N15" s="39" t="s">
+      <c r="N15" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="115" t="s">
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="43" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="115" t="s">
+      <c r="C16" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="H16" s="119" t="s">
+      <c r="H16" s="47" t="s">
         <v>256</v>
       </c>
-      <c r="I16" s="39" t="s">
+      <c r="I16" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="39" t="s">
+      <c r="J16" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="39" t="s">
+      <c r="K16" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="L16" s="39" t="s">
+      <c r="L16" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M16" s="39">
+      <c r="M16" s="30">
         <v>6</v>
       </c>
-      <c r="N16" s="39" t="s">
+      <c r="N16" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="115" t="s">
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="43" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="17" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="C17" s="118" t="s">
+      <c r="C17" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="H17" s="119" t="s">
+      <c r="H17" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="I17" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="39" t="s">
+      <c r="K17" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="L17" s="39" t="s">
+      <c r="L17" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M17" s="39">
+      <c r="M17" s="30">
         <v>1</v>
       </c>
-      <c r="N17" s="39" t="s">
+      <c r="N17" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="115" t="s">
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="43" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="H18" s="119" t="s">
+      <c r="C18" s="82"/>
+      <c r="H18" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="I18" s="39" t="s">
+      <c r="I18" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="J18" s="39" t="s">
+      <c r="J18" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K18" s="39" t="s">
+      <c r="K18" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="L18" s="39" t="s">
+      <c r="L18" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M18" s="39">
+      <c r="M18" s="30">
         <v>2</v>
       </c>
-      <c r="N18" s="39" t="s">
+      <c r="N18" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="115" t="s">
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="43" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="C19" s="115" t="s">
+      <c r="C19" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="119" t="s">
+      <c r="H19" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="J19" s="39" t="s">
+      <c r="J19" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K19" s="39" t="s">
+      <c r="K19" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="L19" s="39" t="s">
+      <c r="L19" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M19" s="39">
+      <c r="M19" s="30">
         <v>3</v>
       </c>
-      <c r="N19" s="39" t="s">
+      <c r="N19" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O19" s="39" t="s">
+      <c r="O19" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39" t="s">
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="R19" s="39"/>
-      <c r="S19" s="115" t="s">
+      <c r="R19" s="30"/>
+      <c r="S19" s="43" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="C20" s="115" t="s">
+      <c r="C20" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="119" t="s">
+      <c r="H20" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="I20" s="39" t="s">
+      <c r="I20" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="J20" s="39" t="s">
+      <c r="J20" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="39" t="s">
+      <c r="K20" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="L20" s="39" t="s">
+      <c r="L20" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M20" s="39">
+      <c r="M20" s="30">
         <v>4</v>
       </c>
-      <c r="N20" s="39" t="s">
+      <c r="N20" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="115" t="s">
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="43" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="C21" s="115" t="s">
+      <c r="C21" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="119" t="s">
+      <c r="H21" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="I21" s="39" t="s">
+      <c r="I21" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="J21" s="39" t="s">
+      <c r="J21" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="L21" s="39" t="s">
+      <c r="L21" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M21" s="39">
+      <c r="M21" s="30">
         <v>5</v>
       </c>
-      <c r="N21" s="39" t="s">
+      <c r="N21" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O21" s="39" t="s">
+      <c r="O21" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39" t="s">
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="R21" s="39"/>
-      <c r="S21" s="115" t="s">
+      <c r="R21" s="30"/>
+      <c r="S21" s="43" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="22" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="125" t="s">
+      <c r="B22" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="121"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="122"/>
-      <c r="L22" s="122"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="122"/>
-      <c r="O22" s="122"/>
-      <c r="P22" s="122"/>
-      <c r="Q22" s="122"/>
-      <c r="R22" s="122"/>
-      <c r="S22" s="118"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="62"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="82"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="G24" s="34" t="s">
+      <c r="G24" s="25" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="119">
+      <c r="B25" s="47">
         <v>1</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="30">
         <f>COUNTIF($M$5:$M$21,B25)</f>
         <v>3</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="30">
         <f>COUNTA(H5:H21)-D25</f>
         <v>14</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="30">
         <v>0</v>
       </c>
-      <c r="G25" s="120">
+      <c r="G25" s="48">
         <f>COUNTA(H5:H21)</f>
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="119">
+      <c r="B26" s="47">
         <v>2</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="30">
         <f t="shared" ref="D26:D31" si="0">COUNTIF($M$5:$M$21,B26)</f>
         <v>3</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="30">
         <f>E25-D26</f>
         <v>11</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="30">
         <v>0</v>
       </c>
-      <c r="G26" s="120">
+      <c r="G26" s="48">
         <f>G25-F26</f>
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="119">
+      <c r="B27" s="47">
         <v>3</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="D27" s="39">
+      <c r="D27" s="30">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="30">
         <f t="shared" ref="E27:E31" si="1">E26-D27</f>
         <v>8</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="30">
         <v>0</v>
       </c>
-      <c r="G27" s="120">
+      <c r="G27" s="48">
         <f t="shared" ref="G27:G31" si="2">G26-F27</f>
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="119">
+      <c r="B28" s="47">
         <v>4</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D28" s="30">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="30">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="30">
         <v>0</v>
       </c>
-      <c r="G28" s="120">
+      <c r="G28" s="48">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="119">
+      <c r="B29" s="47">
         <v>5</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="D29" s="39">
+      <c r="D29" s="30">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="30">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="30">
         <v>0</v>
       </c>
-      <c r="G29" s="120">
+      <c r="G29" s="48">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="119">
+      <c r="B30" s="47">
         <v>6</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="D30" s="39">
+      <c r="D30" s="30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="30">
         <v>0</v>
       </c>
-      <c r="G30" s="120">
+      <c r="G30" s="48">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="121">
+      <c r="B31" s="49">
         <v>7</v>
       </c>
-      <c r="C31" s="122" t="s">
+      <c r="C31" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="D31" s="122">
+      <c r="D31" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="122">
+      <c r="E31" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F31" s="122">
+      <c r="F31" s="50">
         <v>0</v>
       </c>
-      <c r="G31" s="123">
+      <c r="G31" s="51">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B2:S2"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="H3:S3"/>
     <mergeCell ref="B8:C8"/>
@@ -7102,7 +7078,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="B2:S2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
     <cfRule type="containsText" dxfId="38" priority="15" operator="containsText" text="O">
@@ -7170,972 +7145,974 @@
   <dimension ref="B1:S31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="37" customWidth="1"/>
-    <col min="2" max="7" width="15.7109375" style="37" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" style="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="5.28515625" style="38" customWidth="1"/>
-    <col min="19" max="19" width="63.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="1" width="1.7109375" style="28" customWidth="1"/>
+    <col min="2" max="7" width="15.7109375" style="28" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="5.28515625" style="29" customWidth="1"/>
+    <col min="19" max="19" width="63.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="1.7109375" style="28" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="130" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="112"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="132"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="133"/>
+      <c r="D3" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
-      <c r="H3" s="60" t="s">
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="H3" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="62"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="82"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="55">
         <v>1</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="N4" s="41" t="s">
+      <c r="N4" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="O4" s="41" t="s">
+      <c r="O4" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="P4" s="41" t="s">
+      <c r="P4" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="Q4" s="41" t="s">
+      <c r="Q4" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="R4" s="41" t="s">
+      <c r="R4" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="S4" s="25" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="120" t="s">
+      <c r="F5" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="119" t="s">
+      <c r="H5" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M5" s="39">
+      <c r="M5" s="30">
         <v>1</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="115" t="s">
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="43" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="55" t="s">
         <v>270</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="120" t="s">
+      <c r="F6" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="119" t="s">
+      <c r="H6" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M6" s="39">
+      <c r="M6" s="30">
         <v>2</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="115" t="s">
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="43" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="56" t="s">
         <v>271</v>
       </c>
-      <c r="D7" s="119" t="s">
+      <c r="D7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="120" t="s">
+      <c r="F7" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="119" t="s">
+      <c r="H7" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="L7" s="39" t="s">
+      <c r="L7" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M7" s="39">
+      <c r="M7" s="30">
         <v>3</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="N7" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="115" t="s">
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="43" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="119" t="s">
+      <c r="C8" s="82"/>
+      <c r="D8" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="120" t="s">
+      <c r="F8" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="119" t="s">
+      <c r="H8" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="L8" s="39" t="s">
+      <c r="L8" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="30">
         <v>4</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="115" t="s">
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="43" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="120" t="s">
+      <c r="F9" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="119" t="s">
+      <c r="H9" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="J9" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M9" s="39">
+      <c r="M9" s="30">
         <v>1</v>
       </c>
-      <c r="N9" s="39" t="s">
+      <c r="N9" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="115" t="s">
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="43" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="119" t="s">
+      <c r="D10" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="120" t="s">
+      <c r="F10" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="119" t="s">
+      <c r="H10" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="K10" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="L10" s="39" t="s">
+      <c r="L10" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="30">
         <v>2</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="N10" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="115" t="s">
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="43" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="118" t="s">
+      <c r="C11" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="119" t="s">
+      <c r="D11" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="120" t="s">
+      <c r="F11" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="119" t="s">
+      <c r="H11" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="J11" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M11" s="39">
+      <c r="M11" s="30">
         <v>3</v>
       </c>
-      <c r="N11" s="39" t="s">
+      <c r="N11" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="115" t="s">
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="43" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="113" t="s">
+      <c r="C12" s="82"/>
+      <c r="D12" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="120" t="s">
+      <c r="F12" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="119" t="s">
+      <c r="H12" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="J12" s="39" t="s">
+      <c r="J12" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="39" t="s">
+      <c r="K12" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="L12" s="39" t="s">
+      <c r="L12" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M12" s="30">
         <v>1</v>
       </c>
-      <c r="N12" s="39" t="s">
+      <c r="N12" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O12" s="39" t="s">
+      <c r="O12" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39" t="s">
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="R12" s="39"/>
-      <c r="S12" s="115" t="s">
+      <c r="R12" s="30"/>
+      <c r="S12" s="43" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="13" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="D13" s="131" t="s">
+      <c r="D13" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="122" t="s">
+      <c r="E13" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="123" t="s">
+      <c r="F13" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="119" t="s">
+      <c r="H13" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="I13" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="J13" s="39" t="s">
+      <c r="J13" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="39" t="s">
+      <c r="K13" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="L13" s="39" t="s">
+      <c r="L13" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="30">
         <v>2</v>
       </c>
-      <c r="N13" s="39" t="s">
+      <c r="N13" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="115" t="s">
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="43" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="115" t="s">
+      <c r="C14" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="H14" s="119" t="s">
+      <c r="H14" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="J14" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="K14" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="L14" s="39" t="s">
+      <c r="L14" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M14" s="39">
+      <c r="M14" s="30">
         <v>3</v>
       </c>
-      <c r="N14" s="39" t="s">
+      <c r="N14" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O14" s="39" t="s">
+      <c r="O14" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39" t="s">
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="R14" s="39"/>
-      <c r="S14" s="115" t="s">
+      <c r="R14" s="30"/>
+      <c r="S14" s="43" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="119" t="s">
+      <c r="H15" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="J15" s="39" t="s">
+      <c r="J15" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="L15" s="39" t="s">
+      <c r="L15" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M15" s="39">
+      <c r="M15" s="30">
         <v>4</v>
       </c>
-      <c r="N15" s="39" t="s">
+      <c r="N15" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="115" t="s">
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="43" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="115" t="s">
+      <c r="C16" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="H16" s="119" t="s">
+      <c r="H16" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="I16" s="39" t="s">
+      <c r="I16" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="J16" s="39" t="s">
+      <c r="J16" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K16" s="39" t="s">
+      <c r="K16" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="L16" s="39" t="s">
+      <c r="L16" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M16" s="39">
+      <c r="M16" s="30">
         <v>5</v>
       </c>
-      <c r="N16" s="39" t="s">
+      <c r="N16" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O16" s="39" t="s">
+      <c r="O16" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39" t="s">
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="R16" s="39"/>
-      <c r="S16" s="115" t="s">
+      <c r="R16" s="30"/>
+      <c r="S16" s="43" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="17" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="C17" s="118" t="s">
+      <c r="C17" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="H17" s="119" t="s">
+      <c r="H17" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="I17" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="39" t="s">
+      <c r="K17" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="L17" s="39" t="s">
+      <c r="L17" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="M17" s="39">
+      <c r="M17" s="30">
         <v>6</v>
       </c>
-      <c r="N17" s="39" t="s">
+      <c r="N17" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="115" t="s">
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="43" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="115"/>
+      <c r="C18" s="82"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="43"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="C19" s="115" t="s">
+      <c r="C19" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="119"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="115"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="43"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="C20" s="115" t="s">
+      <c r="C20" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="119"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="115"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="43"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="C21" s="115" t="s">
+      <c r="C21" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="119"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="115"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="43"/>
     </row>
     <row r="22" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="125" t="s">
+      <c r="B22" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="121"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="122"/>
-      <c r="L22" s="122"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="122"/>
-      <c r="O22" s="122"/>
-      <c r="P22" s="122"/>
-      <c r="Q22" s="122"/>
-      <c r="R22" s="122"/>
-      <c r="S22" s="118"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="62"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="82"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="G24" s="34" t="s">
+      <c r="G24" s="25" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="119">
+      <c r="B25" s="47">
         <v>1</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="30">
         <f>COUNTIF($M$5:$M$21,B25)</f>
         <v>3</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="30">
         <f>COUNTA(H5:H21)-D25</f>
         <v>10</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="30">
         <v>0</v>
       </c>
-      <c r="G25" s="120">
+      <c r="G25" s="48">
         <f>COUNTA(H5:H21)</f>
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="119">
+      <c r="B26" s="47">
         <v>2</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="30">
         <f t="shared" ref="D26:D31" si="0">COUNTIF($M$5:$M$21,B26)</f>
         <v>3</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="30">
         <f>E25-D26</f>
         <v>7</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="30">
         <v>0</v>
       </c>
-      <c r="G26" s="120">
+      <c r="G26" s="48">
         <f>G25-F26</f>
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="119">
+      <c r="B27" s="47">
         <v>3</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="D27" s="39">
+      <c r="D27" s="30">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="30">
         <f t="shared" ref="E27:E31" si="1">E26-D27</f>
         <v>4</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="30">
         <v>0</v>
       </c>
-      <c r="G27" s="120">
+      <c r="G27" s="48">
         <f t="shared" ref="G27:G31" si="2">G26-F27</f>
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="119">
+      <c r="B28" s="47">
         <v>4</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D28" s="30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="30">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="30">
         <v>0</v>
       </c>
-      <c r="G28" s="120">
+      <c r="G28" s="48">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="119">
+      <c r="B29" s="47">
         <v>5</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="D29" s="39">
+      <c r="D29" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="30">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="30">
         <v>0</v>
       </c>
-      <c r="G29" s="120">
+      <c r="G29" s="48">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="119">
+      <c r="B30" s="47">
         <v>6</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="D30" s="39">
+      <c r="D30" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="30">
         <v>0</v>
       </c>
-      <c r="G30" s="120">
+      <c r="G30" s="48">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="121">
+      <c r="B31" s="49">
         <v>7</v>
       </c>
-      <c r="C31" s="122" t="s">
+      <c r="C31" s="50" t="s">
         <v>270</v>
       </c>
-      <c r="D31" s="122">
+      <c r="D31" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="122">
+      <c r="E31" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F31" s="122">
+      <c r="F31" s="50">
         <v>0</v>
       </c>
-      <c r="G31" s="123">
+      <c r="G31" s="51">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B2:S2"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B3:C3"/>
@@ -8143,7 +8120,6 @@
     <mergeCell ref="H3:S3"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B2:S2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
     <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="O">
@@ -8211,831 +8187,813 @@
   <dimension ref="B1:S31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="37" customWidth="1"/>
-    <col min="2" max="7" width="15.7109375" style="37" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" style="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="5.28515625" style="38" customWidth="1"/>
-    <col min="19" max="19" width="63.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="1" width="1.7109375" style="28" customWidth="1"/>
+    <col min="2" max="7" width="15.7109375" style="28" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="5.28515625" style="29" customWidth="1"/>
+    <col min="19" max="19" width="63.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="1.7109375" style="28" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="110" t="s">
-        <v>298</v>
-      </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="112"/>
+      <c r="B2" s="130" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="132"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="82"/>
+      <c r="D3" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
-      <c r="H3" s="60" t="s">
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="H3" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="62"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="82"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="115">
+      <c r="C4" s="43">
         <v>1</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="N4" s="41" t="s">
+      <c r="N4" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="O4" s="41" t="s">
+      <c r="O4" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="P4" s="41" t="s">
+      <c r="P4" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="Q4" s="41" t="s">
+      <c r="Q4" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="R4" s="41" t="s">
+      <c r="R4" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="S4" s="25" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="115" t="s">
-        <v>271</v>
-      </c>
-      <c r="D5" s="119" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="120" t="s">
+      <c r="F5" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="119" t="s">
+      <c r="H5" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39" t="s">
+      <c r="I5" s="30"/>
+      <c r="J5" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="109"/>
-      <c r="S5" s="115"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="43"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="115" t="s">
-        <v>291</v>
-      </c>
-      <c r="D6" s="119" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="120" t="s">
+      <c r="F6" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="119" t="s">
+      <c r="H6" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="115"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="43"/>
     </row>
     <row r="7" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="117" t="s">
-        <v>292</v>
-      </c>
-      <c r="D7" s="119" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="120" t="s">
+      <c r="F7" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="119" t="s">
+      <c r="H7" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39" t="s">
+      <c r="I7" s="30"/>
+      <c r="J7" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="109"/>
-      <c r="S7" s="115"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="43"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="119" t="s">
+      <c r="C8" s="82"/>
+      <c r="D8" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="120" t="s">
+      <c r="F8" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="119" t="s">
+      <c r="H8" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39" t="s">
+      <c r="I8" s="30"/>
+      <c r="J8" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="109"/>
-      <c r="S8" s="115"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="43"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="120" t="s">
+      <c r="F9" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="119" t="s">
+      <c r="H9" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39" t="s">
+      <c r="I9" s="30"/>
+      <c r="J9" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="115"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="43"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="119" t="s">
+      <c r="D10" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="120" t="s">
+      <c r="F10" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="119" t="s">
+      <c r="H10" s="47" t="s">
         <v>256</v>
       </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39" t="s">
+      <c r="I10" s="30"/>
+      <c r="J10" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="115"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="43"/>
     </row>
     <row r="11" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="118" t="s">
+      <c r="C11" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="119" t="s">
+      <c r="D11" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="120" t="s">
+      <c r="F11" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="119" t="s">
+      <c r="H11" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39" t="s">
+      <c r="I11" s="30"/>
+      <c r="J11" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="115"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="43"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="119" t="s">
+      <c r="C12" s="82"/>
+      <c r="D12" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="120" t="s">
+      <c r="F12" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="119" t="s">
+      <c r="H12" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39" t="s">
+      <c r="I12" s="30"/>
+      <c r="J12" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="109"/>
-      <c r="S12" s="115"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="43"/>
     </row>
     <row r="13" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="D13" s="121" t="s">
+      <c r="D13" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="122" t="s">
+      <c r="E13" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="123" t="s">
+      <c r="F13" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="119" t="s">
+      <c r="H13" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39" t="s">
+      <c r="I13" s="30"/>
+      <c r="J13" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="109"/>
-      <c r="S13" s="115"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="43"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="115" t="s">
+      <c r="C14" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="H14" s="119" t="s">
+      <c r="H14" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39" t="s">
+      <c r="I14" s="30"/>
+      <c r="J14" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="109"/>
-      <c r="S14" s="115"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="43"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="119" t="s">
+      <c r="H15" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39" t="s">
+      <c r="I15" s="30"/>
+      <c r="J15" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="109"/>
-      <c r="S15" s="115"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="43"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="115" t="s">
+      <c r="C16" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="H16" s="119" t="s">
+      <c r="H16" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39" t="s">
+      <c r="I16" s="30"/>
+      <c r="J16" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="115"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="43"/>
     </row>
     <row r="17" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="C17" s="118" t="s">
+      <c r="C17" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="H17" s="119" t="s">
+      <c r="H17" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39" t="s">
+      <c r="I17" s="30"/>
+      <c r="J17" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="115"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="43"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="H18" s="119" t="s">
+      <c r="C18" s="82"/>
+      <c r="H18" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39" t="s">
+      <c r="I18" s="30"/>
+      <c r="J18" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="109"/>
-      <c r="S18" s="115"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="43"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="C19" s="115" t="s">
+      <c r="C19" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="119" t="s">
+      <c r="H19" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39" t="s">
+      <c r="I19" s="30"/>
+      <c r="J19" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="109"/>
-      <c r="S19" s="115"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="43"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="C20" s="115" t="s">
+      <c r="C20" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="119" t="s">
+      <c r="H20" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39" t="s">
+      <c r="I20" s="30"/>
+      <c r="J20" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="109"/>
-      <c r="S20" s="115"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="43"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="C21" s="115" t="s">
+      <c r="C21" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="119" t="s">
+      <c r="H21" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39" t="s">
+      <c r="I21" s="30"/>
+      <c r="J21" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="109"/>
-      <c r="S21" s="115"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="43"/>
     </row>
     <row r="22" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="125" t="s">
+      <c r="B22" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="121" t="s">
+      <c r="H22" s="49" t="s">
         <v>290</v>
       </c>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122" t="s">
+      <c r="I22" s="50"/>
+      <c r="J22" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="K22" s="122"/>
-      <c r="L22" s="122"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="122"/>
-      <c r="O22" s="122"/>
-      <c r="P22" s="122"/>
-      <c r="Q22" s="122"/>
-      <c r="R22" s="124"/>
-      <c r="S22" s="118"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="62"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="82"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="G24" s="34" t="s">
+      <c r="G24" s="25" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="119">
+      <c r="B25" s="47">
         <v>1</v>
       </c>
-      <c r="C25" s="39" t="s">
-        <v>271</v>
-      </c>
-      <c r="D25" s="39">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30">
         <f>COUNTIF($M$5:$M$22,B25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="30">
         <f>(COUNTA(H5:H22)-COUNTBLANK(I5:I22))-D25</f>
         <v>0</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="30">
         <f>COUNTIFS($R$5:$R$22,"O",$M$5:$M$22,B25)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="120">
+      <c r="G25" s="48">
         <f>(COUNTA(H5:H22)-COUNTBLANK(I5:I22)) - F25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="119">
+      <c r="B26" s="47">
         <v>2</v>
       </c>
-      <c r="C26" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="D26" s="39">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30">
         <f t="shared" ref="D26:D31" si="0">COUNTIF($M$5:$M$22,B26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="30">
         <f>E25-D26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="30">
         <f>COUNTIFS($R$5:$R$22,"O",$M$5:$M$22,B26)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="120">
+      <c r="G26" s="48">
         <f>G25-F26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="119">
+      <c r="B27" s="47">
         <v>3</v>
       </c>
-      <c r="C27" s="39" t="s">
-        <v>294</v>
-      </c>
-      <c r="D27" s="39">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="30">
         <f t="shared" ref="E27:E31" si="1">E26-D27</f>
         <v>0</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="30">
         <f t="shared" ref="F27:F31" si="2">COUNTIFS($R$5:$R$22,"O",$M$5:$M$22,B27)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="120">
+      <c r="G27" s="48">
         <f t="shared" ref="G27:G31" si="3">G26-F27</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="119">
+      <c r="B28" s="47">
         <v>4</v>
       </c>
-      <c r="C28" s="39" t="s">
-        <v>295</v>
-      </c>
-      <c r="D28" s="39">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G28" s="120">
+      <c r="G28" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="119">
+      <c r="B29" s="47">
         <v>5</v>
       </c>
-      <c r="C29" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="D29" s="39">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G29" s="120">
+      <c r="G29" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="119">
+      <c r="B30" s="47">
         <v>6</v>
       </c>
-      <c r="C30" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="D30" s="39">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G30" s="120">
+      <c r="G30" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="121">
+      <c r="B31" s="49">
         <v>7</v>
       </c>
-      <c r="C31" s="122" t="s">
-        <v>291</v>
-      </c>
-      <c r="D31" s="122">
+      <c r="C31" s="50"/>
+      <c r="D31" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="122">
+      <c r="E31" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F31" s="122">
+      <c r="F31" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G31" s="123">
+      <c r="G31" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B2:S2"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B3:C3"/>
@@ -9043,7 +9001,6 @@
     <mergeCell ref="H3:S3"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B2:S2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
     <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="O">

--- a/Management/Production_Progress_Oct_2017.xlsx
+++ b/Management/Production_Progress_Oct_2017.xlsx
@@ -1677,6 +1677,141 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1728,15 +1863,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1749,134 +1875,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2519,11 +2519,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="609746432"/>
-        <c:axId val="140696320"/>
+        <c:axId val="133251072"/>
+        <c:axId val="625379008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="609746432"/>
+        <c:axId val="133251072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2532,7 +2532,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140696320"/>
+        <c:crossAx val="625379008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2540,7 +2540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140696320"/>
+        <c:axId val="625379008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2556,7 +2556,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="609746432"/>
+        <c:crossAx val="133251072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2780,11 +2780,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="628002304"/>
-        <c:axId val="627901568"/>
+        <c:axId val="144585216"/>
+        <c:axId val="625381312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="628002304"/>
+        <c:axId val="144585216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2793,7 +2793,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="627901568"/>
+        <c:crossAx val="625381312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2801,7 +2801,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="627901568"/>
+        <c:axId val="625381312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2812,14 +2812,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="628002304"/>
+        <c:crossAx val="144585216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3036,11 +3035,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="628829696"/>
-        <c:axId val="627903872"/>
+        <c:axId val="154567168"/>
+        <c:axId val="625383616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="628829696"/>
+        <c:axId val="154567168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3049,7 +3048,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="627903872"/>
+        <c:crossAx val="625383616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3057,7 +3056,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="627903872"/>
+        <c:axId val="625383616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3068,7 +3067,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="628829696"/>
+        <c:crossAx val="154567168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3291,11 +3290,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="639135744"/>
-        <c:axId val="627906176"/>
+        <c:axId val="679768576"/>
+        <c:axId val="154698880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="639135744"/>
+        <c:axId val="679768576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3304,7 +3303,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="627906176"/>
+        <c:crossAx val="154698880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3312,7 +3311,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="627906176"/>
+        <c:axId val="154698880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3323,14 +3322,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="639135744"/>
+        <c:crossAx val="679768576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3365,7 +3363,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3408,7 +3406,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3449,7 +3447,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F86464-62E3-40C4-9822-D864B84BC108}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9F86464-62E3-40C4-9822-D864B84BC108}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3492,7 +3490,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3805,7 +3803,7 @@
   <dimension ref="B1:O97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3825,79 +3823,79 @@
   <sheetData>
     <row r="1" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="68"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="113"/>
     </row>
     <row r="3" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71" t="s">
+      <c r="C3" s="115"/>
+      <c r="D3" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="73" t="s">
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="75"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="120"/>
     </row>
     <row r="4" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78" t="s">
+      <c r="C4" s="122"/>
+      <c r="D4" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="80" t="s">
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="82"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="73"/>
     </row>
     <row r="5" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85" t="s">
+      <c r="C5" s="126"/>
+      <c r="D5" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="86"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="128"/>
       <c r="I5" s="12" t="s">
         <v>69</v>
       </c>
@@ -3921,23 +3919,23 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="90" t="s">
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
       <c r="O6" s="22"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
@@ -4038,14 +4036,14 @@
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="H9" s="22"/>
-      <c r="I9" s="92" t="s">
+      <c r="I9" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="65"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="110"/>
       <c r="O9" s="22"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
@@ -4069,13 +4067,13 @@
       <c r="I10" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="65"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="110"/>
       <c r="O10" s="22"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
@@ -4097,13 +4095,13 @@
       <c r="I11" s="13">
         <v>1</v>
       </c>
-      <c r="J11" s="96" t="s">
+      <c r="J11" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="98"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="93"/>
       <c r="O11" s="22"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
@@ -4124,14 +4122,14 @@
         <v>40</v>
       </c>
       <c r="H12" s="22"/>
-      <c r="I12" s="99" t="s">
+      <c r="I12" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
       <c r="O12" s="22"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
@@ -4272,58 +4270,58 @@
       <c r="H16" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="99" t="s">
+      <c r="I16" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
       <c r="O16" s="22"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="89"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="100" t="s">
+      <c r="J17" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
       <c r="O17" s="22"/>
     </row>
     <row r="18" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="104"/>
       <c r="I18" s="13">
         <v>1</v>
       </c>
-      <c r="J18" s="104" t="s">
+      <c r="J18" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="104"/>
-      <c r="N18" s="104"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
       <c r="O18" s="22"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
@@ -4351,13 +4349,13 @@
       <c r="I19" s="13">
         <v>2</v>
       </c>
-      <c r="J19" s="104" t="s">
+      <c r="J19" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="104"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
       <c r="O19" s="22"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
@@ -4383,14 +4381,14 @@
         <f>SUM(E20:G20)</f>
         <v>1</v>
       </c>
-      <c r="I20" s="105" t="s">
+      <c r="I20" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
       <c r="O20" s="22"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
@@ -4482,13 +4480,13 @@
       </c>
     </row>
     <row r="23" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="106"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="108"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="107"/>
       <c r="I23" s="13">
         <v>3</v>
       </c>
@@ -4512,31 +4510,31 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="105" t="s">
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
       <c r="O24" s="22"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
       <c r="E25" s="11">
         <f>SUM(E28,E31,E34,E37)</f>
         <v>31</v>
@@ -4554,73 +4552,73 @@
       <c r="I25" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="95" t="s">
+      <c r="J25" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
       <c r="O25" s="22"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="109" t="s">
+      <c r="B26" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="111"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="96"/>
       <c r="I26" s="13">
         <v>1</v>
       </c>
-      <c r="J26" s="104" t="s">
+      <c r="J26" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="104"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
       <c r="O26" s="22"/>
     </row>
     <row r="27" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="112" t="s">
+      <c r="C27" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="113"/>
-      <c r="E27" s="114" t="s">
+      <c r="D27" s="86"/>
+      <c r="E27" s="89" t="s">
         <v>291</v>
       </c>
-      <c r="F27" s="115"/>
-      <c r="G27" s="114" t="s">
+      <c r="F27" s="90"/>
+      <c r="G27" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="116"/>
+      <c r="H27" s="97"/>
       <c r="I27" s="14">
         <v>2</v>
       </c>
-      <c r="J27" s="117" t="s">
+      <c r="J27" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="K27" s="117"/>
-      <c r="L27" s="117"/>
-      <c r="M27" s="117"/>
-      <c r="N27" s="117"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
       <c r="O27" s="23"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="112" t="s">
+      <c r="C28" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="113"/>
+      <c r="D28" s="86"/>
       <c r="E28" s="10">
         <v>8</v>
       </c>
@@ -4634,26 +4632,26 @@
       <c r="H28" s="8">
         <v>31</v>
       </c>
-      <c r="I28" s="80" t="s">
+      <c r="I28" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="82"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="73"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="118" t="s">
+      <c r="B29" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="119"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
       <c r="I29" s="12" t="s">
         <v>69</v>
       </c>
@@ -4680,36 +4678,36 @@
       <c r="B30" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="96" t="s">
+      <c r="C30" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="98"/>
-      <c r="E30" s="114" t="s">
+      <c r="D30" s="93"/>
+      <c r="E30" s="89" t="s">
         <v>292</v>
       </c>
-      <c r="F30" s="115"/>
-      <c r="G30" s="114" t="s">
+      <c r="F30" s="90"/>
+      <c r="G30" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="H30" s="120"/>
-      <c r="I30" s="90" t="s">
+      <c r="H30" s="91"/>
+      <c r="I30" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
       <c r="O30" s="22"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="96" t="s">
+      <c r="C31" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="D31" s="98"/>
+      <c r="D31" s="93"/>
       <c r="E31" s="10">
         <v>7</v>
       </c>
@@ -4746,15 +4744,15 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="118" t="s">
+      <c r="B32" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
       <c r="I32" s="13">
         <v>2</v>
       </c>
@@ -4781,36 +4779,36 @@
       <c r="B33" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="112" t="s">
+      <c r="C33" s="85" t="s">
         <v>173</v>
       </c>
-      <c r="D33" s="113"/>
-      <c r="E33" s="114" t="s">
+      <c r="D33" s="86"/>
+      <c r="E33" s="89" t="s">
         <v>293</v>
       </c>
-      <c r="F33" s="115"/>
-      <c r="G33" s="114" t="s">
+      <c r="F33" s="90"/>
+      <c r="G33" s="89" t="s">
         <v>169</v>
       </c>
-      <c r="H33" s="120"/>
-      <c r="I33" s="90" t="s">
+      <c r="H33" s="91"/>
+      <c r="I33" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
       <c r="O33" s="22"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="112" t="s">
+      <c r="C34" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="D34" s="113"/>
+      <c r="D34" s="86"/>
       <c r="E34" s="10">
         <v>4</v>
       </c>
@@ -4827,71 +4825,71 @@
       <c r="I34" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J34" s="91" t="s">
+      <c r="J34" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
       <c r="O34" s="22"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="118" t="s">
+      <c r="B35" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="119"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
       <c r="I35" s="13">
         <v>1</v>
       </c>
-      <c r="J35" s="104" t="s">
+      <c r="J35" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="K35" s="104"/>
-      <c r="L35" s="104"/>
-      <c r="M35" s="104"/>
-      <c r="N35" s="104"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
       <c r="O35" s="22"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="112" t="s">
+      <c r="C36" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="D36" s="113"/>
-      <c r="E36" s="114" t="s">
+      <c r="D36" s="86"/>
+      <c r="E36" s="89" t="s">
         <v>294</v>
       </c>
-      <c r="F36" s="115"/>
-      <c r="G36" s="114" t="s">
+      <c r="F36" s="90"/>
+      <c r="G36" s="89" t="s">
         <v>170</v>
       </c>
-      <c r="H36" s="120"/>
-      <c r="I36" s="99" t="s">
+      <c r="H36" s="91"/>
+      <c r="I36" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="J36" s="100"/>
-      <c r="K36" s="100"/>
-      <c r="L36" s="100"/>
-      <c r="M36" s="100"/>
-      <c r="N36" s="100"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
       <c r="O36" s="22"/>
     </row>
     <row r="37" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="121" t="s">
+      <c r="C37" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="D37" s="122"/>
+      <c r="D37" s="75"/>
       <c r="E37" s="21">
         <v>12</v>
       </c>
@@ -4928,15 +4926,15 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="87" t="s">
+      <c r="B38" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="123"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="78"/>
       <c r="I38" s="13">
         <v>2</v>
       </c>
@@ -4960,82 +4958,82 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="124" t="s">
+      <c r="B39" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="125"/>
-      <c r="F39" s="125"/>
-      <c r="G39" s="125"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="99" t="s">
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="J39" s="100"/>
-      <c r="K39" s="100"/>
-      <c r="L39" s="100"/>
-      <c r="M39" s="100"/>
-      <c r="N39" s="100"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="67"/>
       <c r="O39" s="22"/>
     </row>
     <row r="40" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="127" t="s">
+      <c r="B40" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="128"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="129"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="84"/>
       <c r="I40" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J40" s="100" t="s">
+      <c r="J40" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="K40" s="100"/>
-      <c r="L40" s="100"/>
-      <c r="M40" s="100"/>
-      <c r="N40" s="100"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="67"/>
       <c r="O40" s="22"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I41" s="13">
         <v>1</v>
       </c>
-      <c r="J41" s="104" t="s">
+      <c r="J41" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="K41" s="104"/>
-      <c r="L41" s="104"/>
-      <c r="M41" s="104"/>
-      <c r="N41" s="104"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="65"/>
       <c r="O41" s="22"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I42" s="13">
         <v>2</v>
       </c>
-      <c r="J42" s="104" t="s">
+      <c r="J42" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="K42" s="104"/>
-      <c r="L42" s="104"/>
-      <c r="M42" s="104"/>
-      <c r="N42" s="104"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="65"/>
       <c r="O42" s="22"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I43" s="105" t="s">
+      <c r="I43" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="J43" s="95"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="95"/>
-      <c r="N43" s="95"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="69"/>
       <c r="O43" s="22"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
@@ -5108,65 +5106,65 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I47" s="105" t="s">
+      <c r="I47" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="J47" s="95"/>
-      <c r="K47" s="95"/>
-      <c r="L47" s="95"/>
-      <c r="M47" s="95"/>
-      <c r="N47" s="95"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="69"/>
       <c r="O47" s="22"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I48" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J48" s="95" t="s">
+      <c r="J48" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="K48" s="95"/>
-      <c r="L48" s="95"/>
-      <c r="M48" s="95"/>
-      <c r="N48" s="95"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
       <c r="O48" s="22"/>
     </row>
     <row r="49" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I49" s="13">
         <v>1</v>
       </c>
-      <c r="J49" s="104" t="s">
+      <c r="J49" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="K49" s="104"/>
-      <c r="L49" s="104"/>
-      <c r="M49" s="104"/>
-      <c r="N49" s="104"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="65"/>
       <c r="O49" s="22"/>
     </row>
     <row r="50" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I50" s="14">
         <v>2</v>
       </c>
-      <c r="J50" s="117" t="s">
+      <c r="J50" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="K50" s="117"/>
-      <c r="L50" s="117"/>
-      <c r="M50" s="117"/>
-      <c r="N50" s="117"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="63"/>
       <c r="O50" s="23"/>
     </row>
     <row r="51" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I51" s="80" t="s">
+      <c r="I51" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="J51" s="81"/>
-      <c r="K51" s="81"/>
-      <c r="L51" s="81"/>
-      <c r="M51" s="81"/>
-      <c r="N51" s="81"/>
-      <c r="O51" s="82"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="72"/>
+      <c r="N51" s="72"/>
+      <c r="O51" s="73"/>
     </row>
     <row r="52" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I52" s="12" t="s">
@@ -5192,14 +5190,14 @@
       </c>
     </row>
     <row r="53" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I53" s="90" t="s">
+      <c r="I53" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="J53" s="91"/>
-      <c r="K53" s="91"/>
-      <c r="L53" s="91"/>
-      <c r="M53" s="91"/>
-      <c r="N53" s="91"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="64"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="64"/>
       <c r="O53" s="26"/>
     </row>
     <row r="54" spans="9:15" x14ac:dyDescent="0.2">
@@ -5226,51 +5224,51 @@
       </c>
     </row>
     <row r="55" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I55" s="90" t="s">
+      <c r="I55" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="J55" s="91"/>
-      <c r="K55" s="91"/>
-      <c r="L55" s="91"/>
-      <c r="M55" s="91"/>
-      <c r="N55" s="91"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="64"/>
       <c r="O55" s="22"/>
     </row>
     <row r="56" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I56" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J56" s="91" t="s">
+      <c r="J56" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="K56" s="91"/>
-      <c r="L56" s="91"/>
-      <c r="M56" s="91"/>
-      <c r="N56" s="91"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="64"/>
       <c r="O56" s="22"/>
     </row>
     <row r="57" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I57" s="13">
         <v>1</v>
       </c>
-      <c r="J57" s="104" t="s">
+      <c r="J57" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="K57" s="104"/>
-      <c r="L57" s="104"/>
-      <c r="M57" s="104"/>
-      <c r="N57" s="104"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+      <c r="M57" s="65"/>
+      <c r="N57" s="65"/>
       <c r="O57" s="22"/>
     </row>
     <row r="58" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I58" s="99" t="s">
+      <c r="I58" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="J58" s="100"/>
-      <c r="K58" s="100"/>
-      <c r="L58" s="100"/>
-      <c r="M58" s="100"/>
-      <c r="N58" s="100"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="67"/>
       <c r="O58" s="22"/>
     </row>
     <row r="59" spans="9:15" x14ac:dyDescent="0.2">
@@ -5297,51 +5295,51 @@
       </c>
     </row>
     <row r="60" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I60" s="99" t="s">
+      <c r="I60" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="J60" s="100"/>
-      <c r="K60" s="100"/>
-      <c r="L60" s="100"/>
-      <c r="M60" s="100"/>
-      <c r="N60" s="100"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="67"/>
+      <c r="N60" s="67"/>
       <c r="O60" s="22"/>
     </row>
     <row r="61" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I61" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J61" s="100" t="s">
+      <c r="J61" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="K61" s="100"/>
-      <c r="L61" s="100"/>
-      <c r="M61" s="100"/>
-      <c r="N61" s="100"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="67"/>
+      <c r="N61" s="67"/>
       <c r="O61" s="22"/>
     </row>
     <row r="62" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I62" s="13">
         <v>1</v>
       </c>
-      <c r="J62" s="104" t="s">
+      <c r="J62" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="K62" s="104"/>
-      <c r="L62" s="104"/>
-      <c r="M62" s="104"/>
-      <c r="N62" s="104"/>
+      <c r="K62" s="65"/>
+      <c r="L62" s="65"/>
+      <c r="M62" s="65"/>
+      <c r="N62" s="65"/>
       <c r="O62" s="22"/>
     </row>
     <row r="63" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I63" s="105" t="s">
+      <c r="I63" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="J63" s="95"/>
-      <c r="K63" s="95"/>
-      <c r="L63" s="95"/>
-      <c r="M63" s="95"/>
-      <c r="N63" s="95"/>
+      <c r="J63" s="69"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="69"/>
+      <c r="M63" s="69"/>
+      <c r="N63" s="69"/>
       <c r="O63" s="22"/>
     </row>
     <row r="64" spans="9:15" x14ac:dyDescent="0.2">
@@ -5391,65 +5389,65 @@
       </c>
     </row>
     <row r="66" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I66" s="105" t="s">
+      <c r="I66" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="J66" s="95"/>
-      <c r="K66" s="95"/>
-      <c r="L66" s="95"/>
-      <c r="M66" s="95"/>
-      <c r="N66" s="95"/>
+      <c r="J66" s="69"/>
+      <c r="K66" s="69"/>
+      <c r="L66" s="69"/>
+      <c r="M66" s="69"/>
+      <c r="N66" s="69"/>
       <c r="O66" s="22"/>
     </row>
     <row r="67" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I67" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J67" s="95" t="s">
+      <c r="J67" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="K67" s="95"/>
-      <c r="L67" s="95"/>
-      <c r="M67" s="95"/>
-      <c r="N67" s="95"/>
+      <c r="K67" s="69"/>
+      <c r="L67" s="69"/>
+      <c r="M67" s="69"/>
+      <c r="N67" s="69"/>
       <c r="O67" s="22"/>
     </row>
     <row r="68" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I68" s="13">
         <v>1</v>
       </c>
-      <c r="J68" s="104" t="s">
+      <c r="J68" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="K68" s="104"/>
-      <c r="L68" s="104"/>
-      <c r="M68" s="104"/>
-      <c r="N68" s="104"/>
+      <c r="K68" s="65"/>
+      <c r="L68" s="65"/>
+      <c r="M68" s="65"/>
+      <c r="N68" s="65"/>
       <c r="O68" s="22"/>
     </row>
     <row r="69" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I69" s="14">
         <v>2</v>
       </c>
-      <c r="J69" s="117" t="s">
+      <c r="J69" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="K69" s="117"/>
-      <c r="L69" s="117"/>
-      <c r="M69" s="117"/>
-      <c r="N69" s="117"/>
+      <c r="K69" s="63"/>
+      <c r="L69" s="63"/>
+      <c r="M69" s="63"/>
+      <c r="N69" s="63"/>
       <c r="O69" s="23"/>
     </row>
     <row r="70" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I70" s="80" t="s">
+      <c r="I70" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="J70" s="81"/>
-      <c r="K70" s="81"/>
-      <c r="L70" s="81"/>
-      <c r="M70" s="81"/>
-      <c r="N70" s="81"/>
-      <c r="O70" s="82"/>
+      <c r="J70" s="72"/>
+      <c r="K70" s="72"/>
+      <c r="L70" s="72"/>
+      <c r="M70" s="72"/>
+      <c r="N70" s="72"/>
+      <c r="O70" s="73"/>
     </row>
     <row r="71" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I71" s="12" t="s">
@@ -5475,14 +5473,14 @@
       </c>
     </row>
     <row r="72" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I72" s="90" t="s">
+      <c r="I72" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="J72" s="91"/>
-      <c r="K72" s="91"/>
-      <c r="L72" s="91"/>
-      <c r="M72" s="91"/>
-      <c r="N72" s="91"/>
+      <c r="J72" s="64"/>
+      <c r="K72" s="64"/>
+      <c r="L72" s="64"/>
+      <c r="M72" s="64"/>
+      <c r="N72" s="64"/>
       <c r="O72" s="22"/>
     </row>
     <row r="73" spans="9:15" x14ac:dyDescent="0.2">
@@ -5553,51 +5551,51 @@
       </c>
     </row>
     <row r="76" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I76" s="90" t="s">
+      <c r="I76" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="J76" s="91"/>
-      <c r="K76" s="91"/>
-      <c r="L76" s="91"/>
-      <c r="M76" s="91"/>
-      <c r="N76" s="91"/>
+      <c r="J76" s="64"/>
+      <c r="K76" s="64"/>
+      <c r="L76" s="64"/>
+      <c r="M76" s="64"/>
+      <c r="N76" s="64"/>
       <c r="O76" s="22"/>
     </row>
     <row r="77" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I77" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J77" s="91" t="s">
+      <c r="J77" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="K77" s="91"/>
-      <c r="L77" s="91"/>
-      <c r="M77" s="91"/>
-      <c r="N77" s="91"/>
+      <c r="K77" s="64"/>
+      <c r="L77" s="64"/>
+      <c r="M77" s="64"/>
+      <c r="N77" s="64"/>
       <c r="O77" s="22"/>
     </row>
     <row r="78" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I78" s="13">
         <v>1</v>
       </c>
-      <c r="J78" s="104" t="s">
+      <c r="J78" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="K78" s="104"/>
-      <c r="L78" s="104"/>
-      <c r="M78" s="104"/>
-      <c r="N78" s="104"/>
+      <c r="K78" s="65"/>
+      <c r="L78" s="65"/>
+      <c r="M78" s="65"/>
+      <c r="N78" s="65"/>
       <c r="O78" s="22"/>
     </row>
     <row r="79" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I79" s="99" t="s">
+      <c r="I79" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="J79" s="100"/>
-      <c r="K79" s="100"/>
-      <c r="L79" s="100"/>
-      <c r="M79" s="100"/>
-      <c r="N79" s="100"/>
+      <c r="J79" s="67"/>
+      <c r="K79" s="67"/>
+      <c r="L79" s="67"/>
+      <c r="M79" s="67"/>
+      <c r="N79" s="67"/>
       <c r="O79" s="22"/>
     </row>
     <row r="80" spans="9:15" x14ac:dyDescent="0.2">
@@ -5647,64 +5645,64 @@
       </c>
     </row>
     <row r="82" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I82" s="99" t="s">
+      <c r="I82" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="J82" s="100"/>
-      <c r="K82" s="100"/>
-      <c r="L82" s="100"/>
-      <c r="M82" s="100"/>
-      <c r="N82" s="100"/>
+      <c r="J82" s="67"/>
+      <c r="K82" s="67"/>
+      <c r="L82" s="67"/>
+      <c r="M82" s="67"/>
+      <c r="N82" s="67"/>
       <c r="O82" s="22"/>
     </row>
     <row r="83" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I83" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J83" s="100" t="s">
+      <c r="J83" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="K83" s="100"/>
-      <c r="L83" s="100"/>
-      <c r="M83" s="100"/>
-      <c r="N83" s="100"/>
+      <c r="K83" s="67"/>
+      <c r="L83" s="67"/>
+      <c r="M83" s="67"/>
+      <c r="N83" s="67"/>
       <c r="O83" s="22"/>
     </row>
     <row r="84" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I84" s="13">
         <v>1</v>
       </c>
-      <c r="J84" s="104" t="s">
+      <c r="J84" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="K84" s="104"/>
-      <c r="L84" s="104"/>
-      <c r="M84" s="104"/>
-      <c r="N84" s="104"/>
+      <c r="K84" s="65"/>
+      <c r="L84" s="65"/>
+      <c r="M84" s="65"/>
+      <c r="N84" s="65"/>
       <c r="O84" s="22"/>
     </row>
     <row r="85" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I85" s="13">
         <v>2</v>
       </c>
-      <c r="J85" s="104" t="s">
+      <c r="J85" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="K85" s="104"/>
-      <c r="L85" s="104"/>
-      <c r="M85" s="104"/>
-      <c r="N85" s="104"/>
+      <c r="K85" s="65"/>
+      <c r="L85" s="65"/>
+      <c r="M85" s="65"/>
+      <c r="N85" s="65"/>
       <c r="O85" s="22"/>
     </row>
     <row r="86" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I86" s="105" t="s">
+      <c r="I86" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="J86" s="95"/>
-      <c r="K86" s="95"/>
-      <c r="L86" s="95"/>
-      <c r="M86" s="95"/>
-      <c r="N86" s="95"/>
+      <c r="J86" s="69"/>
+      <c r="K86" s="69"/>
+      <c r="L86" s="69"/>
+      <c r="M86" s="69"/>
+      <c r="N86" s="69"/>
       <c r="O86" s="22"/>
     </row>
     <row r="87" spans="9:15" x14ac:dyDescent="0.2">
@@ -5865,126 +5863,70 @@
       </c>
     </row>
     <row r="94" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I94" s="105" t="s">
+      <c r="I94" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="J94" s="95"/>
-      <c r="K94" s="95"/>
-      <c r="L94" s="95"/>
-      <c r="M94" s="95"/>
-      <c r="N94" s="95"/>
+      <c r="J94" s="69"/>
+      <c r="K94" s="69"/>
+      <c r="L94" s="69"/>
+      <c r="M94" s="69"/>
+      <c r="N94" s="69"/>
       <c r="O94" s="22"/>
     </row>
     <row r="95" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I95" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J95" s="95" t="s">
+      <c r="J95" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="K95" s="95"/>
-      <c r="L95" s="95"/>
-      <c r="M95" s="95"/>
-      <c r="N95" s="95"/>
+      <c r="K95" s="69"/>
+      <c r="L95" s="69"/>
+      <c r="M95" s="69"/>
+      <c r="N95" s="69"/>
       <c r="O95" s="22"/>
     </row>
     <row r="96" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I96" s="13">
         <v>1</v>
       </c>
-      <c r="J96" s="104" t="s">
+      <c r="J96" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="K96" s="104"/>
-      <c r="L96" s="104"/>
-      <c r="M96" s="104"/>
-      <c r="N96" s="104"/>
+      <c r="K96" s="65"/>
+      <c r="L96" s="65"/>
+      <c r="M96" s="65"/>
+      <c r="N96" s="65"/>
       <c r="O96" s="22"/>
     </row>
     <row r="97" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I97" s="14">
         <v>2</v>
       </c>
-      <c r="J97" s="117" t="s">
+      <c r="J97" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="K97" s="117"/>
-      <c r="L97" s="117"/>
-      <c r="M97" s="117"/>
-      <c r="N97" s="117"/>
+      <c r="K97" s="63"/>
+      <c r="L97" s="63"/>
+      <c r="M97" s="63"/>
+      <c r="N97" s="63"/>
       <c r="O97" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="J77:N77"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="I79:N79"/>
-    <mergeCell ref="I82:N82"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="I86:N86"/>
-    <mergeCell ref="I94:N94"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="I76:N76"/>
-    <mergeCell ref="I58:N58"/>
-    <mergeCell ref="I60:N60"/>
-    <mergeCell ref="J61:N61"/>
-    <mergeCell ref="J62:N62"/>
-    <mergeCell ref="I63:N63"/>
-    <mergeCell ref="I66:N66"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="J68:N68"/>
-    <mergeCell ref="J69:N69"/>
-    <mergeCell ref="I70:O70"/>
-    <mergeCell ref="I72:N72"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="J48:N48"/>
-    <mergeCell ref="J49:N49"/>
-    <mergeCell ref="J50:N50"/>
-    <mergeCell ref="I51:O51"/>
-    <mergeCell ref="I53:N53"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="J56:N56"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:O28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="I9:N9"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="J25:N25"/>
     <mergeCell ref="J11:N11"/>
@@ -5999,19 +5941,75 @@
     <mergeCell ref="B23:H23"/>
     <mergeCell ref="B24:H24"/>
     <mergeCell ref="I24:N24"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:O28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="J49:N49"/>
+    <mergeCell ref="J50:N50"/>
+    <mergeCell ref="I51:O51"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="J56:N56"/>
+    <mergeCell ref="I76:N76"/>
+    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="I60:N60"/>
+    <mergeCell ref="J61:N61"/>
+    <mergeCell ref="J62:N62"/>
+    <mergeCell ref="I63:N63"/>
+    <mergeCell ref="I66:N66"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="J69:N69"/>
+    <mergeCell ref="I70:O70"/>
+    <mergeCell ref="I72:N72"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="I79:N79"/>
+    <mergeCell ref="I82:N82"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="I86:N86"/>
+    <mergeCell ref="I94:N94"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J96:N96"/>
   </mergeCells>
   <conditionalFormatting sqref="H20:H22">
     <cfRule type="cellIs" dxfId="43" priority="1" operator="between">
@@ -6085,29 +6083,29 @@
       <c r="S2" s="132"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="71" t="s">
         <v>179</v>
       </c>
       <c r="C3" s="133"/>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
-      <c r="H3" s="80" t="s">
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
+      <c r="H3" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="82"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="73"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -6298,7 +6296,7 @@
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="71" t="s">
         <v>182</v>
       </c>
       <c r="C8" s="133"/>
@@ -6476,10 +6474,10 @@
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="82"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="41" t="s">
         <v>24</v>
       </c>
@@ -6708,10 +6706,10 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="82"/>
+      <c r="C18" s="73"/>
       <c r="H18" s="47" t="s">
         <v>259</v>
       </c>
@@ -6878,14 +6876,14 @@
       <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="82"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="73"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
@@ -7187,29 +7185,29 @@
       <c r="S2" s="132"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="71" t="s">
         <v>179</v>
       </c>
       <c r="C3" s="133"/>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
-      <c r="H3" s="80" t="s">
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
+      <c r="H3" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="82"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="73"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -7400,10 +7398,10 @@
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="82"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="47" t="s">
         <v>16</v>
       </c>
@@ -7578,10 +7576,10 @@
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="82"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="41" t="s">
         <v>24</v>
       </c>
@@ -7822,10 +7820,10 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="82"/>
+      <c r="C18" s="73"/>
       <c r="H18" s="47"/>
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
@@ -7920,14 +7918,14 @@
       <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="82"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="73"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
@@ -8229,29 +8227,29 @@
       <c r="S2" s="132"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="80" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
-      <c r="H3" s="80" t="s">
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
+      <c r="H3" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="82"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="73"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -8400,10 +8398,10 @@
       <c r="S7" s="43"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="82"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="47" t="s">
         <v>16</v>
       </c>
@@ -8530,10 +8528,10 @@
       <c r="S11" s="43"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="82"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="47" t="s">
         <v>24</v>
       </c>
@@ -8690,10 +8688,10 @@
       <c r="S17" s="43"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="82"/>
+      <c r="C18" s="73"/>
       <c r="H18" s="47" t="s">
         <v>259</v>
       </c>
@@ -8808,14 +8806,14 @@
       <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="82"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="73"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">

--- a/Management/Production_Progress_Oct_2017.xlsx
+++ b/Management/Production_Progress_Oct_2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="12315"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Production Backlog" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="297">
   <si>
     <t>Production Name:</t>
   </si>
@@ -905,6 +905,9 @@
   </si>
   <si>
     <t>Sprint # Backlog</t>
+  </si>
+  <si>
+    <t>Brewster</t>
   </si>
 </sst>
 </file>
@@ -1505,7 +1508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1677,38 +1680,179 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1716,12 +1860,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1743,141 +1881,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1888,6 +1891,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2519,11 +2525,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="133251072"/>
-        <c:axId val="625379008"/>
+        <c:axId val="179860992"/>
+        <c:axId val="155769024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133251072"/>
+        <c:axId val="179860992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2532,7 +2538,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="625379008"/>
+        <c:crossAx val="155769024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2540,7 +2546,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="625379008"/>
+        <c:axId val="155769024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2556,7 +2562,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="133251072"/>
+        <c:crossAx val="179860992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2611,22 +2617,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2697,25 +2703,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2780,11 +2786,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="144585216"/>
-        <c:axId val="625381312"/>
+        <c:axId val="191108608"/>
+        <c:axId val="180437568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144585216"/>
+        <c:axId val="191108608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2793,7 +2799,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="625381312"/>
+        <c:crossAx val="180437568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2801,7 +2807,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="625381312"/>
+        <c:axId val="180437568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2812,13 +2818,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144585216"/>
+        <c:crossAx val="191108608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3035,11 +3042,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154567168"/>
-        <c:axId val="625383616"/>
+        <c:axId val="201123328"/>
+        <c:axId val="180439872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154567168"/>
+        <c:axId val="201123328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3048,7 +3055,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="625383616"/>
+        <c:crossAx val="180439872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3056,7 +3063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="625383616"/>
+        <c:axId val="180439872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3067,13 +3074,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154567168"/>
+        <c:crossAx val="201123328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3290,11 +3298,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="679768576"/>
-        <c:axId val="154698880"/>
+        <c:axId val="211711488"/>
+        <c:axId val="180442176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="679768576"/>
+        <c:axId val="211711488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3303,7 +3311,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154698880"/>
+        <c:crossAx val="180442176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3311,7 +3319,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154698880"/>
+        <c:axId val="180442176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3322,13 +3330,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="679768576"/>
+        <c:crossAx val="211711488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3363,7 +3372,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3406,7 +3415,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3447,7 +3456,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9F86464-62E3-40C4-9822-D864B84BC108}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F86464-62E3-40C4-9822-D864B84BC108}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3490,7 +3499,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3802,8 +3811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3823,79 +3832,79 @@
   <sheetData>
     <row r="1" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="113"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="68"/>
     </row>
     <row r="3" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="118" t="s">
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="120"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
     </row>
     <row r="4" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="123" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="71" t="s">
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="73"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="82"/>
     </row>
     <row r="5" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="126"/>
-      <c r="D5" s="127" t="s">
+      <c r="C5" s="84"/>
+      <c r="D5" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="128"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="86"/>
       <c r="I5" s="12" t="s">
         <v>69</v>
       </c>
@@ -3919,23 +3928,23 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="70" t="s">
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
       <c r="O6" s="22"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
@@ -3983,8 +3992,8 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
-        <v>10</v>
+      <c r="B8" s="134" t="s">
+        <v>296</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>11</v>
@@ -4034,16 +4043,18 @@
         <v>40</v>
       </c>
       <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
+      <c r="G9" s="59" t="s">
+        <v>40</v>
+      </c>
       <c r="H9" s="22"/>
-      <c r="I9" s="129" t="s">
+      <c r="I9" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="110"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="65"/>
       <c r="O9" s="22"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
@@ -4067,13 +4078,13 @@
       <c r="I10" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="108" t="s">
+      <c r="J10" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="110"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="65"/>
       <c r="O10" s="22"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
@@ -4095,13 +4106,13 @@
       <c r="I11" s="13">
         <v>1</v>
       </c>
-      <c r="J11" s="92" t="s">
+      <c r="J11" s="96" t="s">
         <v>177</v>
       </c>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="93"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="98"/>
       <c r="O11" s="22"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
@@ -4122,14 +4133,14 @@
         <v>40</v>
       </c>
       <c r="H12" s="22"/>
-      <c r="I12" s="66" t="s">
+      <c r="I12" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
       <c r="O12" s="22"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
@@ -4270,58 +4281,58 @@
       <c r="H16" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="66" t="s">
+      <c r="I16" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
       <c r="O16" s="22"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="101"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="89"/>
       <c r="I17" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="67" t="s">
+      <c r="J17" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="100"/>
       <c r="O17" s="22"/>
     </row>
     <row r="18" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="104"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="103"/>
       <c r="I18" s="13">
         <v>1</v>
       </c>
-      <c r="J18" s="65" t="s">
+      <c r="J18" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
       <c r="O18" s="22"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
@@ -4349,13 +4360,13 @@
       <c r="I19" s="13">
         <v>2</v>
       </c>
-      <c r="J19" s="65" t="s">
+      <c r="J19" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="104"/>
       <c r="O19" s="22"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
@@ -4381,14 +4392,14 @@
         <f>SUM(E20:G20)</f>
         <v>1</v>
       </c>
-      <c r="I20" s="68" t="s">
+      <c r="I20" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
       <c r="O20" s="22"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
@@ -4480,13 +4491,13 @@
       </c>
     </row>
     <row r="23" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="105"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="107"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="108"/>
       <c r="I23" s="13">
         <v>3</v>
       </c>
@@ -4510,31 +4521,31 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="68" t="s">
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
       <c r="O24" s="22"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
       <c r="E25" s="11">
         <f>SUM(E28,E31,E34,E37)</f>
         <v>31</v>
@@ -4552,73 +4563,73 @@
       <c r="I25" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="69" t="s">
+      <c r="J25" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
       <c r="O25" s="22"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="96"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="111"/>
       <c r="I26" s="13">
         <v>1</v>
       </c>
-      <c r="J26" s="65" t="s">
+      <c r="J26" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="104"/>
       <c r="O26" s="22"/>
     </row>
     <row r="27" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="86"/>
-      <c r="E27" s="89" t="s">
+      <c r="D27" s="113"/>
+      <c r="E27" s="114" t="s">
         <v>291</v>
       </c>
-      <c r="F27" s="90"/>
-      <c r="G27" s="89" t="s">
+      <c r="F27" s="115"/>
+      <c r="G27" s="114" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="97"/>
+      <c r="H27" s="116"/>
       <c r="I27" s="14">
         <v>2</v>
       </c>
-      <c r="J27" s="63" t="s">
+      <c r="J27" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="117"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="117"/>
       <c r="O27" s="23"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="112" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="86"/>
+      <c r="D28" s="113"/>
       <c r="E28" s="10">
         <v>8</v>
       </c>
@@ -4632,26 +4643,26 @@
       <c r="H28" s="8">
         <v>31</v>
       </c>
-      <c r="I28" s="71" t="s">
+      <c r="I28" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="73"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="82"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="87" t="s">
+      <c r="B29" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
       <c r="I29" s="12" t="s">
         <v>69</v>
       </c>
@@ -4678,36 +4689,36 @@
       <c r="B30" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="92" t="s">
+      <c r="C30" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="93"/>
-      <c r="E30" s="89" t="s">
+      <c r="D30" s="98"/>
+      <c r="E30" s="114" t="s">
         <v>292</v>
       </c>
-      <c r="F30" s="90"/>
-      <c r="G30" s="89" t="s">
+      <c r="F30" s="115"/>
+      <c r="G30" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="H30" s="91"/>
-      <c r="I30" s="70" t="s">
+      <c r="H30" s="120"/>
+      <c r="I30" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
       <c r="O30" s="22"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="92" t="s">
+      <c r="C31" s="96" t="s">
         <v>172</v>
       </c>
-      <c r="D31" s="93"/>
+      <c r="D31" s="98"/>
       <c r="E31" s="10">
         <v>7</v>
       </c>
@@ -4744,15 +4755,15 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="87" t="s">
+      <c r="B32" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="119"/>
       <c r="I32" s="13">
         <v>2</v>
       </c>
@@ -4779,36 +4790,36 @@
       <c r="B33" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="85" t="s">
+      <c r="C33" s="112" t="s">
         <v>173</v>
       </c>
-      <c r="D33" s="86"/>
-      <c r="E33" s="89" t="s">
+      <c r="D33" s="113"/>
+      <c r="E33" s="114" t="s">
         <v>293</v>
       </c>
-      <c r="F33" s="90"/>
-      <c r="G33" s="89" t="s">
+      <c r="F33" s="115"/>
+      <c r="G33" s="114" t="s">
         <v>169</v>
       </c>
-      <c r="H33" s="91"/>
-      <c r="I33" s="70" t="s">
+      <c r="H33" s="120"/>
+      <c r="I33" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="64"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="91"/>
       <c r="O33" s="22"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="85" t="s">
+      <c r="C34" s="112" t="s">
         <v>174</v>
       </c>
-      <c r="D34" s="86"/>
+      <c r="D34" s="113"/>
       <c r="E34" s="10">
         <v>4</v>
       </c>
@@ -4825,71 +4836,71 @@
       <c r="I34" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J34" s="64" t="s">
+      <c r="J34" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="91"/>
       <c r="O34" s="22"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="87" t="s">
+      <c r="B35" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="119"/>
       <c r="I35" s="13">
         <v>1</v>
       </c>
-      <c r="J35" s="65" t="s">
+      <c r="J35" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="104"/>
+      <c r="N35" s="104"/>
       <c r="O35" s="22"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="85" t="s">
+      <c r="C36" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="D36" s="86"/>
-      <c r="E36" s="89" t="s">
+      <c r="D36" s="113"/>
+      <c r="E36" s="114" t="s">
         <v>294</v>
       </c>
-      <c r="F36" s="90"/>
-      <c r="G36" s="89" t="s">
+      <c r="F36" s="115"/>
+      <c r="G36" s="114" t="s">
         <v>170</v>
       </c>
-      <c r="H36" s="91"/>
-      <c r="I36" s="66" t="s">
+      <c r="H36" s="120"/>
+      <c r="I36" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
+      <c r="J36" s="100"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="100"/>
+      <c r="N36" s="100"/>
       <c r="O36" s="22"/>
     </row>
     <row r="37" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="74" t="s">
+      <c r="C37" s="121" t="s">
         <v>176</v>
       </c>
-      <c r="D37" s="75"/>
+      <c r="D37" s="122"/>
       <c r="E37" s="21">
         <v>12</v>
       </c>
@@ -4926,15 +4937,15 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="78"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="123"/>
       <c r="I38" s="13">
         <v>2</v>
       </c>
@@ -4958,82 +4969,82 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="124" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="66" t="s">
+      <c r="C39" s="125"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="125"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="125"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="67"/>
-      <c r="N39" s="67"/>
+      <c r="J39" s="100"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="100"/>
+      <c r="M39" s="100"/>
+      <c r="N39" s="100"/>
       <c r="O39" s="22"/>
     </row>
     <row r="40" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="82" t="s">
+      <c r="B40" s="127" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="84"/>
+      <c r="C40" s="128"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="129"/>
       <c r="I40" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J40" s="67" t="s">
+      <c r="J40" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="K40" s="67"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="67"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="100"/>
+      <c r="N40" s="100"/>
       <c r="O40" s="22"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I41" s="13">
         <v>1</v>
       </c>
-      <c r="J41" s="65" t="s">
+      <c r="J41" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="K41" s="65"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="65"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="104"/>
+      <c r="M41" s="104"/>
+      <c r="N41" s="104"/>
       <c r="O41" s="22"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I42" s="13">
         <v>2</v>
       </c>
-      <c r="J42" s="65" t="s">
+      <c r="J42" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="K42" s="65"/>
-      <c r="L42" s="65"/>
-      <c r="M42" s="65"/>
-      <c r="N42" s="65"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="104"/>
+      <c r="M42" s="104"/>
+      <c r="N42" s="104"/>
       <c r="O42" s="22"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I43" s="68" t="s">
+      <c r="I43" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="J43" s="69"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="69"/>
-      <c r="N43" s="69"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="95"/>
       <c r="O43" s="22"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
@@ -5106,65 +5117,65 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I47" s="68" t="s">
+      <c r="I47" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="J47" s="69"/>
-      <c r="K47" s="69"/>
-      <c r="L47" s="69"/>
-      <c r="M47" s="69"/>
-      <c r="N47" s="69"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="95"/>
+      <c r="M47" s="95"/>
+      <c r="N47" s="95"/>
       <c r="O47" s="22"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I48" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J48" s="69" t="s">
+      <c r="J48" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="K48" s="69"/>
-      <c r="L48" s="69"/>
-      <c r="M48" s="69"/>
-      <c r="N48" s="69"/>
+      <c r="K48" s="95"/>
+      <c r="L48" s="95"/>
+      <c r="M48" s="95"/>
+      <c r="N48" s="95"/>
       <c r="O48" s="22"/>
     </row>
     <row r="49" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I49" s="13">
         <v>1</v>
       </c>
-      <c r="J49" s="65" t="s">
+      <c r="J49" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="K49" s="65"/>
-      <c r="L49" s="65"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="65"/>
+      <c r="K49" s="104"/>
+      <c r="L49" s="104"/>
+      <c r="M49" s="104"/>
+      <c r="N49" s="104"/>
       <c r="O49" s="22"/>
     </row>
     <row r="50" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I50" s="14">
         <v>2</v>
       </c>
-      <c r="J50" s="63" t="s">
+      <c r="J50" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="K50" s="63"/>
-      <c r="L50" s="63"/>
-      <c r="M50" s="63"/>
-      <c r="N50" s="63"/>
+      <c r="K50" s="117"/>
+      <c r="L50" s="117"/>
+      <c r="M50" s="117"/>
+      <c r="N50" s="117"/>
       <c r="O50" s="23"/>
     </row>
     <row r="51" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I51" s="71" t="s">
+      <c r="I51" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="J51" s="72"/>
-      <c r="K51" s="72"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="72"/>
-      <c r="N51" s="72"/>
-      <c r="O51" s="73"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="81"/>
+      <c r="L51" s="81"/>
+      <c r="M51" s="81"/>
+      <c r="N51" s="81"/>
+      <c r="O51" s="82"/>
     </row>
     <row r="52" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I52" s="12" t="s">
@@ -5190,14 +5201,14 @@
       </c>
     </row>
     <row r="53" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I53" s="70" t="s">
+      <c r="I53" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="J53" s="64"/>
-      <c r="K53" s="64"/>
-      <c r="L53" s="64"/>
-      <c r="M53" s="64"/>
-      <c r="N53" s="64"/>
+      <c r="J53" s="91"/>
+      <c r="K53" s="91"/>
+      <c r="L53" s="91"/>
+      <c r="M53" s="91"/>
+      <c r="N53" s="91"/>
       <c r="O53" s="26"/>
     </row>
     <row r="54" spans="9:15" x14ac:dyDescent="0.2">
@@ -5224,51 +5235,51 @@
       </c>
     </row>
     <row r="55" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I55" s="70" t="s">
+      <c r="I55" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="J55" s="64"/>
-      <c r="K55" s="64"/>
-      <c r="L55" s="64"/>
-      <c r="M55" s="64"/>
-      <c r="N55" s="64"/>
+      <c r="J55" s="91"/>
+      <c r="K55" s="91"/>
+      <c r="L55" s="91"/>
+      <c r="M55" s="91"/>
+      <c r="N55" s="91"/>
       <c r="O55" s="22"/>
     </row>
     <row r="56" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I56" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J56" s="64" t="s">
+      <c r="J56" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="K56" s="64"/>
-      <c r="L56" s="64"/>
-      <c r="M56" s="64"/>
-      <c r="N56" s="64"/>
+      <c r="K56" s="91"/>
+      <c r="L56" s="91"/>
+      <c r="M56" s="91"/>
+      <c r="N56" s="91"/>
       <c r="O56" s="22"/>
     </row>
     <row r="57" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I57" s="13">
         <v>1</v>
       </c>
-      <c r="J57" s="65" t="s">
+      <c r="J57" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="K57" s="65"/>
-      <c r="L57" s="65"/>
-      <c r="M57" s="65"/>
-      <c r="N57" s="65"/>
+      <c r="K57" s="104"/>
+      <c r="L57" s="104"/>
+      <c r="M57" s="104"/>
+      <c r="N57" s="104"/>
       <c r="O57" s="22"/>
     </row>
     <row r="58" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I58" s="66" t="s">
+      <c r="I58" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="J58" s="67"/>
-      <c r="K58" s="67"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="67"/>
-      <c r="N58" s="67"/>
+      <c r="J58" s="100"/>
+      <c r="K58" s="100"/>
+      <c r="L58" s="100"/>
+      <c r="M58" s="100"/>
+      <c r="N58" s="100"/>
       <c r="O58" s="22"/>
     </row>
     <row r="59" spans="9:15" x14ac:dyDescent="0.2">
@@ -5295,51 +5306,51 @@
       </c>
     </row>
     <row r="60" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I60" s="66" t="s">
+      <c r="I60" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="J60" s="67"/>
-      <c r="K60" s="67"/>
-      <c r="L60" s="67"/>
-      <c r="M60" s="67"/>
-      <c r="N60" s="67"/>
+      <c r="J60" s="100"/>
+      <c r="K60" s="100"/>
+      <c r="L60" s="100"/>
+      <c r="M60" s="100"/>
+      <c r="N60" s="100"/>
       <c r="O60" s="22"/>
     </row>
     <row r="61" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I61" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J61" s="67" t="s">
+      <c r="J61" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="K61" s="67"/>
-      <c r="L61" s="67"/>
-      <c r="M61" s="67"/>
-      <c r="N61" s="67"/>
+      <c r="K61" s="100"/>
+      <c r="L61" s="100"/>
+      <c r="M61" s="100"/>
+      <c r="N61" s="100"/>
       <c r="O61" s="22"/>
     </row>
     <row r="62" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I62" s="13">
         <v>1</v>
       </c>
-      <c r="J62" s="65" t="s">
+      <c r="J62" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="K62" s="65"/>
-      <c r="L62" s="65"/>
-      <c r="M62" s="65"/>
-      <c r="N62" s="65"/>
+      <c r="K62" s="104"/>
+      <c r="L62" s="104"/>
+      <c r="M62" s="104"/>
+      <c r="N62" s="104"/>
       <c r="O62" s="22"/>
     </row>
     <row r="63" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I63" s="68" t="s">
+      <c r="I63" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="J63" s="69"/>
-      <c r="K63" s="69"/>
-      <c r="L63" s="69"/>
-      <c r="M63" s="69"/>
-      <c r="N63" s="69"/>
+      <c r="J63" s="95"/>
+      <c r="K63" s="95"/>
+      <c r="L63" s="95"/>
+      <c r="M63" s="95"/>
+      <c r="N63" s="95"/>
       <c r="O63" s="22"/>
     </row>
     <row r="64" spans="9:15" x14ac:dyDescent="0.2">
@@ -5389,65 +5400,65 @@
       </c>
     </row>
     <row r="66" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I66" s="68" t="s">
+      <c r="I66" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="J66" s="69"/>
-      <c r="K66" s="69"/>
-      <c r="L66" s="69"/>
-      <c r="M66" s="69"/>
-      <c r="N66" s="69"/>
+      <c r="J66" s="95"/>
+      <c r="K66" s="95"/>
+      <c r="L66" s="95"/>
+      <c r="M66" s="95"/>
+      <c r="N66" s="95"/>
       <c r="O66" s="22"/>
     </row>
     <row r="67" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I67" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J67" s="69" t="s">
+      <c r="J67" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="K67" s="69"/>
-      <c r="L67" s="69"/>
-      <c r="M67" s="69"/>
-      <c r="N67" s="69"/>
+      <c r="K67" s="95"/>
+      <c r="L67" s="95"/>
+      <c r="M67" s="95"/>
+      <c r="N67" s="95"/>
       <c r="O67" s="22"/>
     </row>
     <row r="68" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I68" s="13">
         <v>1</v>
       </c>
-      <c r="J68" s="65" t="s">
+      <c r="J68" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="K68" s="65"/>
-      <c r="L68" s="65"/>
-      <c r="M68" s="65"/>
-      <c r="N68" s="65"/>
+      <c r="K68" s="104"/>
+      <c r="L68" s="104"/>
+      <c r="M68" s="104"/>
+      <c r="N68" s="104"/>
       <c r="O68" s="22"/>
     </row>
     <row r="69" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I69" s="14">
         <v>2</v>
       </c>
-      <c r="J69" s="63" t="s">
+      <c r="J69" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="K69" s="63"/>
-      <c r="L69" s="63"/>
-      <c r="M69" s="63"/>
-      <c r="N69" s="63"/>
+      <c r="K69" s="117"/>
+      <c r="L69" s="117"/>
+      <c r="M69" s="117"/>
+      <c r="N69" s="117"/>
       <c r="O69" s="23"/>
     </row>
     <row r="70" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I70" s="71" t="s">
+      <c r="I70" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="J70" s="72"/>
-      <c r="K70" s="72"/>
-      <c r="L70" s="72"/>
-      <c r="M70" s="72"/>
-      <c r="N70" s="72"/>
-      <c r="O70" s="73"/>
+      <c r="J70" s="81"/>
+      <c r="K70" s="81"/>
+      <c r="L70" s="81"/>
+      <c r="M70" s="81"/>
+      <c r="N70" s="81"/>
+      <c r="O70" s="82"/>
     </row>
     <row r="71" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I71" s="12" t="s">
@@ -5473,14 +5484,14 @@
       </c>
     </row>
     <row r="72" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I72" s="70" t="s">
+      <c r="I72" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="J72" s="64"/>
-      <c r="K72" s="64"/>
-      <c r="L72" s="64"/>
-      <c r="M72" s="64"/>
-      <c r="N72" s="64"/>
+      <c r="J72" s="91"/>
+      <c r="K72" s="91"/>
+      <c r="L72" s="91"/>
+      <c r="M72" s="91"/>
+      <c r="N72" s="91"/>
       <c r="O72" s="22"/>
     </row>
     <row r="73" spans="9:15" x14ac:dyDescent="0.2">
@@ -5551,51 +5562,51 @@
       </c>
     </row>
     <row r="76" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I76" s="70" t="s">
+      <c r="I76" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="J76" s="64"/>
-      <c r="K76" s="64"/>
-      <c r="L76" s="64"/>
-      <c r="M76" s="64"/>
-      <c r="N76" s="64"/>
+      <c r="J76" s="91"/>
+      <c r="K76" s="91"/>
+      <c r="L76" s="91"/>
+      <c r="M76" s="91"/>
+      <c r="N76" s="91"/>
       <c r="O76" s="22"/>
     </row>
     <row r="77" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I77" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J77" s="64" t="s">
+      <c r="J77" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="K77" s="64"/>
-      <c r="L77" s="64"/>
-      <c r="M77" s="64"/>
-      <c r="N77" s="64"/>
+      <c r="K77" s="91"/>
+      <c r="L77" s="91"/>
+      <c r="M77" s="91"/>
+      <c r="N77" s="91"/>
       <c r="O77" s="22"/>
     </row>
     <row r="78" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I78" s="13">
         <v>1</v>
       </c>
-      <c r="J78" s="65" t="s">
+      <c r="J78" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="K78" s="65"/>
-      <c r="L78" s="65"/>
-      <c r="M78" s="65"/>
-      <c r="N78" s="65"/>
+      <c r="K78" s="104"/>
+      <c r="L78" s="104"/>
+      <c r="M78" s="104"/>
+      <c r="N78" s="104"/>
       <c r="O78" s="22"/>
     </row>
     <row r="79" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I79" s="66" t="s">
+      <c r="I79" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="J79" s="67"/>
-      <c r="K79" s="67"/>
-      <c r="L79" s="67"/>
-      <c r="M79" s="67"/>
-      <c r="N79" s="67"/>
+      <c r="J79" s="100"/>
+      <c r="K79" s="100"/>
+      <c r="L79" s="100"/>
+      <c r="M79" s="100"/>
+      <c r="N79" s="100"/>
       <c r="O79" s="22"/>
     </row>
     <row r="80" spans="9:15" x14ac:dyDescent="0.2">
@@ -5645,64 +5656,64 @@
       </c>
     </row>
     <row r="82" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I82" s="66" t="s">
+      <c r="I82" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="J82" s="67"/>
-      <c r="K82" s="67"/>
-      <c r="L82" s="67"/>
-      <c r="M82" s="67"/>
-      <c r="N82" s="67"/>
+      <c r="J82" s="100"/>
+      <c r="K82" s="100"/>
+      <c r="L82" s="100"/>
+      <c r="M82" s="100"/>
+      <c r="N82" s="100"/>
       <c r="O82" s="22"/>
     </row>
     <row r="83" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I83" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J83" s="67" t="s">
+      <c r="J83" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="K83" s="67"/>
-      <c r="L83" s="67"/>
-      <c r="M83" s="67"/>
-      <c r="N83" s="67"/>
+      <c r="K83" s="100"/>
+      <c r="L83" s="100"/>
+      <c r="M83" s="100"/>
+      <c r="N83" s="100"/>
       <c r="O83" s="22"/>
     </row>
     <row r="84" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I84" s="13">
         <v>1</v>
       </c>
-      <c r="J84" s="65" t="s">
+      <c r="J84" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="K84" s="65"/>
-      <c r="L84" s="65"/>
-      <c r="M84" s="65"/>
-      <c r="N84" s="65"/>
+      <c r="K84" s="104"/>
+      <c r="L84" s="104"/>
+      <c r="M84" s="104"/>
+      <c r="N84" s="104"/>
       <c r="O84" s="22"/>
     </row>
     <row r="85" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I85" s="13">
         <v>2</v>
       </c>
-      <c r="J85" s="65" t="s">
+      <c r="J85" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="K85" s="65"/>
-      <c r="L85" s="65"/>
-      <c r="M85" s="65"/>
-      <c r="N85" s="65"/>
+      <c r="K85" s="104"/>
+      <c r="L85" s="104"/>
+      <c r="M85" s="104"/>
+      <c r="N85" s="104"/>
       <c r="O85" s="22"/>
     </row>
     <row r="86" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I86" s="68" t="s">
+      <c r="I86" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="J86" s="69"/>
-      <c r="K86" s="69"/>
-      <c r="L86" s="69"/>
-      <c r="M86" s="69"/>
-      <c r="N86" s="69"/>
+      <c r="J86" s="95"/>
+      <c r="K86" s="95"/>
+      <c r="L86" s="95"/>
+      <c r="M86" s="95"/>
+      <c r="N86" s="95"/>
       <c r="O86" s="22"/>
     </row>
     <row r="87" spans="9:15" x14ac:dyDescent="0.2">
@@ -5863,70 +5874,126 @@
       </c>
     </row>
     <row r="94" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I94" s="68" t="s">
+      <c r="I94" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="J94" s="69"/>
-      <c r="K94" s="69"/>
-      <c r="L94" s="69"/>
-      <c r="M94" s="69"/>
-      <c r="N94" s="69"/>
+      <c r="J94" s="95"/>
+      <c r="K94" s="95"/>
+      <c r="L94" s="95"/>
+      <c r="M94" s="95"/>
+      <c r="N94" s="95"/>
       <c r="O94" s="22"/>
     </row>
     <row r="95" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I95" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J95" s="69" t="s">
+      <c r="J95" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="K95" s="69"/>
-      <c r="L95" s="69"/>
-      <c r="M95" s="69"/>
-      <c r="N95" s="69"/>
+      <c r="K95" s="95"/>
+      <c r="L95" s="95"/>
+      <c r="M95" s="95"/>
+      <c r="N95" s="95"/>
       <c r="O95" s="22"/>
     </row>
     <row r="96" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I96" s="13">
         <v>1</v>
       </c>
-      <c r="J96" s="65" t="s">
+      <c r="J96" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="K96" s="65"/>
-      <c r="L96" s="65"/>
-      <c r="M96" s="65"/>
-      <c r="N96" s="65"/>
+      <c r="K96" s="104"/>
+      <c r="L96" s="104"/>
+      <c r="M96" s="104"/>
+      <c r="N96" s="104"/>
       <c r="O96" s="22"/>
     </row>
     <row r="97" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I97" s="14">
         <v>2</v>
       </c>
-      <c r="J97" s="63" t="s">
+      <c r="J97" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="K97" s="63"/>
-      <c r="L97" s="63"/>
-      <c r="M97" s="63"/>
-      <c r="N97" s="63"/>
+      <c r="K97" s="117"/>
+      <c r="L97" s="117"/>
+      <c r="M97" s="117"/>
+      <c r="N97" s="117"/>
       <c r="O97" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="I79:N79"/>
+    <mergeCell ref="I82:N82"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="I86:N86"/>
+    <mergeCell ref="I94:N94"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="I76:N76"/>
+    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="I60:N60"/>
+    <mergeCell ref="J61:N61"/>
+    <mergeCell ref="J62:N62"/>
+    <mergeCell ref="I63:N63"/>
+    <mergeCell ref="I66:N66"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="J69:N69"/>
+    <mergeCell ref="I70:O70"/>
+    <mergeCell ref="I72:N72"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="J49:N49"/>
+    <mergeCell ref="J50:N50"/>
+    <mergeCell ref="I51:O51"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="J56:N56"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:O28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="J27:N27"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="J25:N25"/>
     <mergeCell ref="J11:N11"/>
@@ -5941,75 +6008,19 @@
     <mergeCell ref="B23:H23"/>
     <mergeCell ref="B24:H24"/>
     <mergeCell ref="I24:N24"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:O28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="J48:N48"/>
-    <mergeCell ref="J49:N49"/>
-    <mergeCell ref="J50:N50"/>
-    <mergeCell ref="I51:O51"/>
-    <mergeCell ref="I53:N53"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="J56:N56"/>
-    <mergeCell ref="I76:N76"/>
-    <mergeCell ref="I58:N58"/>
-    <mergeCell ref="I60:N60"/>
-    <mergeCell ref="J61:N61"/>
-    <mergeCell ref="J62:N62"/>
-    <mergeCell ref="I63:N63"/>
-    <mergeCell ref="I66:N66"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="J68:N68"/>
-    <mergeCell ref="J69:N69"/>
-    <mergeCell ref="I70:O70"/>
-    <mergeCell ref="I72:N72"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="J77:N77"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="I79:N79"/>
-    <mergeCell ref="I82:N82"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="I86:N86"/>
-    <mergeCell ref="I94:N94"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="I9:N9"/>
   </mergeCells>
   <conditionalFormatting sqref="H20:H22">
     <cfRule type="cellIs" dxfId="43" priority="1" operator="between">
@@ -6040,8 +6051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6083,29 +6094,29 @@
       <c r="S2" s="132"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="80" t="s">
         <v>179</v>
       </c>
       <c r="C3" s="133"/>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="73"/>
-      <c r="H3" s="71" t="s">
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="H3" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="73"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="82"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -6188,19 +6199,19 @@
       <c r="K5" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="L5" s="30" t="s">
-        <v>232</v>
+      <c r="L5" s="40" t="s">
+        <v>35</v>
       </c>
       <c r="M5" s="30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N5" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
       <c r="S5" s="43" t="s">
         <v>235</v>
       </c>
@@ -6233,8 +6244,8 @@
       <c r="K6" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="L6" s="30" t="s">
-        <v>232</v>
+      <c r="L6" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="M6" s="30">
         <v>2</v>
@@ -6242,9 +6253,9 @@
       <c r="N6" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
       <c r="R6" s="30"/>
       <c r="S6" s="43" t="s">
         <v>234</v>
@@ -6278,17 +6289,17 @@
       <c r="K7" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="L7" s="30" t="s">
-        <v>232</v>
+      <c r="L7" s="40" t="s">
+        <v>35</v>
       </c>
       <c r="M7" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
       <c r="Q7" s="30"/>
       <c r="R7" s="30"/>
       <c r="S7" s="43" t="s">
@@ -6296,7 +6307,7 @@
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="80" t="s">
         <v>182</v>
       </c>
       <c r="C8" s="133"/>
@@ -6321,16 +6332,16 @@
       <c r="K8" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="L8" s="30" t="s">
-        <v>232</v>
+      <c r="L8" s="40" t="s">
+        <v>36</v>
       </c>
       <c r="M8" s="30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N8" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O8" s="30"/>
+      <c r="O8" s="40"/>
       <c r="P8" s="30"/>
       <c r="Q8" s="30"/>
       <c r="R8" s="30"/>
@@ -6366,11 +6377,11 @@
       <c r="K9" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="L9" s="30" t="s">
-        <v>232</v>
+      <c r="L9" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="M9" s="30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" s="30" t="s">
         <v>229</v>
@@ -6411,11 +6422,11 @@
       <c r="K10" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="L10" s="30" t="s">
-        <v>232</v>
+      <c r="L10" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="M10" s="30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N10" s="30" t="s">
         <v>229</v>
@@ -6423,7 +6434,7 @@
       <c r="O10" s="30"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
+      <c r="R10" s="40"/>
       <c r="S10" s="43" t="s">
         <v>242</v>
       </c>
@@ -6456,17 +6467,17 @@
       <c r="K11" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="L11" s="30" t="s">
-        <v>232</v>
+      <c r="L11" s="40" t="s">
+        <v>29</v>
       </c>
       <c r="M11" s="30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N11" s="30" t="s">
         <v>229</v>
       </c>
       <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
+      <c r="P11" s="40"/>
       <c r="Q11" s="30"/>
       <c r="R11" s="30"/>
       <c r="S11" s="43" t="s">
@@ -6474,10 +6485,10 @@
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="73"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="41" t="s">
         <v>24</v>
       </c>
@@ -6499,18 +6510,18 @@
       <c r="K12" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="L12" s="30" t="s">
-        <v>232</v>
+      <c r="L12" s="40" t="s">
+        <v>34</v>
       </c>
       <c r="M12" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N12" s="30" t="s">
         <v>229</v>
       </c>
       <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
       <c r="R12" s="30"/>
       <c r="S12" s="43" t="s">
         <v>248</v>
@@ -6544,11 +6555,11 @@
       <c r="K13" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="L13" s="30" t="s">
-        <v>232</v>
+      <c r="L13" s="40" t="s">
+        <v>29</v>
       </c>
       <c r="M13" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" s="30" t="s">
         <v>229</v>
@@ -6580,19 +6591,19 @@
       <c r="K14" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="L14" s="30" t="s">
-        <v>232</v>
+      <c r="L14" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="M14" s="30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N14" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O14" s="30"/>
+      <c r="O14" s="40"/>
       <c r="P14" s="30"/>
       <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
+      <c r="R14" s="40"/>
       <c r="S14" s="43" t="s">
         <v>252</v>
       </c>
@@ -6616,11 +6627,11 @@
       <c r="K15" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="L15" s="30" t="s">
-        <v>232</v>
+      <c r="L15" s="40" t="s">
+        <v>28</v>
       </c>
       <c r="M15" s="30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N15" s="30" t="s">
         <v>229</v>
@@ -6652,11 +6663,11 @@
       <c r="K16" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="L16" s="30" t="s">
-        <v>232</v>
+      <c r="L16" s="40" t="s">
+        <v>36</v>
       </c>
       <c r="M16" s="30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N16" s="30" t="s">
         <v>229</v>
@@ -6688,11 +6699,11 @@
       <c r="K17" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="L17" s="30" t="s">
-        <v>232</v>
+      <c r="L17" s="40" t="s">
+        <v>36</v>
       </c>
       <c r="M17" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" s="30" t="s">
         <v>229</v>
@@ -6706,10 +6717,10 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="73"/>
+      <c r="C18" s="82"/>
       <c r="H18" s="47" t="s">
         <v>259</v>
       </c>
@@ -6722,11 +6733,11 @@
       <c r="K18" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="L18" s="30" t="s">
-        <v>232</v>
+      <c r="L18" s="40" t="s">
+        <v>36</v>
       </c>
       <c r="M18" s="30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N18" s="30" t="s">
         <v>229</v>
@@ -6758,11 +6769,11 @@
       <c r="K19" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="L19" s="30" t="s">
-        <v>232</v>
+      <c r="L19" s="40" t="s">
+        <v>34</v>
       </c>
       <c r="M19" s="30">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N19" s="30" t="s">
         <v>229</v>
@@ -6770,11 +6781,11 @@
       <c r="O19" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="P19" s="30"/>
+      <c r="P19" s="40"/>
       <c r="Q19" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="R19" s="30"/>
+      <c r="R19" s="40"/>
       <c r="S19" s="43" t="s">
         <v>265</v>
       </c>
@@ -6798,11 +6809,11 @@
       <c r="K20" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="L20" s="30" t="s">
-        <v>232</v>
+      <c r="L20" s="40" t="s">
+        <v>34</v>
       </c>
       <c r="M20" s="30">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N20" s="30" t="s">
         <v>229</v>
@@ -6834,11 +6845,11 @@
       <c r="K21" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="L21" s="30" t="s">
-        <v>232</v>
+      <c r="L21" s="40" t="s">
+        <v>36</v>
       </c>
       <c r="M21" s="30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N21" s="30" t="s">
         <v>229</v>
@@ -6846,11 +6857,11 @@
       <c r="O21" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="P21" s="30"/>
+      <c r="P21" s="40"/>
       <c r="Q21" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="R21" s="30"/>
+      <c r="R21" s="40"/>
       <c r="S21" s="43" t="s">
         <v>268</v>
       </c>
@@ -6876,14 +6887,14 @@
       <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="73"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="82"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
@@ -6914,11 +6925,11 @@
       </c>
       <c r="D25" s="30">
         <f>COUNTIF($M$5:$M$21,B25)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" s="30">
         <f>COUNTA(H5:H21)-D25</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F25" s="30">
         <v>0</v>
@@ -6937,11 +6948,11 @@
       </c>
       <c r="D26" s="30">
         <f t="shared" ref="D26:D31" si="0">COUNTIF($M$5:$M$21,B26)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E26" s="30">
         <f>E25-D26</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" s="30">
         <v>0</v>
@@ -6960,11 +6971,11 @@
       </c>
       <c r="D27" s="30">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" s="30">
         <f t="shared" ref="E27:E31" si="1">E26-D27</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F27" s="30">
         <v>0</v>
@@ -6983,11 +6994,11 @@
       </c>
       <c r="D28" s="30">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E28" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" s="30">
         <v>0</v>
@@ -7006,11 +7017,11 @@
       </c>
       <c r="D29" s="30">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="30">
         <v>0</v>
@@ -7029,11 +7040,11 @@
       </c>
       <c r="D30" s="30">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F30" s="30">
         <v>0</v>
@@ -7052,7 +7063,7 @@
       </c>
       <c r="D31" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" s="50">
         <f t="shared" si="1"/>
@@ -7185,29 +7196,29 @@
       <c r="S2" s="132"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="80" t="s">
         <v>179</v>
       </c>
       <c r="C3" s="133"/>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="73"/>
-      <c r="H3" s="71" t="s">
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="H3" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="73"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="82"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -7398,10 +7409,10 @@
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="73"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="47" t="s">
         <v>16</v>
       </c>
@@ -7576,10 +7587,10 @@
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="73"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="41" t="s">
         <v>24</v>
       </c>
@@ -7820,10 +7831,10 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="73"/>
+      <c r="C18" s="82"/>
       <c r="H18" s="47"/>
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
@@ -7918,14 +7929,14 @@
       <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="73"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="82"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
@@ -8227,29 +8238,29 @@
       <c r="S2" s="132"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="71" t="s">
+      <c r="C3" s="82"/>
+      <c r="D3" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="73"/>
-      <c r="H3" s="71" t="s">
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="H3" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="73"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="82"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -8398,10 +8409,10 @@
       <c r="S7" s="43"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="73"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="47" t="s">
         <v>16</v>
       </c>
@@ -8528,10 +8539,10 @@
       <c r="S11" s="43"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="73"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="47" t="s">
         <v>24</v>
       </c>
@@ -8688,10 +8699,10 @@
       <c r="S17" s="43"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="73"/>
+      <c r="C18" s="82"/>
       <c r="H18" s="47" t="s">
         <v>259</v>
       </c>
@@ -8806,14 +8817,14 @@
       <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="73"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="82"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">

--- a/Management/Production_Progress_Oct_2017.xlsx
+++ b/Management/Production_Progress_Oct_2017.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="297">
   <si>
     <t>Production Name:</t>
   </si>
@@ -914,13 +914,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1506,394 +1512,397 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2358,7 +2367,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2525,11 +2533,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="179860992"/>
-        <c:axId val="155769024"/>
+        <c:axId val="618790400"/>
+        <c:axId val="608032960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="179860992"/>
+        <c:axId val="618790400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2538,7 +2546,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155769024"/>
+        <c:crossAx val="608032960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2546,7 +2554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155769024"/>
+        <c:axId val="608032960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2562,14 +2570,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="179860992"/>
+        <c:crossAx val="618790400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2786,11 +2793,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="191108608"/>
-        <c:axId val="180437568"/>
+        <c:axId val="637447680"/>
+        <c:axId val="637231680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="191108608"/>
+        <c:axId val="637447680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2799,7 +2806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180437568"/>
+        <c:crossAx val="637231680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2807,7 +2814,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180437568"/>
+        <c:axId val="637231680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2818,7 +2825,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191108608"/>
+        <c:crossAx val="637447680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3042,11 +3049,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="201123328"/>
-        <c:axId val="180439872"/>
+        <c:axId val="637615616"/>
+        <c:axId val="637233984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="201123328"/>
+        <c:axId val="637615616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3055,7 +3062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180439872"/>
+        <c:crossAx val="637233984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3063,7 +3070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180439872"/>
+        <c:axId val="637233984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3074,14 +3081,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201123328"/>
+        <c:crossAx val="637615616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3298,11 +3304,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="211711488"/>
-        <c:axId val="180442176"/>
+        <c:axId val="637672960"/>
+        <c:axId val="637236288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="211711488"/>
+        <c:axId val="637672960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3311,7 +3317,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180442176"/>
+        <c:crossAx val="637236288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3319,7 +3325,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180442176"/>
+        <c:axId val="637236288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3330,14 +3336,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211711488"/>
+        <c:crossAx val="637672960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3832,79 +3837,79 @@
   <sheetData>
     <row r="1" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="69"/>
     </row>
     <row r="3" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="73" t="s">
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="76"/>
     </row>
     <row r="4" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="80" t="s">
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="83"/>
     </row>
     <row r="5" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85" t="s">
+      <c r="C5" s="85"/>
+      <c r="D5" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="87"/>
       <c r="I5" s="12" t="s">
         <v>69</v>
       </c>
@@ -3928,23 +3933,23 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="90" t="s">
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
       <c r="O6" s="22"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
@@ -3992,7 +3997,7 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="63" t="s">
         <v>296</v>
       </c>
       <c r="C8" s="33" t="s">
@@ -4047,14 +4052,14 @@
         <v>40</v>
       </c>
       <c r="H9" s="22"/>
-      <c r="I9" s="92" t="s">
+      <c r="I9" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="66"/>
       <c r="O9" s="22"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
@@ -4078,13 +4083,13 @@
       <c r="I10" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="66"/>
       <c r="O10" s="22"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
@@ -4106,13 +4111,13 @@
       <c r="I11" s="13">
         <v>1</v>
       </c>
-      <c r="J11" s="96" t="s">
+      <c r="J11" s="97" t="s">
         <v>177</v>
       </c>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="99"/>
       <c r="O11" s="22"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
@@ -4133,14 +4138,14 @@
         <v>40</v>
       </c>
       <c r="H12" s="22"/>
-      <c r="I12" s="99" t="s">
+      <c r="I12" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="101"/>
       <c r="O12" s="22"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
@@ -4281,58 +4286,58 @@
       <c r="H16" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="99" t="s">
+      <c r="I16" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
       <c r="O16" s="22"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="89"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="90"/>
       <c r="I17" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="100" t="s">
+      <c r="J17" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
       <c r="O17" s="22"/>
     </row>
     <row r="18" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="104"/>
       <c r="I18" s="13">
         <v>1</v>
       </c>
-      <c r="J18" s="104" t="s">
+      <c r="J18" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="104"/>
-      <c r="N18" s="104"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
       <c r="O18" s="22"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
@@ -4360,13 +4365,13 @@
       <c r="I19" s="13">
         <v>2</v>
       </c>
-      <c r="J19" s="104" t="s">
+      <c r="J19" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="104"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="105"/>
       <c r="O19" s="22"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
@@ -4392,14 +4397,14 @@
         <f>SUM(E20:G20)</f>
         <v>1</v>
       </c>
-      <c r="I20" s="105" t="s">
+      <c r="I20" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
       <c r="O20" s="22"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
@@ -4491,13 +4496,13 @@
       </c>
     </row>
     <row r="23" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="106"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="108"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="109"/>
       <c r="I23" s="13">
         <v>3</v>
       </c>
@@ -4521,31 +4526,31 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="105" t="s">
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
       <c r="O24" s="22"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
       <c r="E25" s="11">
         <f>SUM(E28,E31,E34,E37)</f>
         <v>31</v>
@@ -4563,73 +4568,73 @@
       <c r="I25" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="95" t="s">
+      <c r="J25" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
       <c r="O25" s="22"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="109" t="s">
+      <c r="B26" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="112"/>
       <c r="I26" s="13">
         <v>1</v>
       </c>
-      <c r="J26" s="104" t="s">
+      <c r="J26" s="105" t="s">
         <v>119</v>
       </c>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="104"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
       <c r="O26" s="22"/>
     </row>
     <row r="27" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="112" t="s">
+      <c r="C27" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="113"/>
-      <c r="E27" s="114" t="s">
+      <c r="D27" s="114"/>
+      <c r="E27" s="115" t="s">
         <v>291</v>
       </c>
-      <c r="F27" s="115"/>
-      <c r="G27" s="114" t="s">
+      <c r="F27" s="116"/>
+      <c r="G27" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="116"/>
+      <c r="H27" s="117"/>
       <c r="I27" s="14">
         <v>2</v>
       </c>
-      <c r="J27" s="117" t="s">
+      <c r="J27" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="K27" s="117"/>
-      <c r="L27" s="117"/>
-      <c r="M27" s="117"/>
-      <c r="N27" s="117"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="118"/>
+      <c r="N27" s="118"/>
       <c r="O27" s="23"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="112" t="s">
+      <c r="C28" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="113"/>
+      <c r="D28" s="114"/>
       <c r="E28" s="10">
         <v>8</v>
       </c>
@@ -4643,26 +4648,26 @@
       <c r="H28" s="8">
         <v>31</v>
       </c>
-      <c r="I28" s="80" t="s">
+      <c r="I28" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="83"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="118" t="s">
+      <c r="B29" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="119"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
       <c r="I29" s="12" t="s">
         <v>69</v>
       </c>
@@ -4689,36 +4694,36 @@
       <c r="B30" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="96" t="s">
+      <c r="C30" s="97" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="98"/>
-      <c r="E30" s="114" t="s">
+      <c r="D30" s="99"/>
+      <c r="E30" s="115" t="s">
         <v>292</v>
       </c>
-      <c r="F30" s="115"/>
-      <c r="G30" s="114" t="s">
+      <c r="F30" s="116"/>
+      <c r="G30" s="115" t="s">
         <v>168</v>
       </c>
-      <c r="H30" s="120"/>
-      <c r="I30" s="90" t="s">
+      <c r="H30" s="121"/>
+      <c r="I30" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
       <c r="O30" s="22"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="96" t="s">
+      <c r="C31" s="97" t="s">
         <v>172</v>
       </c>
-      <c r="D31" s="98"/>
+      <c r="D31" s="99"/>
       <c r="E31" s="10">
         <v>7</v>
       </c>
@@ -4755,15 +4760,15 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="118" t="s">
+      <c r="B32" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="120"/>
+      <c r="H32" s="120"/>
       <c r="I32" s="13">
         <v>2</v>
       </c>
@@ -4790,36 +4795,36 @@
       <c r="B33" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="112" t="s">
+      <c r="C33" s="113" t="s">
         <v>173</v>
       </c>
-      <c r="D33" s="113"/>
-      <c r="E33" s="114" t="s">
+      <c r="D33" s="114"/>
+      <c r="E33" s="115" t="s">
         <v>293</v>
       </c>
-      <c r="F33" s="115"/>
-      <c r="G33" s="114" t="s">
+      <c r="F33" s="116"/>
+      <c r="G33" s="115" t="s">
         <v>169</v>
       </c>
-      <c r="H33" s="120"/>
-      <c r="I33" s="90" t="s">
+      <c r="H33" s="121"/>
+      <c r="I33" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
       <c r="O33" s="22"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="112" t="s">
+      <c r="C34" s="113" t="s">
         <v>174</v>
       </c>
-      <c r="D34" s="113"/>
+      <c r="D34" s="114"/>
       <c r="E34" s="10">
         <v>4</v>
       </c>
@@ -4836,71 +4841,71 @@
       <c r="I34" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J34" s="91" t="s">
+      <c r="J34" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="92"/>
+      <c r="N34" s="92"/>
       <c r="O34" s="22"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="118" t="s">
+      <c r="B35" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="119"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="120"/>
       <c r="I35" s="13">
         <v>1</v>
       </c>
-      <c r="J35" s="104" t="s">
+      <c r="J35" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="K35" s="104"/>
-      <c r="L35" s="104"/>
-      <c r="M35" s="104"/>
-      <c r="N35" s="104"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
       <c r="O35" s="22"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="112" t="s">
+      <c r="C36" s="113" t="s">
         <v>175</v>
       </c>
-      <c r="D36" s="113"/>
-      <c r="E36" s="114" t="s">
+      <c r="D36" s="114"/>
+      <c r="E36" s="115" t="s">
         <v>294</v>
       </c>
-      <c r="F36" s="115"/>
-      <c r="G36" s="114" t="s">
+      <c r="F36" s="116"/>
+      <c r="G36" s="115" t="s">
         <v>170</v>
       </c>
-      <c r="H36" s="120"/>
-      <c r="I36" s="99" t="s">
+      <c r="H36" s="121"/>
+      <c r="I36" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="J36" s="100"/>
-      <c r="K36" s="100"/>
-      <c r="L36" s="100"/>
-      <c r="M36" s="100"/>
-      <c r="N36" s="100"/>
+      <c r="J36" s="101"/>
+      <c r="K36" s="101"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="101"/>
+      <c r="N36" s="101"/>
       <c r="O36" s="22"/>
     </row>
     <row r="37" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="121" t="s">
+      <c r="C37" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="D37" s="122"/>
+      <c r="D37" s="123"/>
       <c r="E37" s="21">
         <v>12</v>
       </c>
@@ -4937,15 +4942,15 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="87" t="s">
+      <c r="B38" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="123"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="124"/>
       <c r="I38" s="13">
         <v>2</v>
       </c>
@@ -4969,82 +4974,82 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="124" t="s">
+      <c r="B39" s="125" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="125"/>
-      <c r="F39" s="125"/>
-      <c r="G39" s="125"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="99" t="s">
+      <c r="C39" s="126"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="127"/>
+      <c r="I39" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="J39" s="100"/>
-      <c r="K39" s="100"/>
-      <c r="L39" s="100"/>
-      <c r="M39" s="100"/>
-      <c r="N39" s="100"/>
+      <c r="J39" s="101"/>
+      <c r="K39" s="101"/>
+      <c r="L39" s="101"/>
+      <c r="M39" s="101"/>
+      <c r="N39" s="101"/>
       <c r="O39" s="22"/>
     </row>
     <row r="40" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="127" t="s">
+      <c r="B40" s="128" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="128"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="129"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="129"/>
+      <c r="E40" s="129"/>
+      <c r="F40" s="129"/>
+      <c r="G40" s="129"/>
+      <c r="H40" s="130"/>
       <c r="I40" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J40" s="100" t="s">
+      <c r="J40" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="K40" s="100"/>
-      <c r="L40" s="100"/>
-      <c r="M40" s="100"/>
-      <c r="N40" s="100"/>
+      <c r="K40" s="101"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="101"/>
+      <c r="N40" s="101"/>
       <c r="O40" s="22"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I41" s="13">
         <v>1</v>
       </c>
-      <c r="J41" s="104" t="s">
+      <c r="J41" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="K41" s="104"/>
-      <c r="L41" s="104"/>
-      <c r="M41" s="104"/>
-      <c r="N41" s="104"/>
+      <c r="K41" s="105"/>
+      <c r="L41" s="105"/>
+      <c r="M41" s="105"/>
+      <c r="N41" s="105"/>
       <c r="O41" s="22"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I42" s="13">
         <v>2</v>
       </c>
-      <c r="J42" s="104" t="s">
+      <c r="J42" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="K42" s="104"/>
-      <c r="L42" s="104"/>
-      <c r="M42" s="104"/>
-      <c r="N42" s="104"/>
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="105"/>
+      <c r="N42" s="105"/>
       <c r="O42" s="22"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I43" s="105" t="s">
+      <c r="I43" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="J43" s="95"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="95"/>
-      <c r="N43" s="95"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="96"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="96"/>
       <c r="O43" s="22"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
@@ -5117,65 +5122,65 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I47" s="105" t="s">
+      <c r="I47" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="J47" s="95"/>
-      <c r="K47" s="95"/>
-      <c r="L47" s="95"/>
-      <c r="M47" s="95"/>
-      <c r="N47" s="95"/>
+      <c r="J47" s="96"/>
+      <c r="K47" s="96"/>
+      <c r="L47" s="96"/>
+      <c r="M47" s="96"/>
+      <c r="N47" s="96"/>
       <c r="O47" s="22"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I48" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J48" s="95" t="s">
+      <c r="J48" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="K48" s="95"/>
-      <c r="L48" s="95"/>
-      <c r="M48" s="95"/>
-      <c r="N48" s="95"/>
+      <c r="K48" s="96"/>
+      <c r="L48" s="96"/>
+      <c r="M48" s="96"/>
+      <c r="N48" s="96"/>
       <c r="O48" s="22"/>
     </row>
     <row r="49" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I49" s="13">
         <v>1</v>
       </c>
-      <c r="J49" s="104" t="s">
+      <c r="J49" s="105" t="s">
         <v>119</v>
       </c>
-      <c r="K49" s="104"/>
-      <c r="L49" s="104"/>
-      <c r="M49" s="104"/>
-      <c r="N49" s="104"/>
+      <c r="K49" s="105"/>
+      <c r="L49" s="105"/>
+      <c r="M49" s="105"/>
+      <c r="N49" s="105"/>
       <c r="O49" s="22"/>
     </row>
     <row r="50" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I50" s="14">
         <v>2</v>
       </c>
-      <c r="J50" s="117" t="s">
+      <c r="J50" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="K50" s="117"/>
-      <c r="L50" s="117"/>
-      <c r="M50" s="117"/>
-      <c r="N50" s="117"/>
+      <c r="K50" s="118"/>
+      <c r="L50" s="118"/>
+      <c r="M50" s="118"/>
+      <c r="N50" s="118"/>
       <c r="O50" s="23"/>
     </row>
     <row r="51" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I51" s="80" t="s">
+      <c r="I51" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="J51" s="81"/>
-      <c r="K51" s="81"/>
-      <c r="L51" s="81"/>
-      <c r="M51" s="81"/>
-      <c r="N51" s="81"/>
-      <c r="O51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="82"/>
+      <c r="O51" s="83"/>
     </row>
     <row r="52" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I52" s="12" t="s">
@@ -5201,14 +5206,14 @@
       </c>
     </row>
     <row r="53" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I53" s="90" t="s">
+      <c r="I53" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J53" s="91"/>
-      <c r="K53" s="91"/>
-      <c r="L53" s="91"/>
-      <c r="M53" s="91"/>
-      <c r="N53" s="91"/>
+      <c r="J53" s="92"/>
+      <c r="K53" s="92"/>
+      <c r="L53" s="92"/>
+      <c r="M53" s="92"/>
+      <c r="N53" s="92"/>
       <c r="O53" s="26"/>
     </row>
     <row r="54" spans="9:15" x14ac:dyDescent="0.2">
@@ -5235,51 +5240,51 @@
       </c>
     </row>
     <row r="55" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I55" s="90" t="s">
+      <c r="I55" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="J55" s="91"/>
-      <c r="K55" s="91"/>
-      <c r="L55" s="91"/>
-      <c r="M55" s="91"/>
-      <c r="N55" s="91"/>
+      <c r="J55" s="92"/>
+      <c r="K55" s="92"/>
+      <c r="L55" s="92"/>
+      <c r="M55" s="92"/>
+      <c r="N55" s="92"/>
       <c r="O55" s="22"/>
     </row>
     <row r="56" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I56" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J56" s="91" t="s">
+      <c r="J56" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="K56" s="91"/>
-      <c r="L56" s="91"/>
-      <c r="M56" s="91"/>
-      <c r="N56" s="91"/>
+      <c r="K56" s="92"/>
+      <c r="L56" s="92"/>
+      <c r="M56" s="92"/>
+      <c r="N56" s="92"/>
       <c r="O56" s="22"/>
     </row>
     <row r="57" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I57" s="13">
         <v>1</v>
       </c>
-      <c r="J57" s="104" t="s">
+      <c r="J57" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="K57" s="104"/>
-      <c r="L57" s="104"/>
-      <c r="M57" s="104"/>
-      <c r="N57" s="104"/>
+      <c r="K57" s="105"/>
+      <c r="L57" s="105"/>
+      <c r="M57" s="105"/>
+      <c r="N57" s="105"/>
       <c r="O57" s="22"/>
     </row>
     <row r="58" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I58" s="99" t="s">
+      <c r="I58" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="J58" s="100"/>
-      <c r="K58" s="100"/>
-      <c r="L58" s="100"/>
-      <c r="M58" s="100"/>
-      <c r="N58" s="100"/>
+      <c r="J58" s="101"/>
+      <c r="K58" s="101"/>
+      <c r="L58" s="101"/>
+      <c r="M58" s="101"/>
+      <c r="N58" s="101"/>
       <c r="O58" s="22"/>
     </row>
     <row r="59" spans="9:15" x14ac:dyDescent="0.2">
@@ -5306,51 +5311,51 @@
       </c>
     </row>
     <row r="60" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I60" s="99" t="s">
+      <c r="I60" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="J60" s="100"/>
-      <c r="K60" s="100"/>
-      <c r="L60" s="100"/>
-      <c r="M60" s="100"/>
-      <c r="N60" s="100"/>
+      <c r="J60" s="101"/>
+      <c r="K60" s="101"/>
+      <c r="L60" s="101"/>
+      <c r="M60" s="101"/>
+      <c r="N60" s="101"/>
       <c r="O60" s="22"/>
     </row>
     <row r="61" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I61" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J61" s="100" t="s">
+      <c r="J61" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="K61" s="100"/>
-      <c r="L61" s="100"/>
-      <c r="M61" s="100"/>
-      <c r="N61" s="100"/>
+      <c r="K61" s="101"/>
+      <c r="L61" s="101"/>
+      <c r="M61" s="101"/>
+      <c r="N61" s="101"/>
       <c r="O61" s="22"/>
     </row>
     <row r="62" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I62" s="13">
         <v>1</v>
       </c>
-      <c r="J62" s="104" t="s">
+      <c r="J62" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="K62" s="104"/>
-      <c r="L62" s="104"/>
-      <c r="M62" s="104"/>
-      <c r="N62" s="104"/>
+      <c r="K62" s="105"/>
+      <c r="L62" s="105"/>
+      <c r="M62" s="105"/>
+      <c r="N62" s="105"/>
       <c r="O62" s="22"/>
     </row>
     <row r="63" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I63" s="105" t="s">
+      <c r="I63" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="J63" s="95"/>
-      <c r="K63" s="95"/>
-      <c r="L63" s="95"/>
-      <c r="M63" s="95"/>
-      <c r="N63" s="95"/>
+      <c r="J63" s="96"/>
+      <c r="K63" s="96"/>
+      <c r="L63" s="96"/>
+      <c r="M63" s="96"/>
+      <c r="N63" s="96"/>
       <c r="O63" s="22"/>
     </row>
     <row r="64" spans="9:15" x14ac:dyDescent="0.2">
@@ -5400,65 +5405,65 @@
       </c>
     </row>
     <row r="66" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I66" s="105" t="s">
+      <c r="I66" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="J66" s="95"/>
-      <c r="K66" s="95"/>
-      <c r="L66" s="95"/>
-      <c r="M66" s="95"/>
-      <c r="N66" s="95"/>
+      <c r="J66" s="96"/>
+      <c r="K66" s="96"/>
+      <c r="L66" s="96"/>
+      <c r="M66" s="96"/>
+      <c r="N66" s="96"/>
       <c r="O66" s="22"/>
     </row>
     <row r="67" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I67" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J67" s="95" t="s">
+      <c r="J67" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="K67" s="95"/>
-      <c r="L67" s="95"/>
-      <c r="M67" s="95"/>
-      <c r="N67" s="95"/>
+      <c r="K67" s="96"/>
+      <c r="L67" s="96"/>
+      <c r="M67" s="96"/>
+      <c r="N67" s="96"/>
       <c r="O67" s="22"/>
     </row>
     <row r="68" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I68" s="13">
         <v>1</v>
       </c>
-      <c r="J68" s="104" t="s">
+      <c r="J68" s="105" t="s">
         <v>119</v>
       </c>
-      <c r="K68" s="104"/>
-      <c r="L68" s="104"/>
-      <c r="M68" s="104"/>
-      <c r="N68" s="104"/>
+      <c r="K68" s="105"/>
+      <c r="L68" s="105"/>
+      <c r="M68" s="105"/>
+      <c r="N68" s="105"/>
       <c r="O68" s="22"/>
     </row>
     <row r="69" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I69" s="14">
         <v>2</v>
       </c>
-      <c r="J69" s="117" t="s">
+      <c r="J69" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="K69" s="117"/>
-      <c r="L69" s="117"/>
-      <c r="M69" s="117"/>
-      <c r="N69" s="117"/>
+      <c r="K69" s="118"/>
+      <c r="L69" s="118"/>
+      <c r="M69" s="118"/>
+      <c r="N69" s="118"/>
       <c r="O69" s="23"/>
     </row>
     <row r="70" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I70" s="80" t="s">
+      <c r="I70" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="J70" s="81"/>
-      <c r="K70" s="81"/>
-      <c r="L70" s="81"/>
-      <c r="M70" s="81"/>
-      <c r="N70" s="81"/>
-      <c r="O70" s="82"/>
+      <c r="J70" s="82"/>
+      <c r="K70" s="82"/>
+      <c r="L70" s="82"/>
+      <c r="M70" s="82"/>
+      <c r="N70" s="82"/>
+      <c r="O70" s="83"/>
     </row>
     <row r="71" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I71" s="12" t="s">
@@ -5484,14 +5489,14 @@
       </c>
     </row>
     <row r="72" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I72" s="90" t="s">
+      <c r="I72" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J72" s="91"/>
-      <c r="K72" s="91"/>
-      <c r="L72" s="91"/>
-      <c r="M72" s="91"/>
-      <c r="N72" s="91"/>
+      <c r="J72" s="92"/>
+      <c r="K72" s="92"/>
+      <c r="L72" s="92"/>
+      <c r="M72" s="92"/>
+      <c r="N72" s="92"/>
       <c r="O72" s="22"/>
     </row>
     <row r="73" spans="9:15" x14ac:dyDescent="0.2">
@@ -5562,51 +5567,51 @@
       </c>
     </row>
     <row r="76" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I76" s="90" t="s">
+      <c r="I76" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="J76" s="91"/>
-      <c r="K76" s="91"/>
-      <c r="L76" s="91"/>
-      <c r="M76" s="91"/>
-      <c r="N76" s="91"/>
+      <c r="J76" s="92"/>
+      <c r="K76" s="92"/>
+      <c r="L76" s="92"/>
+      <c r="M76" s="92"/>
+      <c r="N76" s="92"/>
       <c r="O76" s="22"/>
     </row>
     <row r="77" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I77" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J77" s="91" t="s">
+      <c r="J77" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="K77" s="91"/>
-      <c r="L77" s="91"/>
-      <c r="M77" s="91"/>
-      <c r="N77" s="91"/>
+      <c r="K77" s="92"/>
+      <c r="L77" s="92"/>
+      <c r="M77" s="92"/>
+      <c r="N77" s="92"/>
       <c r="O77" s="22"/>
     </row>
     <row r="78" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I78" s="13">
         <v>1</v>
       </c>
-      <c r="J78" s="104" t="s">
+      <c r="J78" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="K78" s="104"/>
-      <c r="L78" s="104"/>
-      <c r="M78" s="104"/>
-      <c r="N78" s="104"/>
+      <c r="K78" s="105"/>
+      <c r="L78" s="105"/>
+      <c r="M78" s="105"/>
+      <c r="N78" s="105"/>
       <c r="O78" s="22"/>
     </row>
     <row r="79" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I79" s="99" t="s">
+      <c r="I79" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="J79" s="100"/>
-      <c r="K79" s="100"/>
-      <c r="L79" s="100"/>
-      <c r="M79" s="100"/>
-      <c r="N79" s="100"/>
+      <c r="J79" s="101"/>
+      <c r="K79" s="101"/>
+      <c r="L79" s="101"/>
+      <c r="M79" s="101"/>
+      <c r="N79" s="101"/>
       <c r="O79" s="22"/>
     </row>
     <row r="80" spans="9:15" x14ac:dyDescent="0.2">
@@ -5656,64 +5661,64 @@
       </c>
     </row>
     <row r="82" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I82" s="99" t="s">
+      <c r="I82" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="J82" s="100"/>
-      <c r="K82" s="100"/>
-      <c r="L82" s="100"/>
-      <c r="M82" s="100"/>
-      <c r="N82" s="100"/>
+      <c r="J82" s="101"/>
+      <c r="K82" s="101"/>
+      <c r="L82" s="101"/>
+      <c r="M82" s="101"/>
+      <c r="N82" s="101"/>
       <c r="O82" s="22"/>
     </row>
     <row r="83" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I83" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J83" s="100" t="s">
+      <c r="J83" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="K83" s="100"/>
-      <c r="L83" s="100"/>
-      <c r="M83" s="100"/>
-      <c r="N83" s="100"/>
+      <c r="K83" s="101"/>
+      <c r="L83" s="101"/>
+      <c r="M83" s="101"/>
+      <c r="N83" s="101"/>
       <c r="O83" s="22"/>
     </row>
     <row r="84" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I84" s="13">
         <v>1</v>
       </c>
-      <c r="J84" s="104" t="s">
+      <c r="J84" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="K84" s="104"/>
-      <c r="L84" s="104"/>
-      <c r="M84" s="104"/>
-      <c r="N84" s="104"/>
+      <c r="K84" s="105"/>
+      <c r="L84" s="105"/>
+      <c r="M84" s="105"/>
+      <c r="N84" s="105"/>
       <c r="O84" s="22"/>
     </row>
     <row r="85" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I85" s="13">
         <v>2</v>
       </c>
-      <c r="J85" s="104" t="s">
+      <c r="J85" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="K85" s="104"/>
-      <c r="L85" s="104"/>
-      <c r="M85" s="104"/>
-      <c r="N85" s="104"/>
+      <c r="K85" s="105"/>
+      <c r="L85" s="105"/>
+      <c r="M85" s="105"/>
+      <c r="N85" s="105"/>
       <c r="O85" s="22"/>
     </row>
     <row r="86" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I86" s="105" t="s">
+      <c r="I86" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="J86" s="95"/>
-      <c r="K86" s="95"/>
-      <c r="L86" s="95"/>
-      <c r="M86" s="95"/>
-      <c r="N86" s="95"/>
+      <c r="J86" s="96"/>
+      <c r="K86" s="96"/>
+      <c r="L86" s="96"/>
+      <c r="M86" s="96"/>
+      <c r="N86" s="96"/>
       <c r="O86" s="22"/>
     </row>
     <row r="87" spans="9:15" x14ac:dyDescent="0.2">
@@ -5874,53 +5879,53 @@
       </c>
     </row>
     <row r="94" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I94" s="105" t="s">
+      <c r="I94" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="J94" s="95"/>
-      <c r="K94" s="95"/>
-      <c r="L94" s="95"/>
-      <c r="M94" s="95"/>
-      <c r="N94" s="95"/>
+      <c r="J94" s="96"/>
+      <c r="K94" s="96"/>
+      <c r="L94" s="96"/>
+      <c r="M94" s="96"/>
+      <c r="N94" s="96"/>
       <c r="O94" s="22"/>
     </row>
     <row r="95" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I95" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J95" s="95" t="s">
+      <c r="J95" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="K95" s="95"/>
-      <c r="L95" s="95"/>
-      <c r="M95" s="95"/>
-      <c r="N95" s="95"/>
+      <c r="K95" s="96"/>
+      <c r="L95" s="96"/>
+      <c r="M95" s="96"/>
+      <c r="N95" s="96"/>
       <c r="O95" s="22"/>
     </row>
     <row r="96" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I96" s="13">
         <v>1</v>
       </c>
-      <c r="J96" s="104" t="s">
+      <c r="J96" s="105" t="s">
         <v>119</v>
       </c>
-      <c r="K96" s="104"/>
-      <c r="L96" s="104"/>
-      <c r="M96" s="104"/>
-      <c r="N96" s="104"/>
+      <c r="K96" s="105"/>
+      <c r="L96" s="105"/>
+      <c r="M96" s="105"/>
+      <c r="N96" s="105"/>
       <c r="O96" s="22"/>
     </row>
     <row r="97" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I97" s="14">
         <v>2</v>
       </c>
-      <c r="J97" s="117" t="s">
+      <c r="J97" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="K97" s="117"/>
-      <c r="L97" s="117"/>
-      <c r="M97" s="117"/>
-      <c r="N97" s="117"/>
+      <c r="K97" s="118"/>
+      <c r="L97" s="118"/>
+      <c r="M97" s="118"/>
+      <c r="N97" s="118"/>
       <c r="O97" s="23"/>
     </row>
   </sheetData>
@@ -6051,8 +6056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6072,51 +6077,51 @@
   <sheetData>
     <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="131" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="133"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="81" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="80" t="s">
+      <c r="C3" s="134"/>
+      <c r="D3" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
-      <c r="H3" s="80" t="s">
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
+      <c r="H3" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="83"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -6307,10 +6312,10 @@
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="133"/>
+      <c r="C8" s="134"/>
       <c r="D8" s="47" t="s">
         <v>16</v>
       </c>
@@ -6485,10 +6490,10 @@
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="82"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="41" t="s">
         <v>24</v>
       </c>
@@ -6708,7 +6713,9 @@
       <c r="N17" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O17" s="30"/>
+      <c r="O17" s="135" t="s">
+        <v>229</v>
+      </c>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
       <c r="R17" s="30"/>
@@ -6717,10 +6724,10 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="82"/>
+      <c r="C18" s="83"/>
       <c r="H18" s="47" t="s">
         <v>259</v>
       </c>
@@ -6742,7 +6749,9 @@
       <c r="N18" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O18" s="30"/>
+      <c r="O18" s="135" t="s">
+        <v>229</v>
+      </c>
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
       <c r="R18" s="30"/>
@@ -6887,14 +6896,14 @@
       <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="81" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="83"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
@@ -7174,51 +7183,51 @@
   <sheetData>
     <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="131" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="133"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="81" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="80" t="s">
+      <c r="C3" s="134"/>
+      <c r="D3" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
-      <c r="H3" s="80" t="s">
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
+      <c r="H3" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="83"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -7409,10 +7418,10 @@
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="82"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="47" t="s">
         <v>16</v>
       </c>
@@ -7587,10 +7596,10 @@
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="82"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="41" t="s">
         <v>24</v>
       </c>
@@ -7831,10 +7840,10 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="82"/>
+      <c r="C18" s="83"/>
       <c r="H18" s="47"/>
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
@@ -7929,14 +7938,14 @@
       <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="81" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="83"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
@@ -8216,51 +8225,51 @@
   <sheetData>
     <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="131" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="133"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="81" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="80" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
-      <c r="H3" s="80" t="s">
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
+      <c r="H3" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="83"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -8409,10 +8418,10 @@
       <c r="S7" s="43"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="82"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="47" t="s">
         <v>16</v>
       </c>
@@ -8539,10 +8548,10 @@
       <c r="S11" s="43"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="82"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="47" t="s">
         <v>24</v>
       </c>
@@ -8699,10 +8708,10 @@
       <c r="S17" s="43"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="82"/>
+      <c r="C18" s="83"/>
       <c r="H18" s="47" t="s">
         <v>259</v>
       </c>
@@ -8817,14 +8826,14 @@
       <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="81" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="83"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">

--- a/Management/Production_Progress_Oct_2017.xlsx
+++ b/Management/Production_Progress_Oct_2017.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="297">
   <si>
     <t>Production Name:</t>
   </si>
@@ -914,13 +914,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1512,394 +1518,397 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2533,11 +2542,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="618790400"/>
-        <c:axId val="608032960"/>
+        <c:axId val="136977920"/>
+        <c:axId val="131980032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="618790400"/>
+        <c:axId val="136977920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2546,7 +2555,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="608032960"/>
+        <c:crossAx val="131980032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2554,7 +2563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="608032960"/>
+        <c:axId val="131980032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2570,7 +2579,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="618790400"/>
+        <c:crossAx val="136977920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2793,11 +2802,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="637447680"/>
-        <c:axId val="637231680"/>
+        <c:axId val="137408000"/>
+        <c:axId val="137299072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="637447680"/>
+        <c:axId val="137408000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2806,7 +2815,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="637231680"/>
+        <c:crossAx val="137299072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2814,7 +2823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="637231680"/>
+        <c:axId val="137299072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2825,7 +2834,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="637447680"/>
+        <c:crossAx val="137408000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3049,11 +3058,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="637615616"/>
-        <c:axId val="637233984"/>
+        <c:axId val="137645568"/>
+        <c:axId val="137301376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="637615616"/>
+        <c:axId val="137645568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3062,7 +3071,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="637233984"/>
+        <c:crossAx val="137301376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3070,7 +3079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="637233984"/>
+        <c:axId val="137301376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3081,7 +3090,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="637615616"/>
+        <c:crossAx val="137645568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3304,11 +3313,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="637672960"/>
-        <c:axId val="637236288"/>
+        <c:axId val="137895424"/>
+        <c:axId val="137303680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="637672960"/>
+        <c:axId val="137895424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3317,7 +3326,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="637236288"/>
+        <c:crossAx val="137303680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3325,7 +3334,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="637236288"/>
+        <c:axId val="137303680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3336,7 +3345,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="637672960"/>
+        <c:crossAx val="137895424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3377,7 +3386,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3420,7 +3429,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3461,7 +3470,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F86464-62E3-40C4-9822-D864B84BC108}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9F86464-62E3-40C4-9822-D864B84BC108}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3504,7 +3513,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3837,79 +3846,79 @@
   <sheetData>
     <row r="1" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="69"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72" t="s">
+      <c r="C3" s="117"/>
+      <c r="D3" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="74" t="s">
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="76"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="122"/>
     </row>
     <row r="4" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79" t="s">
+      <c r="C4" s="124"/>
+      <c r="D4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="81" t="s">
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="83"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="75"/>
     </row>
     <row r="5" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="86" t="s">
+      <c r="C5" s="128"/>
+      <c r="D5" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="130"/>
       <c r="I5" s="12" t="s">
         <v>69</v>
       </c>
@@ -3933,23 +3942,23 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
       <c r="O6" s="22"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
@@ -4052,14 +4061,14 @@
         <v>40</v>
       </c>
       <c r="H9" s="22"/>
-      <c r="I9" s="93" t="s">
+      <c r="I9" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="66"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="112"/>
       <c r="O9" s="22"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
@@ -4083,13 +4092,13 @@
       <c r="I10" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="64" t="s">
+      <c r="J10" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="66"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="112"/>
       <c r="O10" s="22"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
@@ -4111,13 +4120,13 @@
       <c r="I11" s="13">
         <v>1</v>
       </c>
-      <c r="J11" s="97" t="s">
+      <c r="J11" s="94" t="s">
         <v>177</v>
       </c>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="99"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="95"/>
       <c r="O11" s="22"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
@@ -4138,14 +4147,14 @@
         <v>40</v>
       </c>
       <c r="H12" s="22"/>
-      <c r="I12" s="100" t="s">
+      <c r="I12" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
       <c r="O12" s="22"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
@@ -4286,58 +4295,58 @@
       <c r="H16" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="100" t="s">
+      <c r="I16" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
       <c r="O16" s="22"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="90"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="103"/>
       <c r="I17" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="101" t="s">
+      <c r="J17" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
       <c r="O17" s="22"/>
     </row>
     <row r="18" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="104"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="106"/>
       <c r="I18" s="13">
         <v>1</v>
       </c>
-      <c r="J18" s="105" t="s">
+      <c r="J18" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="105"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
       <c r="O18" s="22"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
@@ -4365,13 +4374,13 @@
       <c r="I19" s="13">
         <v>2</v>
       </c>
-      <c r="J19" s="105" t="s">
+      <c r="J19" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="105"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="105"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
       <c r="O19" s="22"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
@@ -4397,14 +4406,14 @@
         <f>SUM(E20:G20)</f>
         <v>1</v>
       </c>
-      <c r="I20" s="106" t="s">
+      <c r="I20" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
       <c r="O20" s="22"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
@@ -4526,31 +4535,31 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="106" t="s">
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="J24" s="96"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="96"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
       <c r="O24" s="22"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
       <c r="E25" s="11">
         <f>SUM(E28,E31,E34,E37)</f>
         <v>31</v>
@@ -4568,73 +4577,73 @@
       <c r="I25" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="96" t="s">
+      <c r="J25" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
       <c r="O25" s="22"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="112"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="98"/>
       <c r="I26" s="13">
         <v>1</v>
       </c>
-      <c r="J26" s="105" t="s">
+      <c r="J26" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="K26" s="105"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="105"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
       <c r="O26" s="22"/>
     </row>
     <row r="27" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="113" t="s">
+      <c r="C27" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="115" t="s">
+      <c r="D27" s="88"/>
+      <c r="E27" s="91" t="s">
         <v>291</v>
       </c>
-      <c r="F27" s="116"/>
-      <c r="G27" s="115" t="s">
+      <c r="F27" s="92"/>
+      <c r="G27" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="117"/>
+      <c r="H27" s="99"/>
       <c r="I27" s="14">
         <v>2</v>
       </c>
-      <c r="J27" s="118" t="s">
+      <c r="J27" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="K27" s="118"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="118"/>
-      <c r="N27" s="118"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
       <c r="O27" s="23"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="113" t="s">
+      <c r="C28" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="114"/>
+      <c r="D28" s="88"/>
       <c r="E28" s="10">
         <v>8</v>
       </c>
@@ -4648,26 +4657,26 @@
       <c r="H28" s="8">
         <v>31</v>
       </c>
-      <c r="I28" s="81" t="s">
+      <c r="I28" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="83"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="75"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="119" t="s">
+      <c r="B29" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="120"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
       <c r="I29" s="12" t="s">
         <v>69</v>
       </c>
@@ -4694,36 +4703,36 @@
       <c r="B30" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="97" t="s">
+      <c r="C30" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="99"/>
-      <c r="E30" s="115" t="s">
+      <c r="D30" s="95"/>
+      <c r="E30" s="91" t="s">
         <v>292</v>
       </c>
-      <c r="F30" s="116"/>
-      <c r="G30" s="115" t="s">
+      <c r="F30" s="92"/>
+      <c r="G30" s="91" t="s">
         <v>168</v>
       </c>
-      <c r="H30" s="121"/>
-      <c r="I30" s="91" t="s">
+      <c r="H30" s="93"/>
+      <c r="I30" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="J30" s="92"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
       <c r="O30" s="22"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="97" t="s">
+      <c r="C31" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="D31" s="99"/>
+      <c r="D31" s="95"/>
       <c r="E31" s="10">
         <v>7</v>
       </c>
@@ -4760,15 +4769,15 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="119" t="s">
+      <c r="B32" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="120"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="120"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="120"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
       <c r="I32" s="13">
         <v>2</v>
       </c>
@@ -4795,36 +4804,36 @@
       <c r="B33" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="113" t="s">
+      <c r="C33" s="87" t="s">
         <v>173</v>
       </c>
-      <c r="D33" s="114"/>
-      <c r="E33" s="115" t="s">
+      <c r="D33" s="88"/>
+      <c r="E33" s="91" t="s">
         <v>293</v>
       </c>
-      <c r="F33" s="116"/>
-      <c r="G33" s="115" t="s">
+      <c r="F33" s="92"/>
+      <c r="G33" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="H33" s="121"/>
-      <c r="I33" s="91" t="s">
+      <c r="H33" s="93"/>
+      <c r="I33" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="J33" s="92"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
       <c r="O33" s="22"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="113" t="s">
+      <c r="C34" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="D34" s="114"/>
+      <c r="D34" s="88"/>
       <c r="E34" s="10">
         <v>4</v>
       </c>
@@ -4841,71 +4850,71 @@
       <c r="I34" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J34" s="92" t="s">
+      <c r="J34" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="K34" s="92"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="92"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
       <c r="O34" s="22"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="119" t="s">
+      <c r="B35" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="120"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="120"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="120"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
       <c r="I35" s="13">
         <v>1</v>
       </c>
-      <c r="J35" s="105" t="s">
+      <c r="J35" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
       <c r="O35" s="22"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="113" t="s">
+      <c r="C36" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="D36" s="114"/>
-      <c r="E36" s="115" t="s">
+      <c r="D36" s="88"/>
+      <c r="E36" s="91" t="s">
         <v>294</v>
       </c>
-      <c r="F36" s="116"/>
-      <c r="G36" s="115" t="s">
+      <c r="F36" s="92"/>
+      <c r="G36" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="H36" s="121"/>
-      <c r="I36" s="100" t="s">
+      <c r="H36" s="93"/>
+      <c r="I36" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="J36" s="101"/>
-      <c r="K36" s="101"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="101"/>
-      <c r="N36" s="101"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="69"/>
       <c r="O36" s="22"/>
     </row>
     <row r="37" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="122" t="s">
+      <c r="C37" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="D37" s="123"/>
+      <c r="D37" s="77"/>
       <c r="E37" s="21">
         <v>12</v>
       </c>
@@ -4942,15 +4951,15 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="124"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="80"/>
       <c r="I38" s="13">
         <v>2</v>
       </c>
@@ -4974,82 +4983,82 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="125" t="s">
+      <c r="B39" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="126"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="127"/>
-      <c r="I39" s="100" t="s">
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="J39" s="101"/>
-      <c r="K39" s="101"/>
-      <c r="L39" s="101"/>
-      <c r="M39" s="101"/>
-      <c r="N39" s="101"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="69"/>
       <c r="O39" s="22"/>
     </row>
     <row r="40" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="128" t="s">
+      <c r="B40" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="129"/>
-      <c r="D40" s="129"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="129"/>
-      <c r="G40" s="129"/>
-      <c r="H40" s="130"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="86"/>
       <c r="I40" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J40" s="101" t="s">
+      <c r="J40" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="K40" s="101"/>
-      <c r="L40" s="101"/>
-      <c r="M40" s="101"/>
-      <c r="N40" s="101"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="69"/>
       <c r="O40" s="22"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I41" s="13">
         <v>1</v>
       </c>
-      <c r="J41" s="105" t="s">
+      <c r="J41" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="K41" s="105"/>
-      <c r="L41" s="105"/>
-      <c r="M41" s="105"/>
-      <c r="N41" s="105"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="67"/>
       <c r="O41" s="22"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I42" s="13">
         <v>2</v>
       </c>
-      <c r="J42" s="105" t="s">
+      <c r="J42" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="K42" s="105"/>
-      <c r="L42" s="105"/>
-      <c r="M42" s="105"/>
-      <c r="N42" s="105"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67"/>
       <c r="O42" s="22"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I43" s="106" t="s">
+      <c r="I43" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="71"/>
       <c r="O43" s="22"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
@@ -5122,65 +5131,65 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I47" s="106" t="s">
+      <c r="I47" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="J47" s="96"/>
-      <c r="K47" s="96"/>
-      <c r="L47" s="96"/>
-      <c r="M47" s="96"/>
-      <c r="N47" s="96"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="71"/>
       <c r="O47" s="22"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I48" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J48" s="96" t="s">
+      <c r="J48" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="K48" s="96"/>
-      <c r="L48" s="96"/>
-      <c r="M48" s="96"/>
-      <c r="N48" s="96"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="71"/>
       <c r="O48" s="22"/>
     </row>
     <row r="49" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I49" s="13">
         <v>1</v>
       </c>
-      <c r="J49" s="105" t="s">
+      <c r="J49" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="K49" s="105"/>
-      <c r="L49" s="105"/>
-      <c r="M49" s="105"/>
-      <c r="N49" s="105"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="67"/>
+      <c r="M49" s="67"/>
+      <c r="N49" s="67"/>
       <c r="O49" s="22"/>
     </row>
     <row r="50" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I50" s="14">
         <v>2</v>
       </c>
-      <c r="J50" s="118" t="s">
+      <c r="J50" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="K50" s="118"/>
-      <c r="L50" s="118"/>
-      <c r="M50" s="118"/>
-      <c r="N50" s="118"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="65"/>
+      <c r="M50" s="65"/>
+      <c r="N50" s="65"/>
       <c r="O50" s="23"/>
     </row>
     <row r="51" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I51" s="81" t="s">
+      <c r="I51" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="J51" s="82"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="82"/>
-      <c r="O51" s="83"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="74"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
+      <c r="O51" s="75"/>
     </row>
     <row r="52" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I52" s="12" t="s">
@@ -5206,14 +5215,14 @@
       </c>
     </row>
     <row r="53" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I53" s="91" t="s">
+      <c r="I53" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="J53" s="92"/>
-      <c r="K53" s="92"/>
-      <c r="L53" s="92"/>
-      <c r="M53" s="92"/>
-      <c r="N53" s="92"/>
+      <c r="J53" s="66"/>
+      <c r="K53" s="66"/>
+      <c r="L53" s="66"/>
+      <c r="M53" s="66"/>
+      <c r="N53" s="66"/>
       <c r="O53" s="26"/>
     </row>
     <row r="54" spans="9:15" x14ac:dyDescent="0.2">
@@ -5240,51 +5249,51 @@
       </c>
     </row>
     <row r="55" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I55" s="91" t="s">
+      <c r="I55" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="J55" s="92"/>
-      <c r="K55" s="92"/>
-      <c r="L55" s="92"/>
-      <c r="M55" s="92"/>
-      <c r="N55" s="92"/>
+      <c r="J55" s="66"/>
+      <c r="K55" s="66"/>
+      <c r="L55" s="66"/>
+      <c r="M55" s="66"/>
+      <c r="N55" s="66"/>
       <c r="O55" s="22"/>
     </row>
     <row r="56" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I56" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J56" s="92" t="s">
+      <c r="J56" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="K56" s="92"/>
-      <c r="L56" s="92"/>
-      <c r="M56" s="92"/>
-      <c r="N56" s="92"/>
+      <c r="K56" s="66"/>
+      <c r="L56" s="66"/>
+      <c r="M56" s="66"/>
+      <c r="N56" s="66"/>
       <c r="O56" s="22"/>
     </row>
     <row r="57" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I57" s="13">
         <v>1</v>
       </c>
-      <c r="J57" s="105" t="s">
+      <c r="J57" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="K57" s="105"/>
-      <c r="L57" s="105"/>
-      <c r="M57" s="105"/>
-      <c r="N57" s="105"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="67"/>
+      <c r="M57" s="67"/>
+      <c r="N57" s="67"/>
       <c r="O57" s="22"/>
     </row>
     <row r="58" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I58" s="100" t="s">
+      <c r="I58" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="J58" s="101"/>
-      <c r="K58" s="101"/>
-      <c r="L58" s="101"/>
-      <c r="M58" s="101"/>
-      <c r="N58" s="101"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="69"/>
+      <c r="L58" s="69"/>
+      <c r="M58" s="69"/>
+      <c r="N58" s="69"/>
       <c r="O58" s="22"/>
     </row>
     <row r="59" spans="9:15" x14ac:dyDescent="0.2">
@@ -5311,51 +5320,51 @@
       </c>
     </row>
     <row r="60" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I60" s="100" t="s">
+      <c r="I60" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="J60" s="101"/>
-      <c r="K60" s="101"/>
-      <c r="L60" s="101"/>
-      <c r="M60" s="101"/>
-      <c r="N60" s="101"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="69"/>
+      <c r="M60" s="69"/>
+      <c r="N60" s="69"/>
       <c r="O60" s="22"/>
     </row>
     <row r="61" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I61" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J61" s="101" t="s">
+      <c r="J61" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="K61" s="101"/>
-      <c r="L61" s="101"/>
-      <c r="M61" s="101"/>
-      <c r="N61" s="101"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="69"/>
+      <c r="M61" s="69"/>
+      <c r="N61" s="69"/>
       <c r="O61" s="22"/>
     </row>
     <row r="62" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I62" s="13">
         <v>1</v>
       </c>
-      <c r="J62" s="105" t="s">
+      <c r="J62" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="K62" s="105"/>
-      <c r="L62" s="105"/>
-      <c r="M62" s="105"/>
-      <c r="N62" s="105"/>
+      <c r="K62" s="67"/>
+      <c r="L62" s="67"/>
+      <c r="M62" s="67"/>
+      <c r="N62" s="67"/>
       <c r="O62" s="22"/>
     </row>
     <row r="63" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I63" s="106" t="s">
+      <c r="I63" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="J63" s="96"/>
-      <c r="K63" s="96"/>
-      <c r="L63" s="96"/>
-      <c r="M63" s="96"/>
-      <c r="N63" s="96"/>
+      <c r="J63" s="71"/>
+      <c r="K63" s="71"/>
+      <c r="L63" s="71"/>
+      <c r="M63" s="71"/>
+      <c r="N63" s="71"/>
       <c r="O63" s="22"/>
     </row>
     <row r="64" spans="9:15" x14ac:dyDescent="0.2">
@@ -5405,65 +5414,65 @@
       </c>
     </row>
     <row r="66" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I66" s="106" t="s">
+      <c r="I66" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="J66" s="96"/>
-      <c r="K66" s="96"/>
-      <c r="L66" s="96"/>
-      <c r="M66" s="96"/>
-      <c r="N66" s="96"/>
+      <c r="J66" s="71"/>
+      <c r="K66" s="71"/>
+      <c r="L66" s="71"/>
+      <c r="M66" s="71"/>
+      <c r="N66" s="71"/>
       <c r="O66" s="22"/>
     </row>
     <row r="67" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I67" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J67" s="96" t="s">
+      <c r="J67" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="K67" s="96"/>
-      <c r="L67" s="96"/>
-      <c r="M67" s="96"/>
-      <c r="N67" s="96"/>
+      <c r="K67" s="71"/>
+      <c r="L67" s="71"/>
+      <c r="M67" s="71"/>
+      <c r="N67" s="71"/>
       <c r="O67" s="22"/>
     </row>
     <row r="68" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I68" s="13">
         <v>1</v>
       </c>
-      <c r="J68" s="105" t="s">
+      <c r="J68" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="K68" s="105"/>
-      <c r="L68" s="105"/>
-      <c r="M68" s="105"/>
-      <c r="N68" s="105"/>
+      <c r="K68" s="67"/>
+      <c r="L68" s="67"/>
+      <c r="M68" s="67"/>
+      <c r="N68" s="67"/>
       <c r="O68" s="22"/>
     </row>
     <row r="69" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I69" s="14">
         <v>2</v>
       </c>
-      <c r="J69" s="118" t="s">
+      <c r="J69" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="K69" s="118"/>
-      <c r="L69" s="118"/>
-      <c r="M69" s="118"/>
-      <c r="N69" s="118"/>
+      <c r="K69" s="65"/>
+      <c r="L69" s="65"/>
+      <c r="M69" s="65"/>
+      <c r="N69" s="65"/>
       <c r="O69" s="23"/>
     </row>
     <row r="70" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I70" s="81" t="s">
+      <c r="I70" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="J70" s="82"/>
-      <c r="K70" s="82"/>
-      <c r="L70" s="82"/>
-      <c r="M70" s="82"/>
-      <c r="N70" s="82"/>
-      <c r="O70" s="83"/>
+      <c r="J70" s="74"/>
+      <c r="K70" s="74"/>
+      <c r="L70" s="74"/>
+      <c r="M70" s="74"/>
+      <c r="N70" s="74"/>
+      <c r="O70" s="75"/>
     </row>
     <row r="71" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I71" s="12" t="s">
@@ -5489,14 +5498,14 @@
       </c>
     </row>
     <row r="72" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I72" s="91" t="s">
+      <c r="I72" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="J72" s="92"/>
-      <c r="K72" s="92"/>
-      <c r="L72" s="92"/>
-      <c r="M72" s="92"/>
-      <c r="N72" s="92"/>
+      <c r="J72" s="66"/>
+      <c r="K72" s="66"/>
+      <c r="L72" s="66"/>
+      <c r="M72" s="66"/>
+      <c r="N72" s="66"/>
       <c r="O72" s="22"/>
     </row>
     <row r="73" spans="9:15" x14ac:dyDescent="0.2">
@@ -5567,51 +5576,51 @@
       </c>
     </row>
     <row r="76" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I76" s="91" t="s">
+      <c r="I76" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="J76" s="92"/>
-      <c r="K76" s="92"/>
-      <c r="L76" s="92"/>
-      <c r="M76" s="92"/>
-      <c r="N76" s="92"/>
+      <c r="J76" s="66"/>
+      <c r="K76" s="66"/>
+      <c r="L76" s="66"/>
+      <c r="M76" s="66"/>
+      <c r="N76" s="66"/>
       <c r="O76" s="22"/>
     </row>
     <row r="77" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I77" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J77" s="92" t="s">
+      <c r="J77" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="K77" s="92"/>
-      <c r="L77" s="92"/>
-      <c r="M77" s="92"/>
-      <c r="N77" s="92"/>
+      <c r="K77" s="66"/>
+      <c r="L77" s="66"/>
+      <c r="M77" s="66"/>
+      <c r="N77" s="66"/>
       <c r="O77" s="22"/>
     </row>
     <row r="78" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I78" s="13">
         <v>1</v>
       </c>
-      <c r="J78" s="105" t="s">
+      <c r="J78" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="K78" s="105"/>
-      <c r="L78" s="105"/>
-      <c r="M78" s="105"/>
-      <c r="N78" s="105"/>
+      <c r="K78" s="67"/>
+      <c r="L78" s="67"/>
+      <c r="M78" s="67"/>
+      <c r="N78" s="67"/>
       <c r="O78" s="22"/>
     </row>
     <row r="79" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I79" s="100" t="s">
+      <c r="I79" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="J79" s="101"/>
-      <c r="K79" s="101"/>
-      <c r="L79" s="101"/>
-      <c r="M79" s="101"/>
-      <c r="N79" s="101"/>
+      <c r="J79" s="69"/>
+      <c r="K79" s="69"/>
+      <c r="L79" s="69"/>
+      <c r="M79" s="69"/>
+      <c r="N79" s="69"/>
       <c r="O79" s="22"/>
     </row>
     <row r="80" spans="9:15" x14ac:dyDescent="0.2">
@@ -5661,64 +5670,64 @@
       </c>
     </row>
     <row r="82" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I82" s="100" t="s">
+      <c r="I82" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="J82" s="101"/>
-      <c r="K82" s="101"/>
-      <c r="L82" s="101"/>
-      <c r="M82" s="101"/>
-      <c r="N82" s="101"/>
+      <c r="J82" s="69"/>
+      <c r="K82" s="69"/>
+      <c r="L82" s="69"/>
+      <c r="M82" s="69"/>
+      <c r="N82" s="69"/>
       <c r="O82" s="22"/>
     </row>
     <row r="83" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I83" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J83" s="101" t="s">
+      <c r="J83" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="K83" s="101"/>
-      <c r="L83" s="101"/>
-      <c r="M83" s="101"/>
-      <c r="N83" s="101"/>
+      <c r="K83" s="69"/>
+      <c r="L83" s="69"/>
+      <c r="M83" s="69"/>
+      <c r="N83" s="69"/>
       <c r="O83" s="22"/>
     </row>
     <row r="84" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I84" s="13">
         <v>1</v>
       </c>
-      <c r="J84" s="105" t="s">
+      <c r="J84" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="K84" s="105"/>
-      <c r="L84" s="105"/>
-      <c r="M84" s="105"/>
-      <c r="N84" s="105"/>
+      <c r="K84" s="67"/>
+      <c r="L84" s="67"/>
+      <c r="M84" s="67"/>
+      <c r="N84" s="67"/>
       <c r="O84" s="22"/>
     </row>
     <row r="85" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I85" s="13">
         <v>2</v>
       </c>
-      <c r="J85" s="105" t="s">
+      <c r="J85" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="K85" s="105"/>
-      <c r="L85" s="105"/>
-      <c r="M85" s="105"/>
-      <c r="N85" s="105"/>
+      <c r="K85" s="67"/>
+      <c r="L85" s="67"/>
+      <c r="M85" s="67"/>
+      <c r="N85" s="67"/>
       <c r="O85" s="22"/>
     </row>
     <row r="86" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I86" s="106" t="s">
+      <c r="I86" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="J86" s="96"/>
-      <c r="K86" s="96"/>
-      <c r="L86" s="96"/>
-      <c r="M86" s="96"/>
-      <c r="N86" s="96"/>
+      <c r="J86" s="71"/>
+      <c r="K86" s="71"/>
+      <c r="L86" s="71"/>
+      <c r="M86" s="71"/>
+      <c r="N86" s="71"/>
       <c r="O86" s="22"/>
     </row>
     <row r="87" spans="9:15" x14ac:dyDescent="0.2">
@@ -5879,126 +5888,70 @@
       </c>
     </row>
     <row r="94" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I94" s="106" t="s">
+      <c r="I94" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="J94" s="96"/>
-      <c r="K94" s="96"/>
-      <c r="L94" s="96"/>
-      <c r="M94" s="96"/>
-      <c r="N94" s="96"/>
+      <c r="J94" s="71"/>
+      <c r="K94" s="71"/>
+      <c r="L94" s="71"/>
+      <c r="M94" s="71"/>
+      <c r="N94" s="71"/>
       <c r="O94" s="22"/>
     </row>
     <row r="95" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I95" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J95" s="96" t="s">
+      <c r="J95" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="K95" s="96"/>
-      <c r="L95" s="96"/>
-      <c r="M95" s="96"/>
-      <c r="N95" s="96"/>
+      <c r="K95" s="71"/>
+      <c r="L95" s="71"/>
+      <c r="M95" s="71"/>
+      <c r="N95" s="71"/>
       <c r="O95" s="22"/>
     </row>
     <row r="96" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I96" s="13">
         <v>1</v>
       </c>
-      <c r="J96" s="105" t="s">
+      <c r="J96" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="K96" s="105"/>
-      <c r="L96" s="105"/>
-      <c r="M96" s="105"/>
-      <c r="N96" s="105"/>
+      <c r="K96" s="67"/>
+      <c r="L96" s="67"/>
+      <c r="M96" s="67"/>
+      <c r="N96" s="67"/>
       <c r="O96" s="22"/>
     </row>
     <row r="97" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I97" s="14">
         <v>2</v>
       </c>
-      <c r="J97" s="118" t="s">
+      <c r="J97" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="K97" s="118"/>
-      <c r="L97" s="118"/>
-      <c r="M97" s="118"/>
-      <c r="N97" s="118"/>
+      <c r="K97" s="65"/>
+      <c r="L97" s="65"/>
+      <c r="M97" s="65"/>
+      <c r="N97" s="65"/>
       <c r="O97" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="J77:N77"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="I79:N79"/>
-    <mergeCell ref="I82:N82"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="I86:N86"/>
-    <mergeCell ref="I94:N94"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="I76:N76"/>
-    <mergeCell ref="I58:N58"/>
-    <mergeCell ref="I60:N60"/>
-    <mergeCell ref="J61:N61"/>
-    <mergeCell ref="J62:N62"/>
-    <mergeCell ref="I63:N63"/>
-    <mergeCell ref="I66:N66"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="J68:N68"/>
-    <mergeCell ref="J69:N69"/>
-    <mergeCell ref="I70:O70"/>
-    <mergeCell ref="I72:N72"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="J48:N48"/>
-    <mergeCell ref="J49:N49"/>
-    <mergeCell ref="J50:N50"/>
-    <mergeCell ref="I51:O51"/>
-    <mergeCell ref="I53:N53"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="J56:N56"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:O28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="I9:N9"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="J25:N25"/>
     <mergeCell ref="J11:N11"/>
@@ -6013,19 +5966,75 @@
     <mergeCell ref="B23:H23"/>
     <mergeCell ref="B24:H24"/>
     <mergeCell ref="I24:N24"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:O28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="J49:N49"/>
+    <mergeCell ref="J50:N50"/>
+    <mergeCell ref="I51:O51"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="J56:N56"/>
+    <mergeCell ref="I76:N76"/>
+    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="I60:N60"/>
+    <mergeCell ref="J61:N61"/>
+    <mergeCell ref="J62:N62"/>
+    <mergeCell ref="I63:N63"/>
+    <mergeCell ref="I66:N66"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="J69:N69"/>
+    <mergeCell ref="I70:O70"/>
+    <mergeCell ref="I72:N72"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="I79:N79"/>
+    <mergeCell ref="I82:N82"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="I86:N86"/>
+    <mergeCell ref="I94:N94"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J96:N96"/>
   </mergeCells>
   <conditionalFormatting sqref="H20:H22">
     <cfRule type="cellIs" dxfId="43" priority="1" operator="between">
@@ -6057,7 +6066,7 @@
   <dimension ref="B1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6077,51 +6086,51 @@
   <sheetData>
     <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="132" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="134"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="135"/>
+      <c r="D3" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
-      <c r="H3" s="81" t="s">
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="H3" s="73" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="83"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="75"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -6312,10 +6321,10 @@
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="73" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="134"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="47" t="s">
         <v>16</v>
       </c>
@@ -6490,10 +6499,10 @@
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="41" t="s">
         <v>24</v>
       </c>
@@ -6713,21 +6722,27 @@
       <c r="N17" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O17" s="135" t="s">
+      <c r="O17" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
+      <c r="P17" s="136" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q17" s="136" t="s">
+        <v>229</v>
+      </c>
+      <c r="R17" s="136" t="s">
+        <v>229</v>
+      </c>
       <c r="S17" s="43" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="83"/>
+      <c r="C18" s="75"/>
       <c r="H18" s="47" t="s">
         <v>259</v>
       </c>
@@ -6749,12 +6764,18 @@
       <c r="N18" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O18" s="135" t="s">
+      <c r="O18" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
+      <c r="P18" s="136" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q18" s="136" t="s">
+        <v>229</v>
+      </c>
+      <c r="R18" s="136" t="s">
+        <v>229</v>
+      </c>
       <c r="S18" s="43" t="s">
         <v>260</v>
       </c>
@@ -6896,14 +6917,14 @@
       <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="83"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="75"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
@@ -7183,51 +7204,51 @@
   <sheetData>
     <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="132" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="134"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="135"/>
+      <c r="D3" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
-      <c r="H3" s="81" t="s">
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="H3" s="73" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="83"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="75"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -7418,10 +7439,10 @@
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="73" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="83"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="47" t="s">
         <v>16</v>
       </c>
@@ -7596,10 +7617,10 @@
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="41" t="s">
         <v>24</v>
       </c>
@@ -7840,10 +7861,10 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="83"/>
+      <c r="C18" s="75"/>
       <c r="H18" s="47"/>
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
@@ -7938,14 +7959,14 @@
       <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="83"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="75"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
@@ -8225,51 +8246,51 @@
   <sheetData>
     <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="132" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="134"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
-      <c r="H3" s="81" t="s">
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="H3" s="73" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="83"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="75"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -8418,10 +8439,10 @@
       <c r="S7" s="43"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="73" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="83"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="47" t="s">
         <v>16</v>
       </c>
@@ -8548,10 +8569,10 @@
       <c r="S11" s="43"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="47" t="s">
         <v>24</v>
       </c>
@@ -8708,10 +8729,10 @@
       <c r="S17" s="43"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="83"/>
+      <c r="C18" s="75"/>
       <c r="H18" s="47" t="s">
         <v>259</v>
       </c>
@@ -8826,14 +8847,14 @@
       <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="83"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="75"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">

--- a/Management/Production_Progress_Oct_2017.xlsx
+++ b/Management/Production_Progress_Oct_2017.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="297">
   <si>
     <t>Production Name:</t>
   </si>
@@ -914,13 +914,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1518,397 +1524,400 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2542,11 +2551,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136977920"/>
-        <c:axId val="131980032"/>
+        <c:axId val="155852288"/>
+        <c:axId val="185391872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136977920"/>
+        <c:axId val="155852288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2555,7 +2564,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131980032"/>
+        <c:crossAx val="185391872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2563,7 +2572,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131980032"/>
+        <c:axId val="185391872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2579,7 +2588,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="136977920"/>
+        <c:crossAx val="155852288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2682,19 +2691,19 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2768,7 +2777,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2802,11 +2811,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="137408000"/>
-        <c:axId val="137299072"/>
+        <c:axId val="156282368"/>
+        <c:axId val="156173440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137408000"/>
+        <c:axId val="156282368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2815,7 +2824,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137299072"/>
+        <c:crossAx val="156173440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2823,7 +2832,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137299072"/>
+        <c:axId val="156173440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2834,7 +2843,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137408000"/>
+        <c:crossAx val="156282368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3058,11 +3067,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="137645568"/>
-        <c:axId val="137301376"/>
+        <c:axId val="156519936"/>
+        <c:axId val="156175744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137645568"/>
+        <c:axId val="156519936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3071,7 +3080,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137301376"/>
+        <c:crossAx val="156175744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3079,7 +3088,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137301376"/>
+        <c:axId val="156175744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3090,7 +3099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137645568"/>
+        <c:crossAx val="156519936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3313,11 +3322,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="137895424"/>
-        <c:axId val="137303680"/>
+        <c:axId val="156769792"/>
+        <c:axId val="156178048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137895424"/>
+        <c:axId val="156769792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3326,7 +3335,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137303680"/>
+        <c:crossAx val="156178048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3334,7 +3343,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137303680"/>
+        <c:axId val="156178048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3345,7 +3354,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137895424"/>
+        <c:crossAx val="156769792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3386,7 +3395,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3429,7 +3438,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3470,7 +3479,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9F86464-62E3-40C4-9822-D864B84BC108}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F86464-62E3-40C4-9822-D864B84BC108}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3513,7 +3522,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3846,79 +3855,79 @@
   <sheetData>
     <row r="1" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="115"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
     </row>
     <row r="3" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="118" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="120" t="s">
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="122"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="78"/>
     </row>
     <row r="4" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="125" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="73" t="s">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="75"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="85"/>
     </row>
     <row r="5" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129" t="s">
+      <c r="C5" s="87"/>
+      <c r="D5" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="130"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89"/>
       <c r="I5" s="12" t="s">
         <v>69</v>
       </c>
@@ -3942,23 +3951,23 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="72" t="s">
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
       <c r="O6" s="22"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
@@ -4061,14 +4070,14 @@
         <v>40</v>
       </c>
       <c r="H9" s="22"/>
-      <c r="I9" s="131" t="s">
+      <c r="I9" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="112"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="68"/>
       <c r="O9" s="22"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
@@ -4092,13 +4101,13 @@
       <c r="I10" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="110" t="s">
+      <c r="J10" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="112"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="68"/>
       <c r="O10" s="22"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
@@ -4120,13 +4129,13 @@
       <c r="I11" s="13">
         <v>1</v>
       </c>
-      <c r="J11" s="94" t="s">
+      <c r="J11" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="95"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="101"/>
       <c r="O11" s="22"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
@@ -4147,14 +4156,14 @@
         <v>40</v>
       </c>
       <c r="H12" s="22"/>
-      <c r="I12" s="68" t="s">
+      <c r="I12" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
       <c r="O12" s="22"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
@@ -4295,36 +4304,36 @@
       <c r="H16" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="68" t="s">
+      <c r="I16" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
       <c r="O16" s="22"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="103"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="92"/>
       <c r="I17" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="69" t="s">
+      <c r="J17" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
       <c r="O17" s="22"/>
     </row>
     <row r="18" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4340,13 +4349,13 @@
       <c r="I18" s="13">
         <v>1</v>
       </c>
-      <c r="J18" s="67" t="s">
+      <c r="J18" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
       <c r="O18" s="22"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
@@ -4374,13 +4383,13 @@
       <c r="I19" s="13">
         <v>2</v>
       </c>
-      <c r="J19" s="67" t="s">
+      <c r="J19" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="107"/>
       <c r="O19" s="22"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
@@ -4406,14 +4415,14 @@
         <f>SUM(E20:G20)</f>
         <v>1</v>
       </c>
-      <c r="I20" s="70" t="s">
+      <c r="I20" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
       <c r="O20" s="22"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
@@ -4505,13 +4514,13 @@
       </c>
     </row>
     <row r="23" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="107"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="109"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="111"/>
       <c r="I23" s="13">
         <v>3</v>
       </c>
@@ -4535,31 +4544,31 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="70" t="s">
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
       <c r="O24" s="22"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="100" t="s">
+      <c r="B25" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
       <c r="E25" s="11">
         <f>SUM(E28,E31,E34,E37)</f>
         <v>31</v>
@@ -4577,73 +4586,73 @@
       <c r="I25" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="71" t="s">
+      <c r="J25" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
       <c r="O25" s="22"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="96" t="s">
+      <c r="B26" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="98"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="114"/>
       <c r="I26" s="13">
         <v>1</v>
       </c>
-      <c r="J26" s="67" t="s">
+      <c r="J26" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
       <c r="O26" s="22"/>
     </row>
     <row r="27" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="87" t="s">
+      <c r="C27" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="88"/>
-      <c r="E27" s="91" t="s">
+      <c r="D27" s="116"/>
+      <c r="E27" s="117" t="s">
         <v>291</v>
       </c>
-      <c r="F27" s="92"/>
-      <c r="G27" s="91" t="s">
+      <c r="F27" s="118"/>
+      <c r="G27" s="117" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="99"/>
+      <c r="H27" s="119"/>
       <c r="I27" s="14">
         <v>2</v>
       </c>
-      <c r="J27" s="65" t="s">
+      <c r="J27" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
       <c r="O27" s="23"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="87" t="s">
+      <c r="C28" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="88"/>
+      <c r="D28" s="116"/>
       <c r="E28" s="10">
         <v>8</v>
       </c>
@@ -4657,26 +4666,26 @@
       <c r="H28" s="8">
         <v>31</v>
       </c>
-      <c r="I28" s="73" t="s">
+      <c r="I28" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="75"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="85"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="89" t="s">
+      <c r="B29" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
       <c r="I29" s="12" t="s">
         <v>69</v>
       </c>
@@ -4703,36 +4712,36 @@
       <c r="B30" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="94" t="s">
+      <c r="C30" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="95"/>
-      <c r="E30" s="91" t="s">
+      <c r="D30" s="101"/>
+      <c r="E30" s="117" t="s">
         <v>292</v>
       </c>
-      <c r="F30" s="92"/>
-      <c r="G30" s="91" t="s">
+      <c r="F30" s="118"/>
+      <c r="G30" s="117" t="s">
         <v>168</v>
       </c>
-      <c r="H30" s="93"/>
-      <c r="I30" s="72" t="s">
+      <c r="H30" s="123"/>
+      <c r="I30" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
       <c r="O30" s="22"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="94" t="s">
+      <c r="C31" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="D31" s="95"/>
+      <c r="D31" s="101"/>
       <c r="E31" s="10">
         <v>7</v>
       </c>
@@ -4769,15 +4778,15 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122"/>
       <c r="I32" s="13">
         <v>2</v>
       </c>
@@ -4804,36 +4813,36 @@
       <c r="B33" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="87" t="s">
+      <c r="C33" s="115" t="s">
         <v>173</v>
       </c>
-      <c r="D33" s="88"/>
-      <c r="E33" s="91" t="s">
+      <c r="D33" s="116"/>
+      <c r="E33" s="117" t="s">
         <v>293</v>
       </c>
-      <c r="F33" s="92"/>
-      <c r="G33" s="91" t="s">
+      <c r="F33" s="118"/>
+      <c r="G33" s="117" t="s">
         <v>169</v>
       </c>
-      <c r="H33" s="93"/>
-      <c r="I33" s="72" t="s">
+      <c r="H33" s="123"/>
+      <c r="I33" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
       <c r="O33" s="22"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="87" t="s">
+      <c r="C34" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="D34" s="88"/>
+      <c r="D34" s="116"/>
       <c r="E34" s="10">
         <v>4</v>
       </c>
@@ -4850,71 +4859,71 @@
       <c r="I34" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J34" s="66" t="s">
+      <c r="J34" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
       <c r="O34" s="22"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="89" t="s">
+      <c r="B35" s="121" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="122"/>
+      <c r="E35" s="122"/>
+      <c r="F35" s="122"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="122"/>
       <c r="I35" s="13">
         <v>1</v>
       </c>
-      <c r="J35" s="67" t="s">
+      <c r="J35" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="67"/>
+      <c r="K35" s="107"/>
+      <c r="L35" s="107"/>
+      <c r="M35" s="107"/>
+      <c r="N35" s="107"/>
       <c r="O35" s="22"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="87" t="s">
+      <c r="C36" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="D36" s="88"/>
-      <c r="E36" s="91" t="s">
+      <c r="D36" s="116"/>
+      <c r="E36" s="117" t="s">
         <v>294</v>
       </c>
-      <c r="F36" s="92"/>
-      <c r="G36" s="91" t="s">
+      <c r="F36" s="118"/>
+      <c r="G36" s="117" t="s">
         <v>170</v>
       </c>
-      <c r="H36" s="93"/>
-      <c r="I36" s="68" t="s">
+      <c r="H36" s="123"/>
+      <c r="I36" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="69"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="103"/>
       <c r="O36" s="22"/>
     </row>
     <row r="37" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="76" t="s">
+      <c r="C37" s="124" t="s">
         <v>176</v>
       </c>
-      <c r="D37" s="77"/>
+      <c r="D37" s="125"/>
       <c r="E37" s="21">
         <v>12</v>
       </c>
@@ -4951,15 +4960,15 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="80"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="126"/>
       <c r="I38" s="13">
         <v>2</v>
       </c>
@@ -4983,82 +4992,82 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="127" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="68" t="s">
+      <c r="C39" s="128"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="69"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="103"/>
+      <c r="L39" s="103"/>
+      <c r="M39" s="103"/>
+      <c r="N39" s="103"/>
       <c r="O39" s="22"/>
     </row>
     <row r="40" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="130" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="86"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="132"/>
       <c r="I40" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J40" s="69" t="s">
+      <c r="J40" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="K40" s="69"/>
-      <c r="L40" s="69"/>
-      <c r="M40" s="69"/>
-      <c r="N40" s="69"/>
+      <c r="K40" s="103"/>
+      <c r="L40" s="103"/>
+      <c r="M40" s="103"/>
+      <c r="N40" s="103"/>
       <c r="O40" s="22"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I41" s="13">
         <v>1</v>
       </c>
-      <c r="J41" s="67" t="s">
+      <c r="J41" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="K41" s="67"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="67"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="107"/>
+      <c r="M41" s="107"/>
+      <c r="N41" s="107"/>
       <c r="O41" s="22"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I42" s="13">
         <v>2</v>
       </c>
-      <c r="J42" s="67" t="s">
+      <c r="J42" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="K42" s="67"/>
-      <c r="L42" s="67"/>
-      <c r="M42" s="67"/>
-      <c r="N42" s="67"/>
+      <c r="K42" s="107"/>
+      <c r="L42" s="107"/>
+      <c r="M42" s="107"/>
+      <c r="N42" s="107"/>
       <c r="O42" s="22"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I43" s="70" t="s">
+      <c r="I43" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="71"/>
+      <c r="J43" s="98"/>
+      <c r="K43" s="98"/>
+      <c r="L43" s="98"/>
+      <c r="M43" s="98"/>
+      <c r="N43" s="98"/>
       <c r="O43" s="22"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
@@ -5131,65 +5140,65 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I47" s="70" t="s">
+      <c r="I47" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="J47" s="71"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="71"/>
+      <c r="J47" s="98"/>
+      <c r="K47" s="98"/>
+      <c r="L47" s="98"/>
+      <c r="M47" s="98"/>
+      <c r="N47" s="98"/>
       <c r="O47" s="22"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I48" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J48" s="71" t="s">
+      <c r="J48" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="K48" s="71"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="71"/>
+      <c r="K48" s="98"/>
+      <c r="L48" s="98"/>
+      <c r="M48" s="98"/>
+      <c r="N48" s="98"/>
       <c r="O48" s="22"/>
     </row>
     <row r="49" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I49" s="13">
         <v>1</v>
       </c>
-      <c r="J49" s="67" t="s">
+      <c r="J49" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="K49" s="67"/>
-      <c r="L49" s="67"/>
-      <c r="M49" s="67"/>
-      <c r="N49" s="67"/>
+      <c r="K49" s="107"/>
+      <c r="L49" s="107"/>
+      <c r="M49" s="107"/>
+      <c r="N49" s="107"/>
       <c r="O49" s="22"/>
     </row>
     <row r="50" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I50" s="14">
         <v>2</v>
       </c>
-      <c r="J50" s="65" t="s">
+      <c r="J50" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="K50" s="65"/>
-      <c r="L50" s="65"/>
-      <c r="M50" s="65"/>
-      <c r="N50" s="65"/>
+      <c r="K50" s="120"/>
+      <c r="L50" s="120"/>
+      <c r="M50" s="120"/>
+      <c r="N50" s="120"/>
       <c r="O50" s="23"/>
     </row>
     <row r="51" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I51" s="73" t="s">
+      <c r="I51" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="J51" s="74"/>
-      <c r="K51" s="74"/>
-      <c r="L51" s="74"/>
-      <c r="M51" s="74"/>
-      <c r="N51" s="74"/>
-      <c r="O51" s="75"/>
+      <c r="J51" s="84"/>
+      <c r="K51" s="84"/>
+      <c r="L51" s="84"/>
+      <c r="M51" s="84"/>
+      <c r="N51" s="84"/>
+      <c r="O51" s="85"/>
     </row>
     <row r="52" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I52" s="12" t="s">
@@ -5215,14 +5224,14 @@
       </c>
     </row>
     <row r="53" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I53" s="72" t="s">
+      <c r="I53" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="J53" s="66"/>
-      <c r="K53" s="66"/>
-      <c r="L53" s="66"/>
-      <c r="M53" s="66"/>
-      <c r="N53" s="66"/>
+      <c r="J53" s="94"/>
+      <c r="K53" s="94"/>
+      <c r="L53" s="94"/>
+      <c r="M53" s="94"/>
+      <c r="N53" s="94"/>
       <c r="O53" s="26"/>
     </row>
     <row r="54" spans="9:15" x14ac:dyDescent="0.2">
@@ -5249,51 +5258,51 @@
       </c>
     </row>
     <row r="55" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I55" s="72" t="s">
+      <c r="I55" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="J55" s="66"/>
-      <c r="K55" s="66"/>
-      <c r="L55" s="66"/>
-      <c r="M55" s="66"/>
-      <c r="N55" s="66"/>
+      <c r="J55" s="94"/>
+      <c r="K55" s="94"/>
+      <c r="L55" s="94"/>
+      <c r="M55" s="94"/>
+      <c r="N55" s="94"/>
       <c r="O55" s="22"/>
     </row>
     <row r="56" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I56" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J56" s="66" t="s">
+      <c r="J56" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="K56" s="66"/>
-      <c r="L56" s="66"/>
-      <c r="M56" s="66"/>
-      <c r="N56" s="66"/>
+      <c r="K56" s="94"/>
+      <c r="L56" s="94"/>
+      <c r="M56" s="94"/>
+      <c r="N56" s="94"/>
       <c r="O56" s="22"/>
     </row>
     <row r="57" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I57" s="13">
         <v>1</v>
       </c>
-      <c r="J57" s="67" t="s">
+      <c r="J57" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="K57" s="67"/>
-      <c r="L57" s="67"/>
-      <c r="M57" s="67"/>
-      <c r="N57" s="67"/>
+      <c r="K57" s="107"/>
+      <c r="L57" s="107"/>
+      <c r="M57" s="107"/>
+      <c r="N57" s="107"/>
       <c r="O57" s="22"/>
     </row>
     <row r="58" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I58" s="68" t="s">
+      <c r="I58" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="J58" s="69"/>
-      <c r="K58" s="69"/>
-      <c r="L58" s="69"/>
-      <c r="M58" s="69"/>
-      <c r="N58" s="69"/>
+      <c r="J58" s="103"/>
+      <c r="K58" s="103"/>
+      <c r="L58" s="103"/>
+      <c r="M58" s="103"/>
+      <c r="N58" s="103"/>
       <c r="O58" s="22"/>
     </row>
     <row r="59" spans="9:15" x14ac:dyDescent="0.2">
@@ -5320,51 +5329,51 @@
       </c>
     </row>
     <row r="60" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I60" s="68" t="s">
+      <c r="I60" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="J60" s="69"/>
-      <c r="K60" s="69"/>
-      <c r="L60" s="69"/>
-      <c r="M60" s="69"/>
-      <c r="N60" s="69"/>
+      <c r="J60" s="103"/>
+      <c r="K60" s="103"/>
+      <c r="L60" s="103"/>
+      <c r="M60" s="103"/>
+      <c r="N60" s="103"/>
       <c r="O60" s="22"/>
     </row>
     <row r="61" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I61" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J61" s="69" t="s">
+      <c r="J61" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="K61" s="69"/>
-      <c r="L61" s="69"/>
-      <c r="M61" s="69"/>
-      <c r="N61" s="69"/>
+      <c r="K61" s="103"/>
+      <c r="L61" s="103"/>
+      <c r="M61" s="103"/>
+      <c r="N61" s="103"/>
       <c r="O61" s="22"/>
     </row>
     <row r="62" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I62" s="13">
         <v>1</v>
       </c>
-      <c r="J62" s="67" t="s">
+      <c r="J62" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="K62" s="67"/>
-      <c r="L62" s="67"/>
-      <c r="M62" s="67"/>
-      <c r="N62" s="67"/>
+      <c r="K62" s="107"/>
+      <c r="L62" s="107"/>
+      <c r="M62" s="107"/>
+      <c r="N62" s="107"/>
       <c r="O62" s="22"/>
     </row>
     <row r="63" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I63" s="70" t="s">
+      <c r="I63" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="J63" s="71"/>
-      <c r="K63" s="71"/>
-      <c r="L63" s="71"/>
-      <c r="M63" s="71"/>
-      <c r="N63" s="71"/>
+      <c r="J63" s="98"/>
+      <c r="K63" s="98"/>
+      <c r="L63" s="98"/>
+      <c r="M63" s="98"/>
+      <c r="N63" s="98"/>
       <c r="O63" s="22"/>
     </row>
     <row r="64" spans="9:15" x14ac:dyDescent="0.2">
@@ -5414,65 +5423,65 @@
       </c>
     </row>
     <row r="66" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I66" s="70" t="s">
+      <c r="I66" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="J66" s="71"/>
-      <c r="K66" s="71"/>
-      <c r="L66" s="71"/>
-      <c r="M66" s="71"/>
-      <c r="N66" s="71"/>
+      <c r="J66" s="98"/>
+      <c r="K66" s="98"/>
+      <c r="L66" s="98"/>
+      <c r="M66" s="98"/>
+      <c r="N66" s="98"/>
       <c r="O66" s="22"/>
     </row>
     <row r="67" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I67" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J67" s="71" t="s">
+      <c r="J67" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="K67" s="71"/>
-      <c r="L67" s="71"/>
-      <c r="M67" s="71"/>
-      <c r="N67" s="71"/>
+      <c r="K67" s="98"/>
+      <c r="L67" s="98"/>
+      <c r="M67" s="98"/>
+      <c r="N67" s="98"/>
       <c r="O67" s="22"/>
     </row>
     <row r="68" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I68" s="13">
         <v>1</v>
       </c>
-      <c r="J68" s="67" t="s">
+      <c r="J68" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="K68" s="67"/>
-      <c r="L68" s="67"/>
-      <c r="M68" s="67"/>
-      <c r="N68" s="67"/>
+      <c r="K68" s="107"/>
+      <c r="L68" s="107"/>
+      <c r="M68" s="107"/>
+      <c r="N68" s="107"/>
       <c r="O68" s="22"/>
     </row>
     <row r="69" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I69" s="14">
         <v>2</v>
       </c>
-      <c r="J69" s="65" t="s">
+      <c r="J69" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="K69" s="65"/>
-      <c r="L69" s="65"/>
-      <c r="M69" s="65"/>
-      <c r="N69" s="65"/>
+      <c r="K69" s="120"/>
+      <c r="L69" s="120"/>
+      <c r="M69" s="120"/>
+      <c r="N69" s="120"/>
       <c r="O69" s="23"/>
     </row>
     <row r="70" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I70" s="73" t="s">
+      <c r="I70" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="J70" s="74"/>
-      <c r="K70" s="74"/>
-      <c r="L70" s="74"/>
-      <c r="M70" s="74"/>
-      <c r="N70" s="74"/>
-      <c r="O70" s="75"/>
+      <c r="J70" s="84"/>
+      <c r="K70" s="84"/>
+      <c r="L70" s="84"/>
+      <c r="M70" s="84"/>
+      <c r="N70" s="84"/>
+      <c r="O70" s="85"/>
     </row>
     <row r="71" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I71" s="12" t="s">
@@ -5498,14 +5507,14 @@
       </c>
     </row>
     <row r="72" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I72" s="72" t="s">
+      <c r="I72" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="J72" s="66"/>
-      <c r="K72" s="66"/>
-      <c r="L72" s="66"/>
-      <c r="M72" s="66"/>
-      <c r="N72" s="66"/>
+      <c r="J72" s="94"/>
+      <c r="K72" s="94"/>
+      <c r="L72" s="94"/>
+      <c r="M72" s="94"/>
+      <c r="N72" s="94"/>
       <c r="O72" s="22"/>
     </row>
     <row r="73" spans="9:15" x14ac:dyDescent="0.2">
@@ -5576,51 +5585,51 @@
       </c>
     </row>
     <row r="76" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I76" s="72" t="s">
+      <c r="I76" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="J76" s="66"/>
-      <c r="K76" s="66"/>
-      <c r="L76" s="66"/>
-      <c r="M76" s="66"/>
-      <c r="N76" s="66"/>
+      <c r="J76" s="94"/>
+      <c r="K76" s="94"/>
+      <c r="L76" s="94"/>
+      <c r="M76" s="94"/>
+      <c r="N76" s="94"/>
       <c r="O76" s="22"/>
     </row>
     <row r="77" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I77" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J77" s="66" t="s">
+      <c r="J77" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="K77" s="66"/>
-      <c r="L77" s="66"/>
-      <c r="M77" s="66"/>
-      <c r="N77" s="66"/>
+      <c r="K77" s="94"/>
+      <c r="L77" s="94"/>
+      <c r="M77" s="94"/>
+      <c r="N77" s="94"/>
       <c r="O77" s="22"/>
     </row>
     <row r="78" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I78" s="13">
         <v>1</v>
       </c>
-      <c r="J78" s="67" t="s">
+      <c r="J78" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="K78" s="67"/>
-      <c r="L78" s="67"/>
-      <c r="M78" s="67"/>
-      <c r="N78" s="67"/>
+      <c r="K78" s="107"/>
+      <c r="L78" s="107"/>
+      <c r="M78" s="107"/>
+      <c r="N78" s="107"/>
       <c r="O78" s="22"/>
     </row>
     <row r="79" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I79" s="68" t="s">
+      <c r="I79" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="J79" s="69"/>
-      <c r="K79" s="69"/>
-      <c r="L79" s="69"/>
-      <c r="M79" s="69"/>
-      <c r="N79" s="69"/>
+      <c r="J79" s="103"/>
+      <c r="K79" s="103"/>
+      <c r="L79" s="103"/>
+      <c r="M79" s="103"/>
+      <c r="N79" s="103"/>
       <c r="O79" s="22"/>
     </row>
     <row r="80" spans="9:15" x14ac:dyDescent="0.2">
@@ -5670,64 +5679,64 @@
       </c>
     </row>
     <row r="82" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I82" s="68" t="s">
+      <c r="I82" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="J82" s="69"/>
-      <c r="K82" s="69"/>
-      <c r="L82" s="69"/>
-      <c r="M82" s="69"/>
-      <c r="N82" s="69"/>
+      <c r="J82" s="103"/>
+      <c r="K82" s="103"/>
+      <c r="L82" s="103"/>
+      <c r="M82" s="103"/>
+      <c r="N82" s="103"/>
       <c r="O82" s="22"/>
     </row>
     <row r="83" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I83" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J83" s="69" t="s">
+      <c r="J83" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="K83" s="69"/>
-      <c r="L83" s="69"/>
-      <c r="M83" s="69"/>
-      <c r="N83" s="69"/>
+      <c r="K83" s="103"/>
+      <c r="L83" s="103"/>
+      <c r="M83" s="103"/>
+      <c r="N83" s="103"/>
       <c r="O83" s="22"/>
     </row>
     <row r="84" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I84" s="13">
         <v>1</v>
       </c>
-      <c r="J84" s="67" t="s">
+      <c r="J84" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="K84" s="67"/>
-      <c r="L84" s="67"/>
-      <c r="M84" s="67"/>
-      <c r="N84" s="67"/>
+      <c r="K84" s="107"/>
+      <c r="L84" s="107"/>
+      <c r="M84" s="107"/>
+      <c r="N84" s="107"/>
       <c r="O84" s="22"/>
     </row>
     <row r="85" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I85" s="13">
         <v>2</v>
       </c>
-      <c r="J85" s="67" t="s">
+      <c r="J85" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="K85" s="67"/>
-      <c r="L85" s="67"/>
-      <c r="M85" s="67"/>
-      <c r="N85" s="67"/>
+      <c r="K85" s="107"/>
+      <c r="L85" s="107"/>
+      <c r="M85" s="107"/>
+      <c r="N85" s="107"/>
       <c r="O85" s="22"/>
     </row>
     <row r="86" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I86" s="70" t="s">
+      <c r="I86" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="J86" s="71"/>
-      <c r="K86" s="71"/>
-      <c r="L86" s="71"/>
-      <c r="M86" s="71"/>
-      <c r="N86" s="71"/>
+      <c r="J86" s="98"/>
+      <c r="K86" s="98"/>
+      <c r="L86" s="98"/>
+      <c r="M86" s="98"/>
+      <c r="N86" s="98"/>
       <c r="O86" s="22"/>
     </row>
     <row r="87" spans="9:15" x14ac:dyDescent="0.2">
@@ -5888,70 +5897,126 @@
       </c>
     </row>
     <row r="94" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I94" s="70" t="s">
+      <c r="I94" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="J94" s="71"/>
-      <c r="K94" s="71"/>
-      <c r="L94" s="71"/>
-      <c r="M94" s="71"/>
-      <c r="N94" s="71"/>
+      <c r="J94" s="98"/>
+      <c r="K94" s="98"/>
+      <c r="L94" s="98"/>
+      <c r="M94" s="98"/>
+      <c r="N94" s="98"/>
       <c r="O94" s="22"/>
     </row>
     <row r="95" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I95" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J95" s="71" t="s">
+      <c r="J95" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="K95" s="71"/>
-      <c r="L95" s="71"/>
-      <c r="M95" s="71"/>
-      <c r="N95" s="71"/>
+      <c r="K95" s="98"/>
+      <c r="L95" s="98"/>
+      <c r="M95" s="98"/>
+      <c r="N95" s="98"/>
       <c r="O95" s="22"/>
     </row>
     <row r="96" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I96" s="13">
         <v>1</v>
       </c>
-      <c r="J96" s="67" t="s">
+      <c r="J96" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="K96" s="67"/>
-      <c r="L96" s="67"/>
-      <c r="M96" s="67"/>
-      <c r="N96" s="67"/>
+      <c r="K96" s="107"/>
+      <c r="L96" s="107"/>
+      <c r="M96" s="107"/>
+      <c r="N96" s="107"/>
       <c r="O96" s="22"/>
     </row>
     <row r="97" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I97" s="14">
         <v>2</v>
       </c>
-      <c r="J97" s="65" t="s">
+      <c r="J97" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="K97" s="65"/>
-      <c r="L97" s="65"/>
-      <c r="M97" s="65"/>
-      <c r="N97" s="65"/>
+      <c r="K97" s="120"/>
+      <c r="L97" s="120"/>
+      <c r="M97" s="120"/>
+      <c r="N97" s="120"/>
       <c r="O97" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="I79:N79"/>
+    <mergeCell ref="I82:N82"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="I86:N86"/>
+    <mergeCell ref="I94:N94"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="I76:N76"/>
+    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="I60:N60"/>
+    <mergeCell ref="J61:N61"/>
+    <mergeCell ref="J62:N62"/>
+    <mergeCell ref="I63:N63"/>
+    <mergeCell ref="I66:N66"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="J69:N69"/>
+    <mergeCell ref="I70:O70"/>
+    <mergeCell ref="I72:N72"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="J49:N49"/>
+    <mergeCell ref="J50:N50"/>
+    <mergeCell ref="I51:O51"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="J56:N56"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:O28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="J27:N27"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="J25:N25"/>
     <mergeCell ref="J11:N11"/>
@@ -5966,75 +6031,19 @@
     <mergeCell ref="B23:H23"/>
     <mergeCell ref="B24:H24"/>
     <mergeCell ref="I24:N24"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:O28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="J48:N48"/>
-    <mergeCell ref="J49:N49"/>
-    <mergeCell ref="J50:N50"/>
-    <mergeCell ref="I51:O51"/>
-    <mergeCell ref="I53:N53"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="J56:N56"/>
-    <mergeCell ref="I76:N76"/>
-    <mergeCell ref="I58:N58"/>
-    <mergeCell ref="I60:N60"/>
-    <mergeCell ref="J61:N61"/>
-    <mergeCell ref="J62:N62"/>
-    <mergeCell ref="I63:N63"/>
-    <mergeCell ref="I66:N66"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="J68:N68"/>
-    <mergeCell ref="J69:N69"/>
-    <mergeCell ref="I70:O70"/>
-    <mergeCell ref="I72:N72"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="J77:N77"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="I79:N79"/>
-    <mergeCell ref="I82:N82"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="I86:N86"/>
-    <mergeCell ref="I94:N94"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="I9:N9"/>
   </mergeCells>
   <conditionalFormatting sqref="H20:H22">
     <cfRule type="cellIs" dxfId="43" priority="1" operator="between">
@@ -6066,7 +6075,7 @@
   <dimension ref="B1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6086,51 +6095,51 @@
   <sheetData>
     <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="133" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="135"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="73" t="s">
+      <c r="C3" s="136"/>
+      <c r="D3" s="83" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="H3" s="73" t="s">
+      <c r="E3" s="84"/>
+      <c r="F3" s="85"/>
+      <c r="H3" s="83" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="75"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="85"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -6321,10 +6330,10 @@
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="135"/>
+      <c r="C8" s="136"/>
       <c r="D8" s="47" t="s">
         <v>16</v>
       </c>
@@ -6355,10 +6364,18 @@
       <c r="N8" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O8" s="40"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
+      <c r="O8" s="137" t="s">
+        <v>229</v>
+      </c>
+      <c r="P8" s="137" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q8" s="137" t="s">
+        <v>229</v>
+      </c>
+      <c r="R8" s="137" t="s">
+        <v>229</v>
+      </c>
       <c r="S8" s="43" t="s">
         <v>239</v>
       </c>
@@ -6499,10 +6516,10 @@
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="41" t="s">
         <v>24</v>
       </c>
@@ -6725,13 +6742,13 @@
       <c r="O17" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="P17" s="136" t="s">
+      <c r="P17" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="Q17" s="136" t="s">
+      <c r="Q17" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="R17" s="136" t="s">
+      <c r="R17" s="65" t="s">
         <v>229</v>
       </c>
       <c r="S17" s="43" t="s">
@@ -6739,10 +6756,10 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="85"/>
       <c r="H18" s="47" t="s">
         <v>259</v>
       </c>
@@ -6767,13 +6784,13 @@
       <c r="O18" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="P18" s="136" t="s">
+      <c r="P18" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="Q18" s="136" t="s">
+      <c r="Q18" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="R18" s="136" t="s">
+      <c r="R18" s="65" t="s">
         <v>229</v>
       </c>
       <c r="S18" s="43" t="s">
@@ -6917,14 +6934,14 @@
       <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="75"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="85"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
@@ -7008,11 +7025,11 @@
         <v>11</v>
       </c>
       <c r="F27" s="30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G27" s="48">
         <f t="shared" ref="G27:G31" si="2">G26-F27</f>
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
@@ -7035,7 +7052,7 @@
       </c>
       <c r="G28" s="48">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
@@ -7058,7 +7075,7 @@
       </c>
       <c r="G29" s="48">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
@@ -7081,7 +7098,7 @@
       </c>
       <c r="G30" s="48">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7104,7 +7121,7 @@
       </c>
       <c r="G31" s="51">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -7204,51 +7221,51 @@
   <sheetData>
     <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="133" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="135"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="73" t="s">
+      <c r="C3" s="136"/>
+      <c r="D3" s="83" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="H3" s="73" t="s">
+      <c r="E3" s="84"/>
+      <c r="F3" s="85"/>
+      <c r="H3" s="83" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="75"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="85"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -7439,10 +7456,10 @@
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="75"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="47" t="s">
         <v>16</v>
       </c>
@@ -7617,10 +7634,10 @@
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="41" t="s">
         <v>24</v>
       </c>
@@ -7861,10 +7878,10 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="85"/>
       <c r="H18" s="47"/>
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
@@ -7959,14 +7976,14 @@
       <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="75"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="85"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
@@ -8246,51 +8263,51 @@
   <sheetData>
     <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="133" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="135"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="83" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="H3" s="73" t="s">
+      <c r="E3" s="84"/>
+      <c r="F3" s="85"/>
+      <c r="H3" s="83" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="75"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="85"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -8439,10 +8456,10 @@
       <c r="S7" s="43"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="75"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="47" t="s">
         <v>16</v>
       </c>
@@ -8569,10 +8586,10 @@
       <c r="S11" s="43"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="47" t="s">
         <v>24</v>
       </c>
@@ -8729,10 +8746,10 @@
       <c r="S17" s="43"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="85"/>
       <c r="H18" s="47" t="s">
         <v>259</v>
       </c>
@@ -8847,14 +8864,14 @@
       <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="75"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="85"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">

--- a/Management/Production_Progress_Oct_2017.xlsx
+++ b/Management/Production_Progress_Oct_2017.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Production Backlog" sheetId="5" r:id="rId1"/>
     <sheet name="Sprint #1 Chart" sheetId="2" r:id="rId2"/>
-    <sheet name="Sprint #2 Chart" sheetId="3" r:id="rId3"/>
-    <sheet name="Sprint Chart Form" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint #2 Chart" sheetId="6" r:id="rId3"/>
+    <sheet name="Sprint #3 Chart" sheetId="3" r:id="rId4"/>
+    <sheet name="Sprint Chart Form" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="297">
   <si>
     <t>Production Name:</t>
   </si>
@@ -914,13 +915,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1524,403 +1531,412 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1928,7 +1944,128 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="57">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2551,11 +2688,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="155852288"/>
-        <c:axId val="185391872"/>
+        <c:axId val="622022144"/>
+        <c:axId val="144300800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155852288"/>
+        <c:axId val="622022144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2564,7 +2701,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185391872"/>
+        <c:crossAx val="144300800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2572,7 +2709,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185391872"/>
+        <c:axId val="144300800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2588,7 +2725,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="155852288"/>
+        <c:crossAx val="622022144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2811,11 +2948,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156282368"/>
-        <c:axId val="156173440"/>
+        <c:axId val="622194176"/>
+        <c:axId val="622068864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156282368"/>
+        <c:axId val="622194176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2824,7 +2961,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156173440"/>
+        <c:crossAx val="622068864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2832,7 +2969,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156173440"/>
+        <c:axId val="622068864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2843,7 +2980,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156282368"/>
+        <c:crossAx val="622194176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2898,22 +3035,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2924,7 +3061,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F514-4514-B91D-EFF9B175DEAE}"/>
+              <c16:uniqueId val="{00000000-C972-4573-A6A3-52DDA00D7D07}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2941,25 +3078,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2967,7 +3104,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F514-4514-B91D-EFF9B175DEAE}"/>
+              <c16:uniqueId val="{00000001-C972-4573-A6A3-52DDA00D7D07}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2984,25 +3121,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3010,7 +3147,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F514-4514-B91D-EFF9B175DEAE}"/>
+              <c16:uniqueId val="{00000002-C972-4573-A6A3-52DDA00D7D07}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3027,7 +3164,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3053,7 +3190,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F514-4514-B91D-EFF9B175DEAE}"/>
+              <c16:uniqueId val="{00000003-C972-4573-A6A3-52DDA00D7D07}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3067,11 +3204,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156519936"/>
-        <c:axId val="156175744"/>
+        <c:axId val="154881536"/>
+        <c:axId val="153470656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156519936"/>
+        <c:axId val="154881536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3080,7 +3217,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156175744"/>
+        <c:crossAx val="153470656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3088,7 +3225,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156175744"/>
+        <c:axId val="153470656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3099,13 +3236,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156519936"/>
+        <c:crossAx val="154881536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3148,6 +3286,262 @@
           </c:tx>
           <c:val>
             <c:numRef>
+              <c:f>'Sprint #3 Chart'!$E$25:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F514-4514-B91D-EFF9B175DEAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual Task Completion</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #3 Chart'!$G$25:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F514-4514-B91D-EFF9B175DEAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Assigned Tasks</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #3 Chart'!$D$25:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F514-4514-B91D-EFF9B175DEAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Completed Tasks</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #3 Chart'!$F$25:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F514-4514-B91D-EFF9B175DEAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="623001600"/>
+        <c:axId val="622071168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="623001600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="622071168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="622071168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="623001600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Target Task Completion</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
               <c:f>'Sprint Chart Form'!$E$25:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -3322,11 +3716,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156769792"/>
-        <c:axId val="156178048"/>
+        <c:axId val="623005184"/>
+        <c:axId val="622073472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156769792"/>
+        <c:axId val="623005184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3335,7 +3729,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156178048"/>
+        <c:crossAx val="622073472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3343,7 +3737,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156178048"/>
+        <c:axId val="622073472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3354,7 +3748,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156769792"/>
+        <c:crossAx val="623005184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3395,7 +3789,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3438,7 +3832,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3479,7 +3873,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F86464-62E3-40C4-9822-D864B84BC108}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3522,7 +3916,50 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9F86464-62E3-40C4-9822-D864B84BC108}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3855,79 +4292,79 @@
   <sheetData>
     <row r="1" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="71"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="117"/>
     </row>
     <row r="3" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74" t="s">
+      <c r="C3" s="119"/>
+      <c r="D3" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76" t="s">
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="78"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="124"/>
     </row>
     <row r="4" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81" t="s">
+      <c r="C4" s="126"/>
+      <c r="D4" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="83" t="s">
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="85"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="77"/>
     </row>
     <row r="5" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="88" t="s">
+      <c r="C5" s="130"/>
+      <c r="D5" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="89"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="132"/>
       <c r="I5" s="12" t="s">
         <v>69</v>
       </c>
@@ -3951,23 +4388,23 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="93" t="s">
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
       <c r="O6" s="22"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
@@ -4070,14 +4507,14 @@
         <v>40</v>
       </c>
       <c r="H9" s="22"/>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="68"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="114"/>
       <c r="O9" s="22"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
@@ -4101,13 +4538,13 @@
       <c r="I10" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="66" t="s">
+      <c r="J10" s="112" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="68"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="114"/>
       <c r="O10" s="22"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
@@ -4129,13 +4566,13 @@
       <c r="I11" s="13">
         <v>1</v>
       </c>
-      <c r="J11" s="99" t="s">
+      <c r="J11" s="96" t="s">
         <v>177</v>
       </c>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="101"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="97"/>
       <c r="O11" s="22"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
@@ -4156,14 +4593,14 @@
         <v>40</v>
       </c>
       <c r="H12" s="22"/>
-      <c r="I12" s="102" t="s">
+      <c r="I12" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
       <c r="O12" s="22"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
@@ -4304,58 +4741,58 @@
       <c r="H16" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="102" t="s">
+      <c r="I16" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
       <c r="O16" s="22"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="92"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="105"/>
       <c r="I17" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="103" t="s">
+      <c r="J17" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
       <c r="O17" s="22"/>
     </row>
     <row r="18" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="106"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="108"/>
       <c r="I18" s="13">
         <v>1</v>
       </c>
-      <c r="J18" s="107" t="s">
+      <c r="J18" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
       <c r="O18" s="22"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
@@ -4383,13 +4820,13 @@
       <c r="I19" s="13">
         <v>2</v>
       </c>
-      <c r="J19" s="107" t="s">
+      <c r="J19" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
       <c r="O19" s="22"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
@@ -4415,14 +4852,14 @@
         <f>SUM(E20:G20)</f>
         <v>1</v>
       </c>
-      <c r="I20" s="108" t="s">
+      <c r="I20" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
       <c r="O20" s="22"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
@@ -4544,31 +4981,31 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="108" t="s">
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
       <c r="O24" s="22"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="96" t="s">
+      <c r="B25" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
       <c r="E25" s="11">
         <f>SUM(E28,E31,E34,E37)</f>
         <v>31</v>
@@ -4586,73 +5023,73 @@
       <c r="I25" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="98" t="s">
+      <c r="J25" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="K25" s="98"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
       <c r="O25" s="22"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="112" t="s">
+      <c r="B26" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="114"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="100"/>
       <c r="I26" s="13">
         <v>1</v>
       </c>
-      <c r="J26" s="107" t="s">
+      <c r="J26" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
       <c r="O26" s="22"/>
     </row>
     <row r="27" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="115" t="s">
+      <c r="C27" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="116"/>
-      <c r="E27" s="117" t="s">
+      <c r="D27" s="90"/>
+      <c r="E27" s="93" t="s">
         <v>291</v>
       </c>
-      <c r="F27" s="118"/>
-      <c r="G27" s="117" t="s">
+      <c r="F27" s="94"/>
+      <c r="G27" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="119"/>
+      <c r="H27" s="101"/>
       <c r="I27" s="14">
         <v>2</v>
       </c>
-      <c r="J27" s="120" t="s">
+      <c r="J27" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="K27" s="120"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="120"/>
-      <c r="N27" s="120"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
       <c r="O27" s="23"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="115" t="s">
+      <c r="C28" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="116"/>
+      <c r="D28" s="90"/>
       <c r="E28" s="10">
         <v>8</v>
       </c>
@@ -4666,26 +5103,26 @@
       <c r="H28" s="8">
         <v>31</v>
       </c>
-      <c r="I28" s="83" t="s">
+      <c r="I28" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="85"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="77"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="121" t="s">
+      <c r="B29" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="122"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
       <c r="I29" s="12" t="s">
         <v>69</v>
       </c>
@@ -4712,36 +5149,36 @@
       <c r="B30" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="99" t="s">
+      <c r="C30" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="101"/>
-      <c r="E30" s="117" t="s">
+      <c r="D30" s="97"/>
+      <c r="E30" s="93" t="s">
         <v>292</v>
       </c>
-      <c r="F30" s="118"/>
-      <c r="G30" s="117" t="s">
+      <c r="F30" s="94"/>
+      <c r="G30" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="H30" s="123"/>
-      <c r="I30" s="93" t="s">
+      <c r="H30" s="95"/>
+      <c r="I30" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
       <c r="O30" s="22"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="99" t="s">
+      <c r="C31" s="96" t="s">
         <v>172</v>
       </c>
-      <c r="D31" s="101"/>
+      <c r="D31" s="97"/>
       <c r="E31" s="10">
         <v>7</v>
       </c>
@@ -4778,15 +5215,15 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="121" t="s">
+      <c r="B32" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="122"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="122"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
       <c r="I32" s="13">
         <v>2</v>
       </c>
@@ -4813,36 +5250,36 @@
       <c r="B33" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="115" t="s">
+      <c r="C33" s="89" t="s">
         <v>173</v>
       </c>
-      <c r="D33" s="116"/>
-      <c r="E33" s="117" t="s">
+      <c r="D33" s="90"/>
+      <c r="E33" s="93" t="s">
         <v>293</v>
       </c>
-      <c r="F33" s="118"/>
-      <c r="G33" s="117" t="s">
+      <c r="F33" s="94"/>
+      <c r="G33" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="H33" s="123"/>
-      <c r="I33" s="93" t="s">
+      <c r="H33" s="95"/>
+      <c r="I33" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
       <c r="O33" s="22"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="115" t="s">
+      <c r="C34" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="D34" s="116"/>
+      <c r="D34" s="90"/>
       <c r="E34" s="10">
         <v>4</v>
       </c>
@@ -4859,71 +5296,71 @@
       <c r="I34" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J34" s="94" t="s">
+      <c r="J34" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="K34" s="94"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="94"/>
-      <c r="N34" s="94"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
       <c r="O34" s="22"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="121" t="s">
+      <c r="B35" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="122"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="122"/>
-      <c r="H35" s="122"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
       <c r="I35" s="13">
         <v>1</v>
       </c>
-      <c r="J35" s="107" t="s">
+      <c r="J35" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="K35" s="107"/>
-      <c r="L35" s="107"/>
-      <c r="M35" s="107"/>
-      <c r="N35" s="107"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
       <c r="O35" s="22"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="115" t="s">
+      <c r="C36" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="D36" s="116"/>
-      <c r="E36" s="117" t="s">
+      <c r="D36" s="90"/>
+      <c r="E36" s="93" t="s">
         <v>294</v>
       </c>
-      <c r="F36" s="118"/>
-      <c r="G36" s="117" t="s">
+      <c r="F36" s="94"/>
+      <c r="G36" s="93" t="s">
         <v>170</v>
       </c>
-      <c r="H36" s="123"/>
-      <c r="I36" s="102" t="s">
+      <c r="H36" s="95"/>
+      <c r="I36" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="J36" s="103"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="103"/>
-      <c r="M36" s="103"/>
-      <c r="N36" s="103"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
       <c r="O36" s="22"/>
     </row>
     <row r="37" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="124" t="s">
+      <c r="C37" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="D37" s="125"/>
+      <c r="D37" s="79"/>
       <c r="E37" s="21">
         <v>12</v>
       </c>
@@ -4960,15 +5397,15 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="126"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="82"/>
       <c r="I38" s="13">
         <v>2</v>
       </c>
@@ -4992,82 +5429,82 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="127" t="s">
+      <c r="B39" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="128"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="128"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="102" t="s">
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="J39" s="103"/>
-      <c r="K39" s="103"/>
-      <c r="L39" s="103"/>
-      <c r="M39" s="103"/>
-      <c r="N39" s="103"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
       <c r="O39" s="22"/>
     </row>
     <row r="40" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="130" t="s">
+      <c r="B40" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="131"/>
-      <c r="D40" s="131"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="131"/>
-      <c r="G40" s="131"/>
-      <c r="H40" s="132"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="88"/>
       <c r="I40" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J40" s="103" t="s">
+      <c r="J40" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="K40" s="103"/>
-      <c r="L40" s="103"/>
-      <c r="M40" s="103"/>
-      <c r="N40" s="103"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="71"/>
       <c r="O40" s="22"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I41" s="13">
         <v>1</v>
       </c>
-      <c r="J41" s="107" t="s">
+      <c r="J41" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="K41" s="107"/>
-      <c r="L41" s="107"/>
-      <c r="M41" s="107"/>
-      <c r="N41" s="107"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
       <c r="O41" s="22"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I42" s="13">
         <v>2</v>
       </c>
-      <c r="J42" s="107" t="s">
+      <c r="J42" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="K42" s="107"/>
-      <c r="L42" s="107"/>
-      <c r="M42" s="107"/>
-      <c r="N42" s="107"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
       <c r="O42" s="22"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I43" s="108" t="s">
+      <c r="I43" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="J43" s="98"/>
-      <c r="K43" s="98"/>
-      <c r="L43" s="98"/>
-      <c r="M43" s="98"/>
-      <c r="N43" s="98"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
       <c r="O43" s="22"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
@@ -5140,65 +5577,65 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I47" s="108" t="s">
+      <c r="I47" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="J47" s="98"/>
-      <c r="K47" s="98"/>
-      <c r="L47" s="98"/>
-      <c r="M47" s="98"/>
-      <c r="N47" s="98"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="73"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="73"/>
       <c r="O47" s="22"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I48" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J48" s="98" t="s">
+      <c r="J48" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="K48" s="98"/>
-      <c r="L48" s="98"/>
-      <c r="M48" s="98"/>
-      <c r="N48" s="98"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="73"/>
       <c r="O48" s="22"/>
     </row>
     <row r="49" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I49" s="13">
         <v>1</v>
       </c>
-      <c r="J49" s="107" t="s">
+      <c r="J49" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="K49" s="107"/>
-      <c r="L49" s="107"/>
-      <c r="M49" s="107"/>
-      <c r="N49" s="107"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="69"/>
       <c r="O49" s="22"/>
     </row>
     <row r="50" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I50" s="14">
         <v>2</v>
       </c>
-      <c r="J50" s="120" t="s">
+      <c r="J50" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="K50" s="120"/>
-      <c r="L50" s="120"/>
-      <c r="M50" s="120"/>
-      <c r="N50" s="120"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
       <c r="O50" s="23"/>
     </row>
     <row r="51" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I51" s="83" t="s">
+      <c r="I51" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="85"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="76"/>
+      <c r="L51" s="76"/>
+      <c r="M51" s="76"/>
+      <c r="N51" s="76"/>
+      <c r="O51" s="77"/>
     </row>
     <row r="52" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I52" s="12" t="s">
@@ -5224,14 +5661,14 @@
       </c>
     </row>
     <row r="53" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I53" s="93" t="s">
+      <c r="I53" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="J53" s="94"/>
-      <c r="K53" s="94"/>
-      <c r="L53" s="94"/>
-      <c r="M53" s="94"/>
-      <c r="N53" s="94"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="68"/>
+      <c r="M53" s="68"/>
+      <c r="N53" s="68"/>
       <c r="O53" s="26"/>
     </row>
     <row r="54" spans="9:15" x14ac:dyDescent="0.2">
@@ -5258,51 +5695,51 @@
       </c>
     </row>
     <row r="55" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I55" s="93" t="s">
+      <c r="I55" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="J55" s="94"/>
-      <c r="K55" s="94"/>
-      <c r="L55" s="94"/>
-      <c r="M55" s="94"/>
-      <c r="N55" s="94"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="68"/>
+      <c r="M55" s="68"/>
+      <c r="N55" s="68"/>
       <c r="O55" s="22"/>
     </row>
     <row r="56" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I56" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J56" s="94" t="s">
+      <c r="J56" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="K56" s="94"/>
-      <c r="L56" s="94"/>
-      <c r="M56" s="94"/>
-      <c r="N56" s="94"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="68"/>
       <c r="O56" s="22"/>
     </row>
     <row r="57" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I57" s="13">
         <v>1</v>
       </c>
-      <c r="J57" s="107" t="s">
+      <c r="J57" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="K57" s="107"/>
-      <c r="L57" s="107"/>
-      <c r="M57" s="107"/>
-      <c r="N57" s="107"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="69"/>
       <c r="O57" s="22"/>
     </row>
     <row r="58" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I58" s="102" t="s">
+      <c r="I58" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="J58" s="103"/>
-      <c r="K58" s="103"/>
-      <c r="L58" s="103"/>
-      <c r="M58" s="103"/>
-      <c r="N58" s="103"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="71"/>
+      <c r="L58" s="71"/>
+      <c r="M58" s="71"/>
+      <c r="N58" s="71"/>
       <c r="O58" s="22"/>
     </row>
     <row r="59" spans="9:15" x14ac:dyDescent="0.2">
@@ -5329,51 +5766,51 @@
       </c>
     </row>
     <row r="60" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I60" s="102" t="s">
+      <c r="I60" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="J60" s="103"/>
-      <c r="K60" s="103"/>
-      <c r="L60" s="103"/>
-      <c r="M60" s="103"/>
-      <c r="N60" s="103"/>
+      <c r="J60" s="71"/>
+      <c r="K60" s="71"/>
+      <c r="L60" s="71"/>
+      <c r="M60" s="71"/>
+      <c r="N60" s="71"/>
       <c r="O60" s="22"/>
     </row>
     <row r="61" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I61" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J61" s="103" t="s">
+      <c r="J61" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="K61" s="103"/>
-      <c r="L61" s="103"/>
-      <c r="M61" s="103"/>
-      <c r="N61" s="103"/>
+      <c r="K61" s="71"/>
+      <c r="L61" s="71"/>
+      <c r="M61" s="71"/>
+      <c r="N61" s="71"/>
       <c r="O61" s="22"/>
     </row>
     <row r="62" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I62" s="13">
         <v>1</v>
       </c>
-      <c r="J62" s="107" t="s">
+      <c r="J62" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="K62" s="107"/>
-      <c r="L62" s="107"/>
-      <c r="M62" s="107"/>
-      <c r="N62" s="107"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="69"/>
+      <c r="M62" s="69"/>
+      <c r="N62" s="69"/>
       <c r="O62" s="22"/>
     </row>
     <row r="63" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I63" s="108" t="s">
+      <c r="I63" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="J63" s="98"/>
-      <c r="K63" s="98"/>
-      <c r="L63" s="98"/>
-      <c r="M63" s="98"/>
-      <c r="N63" s="98"/>
+      <c r="J63" s="73"/>
+      <c r="K63" s="73"/>
+      <c r="L63" s="73"/>
+      <c r="M63" s="73"/>
+      <c r="N63" s="73"/>
       <c r="O63" s="22"/>
     </row>
     <row r="64" spans="9:15" x14ac:dyDescent="0.2">
@@ -5423,65 +5860,65 @@
       </c>
     </row>
     <row r="66" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I66" s="108" t="s">
+      <c r="I66" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="J66" s="98"/>
-      <c r="K66" s="98"/>
-      <c r="L66" s="98"/>
-      <c r="M66" s="98"/>
-      <c r="N66" s="98"/>
+      <c r="J66" s="73"/>
+      <c r="K66" s="73"/>
+      <c r="L66" s="73"/>
+      <c r="M66" s="73"/>
+      <c r="N66" s="73"/>
       <c r="O66" s="22"/>
     </row>
     <row r="67" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I67" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J67" s="98" t="s">
+      <c r="J67" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="K67" s="98"/>
-      <c r="L67" s="98"/>
-      <c r="M67" s="98"/>
-      <c r="N67" s="98"/>
+      <c r="K67" s="73"/>
+      <c r="L67" s="73"/>
+      <c r="M67" s="73"/>
+      <c r="N67" s="73"/>
       <c r="O67" s="22"/>
     </row>
     <row r="68" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I68" s="13">
         <v>1</v>
       </c>
-      <c r="J68" s="107" t="s">
+      <c r="J68" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="K68" s="107"/>
-      <c r="L68" s="107"/>
-      <c r="M68" s="107"/>
-      <c r="N68" s="107"/>
+      <c r="K68" s="69"/>
+      <c r="L68" s="69"/>
+      <c r="M68" s="69"/>
+      <c r="N68" s="69"/>
       <c r="O68" s="22"/>
     </row>
     <row r="69" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I69" s="14">
         <v>2</v>
       </c>
-      <c r="J69" s="120" t="s">
+      <c r="J69" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="K69" s="120"/>
-      <c r="L69" s="120"/>
-      <c r="M69" s="120"/>
-      <c r="N69" s="120"/>
+      <c r="K69" s="67"/>
+      <c r="L69" s="67"/>
+      <c r="M69" s="67"/>
+      <c r="N69" s="67"/>
       <c r="O69" s="23"/>
     </row>
     <row r="70" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I70" s="83" t="s">
+      <c r="I70" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="J70" s="84"/>
-      <c r="K70" s="84"/>
-      <c r="L70" s="84"/>
-      <c r="M70" s="84"/>
-      <c r="N70" s="84"/>
-      <c r="O70" s="85"/>
+      <c r="J70" s="76"/>
+      <c r="K70" s="76"/>
+      <c r="L70" s="76"/>
+      <c r="M70" s="76"/>
+      <c r="N70" s="76"/>
+      <c r="O70" s="77"/>
     </row>
     <row r="71" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I71" s="12" t="s">
@@ -5507,14 +5944,14 @@
       </c>
     </row>
     <row r="72" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I72" s="93" t="s">
+      <c r="I72" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="J72" s="94"/>
-      <c r="K72" s="94"/>
-      <c r="L72" s="94"/>
-      <c r="M72" s="94"/>
-      <c r="N72" s="94"/>
+      <c r="J72" s="68"/>
+      <c r="K72" s="68"/>
+      <c r="L72" s="68"/>
+      <c r="M72" s="68"/>
+      <c r="N72" s="68"/>
       <c r="O72" s="22"/>
     </row>
     <row r="73" spans="9:15" x14ac:dyDescent="0.2">
@@ -5585,51 +6022,51 @@
       </c>
     </row>
     <row r="76" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I76" s="93" t="s">
+      <c r="I76" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="J76" s="94"/>
-      <c r="K76" s="94"/>
-      <c r="L76" s="94"/>
-      <c r="M76" s="94"/>
-      <c r="N76" s="94"/>
+      <c r="J76" s="68"/>
+      <c r="K76" s="68"/>
+      <c r="L76" s="68"/>
+      <c r="M76" s="68"/>
+      <c r="N76" s="68"/>
       <c r="O76" s="22"/>
     </row>
     <row r="77" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I77" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J77" s="94" t="s">
+      <c r="J77" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="K77" s="94"/>
-      <c r="L77" s="94"/>
-      <c r="M77" s="94"/>
-      <c r="N77" s="94"/>
+      <c r="K77" s="68"/>
+      <c r="L77" s="68"/>
+      <c r="M77" s="68"/>
+      <c r="N77" s="68"/>
       <c r="O77" s="22"/>
     </row>
     <row r="78" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I78" s="13">
         <v>1</v>
       </c>
-      <c r="J78" s="107" t="s">
+      <c r="J78" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="K78" s="107"/>
-      <c r="L78" s="107"/>
-      <c r="M78" s="107"/>
-      <c r="N78" s="107"/>
+      <c r="K78" s="69"/>
+      <c r="L78" s="69"/>
+      <c r="M78" s="69"/>
+      <c r="N78" s="69"/>
       <c r="O78" s="22"/>
     </row>
     <row r="79" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I79" s="102" t="s">
+      <c r="I79" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="J79" s="103"/>
-      <c r="K79" s="103"/>
-      <c r="L79" s="103"/>
-      <c r="M79" s="103"/>
-      <c r="N79" s="103"/>
+      <c r="J79" s="71"/>
+      <c r="K79" s="71"/>
+      <c r="L79" s="71"/>
+      <c r="M79" s="71"/>
+      <c r="N79" s="71"/>
       <c r="O79" s="22"/>
     </row>
     <row r="80" spans="9:15" x14ac:dyDescent="0.2">
@@ -5679,64 +6116,64 @@
       </c>
     </row>
     <row r="82" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I82" s="102" t="s">
+      <c r="I82" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="J82" s="103"/>
-      <c r="K82" s="103"/>
-      <c r="L82" s="103"/>
-      <c r="M82" s="103"/>
-      <c r="N82" s="103"/>
+      <c r="J82" s="71"/>
+      <c r="K82" s="71"/>
+      <c r="L82" s="71"/>
+      <c r="M82" s="71"/>
+      <c r="N82" s="71"/>
       <c r="O82" s="22"/>
     </row>
     <row r="83" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I83" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J83" s="103" t="s">
+      <c r="J83" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="K83" s="103"/>
-      <c r="L83" s="103"/>
-      <c r="M83" s="103"/>
-      <c r="N83" s="103"/>
+      <c r="K83" s="71"/>
+      <c r="L83" s="71"/>
+      <c r="M83" s="71"/>
+      <c r="N83" s="71"/>
       <c r="O83" s="22"/>
     </row>
     <row r="84" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I84" s="13">
         <v>1</v>
       </c>
-      <c r="J84" s="107" t="s">
+      <c r="J84" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="K84" s="107"/>
-      <c r="L84" s="107"/>
-      <c r="M84" s="107"/>
-      <c r="N84" s="107"/>
+      <c r="K84" s="69"/>
+      <c r="L84" s="69"/>
+      <c r="M84" s="69"/>
+      <c r="N84" s="69"/>
       <c r="O84" s="22"/>
     </row>
     <row r="85" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I85" s="13">
         <v>2</v>
       </c>
-      <c r="J85" s="107" t="s">
+      <c r="J85" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="K85" s="107"/>
-      <c r="L85" s="107"/>
-      <c r="M85" s="107"/>
-      <c r="N85" s="107"/>
+      <c r="K85" s="69"/>
+      <c r="L85" s="69"/>
+      <c r="M85" s="69"/>
+      <c r="N85" s="69"/>
       <c r="O85" s="22"/>
     </row>
     <row r="86" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I86" s="108" t="s">
+      <c r="I86" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="J86" s="98"/>
-      <c r="K86" s="98"/>
-      <c r="L86" s="98"/>
-      <c r="M86" s="98"/>
-      <c r="N86" s="98"/>
+      <c r="J86" s="73"/>
+      <c r="K86" s="73"/>
+      <c r="L86" s="73"/>
+      <c r="M86" s="73"/>
+      <c r="N86" s="73"/>
       <c r="O86" s="22"/>
     </row>
     <row r="87" spans="9:15" x14ac:dyDescent="0.2">
@@ -5897,126 +6334,70 @@
       </c>
     </row>
     <row r="94" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I94" s="108" t="s">
+      <c r="I94" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="J94" s="98"/>
-      <c r="K94" s="98"/>
-      <c r="L94" s="98"/>
-      <c r="M94" s="98"/>
-      <c r="N94" s="98"/>
+      <c r="J94" s="73"/>
+      <c r="K94" s="73"/>
+      <c r="L94" s="73"/>
+      <c r="M94" s="73"/>
+      <c r="N94" s="73"/>
       <c r="O94" s="22"/>
     </row>
     <row r="95" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I95" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J95" s="98" t="s">
+      <c r="J95" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="K95" s="98"/>
-      <c r="L95" s="98"/>
-      <c r="M95" s="98"/>
-      <c r="N95" s="98"/>
+      <c r="K95" s="73"/>
+      <c r="L95" s="73"/>
+      <c r="M95" s="73"/>
+      <c r="N95" s="73"/>
       <c r="O95" s="22"/>
     </row>
     <row r="96" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I96" s="13">
         <v>1</v>
       </c>
-      <c r="J96" s="107" t="s">
+      <c r="J96" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="K96" s="107"/>
-      <c r="L96" s="107"/>
-      <c r="M96" s="107"/>
-      <c r="N96" s="107"/>
+      <c r="K96" s="69"/>
+      <c r="L96" s="69"/>
+      <c r="M96" s="69"/>
+      <c r="N96" s="69"/>
       <c r="O96" s="22"/>
     </row>
     <row r="97" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I97" s="14">
         <v>2</v>
       </c>
-      <c r="J97" s="120" t="s">
+      <c r="J97" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="K97" s="120"/>
-      <c r="L97" s="120"/>
-      <c r="M97" s="120"/>
-      <c r="N97" s="120"/>
+      <c r="K97" s="67"/>
+      <c r="L97" s="67"/>
+      <c r="M97" s="67"/>
+      <c r="N97" s="67"/>
       <c r="O97" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="J77:N77"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="I79:N79"/>
-    <mergeCell ref="I82:N82"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="I86:N86"/>
-    <mergeCell ref="I94:N94"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="I76:N76"/>
-    <mergeCell ref="I58:N58"/>
-    <mergeCell ref="I60:N60"/>
-    <mergeCell ref="J61:N61"/>
-    <mergeCell ref="J62:N62"/>
-    <mergeCell ref="I63:N63"/>
-    <mergeCell ref="I66:N66"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="J68:N68"/>
-    <mergeCell ref="J69:N69"/>
-    <mergeCell ref="I70:O70"/>
-    <mergeCell ref="I72:N72"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="J48:N48"/>
-    <mergeCell ref="J49:N49"/>
-    <mergeCell ref="J50:N50"/>
-    <mergeCell ref="I51:O51"/>
-    <mergeCell ref="I53:N53"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="J56:N56"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:O28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="I9:N9"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="J25:N25"/>
     <mergeCell ref="J11:N11"/>
@@ -6031,36 +6412,92 @@
     <mergeCell ref="B23:H23"/>
     <mergeCell ref="B24:H24"/>
     <mergeCell ref="I24:N24"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:O28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="J49:N49"/>
+    <mergeCell ref="J50:N50"/>
+    <mergeCell ref="I51:O51"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="J56:N56"/>
+    <mergeCell ref="I76:N76"/>
+    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="I60:N60"/>
+    <mergeCell ref="J61:N61"/>
+    <mergeCell ref="J62:N62"/>
+    <mergeCell ref="I63:N63"/>
+    <mergeCell ref="I66:N66"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="J69:N69"/>
+    <mergeCell ref="I70:O70"/>
+    <mergeCell ref="I72:N72"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="I79:N79"/>
+    <mergeCell ref="I82:N82"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="I86:N86"/>
+    <mergeCell ref="I94:N94"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J96:N96"/>
   </mergeCells>
   <conditionalFormatting sqref="H20:H22">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="between">
       <formula>1</formula>
       <formula>0.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="greaterThan">
       <formula>100%</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="lessThan">
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="53" priority="4" operator="between">
       <formula>0.89</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="5" operator="greaterThanOrEqual">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6074,8 +6511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6095,51 +6532,51 @@
   <sheetData>
     <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="134" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="136"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="83" t="s">
+      <c r="C3" s="137"/>
+      <c r="D3" s="75" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="85"/>
-      <c r="H3" s="83" t="s">
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
+      <c r="H3" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="85"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="77"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -6231,10 +6668,18 @@
       <c r="N5" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
+      <c r="O5" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="P5" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q5" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="R5" s="138" t="s">
+        <v>229</v>
+      </c>
       <c r="S5" s="43" t="s">
         <v>235</v>
       </c>
@@ -6276,10 +6721,18 @@
       <c r="N6" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="30"/>
+      <c r="O6" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="P6" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q6" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="R6" s="138" t="s">
+        <v>229</v>
+      </c>
       <c r="S6" s="43" t="s">
         <v>234</v>
       </c>
@@ -6321,19 +6774,27 @@
       <c r="N7" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
+      <c r="O7" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="P7" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q7" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="R7" s="138" t="s">
+        <v>229</v>
+      </c>
       <c r="S7" s="43" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="136"/>
+      <c r="C8" s="137"/>
       <c r="D8" s="47" t="s">
         <v>16</v>
       </c>
@@ -6364,16 +6825,16 @@
       <c r="N8" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O8" s="137" t="s">
-        <v>229</v>
-      </c>
-      <c r="P8" s="137" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q8" s="137" t="s">
-        <v>229</v>
-      </c>
-      <c r="R8" s="137" t="s">
+      <c r="O8" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q8" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="R8" s="66" t="s">
         <v>229</v>
       </c>
       <c r="S8" s="43" t="s">
@@ -6417,10 +6878,18 @@
       <c r="N9" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
+      <c r="O9" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="P9" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q9" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="R9" s="138" t="s">
+        <v>229</v>
+      </c>
       <c r="S9" s="43" t="s">
         <v>241</v>
       </c>
@@ -6462,10 +6931,18 @@
       <c r="N10" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="40"/>
+      <c r="O10" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="P10" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q10" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="R10" s="138" t="s">
+        <v>229</v>
+      </c>
       <c r="S10" s="43" t="s">
         <v>242</v>
       </c>
@@ -6516,10 +6993,10 @@
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="85"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="41" t="s">
         <v>24</v>
       </c>
@@ -6550,7 +7027,9 @@
       <c r="N12" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O12" s="30"/>
+      <c r="O12" s="138" t="s">
+        <v>229</v>
+      </c>
       <c r="P12" s="40"/>
       <c r="Q12" s="40"/>
       <c r="R12" s="30"/>
@@ -6667,7 +7146,9 @@
       <c r="N15" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O15" s="30"/>
+      <c r="O15" s="138" t="s">
+        <v>229</v>
+      </c>
       <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
       <c r="R15" s="30"/>
@@ -6756,10 +7237,10 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="85"/>
+      <c r="C18" s="77"/>
       <c r="H18" s="47" t="s">
         <v>259</v>
       </c>
@@ -6934,14 +7415,14 @@
       <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="75" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="85"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
@@ -7136,12 +7617,2224 @@
     <mergeCell ref="D3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="containsText" dxfId="38" priority="15" operator="containsText" text="O">
+    <cfRule type="containsText" dxfId="51" priority="15" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1 O3:O1048576">
-    <cfRule type="containsText" dxfId="37" priority="14" operator="containsText" text="O">
+    <cfRule type="containsText" dxfId="50" priority="14" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",O1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1 R3:R1048576">
+    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",R1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:Q1 P3:Q1048576">
+    <cfRule type="containsText" dxfId="48" priority="10" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",P1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1 L3:L1048576">
+    <cfRule type="endsWith" dxfId="47" priority="9" operator="endsWith" text="?">
+      <formula>RIGHT(L1,LEN("?"))="?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1 J3:J1048576">
+    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="QA">
+      <formula>NOT(ISERROR(SEARCH("QA",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="7" operator="containsText" text="BE">
+      <formula>NOT(ISERROR(SEARCH("BE",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="8" operator="containsText" text="FE">
+      <formula>NOT(ISERROR(SEARCH("FE",J1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1 K3:K1048576">
+    <cfRule type="containsText" dxfId="43" priority="2" operator="containsText" text="TS">
+      <formula>NOT(ISERROR(SEARCH("TS",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="3" operator="containsText" text="DB">
+      <formula>NOT(ISERROR(SEARCH("DB",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="4" operator="containsText" text="ED">
+      <formula>NOT(ISERROR(SEARCH("ED",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="5" operator="containsText" text="PR">
+      <formula>NOT(ISERROR(SEARCH("PR",K1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1 M3:M1048576">
+    <cfRule type="beginsWith" dxfId="39" priority="1" operator="beginsWith" text="?">
+      <formula>LEFT(M1,LEN("?"))="?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:S31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="28" customWidth="1"/>
+    <col min="2" max="7" width="15.7109375" style="28" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="5.28515625" style="29" customWidth="1"/>
+    <col min="19" max="19" width="63.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="1.7109375" style="28" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="134" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="136"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="137"/>
+      <c r="D3" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
+      <c r="H3" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="77"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="55">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="139" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="30">
+        <v>4</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O5" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="P5" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q5" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="R5" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="S5" s="43" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="139" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="30">
+        <v>2</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O6" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="P6" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q6" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="R6" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="S6" s="43" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="30">
+        <v>4</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O7" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="P7" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q7" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="R7" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="S7" s="43" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="137"/>
+      <c r="D8" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="30">
+        <v>2</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O8" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q8" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="R8" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="S8" s="43" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="30">
+        <v>4</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O9" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="P9" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q9" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="R9" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="S9" s="43" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="30">
+        <v>4</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O10" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="P10" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q10" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="R10" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="S10" s="43" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="L11" s="138" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="30">
+        <v>4</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O11" s="30"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="43" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="77"/>
+      <c r="D12" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="30">
+        <v>4</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O12" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="43" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="L13" s="138" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="30">
+        <v>4</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="43" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L14" s="138" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="30">
+        <v>2</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O14" s="40"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="43" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="30">
+        <v>2</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O15" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="43" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="30">
+        <v>3</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="43" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="H17" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="L17" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="30">
+        <v>2</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O17" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="P17" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q17" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="R17" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="S17" s="43" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="77"/>
+      <c r="H18" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="30">
+        <v>5</v>
+      </c>
+      <c r="N18" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O18" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="P18" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q18" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="R18" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="S18" s="43" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="L19" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="30">
+        <v>7</v>
+      </c>
+      <c r="N19" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O19" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="R19" s="40"/>
+      <c r="S19" s="43" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="L20" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="30">
+        <v>7</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="43" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="L21" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="30">
+        <v>7</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="R21" s="40"/>
+      <c r="S21" s="43" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="49"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="46"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="47">
+        <v>1</v>
+      </c>
+      <c r="C25" s="138" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="30">
+        <f>COUNTIF($M$5:$M$21,B25)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="30">
+        <f>COUNTA(H5:H21)-D25</f>
+        <v>17</v>
+      </c>
+      <c r="F25" s="30">
+        <v>8</v>
+      </c>
+      <c r="G25" s="48">
+        <f>COUNTA(H5:H21)-F25</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="47">
+        <v>2</v>
+      </c>
+      <c r="C26" s="138" t="s">
+        <v>272</v>
+      </c>
+      <c r="D26" s="30">
+        <f t="shared" ref="D26:D31" si="0">COUNTIF($M$5:$M$21,B26)</f>
+        <v>5</v>
+      </c>
+      <c r="E26" s="30">
+        <f>E25-D26</f>
+        <v>12</v>
+      </c>
+      <c r="F26" s="30">
+        <v>0</v>
+      </c>
+      <c r="G26" s="48">
+        <f>G25-F26</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="47">
+        <v>3</v>
+      </c>
+      <c r="C27" s="138" t="s">
+        <v>273</v>
+      </c>
+      <c r="D27" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E27" s="30">
+        <f t="shared" ref="E27:E31" si="1">E26-D27</f>
+        <v>11</v>
+      </c>
+      <c r="F27" s="30">
+        <v>0</v>
+      </c>
+      <c r="G27" s="48">
+        <f t="shared" ref="G27:G31" si="2">G26-F27</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="47">
+        <v>4</v>
+      </c>
+      <c r="C28" s="138" t="s">
+        <v>274</v>
+      </c>
+      <c r="D28" s="30">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E28" s="30">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F28" s="30">
+        <v>0</v>
+      </c>
+      <c r="G28" s="48">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="47">
+        <v>5</v>
+      </c>
+      <c r="C29" s="138" t="s">
+        <v>275</v>
+      </c>
+      <c r="D29" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="30">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F29" s="30">
+        <v>0</v>
+      </c>
+      <c r="G29" s="48">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="47">
+        <v>6</v>
+      </c>
+      <c r="C30" s="138" t="s">
+        <v>276</v>
+      </c>
+      <c r="D30" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="30">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F30" s="30">
+        <v>0</v>
+      </c>
+      <c r="G30" s="48">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="49">
+        <v>7</v>
+      </c>
+      <c r="C31" s="140" t="s">
+        <v>270</v>
+      </c>
+      <c r="D31" s="50">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E31" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="50">
+        <v>0</v>
+      </c>
+      <c r="G31" s="51">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:S3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N1 N3:N1048576">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",N1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1 O3:O1048576">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",O1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1 R3:R1048576">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",R1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:Q1 P3:Q1048576">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",P1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1 L3:L1048576">
+    <cfRule type="endsWith" dxfId="8" priority="9" operator="endsWith" text="?">
+      <formula>RIGHT(L1,LEN("?"))="?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1 J3:J1048576">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="QA">
+      <formula>NOT(ISERROR(SEARCH("QA",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="BE">
+      <formula>NOT(ISERROR(SEARCH("BE",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="FE">
+      <formula>NOT(ISERROR(SEARCH("FE",J1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1 K3:K1048576">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="TS">
+      <formula>NOT(ISERROR(SEARCH("TS",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="DB">
+      <formula>NOT(ISERROR(SEARCH("DB",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="ED">
+      <formula>NOT(ISERROR(SEARCH("ED",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="PR">
+      <formula>NOT(ISERROR(SEARCH("PR",K1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1 M3:M1048576">
+    <cfRule type="beginsWith" dxfId="0" priority="1" operator="beginsWith" text="?">
+      <formula>LEFT(M1,LEN("?"))="?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:S31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="28" customWidth="1"/>
+    <col min="2" max="7" width="15.7109375" style="28" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="5.28515625" style="29" customWidth="1"/>
+    <col min="19" max="19" width="63.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="1.7109375" style="28" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="134" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="136"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="137"/>
+      <c r="D3" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
+      <c r="H3" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="77"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="55">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M5" s="30">
+        <v>1</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="43" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M6" s="30">
+        <v>2</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="43" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M7" s="30">
+        <v>3</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="43" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="77"/>
+      <c r="D8" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M8" s="30">
+        <v>4</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="43" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M9" s="30">
+        <v>1</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="43" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M10" s="30">
+        <v>2</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="43" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M11" s="30">
+        <v>3</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="43" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="77"/>
+      <c r="D12" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M12" s="30">
+        <v>1</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="R12" s="30"/>
+      <c r="S12" s="43" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M13" s="30">
+        <v>2</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M14" s="30">
+        <v>3</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O14" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="R14" s="30"/>
+      <c r="S14" s="43" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M15" s="30">
+        <v>4</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="43" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M16" s="30">
+        <v>5</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="R16" s="30"/>
+      <c r="S16" s="43" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="H17" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M17" s="30">
+        <v>6</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="43" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="77"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="43"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="47"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="43"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="47"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="43"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="47"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="43"/>
+    </row>
+    <row r="22" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="49"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="46"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="47">
+        <v>1</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="30">
+        <f>COUNTIF($M$5:$M$21,B25)</f>
+        <v>3</v>
+      </c>
+      <c r="E25" s="30">
+        <f>COUNTA(H5:H21)-D25</f>
+        <v>10</v>
+      </c>
+      <c r="F25" s="30">
+        <v>0</v>
+      </c>
+      <c r="G25" s="48">
+        <f>COUNTA(H5:H21)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="47">
+        <v>2</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="D26" s="30">
+        <f t="shared" ref="D26:D31" si="0">COUNTIF($M$5:$M$21,B26)</f>
+        <v>3</v>
+      </c>
+      <c r="E26" s="30">
+        <f>E25-D26</f>
+        <v>7</v>
+      </c>
+      <c r="F26" s="30">
+        <v>0</v>
+      </c>
+      <c r="G26" s="48">
+        <f>G25-F26</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="47">
+        <v>3</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="D27" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E27" s="30">
+        <f t="shared" ref="E27:E31" si="1">E26-D27</f>
+        <v>4</v>
+      </c>
+      <c r="F27" s="30">
+        <v>0</v>
+      </c>
+      <c r="G27" s="48">
+        <f t="shared" ref="G27:G31" si="2">G26-F27</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="47">
+        <v>4</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="D28" s="30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E28" s="30">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F28" s="30">
+        <v>0</v>
+      </c>
+      <c r="G28" s="48">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="47">
+        <v>5</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="D29" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="30">
+        <v>0</v>
+      </c>
+      <c r="G29" s="48">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="47">
+        <v>6</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="D30" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="30">
+        <v>0</v>
+      </c>
+      <c r="G30" s="48">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="49">
+        <v>7</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="D31" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="50">
+        <v>0</v>
+      </c>
+      <c r="G31" s="51">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:S3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N1 N3:N1048576">
+    <cfRule type="containsText" dxfId="38" priority="13" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",N1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1 O3:O1048576">
+    <cfRule type="containsText" dxfId="37" priority="12" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7196,12 +9889,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7221,57 +9914,57 @@
   <sheetData>
     <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="133" t="s">
-        <v>269</v>
-      </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="135"/>
+      <c r="B2" s="134" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="136"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="83" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="75" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="85"/>
-      <c r="H3" s="83" t="s">
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
+      <c r="H3" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="85"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="77"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="43">
         <v>1</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -7324,9 +10017,7 @@
       <c r="B5" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="55" t="s">
-        <v>204</v>
-      </c>
+      <c r="C5" s="43"/>
       <c r="D5" s="47" t="s">
         <v>10</v>
       </c>
@@ -7339,39 +10030,25 @@
       <c r="H5" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>82</v>
-      </c>
+      <c r="I5" s="30"/>
       <c r="J5" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="M5" s="30">
-        <v>1</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>229</v>
-      </c>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="43" t="s">
-        <v>277</v>
-      </c>
+      <c r="R5" s="40"/>
+      <c r="S5" s="43"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="55" t="s">
-        <v>270</v>
-      </c>
+      <c r="C6" s="43"/>
       <c r="D6" s="47" t="s">
         <v>12</v>
       </c>
@@ -7384,39 +10061,25 @@
       <c r="H6" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="I6" s="30" t="s">
-        <v>82</v>
-      </c>
+      <c r="I6" s="30"/>
       <c r="J6" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="L6" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="M6" s="30">
-        <v>2</v>
-      </c>
-      <c r="N6" s="30" t="s">
-        <v>229</v>
-      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="43" t="s">
-        <v>278</v>
-      </c>
+      <c r="R6" s="40"/>
+      <c r="S6" s="43"/>
     </row>
     <row r="7" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="56" t="s">
-        <v>271</v>
-      </c>
+      <c r="C7" s="45"/>
       <c r="D7" s="47" t="s">
         <v>14</v>
       </c>
@@ -7429,37 +10092,25 @@
       <c r="H7" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="I7" s="30" t="s">
-        <v>84</v>
-      </c>
+      <c r="I7" s="30"/>
       <c r="J7" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="L7" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="M7" s="30">
-        <v>3</v>
-      </c>
-      <c r="N7" s="30" t="s">
-        <v>229</v>
-      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
       <c r="O7" s="30"/>
       <c r="P7" s="30"/>
       <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="43" t="s">
-        <v>279</v>
-      </c>
+      <c r="R7" s="40"/>
+      <c r="S7" s="43"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="85"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="47" t="s">
         <v>16</v>
       </c>
@@ -7472,31 +10123,19 @@
       <c r="H8" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="I8" s="30" t="s">
-        <v>84</v>
-      </c>
+      <c r="I8" s="30"/>
       <c r="J8" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="M8" s="30">
-        <v>4</v>
-      </c>
-      <c r="N8" s="30" t="s">
-        <v>229</v>
-      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
       <c r="O8" s="30"/>
       <c r="P8" s="30"/>
       <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="43" t="s">
-        <v>283</v>
-      </c>
+      <c r="R8" s="40"/>
+      <c r="S8" s="43"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="42" t="s">
@@ -7515,33 +10154,21 @@
         <v>32</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>95</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="I9" s="30"/>
       <c r="J9" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="L9" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="M9" s="30">
-        <v>1</v>
-      </c>
-      <c r="N9" s="30" t="s">
-        <v>229</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="43" t="s">
-        <v>280</v>
-      </c>
+      <c r="R9" s="40"/>
+      <c r="S9" s="43"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="42" t="s">
@@ -7560,33 +10187,21 @@
         <v>33</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>243</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>97</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="I10" s="30"/>
       <c r="J10" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="L10" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="M10" s="30">
-        <v>2</v>
-      </c>
-      <c r="N10" s="30" t="s">
-        <v>229</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
       <c r="O10" s="30"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="43" t="s">
-        <v>281</v>
-      </c>
+      <c r="R10" s="40"/>
+      <c r="S10" s="43"/>
     </row>
     <row r="11" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="44" t="s">
@@ -7607,38 +10222,26 @@
       <c r="H11" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="I11" s="30" t="s">
-        <v>97</v>
-      </c>
+      <c r="I11" s="30"/>
       <c r="J11" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="L11" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="M11" s="30">
-        <v>3</v>
-      </c>
-      <c r="N11" s="30" t="s">
-        <v>229</v>
-      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
       <c r="O11" s="30"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="43" t="s">
-        <v>282</v>
-      </c>
+      <c r="R11" s="40"/>
+      <c r="S11" s="43"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="41" t="s">
+      <c r="C12" s="77"/>
+      <c r="D12" s="47" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="30" t="s">
@@ -7648,37 +10251,21 @@
         <v>35</v>
       </c>
       <c r="H12" s="47" t="s">
-        <v>259</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>130</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="I12" s="30"/>
       <c r="J12" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="L12" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="M12" s="30">
-        <v>1</v>
-      </c>
-      <c r="N12" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="O12" s="30" t="s">
-        <v>83</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
       <c r="P12" s="30"/>
-      <c r="Q12" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="R12" s="30"/>
-      <c r="S12" s="43" t="s">
-        <v>284</v>
-      </c>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="43"/>
     </row>
     <row r="13" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="42" t="s">
@@ -7687,7 +10274,7 @@
       <c r="C13" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="49" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="50" t="s">
@@ -7697,33 +10284,21 @@
         <v>36</v>
       </c>
       <c r="H13" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>130</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="I13" s="30"/>
       <c r="J13" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="L13" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="M13" s="30">
-        <v>2</v>
-      </c>
-      <c r="N13" s="30" t="s">
-        <v>229</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="43" t="s">
-        <v>285</v>
-      </c>
+      <c r="R13" s="40"/>
+      <c r="S13" s="43"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="42" t="s">
@@ -7733,37 +10308,21 @@
         <v>197</v>
       </c>
       <c r="H14" s="47" t="s">
-        <v>266</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>132</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="I14" s="30"/>
       <c r="J14" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="L14" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="M14" s="30">
-        <v>3</v>
-      </c>
-      <c r="N14" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="O14" s="30" t="s">
-        <v>83</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
       <c r="P14" s="30"/>
-      <c r="Q14" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="R14" s="30"/>
-      <c r="S14" s="43" t="s">
-        <v>287</v>
-      </c>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="43"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="42" t="s">
@@ -7773,33 +10332,21 @@
         <v>47</v>
       </c>
       <c r="H15" s="47" t="s">
-        <v>267</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>132</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="I15" s="30"/>
       <c r="J15" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="L15" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="M15" s="30">
-        <v>4</v>
-      </c>
-      <c r="N15" s="30" t="s">
-        <v>229</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="43" t="s">
-        <v>286</v>
-      </c>
+      <c r="R15" s="40"/>
+      <c r="S15" s="43"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="42" t="s">
@@ -7809,37 +10356,21 @@
         <v>198</v>
       </c>
       <c r="H16" s="47" t="s">
-        <v>290</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>134</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="I16" s="30"/>
       <c r="J16" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="L16" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="M16" s="30">
-        <v>5</v>
-      </c>
-      <c r="N16" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="O16" s="30" t="s">
-        <v>83</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
       <c r="P16" s="30"/>
-      <c r="Q16" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="R16" s="30"/>
-      <c r="S16" s="43" t="s">
-        <v>288</v>
-      </c>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="43"/>
     </row>
     <row r="17" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="44" t="s">
@@ -7851,40 +10382,32 @@
       <c r="H17" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="I17" s="30" t="s">
-        <v>134</v>
-      </c>
+      <c r="I17" s="30"/>
       <c r="J17" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="L17" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="M17" s="30">
-        <v>6</v>
-      </c>
-      <c r="N17" s="30" t="s">
-        <v>229</v>
-      </c>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="43" t="s">
-        <v>289</v>
-      </c>
+      <c r="R17" s="40"/>
+      <c r="S17" s="43"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="85"/>
-      <c r="H18" s="47"/>
+      <c r="C18" s="77"/>
+      <c r="H18" s="47" t="s">
+        <v>259</v>
+      </c>
       <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
+      <c r="J18" s="30" t="s">
+        <v>56</v>
+      </c>
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
@@ -7892,7 +10415,7 @@
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
+      <c r="R18" s="40"/>
       <c r="S18" s="43"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
@@ -7902,9 +10425,13 @@
       <c r="C19" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="47"/>
+      <c r="H19" s="47" t="s">
+        <v>261</v>
+      </c>
       <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
+      <c r="J19" s="30" t="s">
+        <v>56</v>
+      </c>
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
@@ -7912,7 +10439,7 @@
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
+      <c r="R19" s="40"/>
       <c r="S19" s="43"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
@@ -7922,9 +10449,13 @@
       <c r="C20" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="47"/>
+      <c r="H20" s="47" t="s">
+        <v>266</v>
+      </c>
       <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
+      <c r="J20" s="30" t="s">
+        <v>56</v>
+      </c>
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
@@ -7932,7 +10463,7 @@
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
+      <c r="R20" s="40"/>
       <c r="S20" s="43"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
@@ -7942,9 +10473,13 @@
       <c r="C21" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="47"/>
+      <c r="H21" s="47" t="s">
+        <v>267</v>
+      </c>
       <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
+      <c r="J21" s="30" t="s">
+        <v>56</v>
+      </c>
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
       <c r="M21" s="30"/>
@@ -7952,7 +10487,7 @@
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
+      <c r="R21" s="40"/>
       <c r="S21" s="43"/>
     </row>
     <row r="22" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7962,9 +10497,13 @@
       <c r="C22" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="49"/>
+      <c r="H22" s="49" t="s">
+        <v>290</v>
+      </c>
       <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
+      <c r="J22" s="50" t="s">
+        <v>56</v>
+      </c>
       <c r="K22" s="50"/>
       <c r="L22" s="50"/>
       <c r="M22" s="50"/>
@@ -7972,18 +10511,18 @@
       <c r="O22" s="50"/>
       <c r="P22" s="50"/>
       <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
+      <c r="R22" s="52"/>
       <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="75" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="85"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
@@ -8009,147 +10548,139 @@
       <c r="B25" s="47">
         <v>1</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>204</v>
-      </c>
+      <c r="C25" s="30"/>
       <c r="D25" s="30">
-        <f>COUNTIF($M$5:$M$21,B25)</f>
-        <v>3</v>
+        <f>COUNTIF($M$5:$M$22,B25)</f>
+        <v>0</v>
       </c>
       <c r="E25" s="30">
-        <f>COUNTA(H5:H21)-D25</f>
-        <v>10</v>
+        <f>(COUNTA(H5:H22)-COUNTBLANK(I5:I22))-D25</f>
+        <v>0</v>
       </c>
       <c r="F25" s="30">
+        <f>COUNTIFS($R$5:$R$22,"O",$M$5:$M$22,B25)</f>
         <v>0</v>
       </c>
       <c r="G25" s="48">
-        <f>COUNTA(H5:H21)</f>
-        <v>13</v>
+        <f>(COUNTA(H5:H22)-COUNTBLANK(I5:I22)) - F25</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="47">
         <v>2</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="C26" s="30"/>
       <c r="D26" s="30">
-        <f t="shared" ref="D26:D31" si="0">COUNTIF($M$5:$M$21,B26)</f>
-        <v>3</v>
+        <f t="shared" ref="D26:D31" si="0">COUNTIF($M$5:$M$22,B26)</f>
+        <v>0</v>
       </c>
       <c r="E26" s="30">
         <f>E25-D26</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F26" s="30">
+        <f>COUNTIFS($R$5:$R$22,"O",$M$5:$M$22,B26)</f>
         <v>0</v>
       </c>
       <c r="G26" s="48">
         <f>G25-F26</f>
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="47">
         <v>3</v>
       </c>
-      <c r="C27" s="30" t="s">
-        <v>273</v>
-      </c>
+      <c r="C27" s="30"/>
       <c r="D27" s="30">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E27" s="30">
         <f t="shared" ref="E27:E31" si="1">E26-D27</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F27" s="30">
+        <f t="shared" ref="F27:F31" si="2">COUNTIFS($R$5:$R$22,"O",$M$5:$M$22,B27)</f>
         <v>0</v>
       </c>
       <c r="G27" s="48">
-        <f t="shared" ref="G27:G31" si="2">G26-F27</f>
-        <v>13</v>
+        <f t="shared" ref="G27:G31" si="3">G26-F27</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="47">
         <v>4</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>274</v>
-      </c>
+      <c r="C28" s="30"/>
       <c r="D28" s="30">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E28" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28" s="30">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G28" s="48">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="47">
         <v>5</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>275</v>
-      </c>
+      <c r="C29" s="30"/>
       <c r="D29" s="30">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="30">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G29" s="48">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="47">
         <v>6</v>
       </c>
-      <c r="C30" s="30" t="s">
-        <v>276</v>
-      </c>
+      <c r="C30" s="30"/>
       <c r="D30" s="30">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F30" s="30">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G30" s="48">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="49">
         <v>7</v>
       </c>
-      <c r="C31" s="50" t="s">
-        <v>270</v>
-      </c>
+      <c r="C31" s="50"/>
       <c r="D31" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8159,11 +10690,12 @@
         <v>0</v>
       </c>
       <c r="F31" s="50">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G31" s="51">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8234,887 +10766,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1.7109375" style="28" customWidth="1"/>
-    <col min="2" max="7" width="15.7109375" style="28" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="5.28515625" style="29" customWidth="1"/>
-    <col min="19" max="19" width="63.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="1.7109375" style="28" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="28"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="133" t="s">
-        <v>295</v>
-      </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="135"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="83" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="83" t="s">
-        <v>205</v>
-      </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="85"/>
-      <c r="H3" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="85"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="43">
-        <v>1</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="R4" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="S4" s="25" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="43"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="43"/>
-    </row>
-    <row r="7" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="43"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="83" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="43"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="43"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>256</v>
-      </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="43"/>
-    </row>
-    <row r="11" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="43"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="83" t="s">
-        <v>186</v>
-      </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="43"/>
-    </row>
-    <row r="13" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="42" t="s">
-        <v>188</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="43"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="H14" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="43"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="43"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="H16" s="47" t="s">
-        <v>243</v>
-      </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="43"/>
-    </row>
-    <row r="17" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="44" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="H17" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="43"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="83" t="s">
-        <v>193</v>
-      </c>
-      <c r="C18" s="85"/>
-      <c r="H18" s="47" t="s">
-        <v>259</v>
-      </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="43"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="43"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="47" t="s">
-        <v>266</v>
-      </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="43"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="47" t="s">
-        <v>267</v>
-      </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="43"/>
-    </row>
-    <row r="22" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="53" t="s">
-        <v>201</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="49" t="s">
-        <v>290</v>
-      </c>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="46"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="83" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="85"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="47">
-        <v>1</v>
-      </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30">
-        <f>COUNTIF($M$5:$M$22,B25)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="30">
-        <f>(COUNTA(H5:H22)-COUNTBLANK(I5:I22))-D25</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="30">
-        <f>COUNTIFS($R$5:$R$22,"O",$M$5:$M$22,B25)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="48">
-        <f>(COUNTA(H5:H22)-COUNTBLANK(I5:I22)) - F25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="47">
-        <v>2</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30">
-        <f t="shared" ref="D26:D31" si="0">COUNTIF($M$5:$M$22,B26)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="30">
-        <f>E25-D26</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="30">
-        <f>COUNTIFS($R$5:$R$22,"O",$M$5:$M$22,B26)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="48">
-        <f>G25-F26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="47">
-        <v>3</v>
-      </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="30">
-        <f t="shared" ref="E27:E31" si="1">E26-D27</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="30">
-        <f t="shared" ref="F27:F31" si="2">COUNTIFS($R$5:$R$22,"O",$M$5:$M$22,B27)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="48">
-        <f t="shared" ref="G27:G31" si="3">G26-F27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="47">
-        <v>4</v>
-      </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="47">
-        <v>5</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="47">
-        <v>6</v>
-      </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="49">
-        <v>7</v>
-      </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:S3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:C12"/>
-  </mergeCells>
-  <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="O">
-      <formula>NOT(ISERROR(SEARCH("O",N1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1 O3:O1048576">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="O">
-      <formula>NOT(ISERROR(SEARCH("O",O1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1 R3:R1048576">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="O">
-      <formula>NOT(ISERROR(SEARCH("O",R1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:Q1 P3:Q1048576">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="O">
-      <formula>NOT(ISERROR(SEARCH("O",P1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1 L3:L1048576">
-    <cfRule type="endsWith" dxfId="8" priority="9" operator="endsWith" text="?">
-      <formula>RIGHT(L1,LEN("?"))="?"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1 J3:J1048576">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="QA">
-      <formula>NOT(ISERROR(SEARCH("QA",J1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="BE">
-      <formula>NOT(ISERROR(SEARCH("BE",J1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="FE">
-      <formula>NOT(ISERROR(SEARCH("FE",J1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1 K3:K1048576">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="TS">
-      <formula>NOT(ISERROR(SEARCH("TS",K1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="DB">
-      <formula>NOT(ISERROR(SEARCH("DB",K1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="ED">
-      <formula>NOT(ISERROR(SEARCH("ED",K1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="PR">
-      <formula>NOT(ISERROR(SEARCH("PR",K1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1 M3:M1048576">
-    <cfRule type="beginsWith" dxfId="0" priority="1" operator="beginsWith" text="?">
-      <formula>LEFT(M1,LEN("?"))="?"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="F26:F31" formula="1"/>
   </ignoredErrors>

--- a/Management/Production_Progress_Oct_2017.xlsx
+++ b/Management/Production_Progress_Oct_2017.xlsx
@@ -11,14 +11,15 @@
     <sheet name="Sprint #1 Chart" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint #2 Chart" sheetId="6" r:id="rId3"/>
     <sheet name="Sprint #3 Chart" sheetId="3" r:id="rId4"/>
-    <sheet name="Sprint Chart Form" sheetId="4" r:id="rId5"/>
+    <sheet name="Sprint #4 Chart" sheetId="8" r:id="rId5"/>
+    <sheet name="Sprint Chart Form" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="303">
   <si>
     <t>Production Name:</t>
   </si>
@@ -909,19 +910,43 @@
   </si>
   <si>
     <t>Brewster</t>
+  </si>
+  <si>
+    <t>Sprint #4 Backlog</t>
+  </si>
+  <si>
+    <t>Sprint #3 Backlog</t>
+  </si>
+  <si>
+    <t>2017OCT26</t>
+  </si>
+  <si>
+    <t>2017OCT27</t>
+  </si>
+  <si>
+    <t>2017NOV02</t>
+  </si>
+  <si>
+    <t>2017NOV03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1531,420 +1556,547 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="70">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2522,6 +2674,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2688,11 +2841,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="622022144"/>
-        <c:axId val="144300800"/>
+        <c:axId val="622414848"/>
+        <c:axId val="145545984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="622022144"/>
+        <c:axId val="622414848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2701,7 +2854,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144300800"/>
+        <c:crossAx val="145545984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2709,7 +2862,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144300800"/>
+        <c:axId val="145545984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2725,13 +2878,14 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="622022144"/>
+        <c:crossAx val="622414848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2948,11 +3102,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="622194176"/>
-        <c:axId val="622068864"/>
+        <c:axId val="622840832"/>
+        <c:axId val="622740608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="622194176"/>
+        <c:axId val="622840832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2961,7 +3115,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="622068864"/>
+        <c:crossAx val="622740608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2969,7 +3123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="622068864"/>
+        <c:axId val="622740608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2980,14 +3134,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="622194176"/>
+        <c:crossAx val="622840832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3204,11 +3357,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154881536"/>
-        <c:axId val="153470656"/>
+        <c:axId val="623119360"/>
+        <c:axId val="622742912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154881536"/>
+        <c:axId val="623119360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3217,7 +3370,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153470656"/>
+        <c:crossAx val="622742912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3225,7 +3378,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153470656"/>
+        <c:axId val="622742912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3236,7 +3389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154881536"/>
+        <c:crossAx val="623119360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3460,11 +3613,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="623001600"/>
-        <c:axId val="622071168"/>
+        <c:axId val="623332352"/>
+        <c:axId val="622745216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="623001600"/>
+        <c:axId val="623332352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3473,7 +3626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="622071168"/>
+        <c:crossAx val="622745216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3481,7 +3634,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="622071168"/>
+        <c:axId val="622745216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3492,7 +3645,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="623001600"/>
+        <c:crossAx val="623332352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3542,6 +3695,262 @@
           </c:tx>
           <c:val>
             <c:numRef>
+              <c:f>'Sprint #4 Chart'!$E$25:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACDF-47F4-A593-ADC89855D2CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual Task Completion</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #4 Chart'!$G$25:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ACDF-47F4-A593-ADC89855D2CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Assigned Tasks</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #4 Chart'!$D$25:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ACDF-47F4-A593-ADC89855D2CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Completed Tasks</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #4 Chart'!$F$25:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ACDF-47F4-A593-ADC89855D2CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="602226176"/>
+        <c:axId val="173808384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="602226176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173808384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="173808384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="602226176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Target Task Completion</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
               <c:f>'Sprint Chart Form'!$E$25:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -3716,11 +4125,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="623005184"/>
-        <c:axId val="622073472"/>
+        <c:axId val="633744896"/>
+        <c:axId val="643891200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="623005184"/>
+        <c:axId val="633744896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3729,7 +4138,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="622073472"/>
+        <c:crossAx val="643891200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3737,7 +4146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="622073472"/>
+        <c:axId val="643891200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3748,13 +4157,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="623005184"/>
+        <c:crossAx val="633744896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3789,7 +4199,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3832,7 +4242,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3873,7 +4283,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3916,7 +4326,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9F86464-62E3-40C4-9822-D864B84BC108}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F86464-62E3-40C4-9822-D864B84BC108}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3959,7 +4369,50 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4272,7 +4725,7 @@
   <dimension ref="B1:O97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4292,79 +4745,79 @@
   <sheetData>
     <row r="1" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="117"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="75"/>
     </row>
     <row r="3" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="122" t="s">
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="124"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="82"/>
     </row>
     <row r="4" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="127" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="75" t="s">
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="77"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="89"/>
     </row>
     <row r="5" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="131" t="s">
+      <c r="C5" s="91"/>
+      <c r="D5" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="132"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="93"/>
       <c r="I5" s="12" t="s">
         <v>69</v>
       </c>
@@ -4388,23 +4841,23 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="74" t="s">
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
       <c r="O6" s="22"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
@@ -4507,14 +4960,14 @@
         <v>40</v>
       </c>
       <c r="H9" s="22"/>
-      <c r="I9" s="133" t="s">
+      <c r="I9" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="114"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="72"/>
       <c r="O9" s="22"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
@@ -4538,13 +4991,13 @@
       <c r="I10" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="112" t="s">
+      <c r="J10" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="114"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="72"/>
       <c r="O10" s="22"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
@@ -4566,13 +5019,13 @@
       <c r="I11" s="13">
         <v>1</v>
       </c>
-      <c r="J11" s="96" t="s">
+      <c r="J11" s="103" t="s">
         <v>177</v>
       </c>
       <c r="K11" s="104"/>
       <c r="L11" s="104"/>
       <c r="M11" s="104"/>
-      <c r="N11" s="97"/>
+      <c r="N11" s="105"/>
       <c r="O11" s="22"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
@@ -4593,14 +5046,14 @@
         <v>40</v>
       </c>
       <c r="H12" s="22"/>
-      <c r="I12" s="70" t="s">
+      <c r="I12" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
       <c r="O12" s="22"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
@@ -4741,58 +5194,58 @@
       <c r="H16" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="70" t="s">
+      <c r="I16" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
       <c r="O16" s="22"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="105"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="96"/>
       <c r="I17" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="71" t="s">
+      <c r="J17" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="107"/>
       <c r="O17" s="22"/>
     </row>
     <row r="18" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="108"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="110"/>
       <c r="I18" s="13">
         <v>1</v>
       </c>
-      <c r="J18" s="69" t="s">
+      <c r="J18" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="111"/>
       <c r="O18" s="22"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
@@ -4820,13 +5273,13 @@
       <c r="I19" s="13">
         <v>2</v>
       </c>
-      <c r="J19" s="69" t="s">
+      <c r="J19" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
       <c r="O19" s="22"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
@@ -4852,14 +5305,14 @@
         <f>SUM(E20:G20)</f>
         <v>1</v>
       </c>
-      <c r="I20" s="72" t="s">
+      <c r="I20" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
       <c r="O20" s="22"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
@@ -4951,13 +5404,13 @@
       </c>
     </row>
     <row r="23" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="109"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="111"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="115"/>
       <c r="I23" s="13">
         <v>3</v>
       </c>
@@ -4981,31 +5434,31 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="72" t="s">
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
       <c r="O24" s="22"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
       <c r="E25" s="11">
         <f>SUM(E28,E31,E34,E37)</f>
         <v>31</v>
@@ -5023,73 +5476,73 @@
       <c r="I25" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="73" t="s">
+      <c r="J25" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
       <c r="O25" s="22"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="98" t="s">
+      <c r="B26" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="100"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="118"/>
       <c r="I26" s="13">
         <v>1</v>
       </c>
-      <c r="J26" s="69" t="s">
+      <c r="J26" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
       <c r="O26" s="22"/>
     </row>
     <row r="27" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="90"/>
-      <c r="E27" s="93" t="s">
+      <c r="D27" s="120"/>
+      <c r="E27" s="121" t="s">
         <v>291</v>
       </c>
-      <c r="F27" s="94"/>
-      <c r="G27" s="93" t="s">
+      <c r="F27" s="122"/>
+      <c r="G27" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="101"/>
+      <c r="H27" s="123"/>
       <c r="I27" s="14">
         <v>2</v>
       </c>
-      <c r="J27" s="67" t="s">
+      <c r="J27" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="124"/>
+      <c r="M27" s="124"/>
+      <c r="N27" s="124"/>
       <c r="O27" s="23"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="90"/>
+      <c r="D28" s="120"/>
       <c r="E28" s="10">
         <v>8</v>
       </c>
@@ -5103,26 +5556,26 @@
       <c r="H28" s="8">
         <v>31</v>
       </c>
-      <c r="I28" s="75" t="s">
+      <c r="I28" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="77"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="89"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
       <c r="I29" s="12" t="s">
         <v>69</v>
       </c>
@@ -5149,36 +5602,36 @@
       <c r="B30" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="96" t="s">
+      <c r="C30" s="103" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="97"/>
-      <c r="E30" s="93" t="s">
+      <c r="D30" s="105"/>
+      <c r="E30" s="121" t="s">
         <v>292</v>
       </c>
-      <c r="F30" s="94"/>
-      <c r="G30" s="93" t="s">
+      <c r="F30" s="122"/>
+      <c r="G30" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="H30" s="95"/>
-      <c r="I30" s="74" t="s">
+      <c r="H30" s="127"/>
+      <c r="I30" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="98"/>
       <c r="O30" s="22"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="96" t="s">
+      <c r="C31" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="D31" s="97"/>
+      <c r="D31" s="105"/>
       <c r="E31" s="10">
         <v>7</v>
       </c>
@@ -5215,15 +5668,15 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
       <c r="I32" s="13">
         <v>2</v>
       </c>
@@ -5250,36 +5703,36 @@
       <c r="B33" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="89" t="s">
+      <c r="C33" s="119" t="s">
         <v>173</v>
       </c>
-      <c r="D33" s="90"/>
-      <c r="E33" s="93" t="s">
+      <c r="D33" s="120"/>
+      <c r="E33" s="121" t="s">
         <v>293</v>
       </c>
-      <c r="F33" s="94"/>
-      <c r="G33" s="93" t="s">
+      <c r="F33" s="122"/>
+      <c r="G33" s="121" t="s">
         <v>169</v>
       </c>
-      <c r="H33" s="95"/>
-      <c r="I33" s="74" t="s">
+      <c r="H33" s="127"/>
+      <c r="I33" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="98"/>
+      <c r="N33" s="98"/>
       <c r="O33" s="22"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="89" t="s">
+      <c r="C34" s="119" t="s">
         <v>174</v>
       </c>
-      <c r="D34" s="90"/>
+      <c r="D34" s="120"/>
       <c r="E34" s="10">
         <v>4</v>
       </c>
@@ -5296,71 +5749,71 @@
       <c r="I34" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J34" s="68" t="s">
+      <c r="J34" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="98"/>
+      <c r="M34" s="98"/>
+      <c r="N34" s="98"/>
       <c r="O34" s="22"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="91" t="s">
+      <c r="B35" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="126"/>
       <c r="I35" s="13">
         <v>1</v>
       </c>
-      <c r="J35" s="69" t="s">
+      <c r="J35" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="69"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="111"/>
+      <c r="N35" s="111"/>
       <c r="O35" s="22"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="89" t="s">
+      <c r="C36" s="119" t="s">
         <v>175</v>
       </c>
-      <c r="D36" s="90"/>
-      <c r="E36" s="93" t="s">
+      <c r="D36" s="120"/>
+      <c r="E36" s="121" t="s">
         <v>294</v>
       </c>
-      <c r="F36" s="94"/>
-      <c r="G36" s="93" t="s">
+      <c r="F36" s="122"/>
+      <c r="G36" s="121" t="s">
         <v>170</v>
       </c>
-      <c r="H36" s="95"/>
-      <c r="I36" s="70" t="s">
+      <c r="H36" s="127"/>
+      <c r="I36" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="107"/>
+      <c r="M36" s="107"/>
+      <c r="N36" s="107"/>
       <c r="O36" s="22"/>
     </row>
     <row r="37" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="128" t="s">
         <v>176</v>
       </c>
-      <c r="D37" s="79"/>
+      <c r="D37" s="129"/>
       <c r="E37" s="21">
         <v>12</v>
       </c>
@@ -5397,15 +5850,15 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="80" t="s">
+      <c r="B38" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="82"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="130"/>
       <c r="I38" s="13">
         <v>2</v>
       </c>
@@ -5429,82 +5882,82 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="70" t="s">
+      <c r="C39" s="132"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="132"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="107"/>
+      <c r="L39" s="107"/>
+      <c r="M39" s="107"/>
+      <c r="N39" s="107"/>
       <c r="O39" s="22"/>
     </row>
     <row r="40" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="86" t="s">
+      <c r="B40" s="134" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="88"/>
+      <c r="C40" s="135"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="135"/>
+      <c r="F40" s="135"/>
+      <c r="G40" s="135"/>
+      <c r="H40" s="136"/>
       <c r="I40" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J40" s="71" t="s">
+      <c r="J40" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="71"/>
+      <c r="K40" s="107"/>
+      <c r="L40" s="107"/>
+      <c r="M40" s="107"/>
+      <c r="N40" s="107"/>
       <c r="O40" s="22"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I41" s="13">
         <v>1</v>
       </c>
-      <c r="J41" s="69" t="s">
+      <c r="J41" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="69"/>
+      <c r="K41" s="111"/>
+      <c r="L41" s="111"/>
+      <c r="M41" s="111"/>
+      <c r="N41" s="111"/>
       <c r="O41" s="22"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I42" s="13">
         <v>2</v>
       </c>
-      <c r="J42" s="69" t="s">
+      <c r="J42" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="K42" s="69"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="69"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="111"/>
+      <c r="M42" s="111"/>
+      <c r="N42" s="111"/>
       <c r="O42" s="22"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I43" s="72" t="s">
+      <c r="I43" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="J43" s="73"/>
-      <c r="K43" s="73"/>
-      <c r="L43" s="73"/>
-      <c r="M43" s="73"/>
-      <c r="N43" s="73"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="102"/>
+      <c r="L43" s="102"/>
+      <c r="M43" s="102"/>
+      <c r="N43" s="102"/>
       <c r="O43" s="22"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
@@ -5577,65 +6030,65 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I47" s="72" t="s">
+      <c r="I47" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="J47" s="73"/>
-      <c r="K47" s="73"/>
-      <c r="L47" s="73"/>
-      <c r="M47" s="73"/>
-      <c r="N47" s="73"/>
+      <c r="J47" s="102"/>
+      <c r="K47" s="102"/>
+      <c r="L47" s="102"/>
+      <c r="M47" s="102"/>
+      <c r="N47" s="102"/>
       <c r="O47" s="22"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I48" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J48" s="73" t="s">
+      <c r="J48" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="K48" s="73"/>
-      <c r="L48" s="73"/>
-      <c r="M48" s="73"/>
-      <c r="N48" s="73"/>
+      <c r="K48" s="102"/>
+      <c r="L48" s="102"/>
+      <c r="M48" s="102"/>
+      <c r="N48" s="102"/>
       <c r="O48" s="22"/>
     </row>
     <row r="49" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I49" s="13">
         <v>1</v>
       </c>
-      <c r="J49" s="69" t="s">
+      <c r="J49" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="K49" s="69"/>
-      <c r="L49" s="69"/>
-      <c r="M49" s="69"/>
-      <c r="N49" s="69"/>
+      <c r="K49" s="111"/>
+      <c r="L49" s="111"/>
+      <c r="M49" s="111"/>
+      <c r="N49" s="111"/>
       <c r="O49" s="22"/>
     </row>
     <row r="50" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I50" s="14">
         <v>2</v>
       </c>
-      <c r="J50" s="67" t="s">
+      <c r="J50" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
+      <c r="K50" s="124"/>
+      <c r="L50" s="124"/>
+      <c r="M50" s="124"/>
+      <c r="N50" s="124"/>
       <c r="O50" s="23"/>
     </row>
     <row r="51" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I51" s="75" t="s">
+      <c r="I51" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="J51" s="76"/>
-      <c r="K51" s="76"/>
-      <c r="L51" s="76"/>
-      <c r="M51" s="76"/>
-      <c r="N51" s="76"/>
-      <c r="O51" s="77"/>
+      <c r="J51" s="88"/>
+      <c r="K51" s="88"/>
+      <c r="L51" s="88"/>
+      <c r="M51" s="88"/>
+      <c r="N51" s="88"/>
+      <c r="O51" s="89"/>
     </row>
     <row r="52" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I52" s="12" t="s">
@@ -5661,14 +6114,14 @@
       </c>
     </row>
     <row r="53" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I53" s="74" t="s">
+      <c r="I53" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="J53" s="68"/>
-      <c r="K53" s="68"/>
-      <c r="L53" s="68"/>
-      <c r="M53" s="68"/>
-      <c r="N53" s="68"/>
+      <c r="J53" s="98"/>
+      <c r="K53" s="98"/>
+      <c r="L53" s="98"/>
+      <c r="M53" s="98"/>
+      <c r="N53" s="98"/>
       <c r="O53" s="26"/>
     </row>
     <row r="54" spans="9:15" x14ac:dyDescent="0.2">
@@ -5695,51 +6148,51 @@
       </c>
     </row>
     <row r="55" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I55" s="74" t="s">
+      <c r="I55" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="J55" s="68"/>
-      <c r="K55" s="68"/>
-      <c r="L55" s="68"/>
-      <c r="M55" s="68"/>
-      <c r="N55" s="68"/>
+      <c r="J55" s="98"/>
+      <c r="K55" s="98"/>
+      <c r="L55" s="98"/>
+      <c r="M55" s="98"/>
+      <c r="N55" s="98"/>
       <c r="O55" s="22"/>
     </row>
     <row r="56" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I56" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J56" s="68" t="s">
+      <c r="J56" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="K56" s="68"/>
-      <c r="L56" s="68"/>
-      <c r="M56" s="68"/>
-      <c r="N56" s="68"/>
+      <c r="K56" s="98"/>
+      <c r="L56" s="98"/>
+      <c r="M56" s="98"/>
+      <c r="N56" s="98"/>
       <c r="O56" s="22"/>
     </row>
     <row r="57" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I57" s="13">
         <v>1</v>
       </c>
-      <c r="J57" s="69" t="s">
+      <c r="J57" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="K57" s="69"/>
-      <c r="L57" s="69"/>
-      <c r="M57" s="69"/>
-      <c r="N57" s="69"/>
+      <c r="K57" s="111"/>
+      <c r="L57" s="111"/>
+      <c r="M57" s="111"/>
+      <c r="N57" s="111"/>
       <c r="O57" s="22"/>
     </row>
     <row r="58" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I58" s="70" t="s">
+      <c r="I58" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="J58" s="71"/>
-      <c r="K58" s="71"/>
-      <c r="L58" s="71"/>
-      <c r="M58" s="71"/>
-      <c r="N58" s="71"/>
+      <c r="J58" s="107"/>
+      <c r="K58" s="107"/>
+      <c r="L58" s="107"/>
+      <c r="M58" s="107"/>
+      <c r="N58" s="107"/>
       <c r="O58" s="22"/>
     </row>
     <row r="59" spans="9:15" x14ac:dyDescent="0.2">
@@ -5766,51 +6219,51 @@
       </c>
     </row>
     <row r="60" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I60" s="70" t="s">
+      <c r="I60" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="J60" s="71"/>
-      <c r="K60" s="71"/>
-      <c r="L60" s="71"/>
-      <c r="M60" s="71"/>
-      <c r="N60" s="71"/>
+      <c r="J60" s="107"/>
+      <c r="K60" s="107"/>
+      <c r="L60" s="107"/>
+      <c r="M60" s="107"/>
+      <c r="N60" s="107"/>
       <c r="O60" s="22"/>
     </row>
     <row r="61" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I61" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J61" s="71" t="s">
+      <c r="J61" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="K61" s="71"/>
-      <c r="L61" s="71"/>
-      <c r="M61" s="71"/>
-      <c r="N61" s="71"/>
+      <c r="K61" s="107"/>
+      <c r="L61" s="107"/>
+      <c r="M61" s="107"/>
+      <c r="N61" s="107"/>
       <c r="O61" s="22"/>
     </row>
     <row r="62" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I62" s="13">
         <v>1</v>
       </c>
-      <c r="J62" s="69" t="s">
+      <c r="J62" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="K62" s="69"/>
-      <c r="L62" s="69"/>
-      <c r="M62" s="69"/>
-      <c r="N62" s="69"/>
+      <c r="K62" s="111"/>
+      <c r="L62" s="111"/>
+      <c r="M62" s="111"/>
+      <c r="N62" s="111"/>
       <c r="O62" s="22"/>
     </row>
     <row r="63" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I63" s="72" t="s">
+      <c r="I63" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="J63" s="73"/>
-      <c r="K63" s="73"/>
-      <c r="L63" s="73"/>
-      <c r="M63" s="73"/>
-      <c r="N63" s="73"/>
+      <c r="J63" s="102"/>
+      <c r="K63" s="102"/>
+      <c r="L63" s="102"/>
+      <c r="M63" s="102"/>
+      <c r="N63" s="102"/>
       <c r="O63" s="22"/>
     </row>
     <row r="64" spans="9:15" x14ac:dyDescent="0.2">
@@ -5860,65 +6313,65 @@
       </c>
     </row>
     <row r="66" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I66" s="72" t="s">
+      <c r="I66" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="J66" s="73"/>
-      <c r="K66" s="73"/>
-      <c r="L66" s="73"/>
-      <c r="M66" s="73"/>
-      <c r="N66" s="73"/>
+      <c r="J66" s="102"/>
+      <c r="K66" s="102"/>
+      <c r="L66" s="102"/>
+      <c r="M66" s="102"/>
+      <c r="N66" s="102"/>
       <c r="O66" s="22"/>
     </row>
     <row r="67" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I67" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J67" s="73" t="s">
+      <c r="J67" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="K67" s="73"/>
-      <c r="L67" s="73"/>
-      <c r="M67" s="73"/>
-      <c r="N67" s="73"/>
+      <c r="K67" s="102"/>
+      <c r="L67" s="102"/>
+      <c r="M67" s="102"/>
+      <c r="N67" s="102"/>
       <c r="O67" s="22"/>
     </row>
     <row r="68" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I68" s="13">
         <v>1</v>
       </c>
-      <c r="J68" s="69" t="s">
+      <c r="J68" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="K68" s="69"/>
-      <c r="L68" s="69"/>
-      <c r="M68" s="69"/>
-      <c r="N68" s="69"/>
+      <c r="K68" s="111"/>
+      <c r="L68" s="111"/>
+      <c r="M68" s="111"/>
+      <c r="N68" s="111"/>
       <c r="O68" s="22"/>
     </row>
     <row r="69" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I69" s="14">
         <v>2</v>
       </c>
-      <c r="J69" s="67" t="s">
+      <c r="J69" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="K69" s="67"/>
-      <c r="L69" s="67"/>
-      <c r="M69" s="67"/>
-      <c r="N69" s="67"/>
+      <c r="K69" s="124"/>
+      <c r="L69" s="124"/>
+      <c r="M69" s="124"/>
+      <c r="N69" s="124"/>
       <c r="O69" s="23"/>
     </row>
     <row r="70" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I70" s="75" t="s">
+      <c r="I70" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="J70" s="76"/>
-      <c r="K70" s="76"/>
-      <c r="L70" s="76"/>
-      <c r="M70" s="76"/>
-      <c r="N70" s="76"/>
-      <c r="O70" s="77"/>
+      <c r="J70" s="88"/>
+      <c r="K70" s="88"/>
+      <c r="L70" s="88"/>
+      <c r="M70" s="88"/>
+      <c r="N70" s="88"/>
+      <c r="O70" s="89"/>
     </row>
     <row r="71" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I71" s="12" t="s">
@@ -5944,14 +6397,14 @@
       </c>
     </row>
     <row r="72" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I72" s="74" t="s">
+      <c r="I72" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="J72" s="68"/>
-      <c r="K72" s="68"/>
-      <c r="L72" s="68"/>
-      <c r="M72" s="68"/>
-      <c r="N72" s="68"/>
+      <c r="J72" s="98"/>
+      <c r="K72" s="98"/>
+      <c r="L72" s="98"/>
+      <c r="M72" s="98"/>
+      <c r="N72" s="98"/>
       <c r="O72" s="22"/>
     </row>
     <row r="73" spans="9:15" x14ac:dyDescent="0.2">
@@ -6022,51 +6475,51 @@
       </c>
     </row>
     <row r="76" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I76" s="74" t="s">
+      <c r="I76" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="J76" s="68"/>
-      <c r="K76" s="68"/>
-      <c r="L76" s="68"/>
-      <c r="M76" s="68"/>
-      <c r="N76" s="68"/>
+      <c r="J76" s="98"/>
+      <c r="K76" s="98"/>
+      <c r="L76" s="98"/>
+      <c r="M76" s="98"/>
+      <c r="N76" s="98"/>
       <c r="O76" s="22"/>
     </row>
     <row r="77" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I77" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J77" s="68" t="s">
+      <c r="J77" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="K77" s="68"/>
-      <c r="L77" s="68"/>
-      <c r="M77" s="68"/>
-      <c r="N77" s="68"/>
+      <c r="K77" s="98"/>
+      <c r="L77" s="98"/>
+      <c r="M77" s="98"/>
+      <c r="N77" s="98"/>
       <c r="O77" s="22"/>
     </row>
     <row r="78" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I78" s="13">
         <v>1</v>
       </c>
-      <c r="J78" s="69" t="s">
+      <c r="J78" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="K78" s="69"/>
-      <c r="L78" s="69"/>
-      <c r="M78" s="69"/>
-      <c r="N78" s="69"/>
+      <c r="K78" s="111"/>
+      <c r="L78" s="111"/>
+      <c r="M78" s="111"/>
+      <c r="N78" s="111"/>
       <c r="O78" s="22"/>
     </row>
     <row r="79" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I79" s="70" t="s">
+      <c r="I79" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="J79" s="71"/>
-      <c r="K79" s="71"/>
-      <c r="L79" s="71"/>
-      <c r="M79" s="71"/>
-      <c r="N79" s="71"/>
+      <c r="J79" s="107"/>
+      <c r="K79" s="107"/>
+      <c r="L79" s="107"/>
+      <c r="M79" s="107"/>
+      <c r="N79" s="107"/>
       <c r="O79" s="22"/>
     </row>
     <row r="80" spans="9:15" x14ac:dyDescent="0.2">
@@ -6116,64 +6569,64 @@
       </c>
     </row>
     <row r="82" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I82" s="70" t="s">
+      <c r="I82" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="J82" s="71"/>
-      <c r="K82" s="71"/>
-      <c r="L82" s="71"/>
-      <c r="M82" s="71"/>
-      <c r="N82" s="71"/>
+      <c r="J82" s="107"/>
+      <c r="K82" s="107"/>
+      <c r="L82" s="107"/>
+      <c r="M82" s="107"/>
+      <c r="N82" s="107"/>
       <c r="O82" s="22"/>
     </row>
     <row r="83" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I83" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J83" s="71" t="s">
+      <c r="J83" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="K83" s="71"/>
-      <c r="L83" s="71"/>
-      <c r="M83" s="71"/>
-      <c r="N83" s="71"/>
+      <c r="K83" s="107"/>
+      <c r="L83" s="107"/>
+      <c r="M83" s="107"/>
+      <c r="N83" s="107"/>
       <c r="O83" s="22"/>
     </row>
     <row r="84" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I84" s="13">
         <v>1</v>
       </c>
-      <c r="J84" s="69" t="s">
+      <c r="J84" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="K84" s="69"/>
-      <c r="L84" s="69"/>
-      <c r="M84" s="69"/>
-      <c r="N84" s="69"/>
+      <c r="K84" s="111"/>
+      <c r="L84" s="111"/>
+      <c r="M84" s="111"/>
+      <c r="N84" s="111"/>
       <c r="O84" s="22"/>
     </row>
     <row r="85" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I85" s="13">
         <v>2</v>
       </c>
-      <c r="J85" s="69" t="s">
+      <c r="J85" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="K85" s="69"/>
-      <c r="L85" s="69"/>
-      <c r="M85" s="69"/>
-      <c r="N85" s="69"/>
+      <c r="K85" s="111"/>
+      <c r="L85" s="111"/>
+      <c r="M85" s="111"/>
+      <c r="N85" s="111"/>
       <c r="O85" s="22"/>
     </row>
     <row r="86" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I86" s="72" t="s">
+      <c r="I86" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="J86" s="73"/>
-      <c r="K86" s="73"/>
-      <c r="L86" s="73"/>
-      <c r="M86" s="73"/>
-      <c r="N86" s="73"/>
+      <c r="J86" s="102"/>
+      <c r="K86" s="102"/>
+      <c r="L86" s="102"/>
+      <c r="M86" s="102"/>
+      <c r="N86" s="102"/>
       <c r="O86" s="22"/>
     </row>
     <row r="87" spans="9:15" x14ac:dyDescent="0.2">
@@ -6334,70 +6787,126 @@
       </c>
     </row>
     <row r="94" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I94" s="72" t="s">
+      <c r="I94" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="J94" s="73"/>
-      <c r="K94" s="73"/>
-      <c r="L94" s="73"/>
-      <c r="M94" s="73"/>
-      <c r="N94" s="73"/>
+      <c r="J94" s="102"/>
+      <c r="K94" s="102"/>
+      <c r="L94" s="102"/>
+      <c r="M94" s="102"/>
+      <c r="N94" s="102"/>
       <c r="O94" s="22"/>
     </row>
     <row r="95" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I95" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J95" s="73" t="s">
+      <c r="J95" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="K95" s="73"/>
-      <c r="L95" s="73"/>
-      <c r="M95" s="73"/>
-      <c r="N95" s="73"/>
+      <c r="K95" s="102"/>
+      <c r="L95" s="102"/>
+      <c r="M95" s="102"/>
+      <c r="N95" s="102"/>
       <c r="O95" s="22"/>
     </row>
     <row r="96" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I96" s="13">
         <v>1</v>
       </c>
-      <c r="J96" s="69" t="s">
+      <c r="J96" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="K96" s="69"/>
-      <c r="L96" s="69"/>
-      <c r="M96" s="69"/>
-      <c r="N96" s="69"/>
+      <c r="K96" s="111"/>
+      <c r="L96" s="111"/>
+      <c r="M96" s="111"/>
+      <c r="N96" s="111"/>
       <c r="O96" s="22"/>
     </row>
     <row r="97" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I97" s="14">
         <v>2</v>
       </c>
-      <c r="J97" s="67" t="s">
+      <c r="J97" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="K97" s="67"/>
-      <c r="L97" s="67"/>
-      <c r="M97" s="67"/>
-      <c r="N97" s="67"/>
+      <c r="K97" s="124"/>
+      <c r="L97" s="124"/>
+      <c r="M97" s="124"/>
+      <c r="N97" s="124"/>
       <c r="O97" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="I79:N79"/>
+    <mergeCell ref="I82:N82"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="I86:N86"/>
+    <mergeCell ref="I94:N94"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="I76:N76"/>
+    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="I60:N60"/>
+    <mergeCell ref="J61:N61"/>
+    <mergeCell ref="J62:N62"/>
+    <mergeCell ref="I63:N63"/>
+    <mergeCell ref="I66:N66"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="J69:N69"/>
+    <mergeCell ref="I70:O70"/>
+    <mergeCell ref="I72:N72"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="J49:N49"/>
+    <mergeCell ref="J50:N50"/>
+    <mergeCell ref="I51:O51"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="J56:N56"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:O28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="J27:N27"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="J25:N25"/>
     <mergeCell ref="J11:N11"/>
@@ -6412,92 +6921,36 @@
     <mergeCell ref="B23:H23"/>
     <mergeCell ref="B24:H24"/>
     <mergeCell ref="I24:N24"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:O28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="J48:N48"/>
-    <mergeCell ref="J49:N49"/>
-    <mergeCell ref="J50:N50"/>
-    <mergeCell ref="I51:O51"/>
-    <mergeCell ref="I53:N53"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="J56:N56"/>
-    <mergeCell ref="I76:N76"/>
-    <mergeCell ref="I58:N58"/>
-    <mergeCell ref="I60:N60"/>
-    <mergeCell ref="J61:N61"/>
-    <mergeCell ref="J62:N62"/>
-    <mergeCell ref="I63:N63"/>
-    <mergeCell ref="I66:N66"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="J68:N68"/>
-    <mergeCell ref="J69:N69"/>
-    <mergeCell ref="I70:O70"/>
-    <mergeCell ref="I72:N72"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="J77:N77"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="I79:N79"/>
-    <mergeCell ref="I82:N82"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="I86:N86"/>
-    <mergeCell ref="I94:N94"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J96:N96"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="I9:N9"/>
   </mergeCells>
   <conditionalFormatting sqref="H20:H22">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="1" operator="between">
       <formula>1</formula>
       <formula>0.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="2" operator="greaterThan">
       <formula>100%</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="3" operator="lessThan">
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="4" operator="between">
       <formula>0.89</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="65" priority="5" operator="greaterThanOrEqual">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6532,51 +6985,51 @@
   <sheetData>
     <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="137" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="136"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="139"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="75" t="s">
+      <c r="C3" s="140"/>
+      <c r="D3" s="87" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
-      <c r="H3" s="75" t="s">
+      <c r="E3" s="88"/>
+      <c r="F3" s="89"/>
+      <c r="H3" s="87" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="77"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="89"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -6668,16 +7121,16 @@
       <c r="N5" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O5" s="138" t="s">
+      <c r="O5" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="P5" s="138" t="s">
+      <c r="P5" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="Q5" s="138" t="s">
+      <c r="Q5" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="R5" s="138" t="s">
+      <c r="R5" s="67" t="s">
         <v>229</v>
       </c>
       <c r="S5" s="43" t="s">
@@ -6721,16 +7174,16 @@
       <c r="N6" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O6" s="138" t="s">
+      <c r="O6" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="P6" s="138" t="s">
+      <c r="P6" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="Q6" s="138" t="s">
+      <c r="Q6" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="R6" s="138" t="s">
+      <c r="R6" s="67" t="s">
         <v>229</v>
       </c>
       <c r="S6" s="43" t="s">
@@ -6774,16 +7227,16 @@
       <c r="N7" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O7" s="138" t="s">
+      <c r="O7" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="P7" s="138" t="s">
+      <c r="P7" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="Q7" s="138" t="s">
+      <c r="Q7" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="R7" s="138" t="s">
+      <c r="R7" s="67" t="s">
         <v>229</v>
       </c>
       <c r="S7" s="43" t="s">
@@ -6791,10 +7244,10 @@
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="87" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="137"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="47" t="s">
         <v>16</v>
       </c>
@@ -6878,16 +7331,16 @@
       <c r="N9" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O9" s="138" t="s">
+      <c r="O9" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="P9" s="138" t="s">
+      <c r="P9" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="Q9" s="138" t="s">
+      <c r="Q9" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="R9" s="138" t="s">
+      <c r="R9" s="67" t="s">
         <v>229</v>
       </c>
       <c r="S9" s="43" t="s">
@@ -6931,16 +7384,16 @@
       <c r="N10" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O10" s="138" t="s">
+      <c r="O10" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="P10" s="138" t="s">
+      <c r="P10" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="Q10" s="138" t="s">
+      <c r="Q10" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="R10" s="138" t="s">
+      <c r="R10" s="67" t="s">
         <v>229</v>
       </c>
       <c r="S10" s="43" t="s">
@@ -6993,10 +7446,10 @@
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="87" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="77"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="41" t="s">
         <v>24</v>
       </c>
@@ -7027,7 +7480,7 @@
       <c r="N12" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O12" s="138" t="s">
+      <c r="O12" s="67" t="s">
         <v>229</v>
       </c>
       <c r="P12" s="40"/>
@@ -7146,7 +7599,7 @@
       <c r="N15" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O15" s="138" t="s">
+      <c r="O15" s="67" t="s">
         <v>229</v>
       </c>
       <c r="P15" s="30"/>
@@ -7237,10 +7690,10 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="77"/>
+      <c r="C18" s="89"/>
       <c r="H18" s="47" t="s">
         <v>259</v>
       </c>
@@ -7415,14 +7868,14 @@
       <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="87" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="77"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="89"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
@@ -7617,12 +8070,1182 @@
     <mergeCell ref="D3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="containsText" dxfId="51" priority="15" operator="containsText" text="O">
+    <cfRule type="containsText" dxfId="64" priority="15" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1 O3:O1048576">
-    <cfRule type="containsText" dxfId="50" priority="14" operator="containsText" text="O">
+    <cfRule type="containsText" dxfId="63" priority="14" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",O1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1 R3:R1048576">
+    <cfRule type="containsText" dxfId="62" priority="11" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",R1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:Q1 P3:Q1048576">
+    <cfRule type="containsText" dxfId="61" priority="10" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",P1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1 L3:L1048576">
+    <cfRule type="endsWith" dxfId="60" priority="9" operator="endsWith" text="?">
+      <formula>RIGHT(L1,LEN("?"))="?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1 J3:J1048576">
+    <cfRule type="containsText" dxfId="59" priority="6" operator="containsText" text="QA">
+      <formula>NOT(ISERROR(SEARCH("QA",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="7" operator="containsText" text="BE">
+      <formula>NOT(ISERROR(SEARCH("BE",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="8" operator="containsText" text="FE">
+      <formula>NOT(ISERROR(SEARCH("FE",J1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1 K3:K1048576">
+    <cfRule type="containsText" dxfId="56" priority="2" operator="containsText" text="TS">
+      <formula>NOT(ISERROR(SEARCH("TS",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="DB">
+      <formula>NOT(ISERROR(SEARCH("DB",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="4" operator="containsText" text="ED">
+      <formula>NOT(ISERROR(SEARCH("ED",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="PR">
+      <formula>NOT(ISERROR(SEARCH("PR",K1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1 M3:M1048576">
+    <cfRule type="beginsWith" dxfId="52" priority="1" operator="beginsWith" text="?">
+      <formula>LEFT(M1,LEN("?"))="?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:S31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="28" customWidth="1"/>
+    <col min="2" max="7" width="15.7109375" style="28" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="5.28515625" style="29" customWidth="1"/>
+    <col min="19" max="19" width="63.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="1.7109375" style="28" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="137" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="139"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="140"/>
+      <c r="D3" s="87" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="88"/>
+      <c r="F3" s="89"/>
+      <c r="H3" s="87" t="s">
+        <v>218</v>
+      </c>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="89"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="55">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="30">
+        <v>4</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O5" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="P5" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q5" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="R5" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="S5" s="43" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="30">
+        <v>2</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O6" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="P6" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q6" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="S6" s="43" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="30">
+        <v>4</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O7" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="P7" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q7" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="S7" s="43" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="87" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="140"/>
+      <c r="D8" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="30">
+        <v>2</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O8" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q8" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="R8" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="S8" s="43" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="30">
+        <v>4</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O9" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="P9" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q9" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="R9" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="S9" s="43" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="30">
+        <v>4</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O10" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="P10" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q10" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="R10" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="S10" s="43" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="L11" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="30">
+        <v>4</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O11" s="30"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="43" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="89"/>
+      <c r="D12" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="30">
+        <v>4</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O12" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="43" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="L13" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="30">
+        <v>4</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="43" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L14" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="30">
+        <v>2</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O14" s="40"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="43" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="30">
+        <v>2</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O15" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="43" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="30">
+        <v>3</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="43" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="H17" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="L17" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="30">
+        <v>2</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O17" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="P17" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q17" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="R17" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="S17" s="43" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="89"/>
+      <c r="H18" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="30">
+        <v>5</v>
+      </c>
+      <c r="N18" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O18" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="P18" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q18" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="R18" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="S18" s="43" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="L19" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="30">
+        <v>7</v>
+      </c>
+      <c r="N19" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O19" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="R19" s="40"/>
+      <c r="S19" s="43" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="L20" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="30">
+        <v>7</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="43" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="L21" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="30">
+        <v>7</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="R21" s="40"/>
+      <c r="S21" s="43" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="49"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="46"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="87" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="89"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="47">
+        <v>1</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="30">
+        <f>COUNTIF($M$5:$M$21,B25)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="30">
+        <f>COUNTA(H5:H21)-D25</f>
+        <v>17</v>
+      </c>
+      <c r="F25" s="30">
+        <v>8</v>
+      </c>
+      <c r="G25" s="48">
+        <f>COUNTA(H5:H21)-F25</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="47">
+        <v>2</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="D26" s="30">
+        <f t="shared" ref="D26:D31" si="0">COUNTIF($M$5:$M$21,B26)</f>
+        <v>5</v>
+      </c>
+      <c r="E26" s="30">
+        <f>E25-D26</f>
+        <v>12</v>
+      </c>
+      <c r="F26" s="30">
+        <v>0</v>
+      </c>
+      <c r="G26" s="48">
+        <f>G25-F26</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="47">
+        <v>3</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>273</v>
+      </c>
+      <c r="D27" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E27" s="30">
+        <f t="shared" ref="E27:E31" si="1">E26-D27</f>
+        <v>11</v>
+      </c>
+      <c r="F27" s="30">
+        <v>0</v>
+      </c>
+      <c r="G27" s="48">
+        <f t="shared" ref="G27:G31" si="2">G26-F27</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="47">
+        <v>4</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>274</v>
+      </c>
+      <c r="D28" s="30">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E28" s="30">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F28" s="30">
+        <v>0</v>
+      </c>
+      <c r="G28" s="48">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="47">
+        <v>5</v>
+      </c>
+      <c r="C29" s="67" t="s">
+        <v>275</v>
+      </c>
+      <c r="D29" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="30">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F29" s="30">
+        <v>0</v>
+      </c>
+      <c r="G29" s="48">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="47">
+        <v>6</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="D30" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="30">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F30" s="30">
+        <v>0</v>
+      </c>
+      <c r="G30" s="48">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="49">
+        <v>7</v>
+      </c>
+      <c r="C31" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="D31" s="50">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E31" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="50">
+        <v>0</v>
+      </c>
+      <c r="G31" s="51">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:S3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N1 N3:N1048576">
+    <cfRule type="containsText" dxfId="51" priority="13" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",N1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1 O3:O1048576">
+    <cfRule type="containsText" dxfId="50" priority="12" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7677,12 +9300,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7702,58 +9325,58 @@
   <sheetData>
     <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="134" t="s">
-        <v>269</v>
-      </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="136"/>
+      <c r="B2" s="137" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="139"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="75" t="s">
+      <c r="C3" s="140"/>
+      <c r="D3" s="87" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
-      <c r="H3" s="75" t="s">
+      <c r="E3" s="88"/>
+      <c r="F3" s="89"/>
+      <c r="H3" s="87" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="77"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="89"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
         <v>180</v>
       </c>
       <c r="C4" s="55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>7</v>
@@ -7805,8 +9428,8 @@
       <c r="B5" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="139" t="s">
-        <v>204</v>
+      <c r="C5" s="141" t="s">
+        <v>271</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>10</v>
@@ -7818,48 +9441,40 @@
         <v>28</v>
       </c>
       <c r="H5" s="47" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>35</v>
+        <v>245</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>232</v>
       </c>
       <c r="M5" s="30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N5" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O5" s="138" t="s">
-        <v>229</v>
-      </c>
-      <c r="P5" s="138" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q5" s="138" t="s">
-        <v>229</v>
-      </c>
-      <c r="R5" s="138" t="s">
-        <v>229</v>
-      </c>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
       <c r="S5" s="43" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="139" t="s">
-        <v>270</v>
+      <c r="C6" s="141" t="s">
+        <v>299</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>12</v>
@@ -7871,19 +9486,19 @@
         <v>29</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>33</v>
+        <v>245</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>232</v>
       </c>
       <c r="M6" s="30">
         <v>2</v>
@@ -7891,20 +9506,12 @@
       <c r="N6" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O6" s="138" t="s">
-        <v>229</v>
-      </c>
-      <c r="P6" s="138" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q6" s="138" t="s">
-        <v>229</v>
-      </c>
-      <c r="R6" s="138" t="s">
-        <v>229</v>
-      </c>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
       <c r="S6" s="43" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7912,7 +9519,7 @@
         <v>181</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>14</v>
@@ -7924,47 +9531,39 @@
         <v>30</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K7" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="L7" s="40" t="s">
-        <v>35</v>
+      <c r="L7" s="30" t="s">
+        <v>232</v>
       </c>
       <c r="M7" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O7" s="138" t="s">
-        <v>229</v>
-      </c>
-      <c r="P7" s="138" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q7" s="138" t="s">
-        <v>229</v>
-      </c>
-      <c r="R7" s="138" t="s">
-        <v>229</v>
-      </c>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
       <c r="S7" s="43" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="87" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="137"/>
+      <c r="C8" s="89"/>
       <c r="D8" s="47" t="s">
         <v>16</v>
       </c>
@@ -7975,47 +9574,39 @@
         <v>31</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>36</v>
+        <v>245</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>232</v>
       </c>
       <c r="M8" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N8" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O8" s="66" t="s">
-        <v>229</v>
-      </c>
-      <c r="P8" s="66" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q8" s="66" t="s">
-        <v>229</v>
-      </c>
-      <c r="R8" s="66" t="s">
-        <v>229</v>
-      </c>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
       <c r="S8" s="43" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="43" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="47" t="s">
@@ -8031,7 +9622,7 @@
         <v>240</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J9" s="30" t="s">
         <v>54</v>
@@ -8039,36 +9630,28 @@
       <c r="K9" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="L9" s="40" t="s">
-        <v>30</v>
+      <c r="L9" s="30" t="s">
+        <v>232</v>
       </c>
       <c r="M9" s="30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N9" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O9" s="138" t="s">
-        <v>229</v>
-      </c>
-      <c r="P9" s="138" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q9" s="138" t="s">
-        <v>229</v>
-      </c>
-      <c r="R9" s="138" t="s">
-        <v>229</v>
-      </c>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
       <c r="S9" s="43" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="43" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="47" t="s">
@@ -8084,7 +9667,7 @@
         <v>243</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J10" s="30" t="s">
         <v>54</v>
@@ -8092,36 +9675,28 @@
       <c r="K10" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="L10" s="40" t="s">
-        <v>30</v>
+      <c r="L10" s="30" t="s">
+        <v>232</v>
       </c>
       <c r="M10" s="30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O10" s="138" t="s">
-        <v>229</v>
-      </c>
-      <c r="P10" s="138" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q10" s="138" t="s">
-        <v>229</v>
-      </c>
-      <c r="R10" s="138" t="s">
-        <v>229</v>
-      </c>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
       <c r="S10" s="43" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="46" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="47" t="s">
@@ -8134,39 +9709,39 @@
         <v>34</v>
       </c>
       <c r="H11" s="47" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K11" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="L11" s="138" t="s">
-        <v>36</v>
+      <c r="L11" s="30" t="s">
+        <v>232</v>
       </c>
       <c r="M11" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" s="30" t="s">
         <v>229</v>
       </c>
       <c r="O11" s="30"/>
-      <c r="P11" s="40"/>
+      <c r="P11" s="30"/>
       <c r="Q11" s="30"/>
       <c r="R11" s="30"/>
       <c r="S11" s="43" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="87" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="77"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="41" t="s">
         <v>24</v>
       </c>
@@ -8177,34 +9752,36 @@
         <v>35</v>
       </c>
       <c r="H12" s="47" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K12" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="L12" s="40" t="s">
-        <v>34</v>
+        <v>262</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>232</v>
       </c>
       <c r="M12" s="30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N12" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O12" s="138" t="s">
-        <v>229</v>
-      </c>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
+      <c r="O12" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30" t="s">
+        <v>83</v>
+      </c>
       <c r="R12" s="30"/>
       <c r="S12" s="43" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8224,22 +9801,22 @@
         <v>36</v>
       </c>
       <c r="H13" s="47" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K13" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="L13" s="138" t="s">
-        <v>36</v>
+        <v>263</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>232</v>
       </c>
       <c r="M13" s="30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N13" s="30" t="s">
         <v>229</v>
@@ -8249,7 +9826,7 @@
       <c r="Q13" s="30"/>
       <c r="R13" s="30"/>
       <c r="S13" s="43" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
@@ -8260,32 +9837,36 @@
         <v>197</v>
       </c>
       <c r="H14" s="47" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="L14" s="138" t="s">
-        <v>36</v>
+        <v>262</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>232</v>
       </c>
       <c r="M14" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O14" s="40"/>
+      <c r="O14" s="30" t="s">
+        <v>83</v>
+      </c>
       <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="40"/>
+      <c r="Q14" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="R14" s="30"/>
       <c r="S14" s="43" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
@@ -8296,34 +9877,32 @@
         <v>47</v>
       </c>
       <c r="H15" s="47" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="L15" s="40" t="s">
-        <v>28</v>
+        <v>263</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>232</v>
       </c>
       <c r="M15" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N15" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O15" s="138" t="s">
-        <v>229</v>
-      </c>
+      <c r="O15" s="30"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
       <c r="R15" s="30"/>
       <c r="S15" s="43" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
@@ -8334,32 +9913,36 @@
         <v>198</v>
       </c>
       <c r="H16" s="47" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="L16" s="40" t="s">
-        <v>36</v>
+        <v>262</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>232</v>
       </c>
       <c r="M16" s="30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O16" s="30"/>
+      <c r="O16" s="30" t="s">
+        <v>83</v>
+      </c>
       <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
+      <c r="Q16" s="30" t="s">
+        <v>83</v>
+      </c>
       <c r="R16" s="30"/>
       <c r="S16" s="43" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8373,80 +9956,48 @@
         <v>257</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="J17" s="30" t="s">
         <v>56</v>
       </c>
       <c r="K17" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="L17" s="40" t="s">
-        <v>36</v>
+        <v>263</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>232</v>
       </c>
       <c r="M17" s="30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N17" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O17" s="64" t="s">
-        <v>229</v>
-      </c>
-      <c r="P17" s="65" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q17" s="65" t="s">
-        <v>229</v>
-      </c>
-      <c r="R17" s="65" t="s">
-        <v>229</v>
-      </c>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
       <c r="S17" s="43" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="H18" s="47" t="s">
-        <v>259</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="L18" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="M18" s="30">
-        <v>5</v>
-      </c>
-      <c r="N18" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="O18" s="64" t="s">
-        <v>229</v>
-      </c>
-      <c r="P18" s="65" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q18" s="65" t="s">
-        <v>229</v>
-      </c>
-      <c r="R18" s="65" t="s">
-        <v>229</v>
-      </c>
-      <c r="S18" s="43" t="s">
-        <v>260</v>
-      </c>
+      <c r="C18" s="89"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="43"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="42" t="s">
@@ -8455,38 +10006,18 @@
       <c r="C19" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="L19" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="M19" s="30">
-        <v>7</v>
-      </c>
-      <c r="N19" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="O19" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="R19" s="40"/>
-      <c r="S19" s="43" t="s">
-        <v>265</v>
-      </c>
+      <c r="H19" s="47"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="43"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="42" t="s">
@@ -8495,34 +10026,18 @@
       <c r="C20" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="47" t="s">
-        <v>266</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="L20" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20" s="30">
-        <v>7</v>
-      </c>
-      <c r="N20" s="30" t="s">
-        <v>229</v>
-      </c>
+      <c r="H20" s="47"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="30"/>
       <c r="R20" s="30"/>
-      <c r="S20" s="43" t="s">
-        <v>264</v>
-      </c>
+      <c r="S20" s="43"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="42" t="s">
@@ -8531,38 +10046,18 @@
       <c r="C21" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="47" t="s">
-        <v>267</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="K21" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="L21" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="M21" s="30">
-        <v>7</v>
-      </c>
-      <c r="N21" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="O21" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="R21" s="40"/>
-      <c r="S21" s="43" t="s">
-        <v>268</v>
-      </c>
+      <c r="H21" s="47"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="43"/>
     </row>
     <row r="22" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="53" t="s">
@@ -8585,1056 +10080,14 @@
       <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="87" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="77"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>211</v>
-      </c>
-    </row>
-  